--- a/AAII_Financials/Yearly/TTDKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TTDKY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>TTDKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43555</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42825</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42460</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42094</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41729</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41364</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40999</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12560600</v>
+        <v>12662600</v>
       </c>
       <c r="E8" s="3">
-        <v>11560200</v>
+        <v>12837000</v>
       </c>
       <c r="F8" s="3">
-        <v>10710400</v>
+        <v>11814500</v>
       </c>
       <c r="G8" s="3">
-        <v>10474000</v>
+        <v>10946000</v>
       </c>
       <c r="H8" s="3">
-        <v>9840500</v>
+        <v>10704400</v>
       </c>
       <c r="I8" s="3">
-        <v>8949300</v>
+        <v>10057000</v>
       </c>
       <c r="J8" s="3">
+        <v>9146200</v>
+      </c>
+      <c r="K8" s="3">
         <v>7740800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7363100</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8956600</v>
+        <v>8915700</v>
       </c>
       <c r="E9" s="3">
-        <v>8440300</v>
+        <v>9153600</v>
       </c>
       <c r="F9" s="3">
-        <v>7780600</v>
+        <v>8626000</v>
       </c>
       <c r="G9" s="3">
-        <v>7554900</v>
+        <v>7951800</v>
       </c>
       <c r="H9" s="3">
-        <v>7292200</v>
+        <v>7721100</v>
       </c>
       <c r="I9" s="3">
-        <v>6940900</v>
+        <v>7452700</v>
       </c>
       <c r="J9" s="3">
+        <v>7093600</v>
+      </c>
+      <c r="K9" s="3">
         <v>6145600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5733700</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3604000</v>
+        <v>3746900</v>
       </c>
       <c r="E10" s="3">
-        <v>3119900</v>
+        <v>3683300</v>
       </c>
       <c r="F10" s="3">
-        <v>2929800</v>
+        <v>3188500</v>
       </c>
       <c r="G10" s="3">
-        <v>2919100</v>
+        <v>2994300</v>
       </c>
       <c r="H10" s="3">
-        <v>2548200</v>
+        <v>2983300</v>
       </c>
       <c r="I10" s="3">
-        <v>2008500</v>
+        <v>2604300</v>
       </c>
       <c r="J10" s="3">
+        <v>2052700</v>
+      </c>
+      <c r="K10" s="3">
         <v>1595300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1629400</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,9 +887,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,11 +918,14 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-60900</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -931,9 +953,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11580500</v>
+        <v>11753400</v>
       </c>
       <c r="E17" s="3">
-        <v>10744900</v>
+        <v>11835300</v>
       </c>
       <c r="F17" s="3">
-        <v>8813600</v>
+        <v>10981300</v>
       </c>
       <c r="G17" s="3">
-        <v>9624900</v>
+        <v>9007600</v>
       </c>
       <c r="H17" s="3">
-        <v>9181800</v>
+        <v>9836600</v>
       </c>
       <c r="I17" s="3">
-        <v>8616500</v>
+        <v>9383800</v>
       </c>
       <c r="J17" s="3">
+        <v>8806100</v>
+      </c>
+      <c r="K17" s="3">
         <v>7544000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7194100</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>980100</v>
+        <v>909200</v>
       </c>
       <c r="E18" s="3">
-        <v>815300</v>
+        <v>1001700</v>
       </c>
       <c r="F18" s="3">
-        <v>1896700</v>
+        <v>833200</v>
       </c>
       <c r="G18" s="3">
-        <v>849100</v>
+        <v>1938500</v>
       </c>
       <c r="H18" s="3">
-        <v>658700</v>
+        <v>867800</v>
       </c>
       <c r="I18" s="3">
-        <v>332800</v>
+        <v>673100</v>
       </c>
       <c r="J18" s="3">
+        <v>340200</v>
+      </c>
+      <c r="K18" s="3">
         <v>196800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>168900</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>108000</v>
+        <v>15600</v>
       </c>
       <c r="E20" s="3">
-        <v>41600</v>
+        <v>110400</v>
       </c>
       <c r="F20" s="3">
-        <v>58900</v>
+        <v>42500</v>
       </c>
       <c r="G20" s="3">
-        <v>14000</v>
+        <v>60200</v>
       </c>
       <c r="H20" s="3">
-        <v>45900</v>
+        <v>14300</v>
       </c>
       <c r="I20" s="3">
-        <v>60100</v>
+        <v>46900</v>
       </c>
       <c r="J20" s="3">
+        <v>61400</v>
+      </c>
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-31300</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2059600</v>
+        <v>2084600</v>
       </c>
       <c r="E21" s="3">
-        <v>1696600</v>
+        <v>2101600</v>
       </c>
       <c r="F21" s="3">
-        <v>2752700</v>
+        <v>1731100</v>
       </c>
       <c r="G21" s="3">
-        <v>1621300</v>
+        <v>2810600</v>
       </c>
       <c r="H21" s="3">
-        <v>1435600</v>
+        <v>1654500</v>
       </c>
       <c r="I21" s="3">
-        <v>1150100</v>
+        <v>1464800</v>
       </c>
       <c r="J21" s="3">
+        <v>1172800</v>
+      </c>
+      <c r="K21" s="3">
         <v>907300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>863400</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>37800</v>
+        <v>34100</v>
       </c>
       <c r="E22" s="3">
-        <v>40600</v>
+        <v>38600</v>
       </c>
       <c r="F22" s="3">
-        <v>31200</v>
+        <v>41400</v>
       </c>
       <c r="G22" s="3">
-        <v>28300</v>
+        <v>31800</v>
       </c>
       <c r="H22" s="3">
-        <v>27200</v>
+        <v>28900</v>
       </c>
       <c r="I22" s="3">
-        <v>31400</v>
+        <v>27800</v>
       </c>
       <c r="J22" s="3">
+        <v>32100</v>
+      </c>
+      <c r="K22" s="3">
         <v>25800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>26900</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1050400</v>
+        <v>890700</v>
       </c>
       <c r="E23" s="3">
-        <v>816400</v>
+        <v>1073500</v>
       </c>
       <c r="F23" s="3">
-        <v>1924500</v>
+        <v>834300</v>
       </c>
       <c r="G23" s="3">
-        <v>834800</v>
+        <v>1966900</v>
       </c>
       <c r="H23" s="3">
-        <v>677400</v>
+        <v>853200</v>
       </c>
       <c r="I23" s="3">
-        <v>361500</v>
+        <v>692300</v>
       </c>
       <c r="J23" s="3">
+        <v>369500</v>
+      </c>
+      <c r="K23" s="3">
         <v>171400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>110700</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>300000</v>
+        <v>359700</v>
       </c>
       <c r="E24" s="3">
-        <v>234800</v>
+        <v>306600</v>
       </c>
       <c r="F24" s="3">
-        <v>601400</v>
+        <v>240000</v>
       </c>
       <c r="G24" s="3">
-        <v>229200</v>
+        <v>614600</v>
       </c>
       <c r="H24" s="3">
-        <v>197600</v>
+        <v>234300</v>
       </c>
       <c r="I24" s="3">
-        <v>163000</v>
+        <v>201900</v>
       </c>
       <c r="J24" s="3">
+        <v>166600</v>
+      </c>
+      <c r="K24" s="3">
         <v>130200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>103800</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>750400</v>
+        <v>531000</v>
       </c>
       <c r="E26" s="3">
-        <v>581600</v>
+        <v>766900</v>
       </c>
       <c r="F26" s="3">
-        <v>1323100</v>
+        <v>594300</v>
       </c>
       <c r="G26" s="3">
-        <v>605600</v>
+        <v>1352300</v>
       </c>
       <c r="H26" s="3">
-        <v>479800</v>
+        <v>618900</v>
       </c>
       <c r="I26" s="3">
-        <v>198500</v>
+        <v>490300</v>
       </c>
       <c r="J26" s="3">
+        <v>202900</v>
+      </c>
+      <c r="K26" s="3">
         <v>41200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6900</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>747200</v>
+        <v>536800</v>
       </c>
       <c r="E27" s="3">
-        <v>576900</v>
+        <v>763700</v>
       </c>
       <c r="F27" s="3">
-        <v>1318900</v>
+        <v>589600</v>
       </c>
       <c r="G27" s="3">
-        <v>589300</v>
+        <v>1348000</v>
       </c>
       <c r="H27" s="3">
-        <v>449400</v>
+        <v>602300</v>
       </c>
       <c r="I27" s="3">
-        <v>180800</v>
+        <v>459300</v>
       </c>
       <c r="J27" s="3">
+        <v>184800</v>
+      </c>
+      <c r="K27" s="3">
         <v>10900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5800</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,20 +1343,23 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>-31900</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-32600</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1307,18 +1367,21 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>-32700</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
-        <v>0</v>
+        <v>-33500</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-16400</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-108000</v>
+        <v>-15600</v>
       </c>
       <c r="E32" s="3">
-        <v>-41600</v>
+        <v>-110400</v>
       </c>
       <c r="F32" s="3">
-        <v>-58900</v>
+        <v>-42500</v>
       </c>
       <c r="G32" s="3">
-        <v>-14000</v>
+        <v>-60200</v>
       </c>
       <c r="H32" s="3">
-        <v>-45900</v>
+        <v>-14300</v>
       </c>
       <c r="I32" s="3">
-        <v>-60100</v>
+        <v>-46900</v>
       </c>
       <c r="J32" s="3">
+        <v>-61400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>31300</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>747200</v>
+        <v>536800</v>
       </c>
       <c r="E33" s="3">
-        <v>544900</v>
+        <v>763700</v>
       </c>
       <c r="F33" s="3">
-        <v>1318900</v>
+        <v>556900</v>
       </c>
       <c r="G33" s="3">
-        <v>589300</v>
+        <v>1348000</v>
       </c>
       <c r="H33" s="3">
-        <v>449400</v>
+        <v>602300</v>
       </c>
       <c r="I33" s="3">
-        <v>148100</v>
+        <v>459300</v>
       </c>
       <c r="J33" s="3">
+        <v>151300</v>
+      </c>
+      <c r="K33" s="3">
         <v>10900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-22200</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>747200</v>
+        <v>536800</v>
       </c>
       <c r="E35" s="3">
-        <v>544900</v>
+        <v>763700</v>
       </c>
       <c r="F35" s="3">
-        <v>1318900</v>
+        <v>556900</v>
       </c>
       <c r="G35" s="3">
-        <v>589300</v>
+        <v>1348000</v>
       </c>
       <c r="H35" s="3">
-        <v>449400</v>
+        <v>602300</v>
       </c>
       <c r="I35" s="3">
-        <v>148100</v>
+        <v>459300</v>
       </c>
       <c r="J35" s="3">
+        <v>151300</v>
+      </c>
+      <c r="K35" s="3">
         <v>10900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-22200</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43555</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42825</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42460</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42094</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41729</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41364</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40999</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2628600</v>
+        <v>3087600</v>
       </c>
       <c r="E41" s="3">
-        <v>2541800</v>
+        <v>2683500</v>
       </c>
       <c r="F41" s="3">
-        <v>3003200</v>
+        <v>2594900</v>
       </c>
       <c r="G41" s="3">
-        <v>2594900</v>
+        <v>3066000</v>
       </c>
       <c r="H41" s="3">
-        <v>2409800</v>
+        <v>2649100</v>
       </c>
       <c r="I41" s="3">
-        <v>2280200</v>
+        <v>2460200</v>
       </c>
       <c r="J41" s="3">
+        <v>2327900</v>
+      </c>
+      <c r="K41" s="3">
         <v>1942400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1509800</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>368700</v>
+        <v>302100</v>
       </c>
       <c r="E42" s="3">
-        <v>396900</v>
+        <v>376400</v>
       </c>
       <c r="F42" s="3">
-        <v>510200</v>
+        <v>405200</v>
       </c>
       <c r="G42" s="3">
-        <v>199700</v>
+        <v>520900</v>
       </c>
       <c r="H42" s="3">
-        <v>194500</v>
+        <v>203800</v>
       </c>
       <c r="I42" s="3">
-        <v>79000</v>
+        <v>198500</v>
       </c>
       <c r="J42" s="3">
+        <v>80700</v>
+      </c>
+      <c r="K42" s="3">
         <v>97500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>65000</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2862700</v>
+        <v>2878100</v>
       </c>
       <c r="E43" s="3">
-        <v>2818700</v>
+        <v>2922500</v>
       </c>
       <c r="F43" s="3">
-        <v>2373100</v>
+        <v>2877600</v>
       </c>
       <c r="G43" s="3">
-        <v>2098700</v>
+        <v>2422700</v>
       </c>
       <c r="H43" s="3">
-        <v>2207600</v>
+        <v>2142500</v>
       </c>
       <c r="I43" s="3">
-        <v>1925100</v>
+        <v>2253700</v>
       </c>
       <c r="J43" s="3">
+        <v>1965300</v>
+      </c>
+      <c r="K43" s="3">
         <v>1773000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1655000</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2062400</v>
+        <v>2194300</v>
       </c>
       <c r="E44" s="3">
-        <v>1886500</v>
+        <v>2105600</v>
       </c>
       <c r="F44" s="3">
-        <v>1404400</v>
+        <v>1925900</v>
       </c>
       <c r="G44" s="3">
-        <v>1428300</v>
+        <v>1433800</v>
       </c>
       <c r="H44" s="3">
-        <v>1372700</v>
+        <v>1458200</v>
       </c>
       <c r="I44" s="3">
-        <v>1239800</v>
+        <v>1401400</v>
       </c>
       <c r="J44" s="3">
+        <v>1265700</v>
+      </c>
+      <c r="K44" s="3">
         <v>1253200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1240600</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>462900</v>
+        <v>506900</v>
       </c>
       <c r="E45" s="3">
-        <v>536600</v>
+        <v>472600</v>
       </c>
       <c r="F45" s="3">
-        <v>582300</v>
+        <v>547800</v>
       </c>
       <c r="G45" s="3">
-        <v>414100</v>
+        <v>594400</v>
       </c>
       <c r="H45" s="3">
-        <v>544300</v>
+        <v>422800</v>
       </c>
       <c r="I45" s="3">
-        <v>414300</v>
+        <v>555700</v>
       </c>
       <c r="J45" s="3">
+        <v>422900</v>
+      </c>
+      <c r="K45" s="3">
         <v>484400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>463800</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8385400</v>
+        <v>8969000</v>
       </c>
       <c r="E46" s="3">
-        <v>8180400</v>
+        <v>8560700</v>
       </c>
       <c r="F46" s="3">
-        <v>7873200</v>
+        <v>8351400</v>
       </c>
       <c r="G46" s="3">
-        <v>6735600</v>
+        <v>8037700</v>
       </c>
       <c r="H46" s="3">
-        <v>6728800</v>
+        <v>6876400</v>
       </c>
       <c r="I46" s="3">
-        <v>5938400</v>
+        <v>6869400</v>
       </c>
       <c r="J46" s="3">
+        <v>6062500</v>
+      </c>
+      <c r="K46" s="3">
         <v>5550600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4934200</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1411700</v>
+        <v>308400</v>
       </c>
       <c r="E47" s="3">
-        <v>1411100</v>
+        <v>1441200</v>
       </c>
       <c r="F47" s="3">
-        <v>1471000</v>
+        <v>1440600</v>
       </c>
       <c r="G47" s="3">
-        <v>321200</v>
+        <v>1501700</v>
       </c>
       <c r="H47" s="3">
-        <v>415700</v>
+        <v>327900</v>
       </c>
       <c r="I47" s="3">
-        <v>349100</v>
+        <v>424400</v>
       </c>
       <c r="J47" s="3">
+        <v>356400</v>
+      </c>
+      <c r="K47" s="3">
         <v>292800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>320500</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5482300</v>
+        <v>6035400</v>
       </c>
       <c r="E48" s="3">
-        <v>4959900</v>
+        <v>5596900</v>
       </c>
       <c r="F48" s="3">
-        <v>4223800</v>
+        <v>5063500</v>
       </c>
       <c r="G48" s="3">
-        <v>4432600</v>
+        <v>4312100</v>
       </c>
       <c r="H48" s="3">
-        <v>3883700</v>
+        <v>4525300</v>
       </c>
       <c r="I48" s="3">
-        <v>3400000</v>
+        <v>3964900</v>
       </c>
       <c r="J48" s="3">
+        <v>3471000</v>
+      </c>
+      <c r="K48" s="3">
         <v>3326000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3004200</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2304200</v>
+        <v>1493600</v>
       </c>
       <c r="E49" s="3">
-        <v>2212400</v>
+        <v>2352400</v>
       </c>
       <c r="F49" s="3">
-        <v>1025800</v>
+        <v>2258600</v>
       </c>
       <c r="G49" s="3">
-        <v>1080200</v>
+        <v>1047300</v>
       </c>
       <c r="H49" s="3">
-        <v>1009000</v>
+        <v>1102800</v>
       </c>
       <c r="I49" s="3">
-        <v>1073600</v>
+        <v>1030100</v>
       </c>
       <c r="J49" s="3">
+        <v>1096000</v>
+      </c>
+      <c r="K49" s="3">
         <v>1036600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>981500</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>528100</v>
+        <v>1228300</v>
       </c>
       <c r="E52" s="3">
-        <v>554500</v>
+        <v>539100</v>
       </c>
       <c r="F52" s="3">
-        <v>535000</v>
+        <v>566100</v>
       </c>
       <c r="G52" s="3">
-        <v>616100</v>
+        <v>546200</v>
       </c>
       <c r="H52" s="3">
-        <v>727600</v>
+        <v>629000</v>
       </c>
       <c r="I52" s="3">
-        <v>506900</v>
+        <v>742800</v>
       </c>
       <c r="J52" s="3">
+        <v>517500</v>
+      </c>
+      <c r="K52" s="3">
         <v>425900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>457900</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18111600</v>
+        <v>18034600</v>
       </c>
       <c r="E54" s="3">
-        <v>17318300</v>
+        <v>18490200</v>
       </c>
       <c r="F54" s="3">
-        <v>15128800</v>
+        <v>17680300</v>
       </c>
       <c r="G54" s="3">
-        <v>13185800</v>
+        <v>15445000</v>
       </c>
       <c r="H54" s="3">
-        <v>12764900</v>
+        <v>13461400</v>
       </c>
       <c r="I54" s="3">
-        <v>11267900</v>
+        <v>13031700</v>
       </c>
       <c r="J54" s="3">
+        <v>11503400</v>
+      </c>
+      <c r="K54" s="3">
         <v>10632000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9698400</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1726100</v>
+        <v>1872900</v>
       </c>
       <c r="E57" s="3">
-        <v>2061500</v>
+        <v>1762200</v>
       </c>
       <c r="F57" s="3">
-        <v>1605700</v>
+        <v>2104600</v>
       </c>
       <c r="G57" s="3">
-        <v>1024100</v>
+        <v>1639300</v>
       </c>
       <c r="H57" s="3">
-        <v>1014400</v>
+        <v>1045500</v>
       </c>
       <c r="I57" s="3">
-        <v>869800</v>
+        <v>1035600</v>
       </c>
       <c r="J57" s="3">
+        <v>888000</v>
+      </c>
+      <c r="K57" s="3">
         <v>772800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>792500</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2841400</v>
+        <v>2641400</v>
       </c>
       <c r="E58" s="3">
-        <v>1719300</v>
+        <v>2900800</v>
       </c>
       <c r="F58" s="3">
-        <v>1092600</v>
+        <v>1755200</v>
       </c>
       <c r="G58" s="3">
-        <v>1771700</v>
+        <v>1115400</v>
       </c>
       <c r="H58" s="3">
-        <v>1244000</v>
+        <v>1808800</v>
       </c>
       <c r="I58" s="3">
-        <v>1539700</v>
+        <v>1270000</v>
       </c>
       <c r="J58" s="3">
+        <v>1571900</v>
+      </c>
+      <c r="K58" s="3">
         <v>1801100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1291800</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1925600</v>
+        <v>2157100</v>
       </c>
       <c r="E59" s="3">
-        <v>1700800</v>
+        <v>1965900</v>
       </c>
       <c r="F59" s="3">
-        <v>1643000</v>
+        <v>1736400</v>
       </c>
       <c r="G59" s="3">
-        <v>1305900</v>
+        <v>1677400</v>
       </c>
       <c r="H59" s="3">
-        <v>1267500</v>
+        <v>1333200</v>
       </c>
       <c r="I59" s="3">
-        <v>988200</v>
+        <v>1294000</v>
       </c>
       <c r="J59" s="3">
+        <v>1008800</v>
+      </c>
+      <c r="K59" s="3">
         <v>861600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>861900</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6493200</v>
+        <v>6671400</v>
       </c>
       <c r="E60" s="3">
-        <v>5481600</v>
+        <v>6628900</v>
       </c>
       <c r="F60" s="3">
-        <v>4341300</v>
+        <v>5596200</v>
       </c>
       <c r="G60" s="3">
-        <v>4101700</v>
+        <v>4432100</v>
       </c>
       <c r="H60" s="3">
-        <v>3525800</v>
+        <v>4187500</v>
       </c>
       <c r="I60" s="3">
-        <v>3397700</v>
+        <v>3599500</v>
       </c>
       <c r="J60" s="3">
+        <v>3468700</v>
+      </c>
+      <c r="K60" s="3">
         <v>3435400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2946200</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1887800</v>
+        <v>1299800</v>
       </c>
       <c r="E61" s="3">
-        <v>2671400</v>
+        <v>1927300</v>
       </c>
       <c r="F61" s="3">
-        <v>1944700</v>
+        <v>2727200</v>
       </c>
       <c r="G61" s="3">
-        <v>1280300</v>
+        <v>1985300</v>
       </c>
       <c r="H61" s="3">
-        <v>1195200</v>
+        <v>1307100</v>
       </c>
       <c r="I61" s="3">
-        <v>887400</v>
+        <v>1220200</v>
       </c>
       <c r="J61" s="3">
+        <v>905900</v>
+      </c>
+      <c r="K61" s="3">
         <v>886100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1174700</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1697300</v>
+        <v>2188700</v>
       </c>
       <c r="E62" s="3">
-        <v>1609500</v>
+        <v>1732800</v>
       </c>
       <c r="F62" s="3">
-        <v>1551500</v>
+        <v>1643100</v>
       </c>
       <c r="G62" s="3">
-        <v>1580500</v>
+        <v>1584000</v>
       </c>
       <c r="H62" s="3">
-        <v>1153700</v>
+        <v>1613500</v>
       </c>
       <c r="I62" s="3">
-        <v>1053900</v>
+        <v>1177800</v>
       </c>
       <c r="J62" s="3">
+        <v>1075900</v>
+      </c>
+      <c r="K62" s="3">
         <v>1032700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>948600</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10137100</v>
+        <v>10202600</v>
       </c>
       <c r="E66" s="3">
-        <v>9822400</v>
+        <v>10349000</v>
       </c>
       <c r="F66" s="3">
-        <v>7914800</v>
+        <v>10027700</v>
       </c>
       <c r="G66" s="3">
-        <v>7046800</v>
+        <v>8080300</v>
       </c>
       <c r="H66" s="3">
-        <v>6048700</v>
+        <v>7194100</v>
       </c>
       <c r="I66" s="3">
-        <v>5492700</v>
+        <v>6175100</v>
       </c>
       <c r="J66" s="3">
+        <v>5607600</v>
+      </c>
+      <c r="K66" s="3">
         <v>5531000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5195000</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8909000</v>
+        <v>9432100</v>
       </c>
       <c r="E72" s="3">
-        <v>8362200</v>
+        <v>9095200</v>
       </c>
       <c r="F72" s="3">
-        <v>7922900</v>
+        <v>8536900</v>
       </c>
       <c r="G72" s="3">
-        <v>6742300</v>
+        <v>8088600</v>
       </c>
       <c r="H72" s="3">
-        <v>6279800</v>
+        <v>6883200</v>
       </c>
       <c r="I72" s="3">
-        <v>5922800</v>
+        <v>6411000</v>
       </c>
       <c r="J72" s="3">
+        <v>6046600</v>
+      </c>
+      <c r="K72" s="3">
         <v>5843100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5891000</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7974600</v>
+        <v>7831900</v>
       </c>
       <c r="E76" s="3">
-        <v>7495900</v>
+        <v>8141300</v>
       </c>
       <c r="F76" s="3">
-        <v>7214000</v>
+        <v>7652600</v>
       </c>
       <c r="G76" s="3">
-        <v>6139000</v>
+        <v>7364700</v>
       </c>
       <c r="H76" s="3">
-        <v>6716200</v>
+        <v>6267400</v>
       </c>
       <c r="I76" s="3">
-        <v>5775100</v>
+        <v>6856600</v>
       </c>
       <c r="J76" s="3">
+        <v>5895800</v>
+      </c>
+      <c r="K76" s="3">
         <v>5101000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4503400</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43555</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42825</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42460</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42094</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41729</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41364</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40999</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>747200</v>
+        <v>536800</v>
       </c>
       <c r="E81" s="3">
-        <v>544900</v>
+        <v>763700</v>
       </c>
       <c r="F81" s="3">
-        <v>1318900</v>
+        <v>556900</v>
       </c>
       <c r="G81" s="3">
-        <v>589300</v>
+        <v>1348000</v>
       </c>
       <c r="H81" s="3">
-        <v>449400</v>
+        <v>602300</v>
       </c>
       <c r="I81" s="3">
-        <v>148100</v>
+        <v>459300</v>
       </c>
       <c r="J81" s="3">
+        <v>151300</v>
+      </c>
+      <c r="K81" s="3">
         <v>10900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-22200</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>969300</v>
+        <v>1161100</v>
       </c>
       <c r="E83" s="3">
-        <v>837800</v>
+        <v>990600</v>
       </c>
       <c r="F83" s="3">
-        <v>795300</v>
+        <v>856300</v>
       </c>
       <c r="G83" s="3">
-        <v>756500</v>
+        <v>812800</v>
       </c>
       <c r="H83" s="3">
-        <v>729500</v>
+        <v>773200</v>
       </c>
       <c r="I83" s="3">
-        <v>755500</v>
+        <v>745500</v>
       </c>
       <c r="J83" s="3">
+        <v>772100</v>
+      </c>
+      <c r="K83" s="3">
         <v>708500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>725000</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1275100</v>
+        <v>2066000</v>
       </c>
       <c r="E89" s="3">
-        <v>830000</v>
+        <v>1303100</v>
       </c>
       <c r="F89" s="3">
-        <v>1455600</v>
+        <v>848300</v>
       </c>
       <c r="G89" s="3">
-        <v>1377700</v>
+        <v>1487700</v>
       </c>
       <c r="H89" s="3">
-        <v>1298500</v>
+        <v>1408000</v>
       </c>
       <c r="I89" s="3">
-        <v>1157200</v>
+        <v>1327100</v>
       </c>
       <c r="J89" s="3">
+        <v>1182700</v>
+      </c>
+      <c r="K89" s="3">
         <v>990300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>500200</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1578000</v>
+        <v>-1611200</v>
       </c>
       <c r="E91" s="3">
-        <v>-1623600</v>
+        <v>-1612700</v>
       </c>
       <c r="F91" s="3">
-        <v>-1523800</v>
+        <v>-1659300</v>
       </c>
       <c r="G91" s="3">
-        <v>-1460500</v>
+        <v>-1557300</v>
       </c>
       <c r="H91" s="3">
-        <v>-932000</v>
+        <v>-1492700</v>
       </c>
       <c r="I91" s="3">
-        <v>-623600</v>
+        <v>-952500</v>
       </c>
       <c r="J91" s="3">
+        <v>-637300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-778200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-900900</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1274200</v>
+        <v>-389800</v>
       </c>
       <c r="E94" s="3">
-        <v>-2237000</v>
+        <v>-1302300</v>
       </c>
       <c r="F94" s="3">
-        <v>-646400</v>
+        <v>-2286300</v>
       </c>
       <c r="G94" s="3">
-        <v>-1277900</v>
+        <v>-660600</v>
       </c>
       <c r="H94" s="3">
-        <v>-1157300</v>
+        <v>-1306000</v>
       </c>
       <c r="I94" s="3">
-        <v>-503900</v>
+        <v>-1182700</v>
       </c>
       <c r="J94" s="3">
+        <v>-515000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-819500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-270300</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-172200</v>
+        <v>-199400</v>
       </c>
       <c r="E96" s="3">
-        <v>-137600</v>
+        <v>-176000</v>
       </c>
       <c r="F96" s="3">
-        <v>-137500</v>
+        <v>-140600</v>
       </c>
       <c r="G96" s="3">
-        <v>-126000</v>
+        <v>-140600</v>
       </c>
       <c r="H96" s="3">
+        <v>-128800</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-93500</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-70200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-91500</v>
       </c>
-      <c r="I96" s="3">
-        <v>-68700</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-91500</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-93300</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>85800</v>
+        <v>-1131200</v>
       </c>
       <c r="E100" s="3">
-        <v>1000700</v>
+        <v>87700</v>
       </c>
       <c r="F100" s="3">
-        <v>-343200</v>
+        <v>1022700</v>
       </c>
       <c r="G100" s="3">
-        <v>266400</v>
+        <v>-350700</v>
       </c>
       <c r="H100" s="3">
-        <v>-320400</v>
+        <v>272200</v>
       </c>
       <c r="I100" s="3">
-        <v>-510100</v>
+        <v>-327400</v>
       </c>
       <c r="J100" s="3">
+        <v>-521300</v>
+      </c>
+      <c r="K100" s="3">
         <v>40000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>116900</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-140400</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
-        <v>-55100</v>
-      </c>
       <c r="F101" s="3">
-        <v>-57700</v>
+        <v>-56300</v>
       </c>
       <c r="G101" s="3">
-        <v>-181100</v>
+        <v>-59000</v>
       </c>
       <c r="H101" s="3">
-        <v>308700</v>
+        <v>-185000</v>
       </c>
       <c r="I101" s="3">
-        <v>194600</v>
+        <v>315500</v>
       </c>
       <c r="J101" s="3">
+        <v>198900</v>
+      </c>
+      <c r="K101" s="3">
         <v>213500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4000</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>86800</v>
+        <v>404500</v>
       </c>
       <c r="E102" s="3">
-        <v>-461400</v>
+        <v>88700</v>
       </c>
       <c r="F102" s="3">
-        <v>408300</v>
+        <v>-471600</v>
       </c>
       <c r="G102" s="3">
-        <v>185100</v>
+        <v>417300</v>
       </c>
       <c r="H102" s="3">
-        <v>129600</v>
+        <v>189200</v>
       </c>
       <c r="I102" s="3">
-        <v>337800</v>
+        <v>132400</v>
       </c>
       <c r="J102" s="3">
+        <v>345200</v>
+      </c>
+      <c r="K102" s="3">
         <v>424200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>342800</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TTDKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TTDKY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>TTDKY</t>
   </si>
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12662600</v>
+        <v>12867100</v>
       </c>
       <c r="E8" s="3">
-        <v>12837000</v>
+        <v>13044200</v>
       </c>
       <c r="F8" s="3">
-        <v>11814500</v>
+        <v>12005300</v>
       </c>
       <c r="G8" s="3">
-        <v>10946000</v>
+        <v>11122700</v>
       </c>
       <c r="H8" s="3">
-        <v>10704400</v>
+        <v>10877300</v>
       </c>
       <c r="I8" s="3">
-        <v>10057000</v>
+        <v>10219400</v>
       </c>
       <c r="J8" s="3">
-        <v>9146200</v>
+        <v>9293900</v>
       </c>
       <c r="K8" s="3">
         <v>7740800</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8915700</v>
+        <v>9059700</v>
       </c>
       <c r="E9" s="3">
-        <v>9153600</v>
+        <v>9301400</v>
       </c>
       <c r="F9" s="3">
-        <v>8626000</v>
+        <v>8765300</v>
       </c>
       <c r="G9" s="3">
-        <v>7951800</v>
+        <v>8080100</v>
       </c>
       <c r="H9" s="3">
-        <v>7721100</v>
+        <v>7845800</v>
       </c>
       <c r="I9" s="3">
-        <v>7452700</v>
+        <v>7573000</v>
       </c>
       <c r="J9" s="3">
-        <v>7093600</v>
+        <v>7208100</v>
       </c>
       <c r="K9" s="3">
         <v>6145600</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3746900</v>
+        <v>3807400</v>
       </c>
       <c r="E10" s="3">
-        <v>3683300</v>
+        <v>3742800</v>
       </c>
       <c r="F10" s="3">
-        <v>3188500</v>
+        <v>3240000</v>
       </c>
       <c r="G10" s="3">
-        <v>2994300</v>
+        <v>3042600</v>
       </c>
       <c r="H10" s="3">
-        <v>2983300</v>
+        <v>3031500</v>
       </c>
       <c r="I10" s="3">
-        <v>2604300</v>
+        <v>2646400</v>
       </c>
       <c r="J10" s="3">
-        <v>2052700</v>
+        <v>2085800</v>
       </c>
       <c r="K10" s="3">
         <v>1595300</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>187800</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11753400</v>
+        <v>11955500</v>
       </c>
       <c r="E17" s="3">
-        <v>11835300</v>
+        <v>12026400</v>
       </c>
       <c r="F17" s="3">
-        <v>10981300</v>
+        <v>11158600</v>
       </c>
       <c r="G17" s="3">
-        <v>9007600</v>
+        <v>9153000</v>
       </c>
       <c r="H17" s="3">
-        <v>9836600</v>
+        <v>9995500</v>
       </c>
       <c r="I17" s="3">
-        <v>9383800</v>
+        <v>9535400</v>
       </c>
       <c r="J17" s="3">
-        <v>8806100</v>
+        <v>8948300</v>
       </c>
       <c r="K17" s="3">
         <v>7544000</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>909200</v>
+        <v>911600</v>
       </c>
       <c r="E18" s="3">
-        <v>1001700</v>
+        <v>1017800</v>
       </c>
       <c r="F18" s="3">
-        <v>833200</v>
+        <v>846700</v>
       </c>
       <c r="G18" s="3">
-        <v>1938500</v>
+        <v>1969800</v>
       </c>
       <c r="H18" s="3">
-        <v>867800</v>
+        <v>881800</v>
       </c>
       <c r="I18" s="3">
-        <v>673100</v>
+        <v>684000</v>
       </c>
       <c r="J18" s="3">
-        <v>340200</v>
+        <v>345700</v>
       </c>
       <c r="K18" s="3">
         <v>196800</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>15600</v>
+        <v>28200</v>
       </c>
       <c r="E20" s="3">
-        <v>110400</v>
+        <v>112200</v>
       </c>
       <c r="F20" s="3">
-        <v>42500</v>
+        <v>43200</v>
       </c>
       <c r="G20" s="3">
-        <v>60200</v>
+        <v>61200</v>
       </c>
       <c r="H20" s="3">
-        <v>14300</v>
+        <v>14500</v>
       </c>
       <c r="I20" s="3">
-        <v>46900</v>
+        <v>47700</v>
       </c>
       <c r="J20" s="3">
-        <v>61400</v>
+        <v>62400</v>
       </c>
       <c r="K20" s="3">
         <v>500</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2084600</v>
+        <v>2114600</v>
       </c>
       <c r="E21" s="3">
-        <v>2101600</v>
+        <v>2132400</v>
       </c>
       <c r="F21" s="3">
-        <v>1731100</v>
+        <v>1756300</v>
       </c>
       <c r="G21" s="3">
-        <v>2810600</v>
+        <v>2853400</v>
       </c>
       <c r="H21" s="3">
-        <v>1654500</v>
+        <v>1678700</v>
       </c>
       <c r="I21" s="3">
-        <v>1464800</v>
+        <v>1486000</v>
       </c>
       <c r="J21" s="3">
-        <v>1172800</v>
+        <v>1189300</v>
       </c>
       <c r="K21" s="3">
         <v>907300</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>34100</v>
+        <v>34700</v>
       </c>
       <c r="E22" s="3">
-        <v>38600</v>
+        <v>39200</v>
       </c>
       <c r="F22" s="3">
-        <v>41400</v>
+        <v>42100</v>
       </c>
       <c r="G22" s="3">
-        <v>31800</v>
+        <v>32400</v>
       </c>
       <c r="H22" s="3">
-        <v>28900</v>
+        <v>29400</v>
       </c>
       <c r="I22" s="3">
-        <v>27800</v>
+        <v>28200</v>
       </c>
       <c r="J22" s="3">
-        <v>32100</v>
+        <v>32600</v>
       </c>
       <c r="K22" s="3">
         <v>25800</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>890700</v>
+        <v>905100</v>
       </c>
       <c r="E23" s="3">
-        <v>1073500</v>
+        <v>1090800</v>
       </c>
       <c r="F23" s="3">
-        <v>834300</v>
+        <v>847800</v>
       </c>
       <c r="G23" s="3">
-        <v>1966900</v>
+        <v>1998600</v>
       </c>
       <c r="H23" s="3">
-        <v>853200</v>
+        <v>867000</v>
       </c>
       <c r="I23" s="3">
-        <v>692300</v>
+        <v>703400</v>
       </c>
       <c r="J23" s="3">
-        <v>369500</v>
+        <v>375400</v>
       </c>
       <c r="K23" s="3">
         <v>171400</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>359700</v>
+        <v>365500</v>
       </c>
       <c r="E24" s="3">
-        <v>306600</v>
+        <v>311600</v>
       </c>
       <c r="F24" s="3">
-        <v>240000</v>
+        <v>243900</v>
       </c>
       <c r="G24" s="3">
-        <v>614600</v>
+        <v>624500</v>
       </c>
       <c r="H24" s="3">
-        <v>234300</v>
+        <v>238000</v>
       </c>
       <c r="I24" s="3">
-        <v>201900</v>
+        <v>205200</v>
       </c>
       <c r="J24" s="3">
-        <v>166600</v>
+        <v>169300</v>
       </c>
       <c r="K24" s="3">
         <v>130200</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>531000</v>
+        <v>539600</v>
       </c>
       <c r="E26" s="3">
-        <v>766900</v>
+        <v>779300</v>
       </c>
       <c r="F26" s="3">
-        <v>594300</v>
+        <v>603900</v>
       </c>
       <c r="G26" s="3">
-        <v>1352300</v>
+        <v>1374100</v>
       </c>
       <c r="H26" s="3">
-        <v>618900</v>
+        <v>628900</v>
       </c>
       <c r="I26" s="3">
-        <v>490300</v>
+        <v>498200</v>
       </c>
       <c r="J26" s="3">
-        <v>202900</v>
+        <v>206100</v>
       </c>
       <c r="K26" s="3">
         <v>41200</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>536800</v>
+        <v>545400</v>
       </c>
       <c r="E27" s="3">
-        <v>763700</v>
+        <v>776000</v>
       </c>
       <c r="F27" s="3">
-        <v>589600</v>
+        <v>599100</v>
       </c>
       <c r="G27" s="3">
-        <v>1348000</v>
+        <v>1369700</v>
       </c>
       <c r="H27" s="3">
-        <v>602300</v>
+        <v>612000</v>
       </c>
       <c r="I27" s="3">
-        <v>459300</v>
+        <v>466700</v>
       </c>
       <c r="J27" s="3">
-        <v>184800</v>
+        <v>187800</v>
       </c>
       <c r="K27" s="3">
         <v>10900</v>
@@ -1359,7 +1359,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="3">
-        <v>-32600</v>
+        <v>-33200</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1371,7 +1371,7 @@
         <v>8</v>
       </c>
       <c r="J29" s="3">
-        <v>-33500</v>
+        <v>-34000</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-15600</v>
+        <v>-28200</v>
       </c>
       <c r="E32" s="3">
-        <v>-110400</v>
+        <v>-112200</v>
       </c>
       <c r="F32" s="3">
-        <v>-42500</v>
+        <v>-43200</v>
       </c>
       <c r="G32" s="3">
-        <v>-60200</v>
+        <v>-61200</v>
       </c>
       <c r="H32" s="3">
-        <v>-14300</v>
+        <v>-14500</v>
       </c>
       <c r="I32" s="3">
-        <v>-46900</v>
+        <v>-47700</v>
       </c>
       <c r="J32" s="3">
-        <v>-61400</v>
+        <v>-62400</v>
       </c>
       <c r="K32" s="3">
         <v>-500</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>536800</v>
+        <v>545400</v>
       </c>
       <c r="E33" s="3">
-        <v>763700</v>
+        <v>776000</v>
       </c>
       <c r="F33" s="3">
-        <v>556900</v>
+        <v>565900</v>
       </c>
       <c r="G33" s="3">
-        <v>1348000</v>
+        <v>1369700</v>
       </c>
       <c r="H33" s="3">
-        <v>602300</v>
+        <v>612000</v>
       </c>
       <c r="I33" s="3">
-        <v>459300</v>
+        <v>466700</v>
       </c>
       <c r="J33" s="3">
-        <v>151300</v>
+        <v>153800</v>
       </c>
       <c r="K33" s="3">
         <v>10900</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>536800</v>
+        <v>545400</v>
       </c>
       <c r="E35" s="3">
-        <v>763700</v>
+        <v>776000</v>
       </c>
       <c r="F35" s="3">
-        <v>556900</v>
+        <v>565900</v>
       </c>
       <c r="G35" s="3">
-        <v>1348000</v>
+        <v>1369700</v>
       </c>
       <c r="H35" s="3">
-        <v>602300</v>
+        <v>612000</v>
       </c>
       <c r="I35" s="3">
-        <v>459300</v>
+        <v>466700</v>
       </c>
       <c r="J35" s="3">
-        <v>151300</v>
+        <v>153800</v>
       </c>
       <c r="K35" s="3">
         <v>10900</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3087600</v>
+        <v>3140800</v>
       </c>
       <c r="E41" s="3">
-        <v>2683500</v>
+        <v>2729800</v>
       </c>
       <c r="F41" s="3">
-        <v>2594900</v>
+        <v>2639700</v>
       </c>
       <c r="G41" s="3">
-        <v>3066000</v>
+        <v>3118900</v>
       </c>
       <c r="H41" s="3">
-        <v>2649100</v>
+        <v>2694800</v>
       </c>
       <c r="I41" s="3">
-        <v>2460200</v>
+        <v>2502600</v>
       </c>
       <c r="J41" s="3">
-        <v>2327900</v>
+        <v>2368000</v>
       </c>
       <c r="K41" s="3">
         <v>1942400</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>302100</v>
+        <v>307300</v>
       </c>
       <c r="E42" s="3">
-        <v>376400</v>
+        <v>382900</v>
       </c>
       <c r="F42" s="3">
-        <v>405200</v>
+        <v>412200</v>
       </c>
       <c r="G42" s="3">
-        <v>520900</v>
+        <v>529900</v>
       </c>
       <c r="H42" s="3">
-        <v>203800</v>
+        <v>207300</v>
       </c>
       <c r="I42" s="3">
-        <v>198500</v>
+        <v>201900</v>
       </c>
       <c r="J42" s="3">
-        <v>80700</v>
+        <v>82000</v>
       </c>
       <c r="K42" s="3">
         <v>97500</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2878100</v>
+        <v>3014600</v>
       </c>
       <c r="E43" s="3">
-        <v>2922500</v>
+        <v>2972900</v>
       </c>
       <c r="F43" s="3">
-        <v>2877600</v>
+        <v>2927200</v>
       </c>
       <c r="G43" s="3">
-        <v>2422700</v>
+        <v>2464400</v>
       </c>
       <c r="H43" s="3">
-        <v>2142500</v>
+        <v>2179500</v>
       </c>
       <c r="I43" s="3">
-        <v>2253700</v>
+        <v>2292600</v>
       </c>
       <c r="J43" s="3">
-        <v>1965300</v>
+        <v>1999200</v>
       </c>
       <c r="K43" s="3">
         <v>1773000</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2194300</v>
+        <v>2232100</v>
       </c>
       <c r="E44" s="3">
-        <v>2105600</v>
+        <v>2141900</v>
       </c>
       <c r="F44" s="3">
-        <v>1925900</v>
+        <v>1959100</v>
       </c>
       <c r="G44" s="3">
-        <v>1433800</v>
+        <v>1458500</v>
       </c>
       <c r="H44" s="3">
-        <v>1458200</v>
+        <v>1483300</v>
       </c>
       <c r="I44" s="3">
-        <v>1401400</v>
+        <v>1425600</v>
       </c>
       <c r="J44" s="3">
-        <v>1265700</v>
+        <v>1287500</v>
       </c>
       <c r="K44" s="3">
         <v>1253200</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>506900</v>
+        <v>428800</v>
       </c>
       <c r="E45" s="3">
-        <v>472600</v>
+        <v>480800</v>
       </c>
       <c r="F45" s="3">
-        <v>547800</v>
+        <v>557200</v>
       </c>
       <c r="G45" s="3">
-        <v>594400</v>
+        <v>604700</v>
       </c>
       <c r="H45" s="3">
-        <v>422800</v>
+        <v>430000</v>
       </c>
       <c r="I45" s="3">
-        <v>555700</v>
+        <v>565200</v>
       </c>
       <c r="J45" s="3">
-        <v>422900</v>
+        <v>430200</v>
       </c>
       <c r="K45" s="3">
         <v>484400</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8969000</v>
+        <v>9123600</v>
       </c>
       <c r="E46" s="3">
-        <v>8560700</v>
+        <v>8708300</v>
       </c>
       <c r="F46" s="3">
-        <v>8351400</v>
+        <v>8495400</v>
       </c>
       <c r="G46" s="3">
-        <v>8037700</v>
+        <v>8176300</v>
       </c>
       <c r="H46" s="3">
-        <v>6876400</v>
+        <v>6995000</v>
       </c>
       <c r="I46" s="3">
-        <v>6869400</v>
+        <v>6987900</v>
       </c>
       <c r="J46" s="3">
-        <v>6062500</v>
+        <v>6167000</v>
       </c>
       <c r="K46" s="3">
         <v>5550600</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>308400</v>
+        <v>313700</v>
       </c>
       <c r="E47" s="3">
-        <v>1441200</v>
+        <v>1466100</v>
       </c>
       <c r="F47" s="3">
-        <v>1440600</v>
+        <v>1465500</v>
       </c>
       <c r="G47" s="3">
-        <v>1501700</v>
+        <v>1527600</v>
       </c>
       <c r="H47" s="3">
-        <v>327900</v>
+        <v>333600</v>
       </c>
       <c r="I47" s="3">
-        <v>424400</v>
+        <v>431700</v>
       </c>
       <c r="J47" s="3">
-        <v>356400</v>
+        <v>362500</v>
       </c>
       <c r="K47" s="3">
         <v>292800</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6035400</v>
+        <v>6139400</v>
       </c>
       <c r="E48" s="3">
-        <v>5596900</v>
+        <v>5693400</v>
       </c>
       <c r="F48" s="3">
-        <v>5063500</v>
+        <v>5150900</v>
       </c>
       <c r="G48" s="3">
-        <v>4312100</v>
+        <v>4386500</v>
       </c>
       <c r="H48" s="3">
-        <v>4525300</v>
+        <v>4603300</v>
       </c>
       <c r="I48" s="3">
-        <v>3964900</v>
+        <v>4033300</v>
       </c>
       <c r="J48" s="3">
-        <v>3471000</v>
+        <v>3530900</v>
       </c>
       <c r="K48" s="3">
         <v>3326000</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1493600</v>
+        <v>2272100</v>
       </c>
       <c r="E49" s="3">
-        <v>2352400</v>
+        <v>2392900</v>
       </c>
       <c r="F49" s="3">
-        <v>2258600</v>
+        <v>2297600</v>
       </c>
       <c r="G49" s="3">
-        <v>1047300</v>
+        <v>1065300</v>
       </c>
       <c r="H49" s="3">
-        <v>1102800</v>
+        <v>1121800</v>
       </c>
       <c r="I49" s="3">
-        <v>1030100</v>
+        <v>1047900</v>
       </c>
       <c r="J49" s="3">
-        <v>1096000</v>
+        <v>1114900</v>
       </c>
       <c r="K49" s="3">
         <v>1036600</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1228300</v>
+        <v>496600</v>
       </c>
       <c r="E52" s="3">
-        <v>539100</v>
+        <v>548400</v>
       </c>
       <c r="F52" s="3">
-        <v>566100</v>
+        <v>575900</v>
       </c>
       <c r="G52" s="3">
-        <v>546200</v>
+        <v>555600</v>
       </c>
       <c r="H52" s="3">
-        <v>629000</v>
+        <v>639900</v>
       </c>
       <c r="I52" s="3">
-        <v>742800</v>
+        <v>755700</v>
       </c>
       <c r="J52" s="3">
-        <v>517500</v>
+        <v>526400</v>
       </c>
       <c r="K52" s="3">
         <v>425900</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18034600</v>
+        <v>18345500</v>
       </c>
       <c r="E54" s="3">
-        <v>18490200</v>
+        <v>18809000</v>
       </c>
       <c r="F54" s="3">
-        <v>17680300</v>
+        <v>17985200</v>
       </c>
       <c r="G54" s="3">
-        <v>15445000</v>
+        <v>15711300</v>
       </c>
       <c r="H54" s="3">
-        <v>13461400</v>
+        <v>13693500</v>
       </c>
       <c r="I54" s="3">
-        <v>13031700</v>
+        <v>13256400</v>
       </c>
       <c r="J54" s="3">
-        <v>11503400</v>
+        <v>11701700</v>
       </c>
       <c r="K54" s="3">
         <v>10632000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1872900</v>
+        <v>1905200</v>
       </c>
       <c r="E57" s="3">
-        <v>1762200</v>
+        <v>1792600</v>
       </c>
       <c r="F57" s="3">
-        <v>2104600</v>
+        <v>2140900</v>
       </c>
       <c r="G57" s="3">
-        <v>1639300</v>
+        <v>1667500</v>
       </c>
       <c r="H57" s="3">
-        <v>1045500</v>
+        <v>1063500</v>
       </c>
       <c r="I57" s="3">
-        <v>1035600</v>
+        <v>1053400</v>
       </c>
       <c r="J57" s="3">
-        <v>888000</v>
+        <v>903300</v>
       </c>
       <c r="K57" s="3">
         <v>772800</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2641400</v>
+        <v>2692200</v>
       </c>
       <c r="E58" s="3">
-        <v>2900800</v>
+        <v>2950800</v>
       </c>
       <c r="F58" s="3">
-        <v>1755200</v>
+        <v>1785500</v>
       </c>
       <c r="G58" s="3">
-        <v>1115400</v>
+        <v>1134700</v>
       </c>
       <c r="H58" s="3">
-        <v>1808800</v>
+        <v>1840000</v>
       </c>
       <c r="I58" s="3">
-        <v>1270000</v>
+        <v>1291900</v>
       </c>
       <c r="J58" s="3">
-        <v>1571900</v>
+        <v>1599000</v>
       </c>
       <c r="K58" s="3">
         <v>1801100</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2157100</v>
+        <v>2189100</v>
       </c>
       <c r="E59" s="3">
-        <v>1965900</v>
+        <v>1999800</v>
       </c>
       <c r="F59" s="3">
-        <v>1736400</v>
+        <v>1766300</v>
       </c>
       <c r="G59" s="3">
-        <v>1677400</v>
+        <v>1706300</v>
       </c>
       <c r="H59" s="3">
-        <v>1333200</v>
+        <v>1356100</v>
       </c>
       <c r="I59" s="3">
-        <v>1294000</v>
+        <v>1316300</v>
       </c>
       <c r="J59" s="3">
-        <v>1008800</v>
+        <v>1026200</v>
       </c>
       <c r="K59" s="3">
         <v>861600</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6671400</v>
+        <v>6786500</v>
       </c>
       <c r="E60" s="3">
-        <v>6628900</v>
+        <v>6743200</v>
       </c>
       <c r="F60" s="3">
-        <v>5596200</v>
+        <v>5692700</v>
       </c>
       <c r="G60" s="3">
-        <v>4432100</v>
+        <v>4508500</v>
       </c>
       <c r="H60" s="3">
-        <v>4187500</v>
+        <v>4259600</v>
       </c>
       <c r="I60" s="3">
-        <v>3599500</v>
+        <v>3661600</v>
       </c>
       <c r="J60" s="3">
-        <v>3468700</v>
+        <v>3528500</v>
       </c>
       <c r="K60" s="3">
         <v>3435400</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1299800</v>
+        <v>1372400</v>
       </c>
       <c r="E61" s="3">
-        <v>1927300</v>
+        <v>1960500</v>
       </c>
       <c r="F61" s="3">
-        <v>2727200</v>
+        <v>2774200</v>
       </c>
       <c r="G61" s="3">
-        <v>1985300</v>
+        <v>2019500</v>
       </c>
       <c r="H61" s="3">
-        <v>1307100</v>
+        <v>1329600</v>
       </c>
       <c r="I61" s="3">
-        <v>1220200</v>
+        <v>1241200</v>
       </c>
       <c r="J61" s="3">
-        <v>905900</v>
+        <v>921600</v>
       </c>
       <c r="K61" s="3">
         <v>886100</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2188700</v>
+        <v>2176200</v>
       </c>
       <c r="E62" s="3">
-        <v>1732800</v>
+        <v>1762700</v>
       </c>
       <c r="F62" s="3">
-        <v>1643100</v>
+        <v>1671400</v>
       </c>
       <c r="G62" s="3">
-        <v>1584000</v>
+        <v>1611300</v>
       </c>
       <c r="H62" s="3">
-        <v>1613500</v>
+        <v>1641300</v>
       </c>
       <c r="I62" s="3">
-        <v>1177800</v>
+        <v>1198100</v>
       </c>
       <c r="J62" s="3">
-        <v>1075900</v>
+        <v>1094500</v>
       </c>
       <c r="K62" s="3">
         <v>1032700</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10202600</v>
+        <v>10378500</v>
       </c>
       <c r="E66" s="3">
-        <v>10349000</v>
+        <v>10527400</v>
       </c>
       <c r="F66" s="3">
-        <v>10027700</v>
+        <v>10200600</v>
       </c>
       <c r="G66" s="3">
-        <v>8080300</v>
+        <v>8219600</v>
       </c>
       <c r="H66" s="3">
-        <v>7194100</v>
+        <v>7318100</v>
       </c>
       <c r="I66" s="3">
-        <v>6175100</v>
+        <v>6281600</v>
       </c>
       <c r="J66" s="3">
-        <v>5607600</v>
+        <v>5704200</v>
       </c>
       <c r="K66" s="3">
         <v>5531000</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9432100</v>
+        <v>9594800</v>
       </c>
       <c r="E72" s="3">
-        <v>9095200</v>
+        <v>9252000</v>
       </c>
       <c r="F72" s="3">
-        <v>8536900</v>
+        <v>8684100</v>
       </c>
       <c r="G72" s="3">
-        <v>8088600</v>
+        <v>8228000</v>
       </c>
       <c r="H72" s="3">
-        <v>6883200</v>
+        <v>7001900</v>
       </c>
       <c r="I72" s="3">
-        <v>6411000</v>
+        <v>6521600</v>
       </c>
       <c r="J72" s="3">
-        <v>6046600</v>
+        <v>6150800</v>
       </c>
       <c r="K72" s="3">
         <v>5843100</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7831900</v>
+        <v>7967000</v>
       </c>
       <c r="E76" s="3">
-        <v>8141300</v>
+        <v>8281600</v>
       </c>
       <c r="F76" s="3">
-        <v>7652600</v>
+        <v>7784500</v>
       </c>
       <c r="G76" s="3">
-        <v>7364700</v>
+        <v>7491700</v>
       </c>
       <c r="H76" s="3">
-        <v>6267400</v>
+        <v>6375400</v>
       </c>
       <c r="I76" s="3">
-        <v>6856600</v>
+        <v>6974800</v>
       </c>
       <c r="J76" s="3">
-        <v>5895800</v>
+        <v>5997500</v>
       </c>
       <c r="K76" s="3">
         <v>5101000</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>536800</v>
+        <v>545400</v>
       </c>
       <c r="E81" s="3">
-        <v>763700</v>
+        <v>776000</v>
       </c>
       <c r="F81" s="3">
-        <v>556900</v>
+        <v>565900</v>
       </c>
       <c r="G81" s="3">
-        <v>1348000</v>
+        <v>1369700</v>
       </c>
       <c r="H81" s="3">
-        <v>602300</v>
+        <v>612000</v>
       </c>
       <c r="I81" s="3">
-        <v>459300</v>
+        <v>466700</v>
       </c>
       <c r="J81" s="3">
-        <v>151300</v>
+        <v>153800</v>
       </c>
       <c r="K81" s="3">
         <v>10900</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1161100</v>
+        <v>1179800</v>
       </c>
       <c r="E83" s="3">
-        <v>990600</v>
+        <v>1006600</v>
       </c>
       <c r="F83" s="3">
-        <v>856300</v>
+        <v>870100</v>
       </c>
       <c r="G83" s="3">
-        <v>812800</v>
+        <v>825900</v>
       </c>
       <c r="H83" s="3">
-        <v>773200</v>
+        <v>785600</v>
       </c>
       <c r="I83" s="3">
-        <v>745500</v>
+        <v>757600</v>
       </c>
       <c r="J83" s="3">
-        <v>772100</v>
+        <v>784500</v>
       </c>
       <c r="K83" s="3">
         <v>708500</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2066000</v>
+        <v>2099400</v>
       </c>
       <c r="E89" s="3">
-        <v>1303100</v>
+        <v>1324200</v>
       </c>
       <c r="F89" s="3">
-        <v>848300</v>
+        <v>862000</v>
       </c>
       <c r="G89" s="3">
-        <v>1487700</v>
+        <v>1511700</v>
       </c>
       <c r="H89" s="3">
-        <v>1408000</v>
+        <v>1430800</v>
       </c>
       <c r="I89" s="3">
-        <v>1327100</v>
+        <v>1348500</v>
       </c>
       <c r="J89" s="3">
-        <v>1182700</v>
+        <v>1201800</v>
       </c>
       <c r="K89" s="3">
         <v>990300</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1611200</v>
+        <v>-1637200</v>
       </c>
       <c r="E91" s="3">
-        <v>-1612700</v>
+        <v>-1638700</v>
       </c>
       <c r="F91" s="3">
-        <v>-1659300</v>
+        <v>-1686100</v>
       </c>
       <c r="G91" s="3">
-        <v>-1557300</v>
+        <v>-1582400</v>
       </c>
       <c r="H91" s="3">
-        <v>-1492700</v>
+        <v>-1516800</v>
       </c>
       <c r="I91" s="3">
-        <v>-952500</v>
+        <v>-967800</v>
       </c>
       <c r="J91" s="3">
-        <v>-637300</v>
+        <v>-647600</v>
       </c>
       <c r="K91" s="3">
         <v>-778200</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-389800</v>
+        <v>-396100</v>
       </c>
       <c r="E94" s="3">
-        <v>-1302300</v>
+        <v>-1323300</v>
       </c>
       <c r="F94" s="3">
-        <v>-2286300</v>
+        <v>-2323200</v>
       </c>
       <c r="G94" s="3">
-        <v>-660600</v>
+        <v>-671300</v>
       </c>
       <c r="H94" s="3">
-        <v>-1306000</v>
+        <v>-1327100</v>
       </c>
       <c r="I94" s="3">
-        <v>-1182700</v>
+        <v>-1201800</v>
       </c>
       <c r="J94" s="3">
-        <v>-515000</v>
+        <v>-523300</v>
       </c>
       <c r="K94" s="3">
         <v>-819500</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-199400</v>
+        <v>-202700</v>
       </c>
       <c r="E96" s="3">
-        <v>-176000</v>
+        <v>-178900</v>
       </c>
       <c r="F96" s="3">
-        <v>-140600</v>
+        <v>-142900</v>
       </c>
       <c r="G96" s="3">
-        <v>-140600</v>
+        <v>-142800</v>
       </c>
       <c r="H96" s="3">
-        <v>-128800</v>
+        <v>-130900</v>
       </c>
       <c r="I96" s="3">
-        <v>-93500</v>
+        <v>-95100</v>
       </c>
       <c r="J96" s="3">
-        <v>-70200</v>
+        <v>-71300</v>
       </c>
       <c r="K96" s="3">
         <v>-91500</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1131200</v>
+        <v>-1149500</v>
       </c>
       <c r="E100" s="3">
-        <v>87700</v>
+        <v>89100</v>
       </c>
       <c r="F100" s="3">
-        <v>1022700</v>
+        <v>1039200</v>
       </c>
       <c r="G100" s="3">
-        <v>-350700</v>
+        <v>-356400</v>
       </c>
       <c r="H100" s="3">
-        <v>272200</v>
+        <v>276600</v>
       </c>
       <c r="I100" s="3">
-        <v>-327400</v>
+        <v>-332700</v>
       </c>
       <c r="J100" s="3">
-        <v>-521300</v>
+        <v>-529800</v>
       </c>
       <c r="K100" s="3">
         <v>40000</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-140400</v>
+        <v>-142700</v>
       </c>
       <c r="E101" s="3">
         <v>200</v>
       </c>
       <c r="F101" s="3">
-        <v>-56300</v>
+        <v>-57200</v>
       </c>
       <c r="G101" s="3">
-        <v>-59000</v>
+        <v>-60000</v>
       </c>
       <c r="H101" s="3">
-        <v>-185000</v>
+        <v>-188000</v>
       </c>
       <c r="I101" s="3">
-        <v>315500</v>
+        <v>320600</v>
       </c>
       <c r="J101" s="3">
-        <v>198900</v>
+        <v>202100</v>
       </c>
       <c r="K101" s="3">
         <v>213500</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>404500</v>
+        <v>411000</v>
       </c>
       <c r="E102" s="3">
-        <v>88700</v>
+        <v>90200</v>
       </c>
       <c r="F102" s="3">
-        <v>-471600</v>
+        <v>-479200</v>
       </c>
       <c r="G102" s="3">
-        <v>417300</v>
+        <v>424000</v>
       </c>
       <c r="H102" s="3">
-        <v>189200</v>
+        <v>192200</v>
       </c>
       <c r="I102" s="3">
-        <v>132400</v>
+        <v>134600</v>
       </c>
       <c r="J102" s="3">
-        <v>345200</v>
+        <v>350800</v>
       </c>
       <c r="K102" s="3">
         <v>424200</v>

--- a/AAII_Financials/Yearly/TTDKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TTDKY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12867100</v>
+        <v>13098800</v>
       </c>
       <c r="E8" s="3">
-        <v>13044200</v>
+        <v>13279200</v>
       </c>
       <c r="F8" s="3">
-        <v>12005300</v>
+        <v>12221500</v>
       </c>
       <c r="G8" s="3">
-        <v>11122700</v>
+        <v>11323000</v>
       </c>
       <c r="H8" s="3">
-        <v>10877300</v>
+        <v>11073200</v>
       </c>
       <c r="I8" s="3">
-        <v>10219400</v>
+        <v>10403400</v>
       </c>
       <c r="J8" s="3">
-        <v>9293900</v>
+        <v>9461300</v>
       </c>
       <c r="K8" s="3">
         <v>7740800</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9059700</v>
+        <v>9222900</v>
       </c>
       <c r="E9" s="3">
-        <v>9301400</v>
+        <v>9468900</v>
       </c>
       <c r="F9" s="3">
-        <v>8765300</v>
+        <v>8923100</v>
       </c>
       <c r="G9" s="3">
-        <v>8080100</v>
+        <v>8225700</v>
       </c>
       <c r="H9" s="3">
-        <v>7845800</v>
+        <v>7987100</v>
       </c>
       <c r="I9" s="3">
-        <v>7573000</v>
+        <v>7709400</v>
       </c>
       <c r="J9" s="3">
-        <v>7208100</v>
+        <v>7337900</v>
       </c>
       <c r="K9" s="3">
         <v>6145600</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3807400</v>
+        <v>3875900</v>
       </c>
       <c r="E10" s="3">
-        <v>3742800</v>
+        <v>3810200</v>
       </c>
       <c r="F10" s="3">
-        <v>3240000</v>
+        <v>3298400</v>
       </c>
       <c r="G10" s="3">
-        <v>3042600</v>
+        <v>3097400</v>
       </c>
       <c r="H10" s="3">
-        <v>3031500</v>
+        <v>3086100</v>
       </c>
       <c r="I10" s="3">
-        <v>2646400</v>
+        <v>2694000</v>
       </c>
       <c r="J10" s="3">
-        <v>2085800</v>
+        <v>2123400</v>
       </c>
       <c r="K10" s="3">
         <v>1595300</v>
@@ -897,7 +897,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>187800</v>
+        <v>191200</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11955500</v>
+        <v>12170800</v>
       </c>
       <c r="E17" s="3">
-        <v>12026400</v>
+        <v>12243000</v>
       </c>
       <c r="F17" s="3">
-        <v>11158600</v>
+        <v>11359500</v>
       </c>
       <c r="G17" s="3">
-        <v>9153000</v>
+        <v>9317800</v>
       </c>
       <c r="H17" s="3">
-        <v>9995500</v>
+        <v>10175500</v>
       </c>
       <c r="I17" s="3">
-        <v>9535400</v>
+        <v>9707100</v>
       </c>
       <c r="J17" s="3">
-        <v>8948300</v>
+        <v>9109400</v>
       </c>
       <c r="K17" s="3">
         <v>7544000</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>911600</v>
+        <v>928000</v>
       </c>
       <c r="E18" s="3">
-        <v>1017800</v>
+        <v>1036200</v>
       </c>
       <c r="F18" s="3">
-        <v>846700</v>
+        <v>861900</v>
       </c>
       <c r="G18" s="3">
-        <v>1969800</v>
+        <v>2005200</v>
       </c>
       <c r="H18" s="3">
-        <v>881800</v>
+        <v>897700</v>
       </c>
       <c r="I18" s="3">
-        <v>684000</v>
+        <v>696300</v>
       </c>
       <c r="J18" s="3">
-        <v>345700</v>
+        <v>351900</v>
       </c>
       <c r="K18" s="3">
         <v>196800</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>28200</v>
+        <v>28700</v>
       </c>
       <c r="E20" s="3">
-        <v>112200</v>
+        <v>114200</v>
       </c>
       <c r="F20" s="3">
-        <v>43200</v>
+        <v>44000</v>
       </c>
       <c r="G20" s="3">
-        <v>61200</v>
+        <v>62300</v>
       </c>
       <c r="H20" s="3">
-        <v>14500</v>
+        <v>14800</v>
       </c>
       <c r="I20" s="3">
-        <v>47700</v>
+        <v>48500</v>
       </c>
       <c r="J20" s="3">
-        <v>62400</v>
+        <v>63600</v>
       </c>
       <c r="K20" s="3">
         <v>500</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2114600</v>
+        <v>2155200</v>
       </c>
       <c r="E21" s="3">
-        <v>2132400</v>
+        <v>2173000</v>
       </c>
       <c r="F21" s="3">
-        <v>1756300</v>
+        <v>1789900</v>
       </c>
       <c r="G21" s="3">
-        <v>2853400</v>
+        <v>2906600</v>
       </c>
       <c r="H21" s="3">
-        <v>1678700</v>
+        <v>1710600</v>
       </c>
       <c r="I21" s="3">
-        <v>1486000</v>
+        <v>1514400</v>
       </c>
       <c r="J21" s="3">
-        <v>1189300</v>
+        <v>1212400</v>
       </c>
       <c r="K21" s="3">
         <v>907300</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>34700</v>
+        <v>35300</v>
       </c>
       <c r="E22" s="3">
-        <v>39200</v>
+        <v>39900</v>
       </c>
       <c r="F22" s="3">
-        <v>42100</v>
+        <v>42900</v>
       </c>
       <c r="G22" s="3">
-        <v>32400</v>
+        <v>32900</v>
       </c>
       <c r="H22" s="3">
-        <v>29400</v>
+        <v>29900</v>
       </c>
       <c r="I22" s="3">
-        <v>28200</v>
+        <v>28800</v>
       </c>
       <c r="J22" s="3">
-        <v>32600</v>
+        <v>33200</v>
       </c>
       <c r="K22" s="3">
         <v>25800</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>905100</v>
+        <v>921400</v>
       </c>
       <c r="E23" s="3">
-        <v>1090800</v>
+        <v>1110500</v>
       </c>
       <c r="F23" s="3">
-        <v>847800</v>
+        <v>863100</v>
       </c>
       <c r="G23" s="3">
-        <v>1998600</v>
+        <v>2034600</v>
       </c>
       <c r="H23" s="3">
-        <v>867000</v>
+        <v>882600</v>
       </c>
       <c r="I23" s="3">
-        <v>703400</v>
+        <v>716100</v>
       </c>
       <c r="J23" s="3">
-        <v>375400</v>
+        <v>382200</v>
       </c>
       <c r="K23" s="3">
         <v>171400</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>365500</v>
+        <v>372100</v>
       </c>
       <c r="E24" s="3">
-        <v>311600</v>
+        <v>317200</v>
       </c>
       <c r="F24" s="3">
-        <v>243900</v>
+        <v>248300</v>
       </c>
       <c r="G24" s="3">
-        <v>624500</v>
+        <v>635800</v>
       </c>
       <c r="H24" s="3">
-        <v>238000</v>
+        <v>242300</v>
       </c>
       <c r="I24" s="3">
-        <v>205200</v>
+        <v>208900</v>
       </c>
       <c r="J24" s="3">
-        <v>169300</v>
+        <v>172400</v>
       </c>
       <c r="K24" s="3">
         <v>130200</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>539600</v>
+        <v>549300</v>
       </c>
       <c r="E26" s="3">
-        <v>779300</v>
+        <v>793300</v>
       </c>
       <c r="F26" s="3">
-        <v>603900</v>
+        <v>614800</v>
       </c>
       <c r="G26" s="3">
-        <v>1374100</v>
+        <v>1398800</v>
       </c>
       <c r="H26" s="3">
-        <v>628900</v>
+        <v>640200</v>
       </c>
       <c r="I26" s="3">
-        <v>498200</v>
+        <v>507200</v>
       </c>
       <c r="J26" s="3">
-        <v>206100</v>
+        <v>209800</v>
       </c>
       <c r="K26" s="3">
         <v>41200</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>545400</v>
+        <v>555300</v>
       </c>
       <c r="E27" s="3">
-        <v>776000</v>
+        <v>790000</v>
       </c>
       <c r="F27" s="3">
-        <v>599100</v>
+        <v>609900</v>
       </c>
       <c r="G27" s="3">
-        <v>1369700</v>
+        <v>1394400</v>
       </c>
       <c r="H27" s="3">
-        <v>612000</v>
+        <v>623000</v>
       </c>
       <c r="I27" s="3">
-        <v>466700</v>
+        <v>475100</v>
       </c>
       <c r="J27" s="3">
-        <v>187800</v>
+        <v>191100</v>
       </c>
       <c r="K27" s="3">
         <v>10900</v>
@@ -1359,7 +1359,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="3">
-        <v>-33200</v>
+        <v>-33800</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1371,7 +1371,7 @@
         <v>8</v>
       </c>
       <c r="J29" s="3">
-        <v>-34000</v>
+        <v>-34600</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-28200</v>
+        <v>-28700</v>
       </c>
       <c r="E32" s="3">
-        <v>-112200</v>
+        <v>-114200</v>
       </c>
       <c r="F32" s="3">
-        <v>-43200</v>
+        <v>-44000</v>
       </c>
       <c r="G32" s="3">
-        <v>-61200</v>
+        <v>-62300</v>
       </c>
       <c r="H32" s="3">
-        <v>-14500</v>
+        <v>-14800</v>
       </c>
       <c r="I32" s="3">
-        <v>-47700</v>
+        <v>-48500</v>
       </c>
       <c r="J32" s="3">
-        <v>-62400</v>
+        <v>-63600</v>
       </c>
       <c r="K32" s="3">
         <v>-500</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>545400</v>
+        <v>555300</v>
       </c>
       <c r="E33" s="3">
-        <v>776000</v>
+        <v>790000</v>
       </c>
       <c r="F33" s="3">
-        <v>565900</v>
+        <v>576100</v>
       </c>
       <c r="G33" s="3">
-        <v>1369700</v>
+        <v>1394400</v>
       </c>
       <c r="H33" s="3">
-        <v>612000</v>
+        <v>623000</v>
       </c>
       <c r="I33" s="3">
-        <v>466700</v>
+        <v>475100</v>
       </c>
       <c r="J33" s="3">
-        <v>153800</v>
+        <v>156500</v>
       </c>
       <c r="K33" s="3">
         <v>10900</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>545400</v>
+        <v>555300</v>
       </c>
       <c r="E35" s="3">
-        <v>776000</v>
+        <v>790000</v>
       </c>
       <c r="F35" s="3">
-        <v>565900</v>
+        <v>576100</v>
       </c>
       <c r="G35" s="3">
-        <v>1369700</v>
+        <v>1394400</v>
       </c>
       <c r="H35" s="3">
-        <v>612000</v>
+        <v>623000</v>
       </c>
       <c r="I35" s="3">
-        <v>466700</v>
+        <v>475100</v>
       </c>
       <c r="J35" s="3">
-        <v>153800</v>
+        <v>156500</v>
       </c>
       <c r="K35" s="3">
         <v>10900</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3140800</v>
+        <v>3197400</v>
       </c>
       <c r="E41" s="3">
-        <v>2729800</v>
+        <v>2779000</v>
       </c>
       <c r="F41" s="3">
-        <v>2639700</v>
+        <v>2687200</v>
       </c>
       <c r="G41" s="3">
-        <v>3118900</v>
+        <v>3175000</v>
       </c>
       <c r="H41" s="3">
-        <v>2694800</v>
+        <v>2743300</v>
       </c>
       <c r="I41" s="3">
-        <v>2502600</v>
+        <v>2547600</v>
       </c>
       <c r="J41" s="3">
-        <v>2368000</v>
+        <v>2410600</v>
       </c>
       <c r="K41" s="3">
         <v>1942400</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>307300</v>
+        <v>312800</v>
       </c>
       <c r="E42" s="3">
-        <v>382900</v>
+        <v>389800</v>
       </c>
       <c r="F42" s="3">
-        <v>412200</v>
+        <v>419600</v>
       </c>
       <c r="G42" s="3">
-        <v>529900</v>
+        <v>539400</v>
       </c>
       <c r="H42" s="3">
-        <v>207300</v>
+        <v>211100</v>
       </c>
       <c r="I42" s="3">
-        <v>201900</v>
+        <v>205600</v>
       </c>
       <c r="J42" s="3">
-        <v>82000</v>
+        <v>83500</v>
       </c>
       <c r="K42" s="3">
         <v>97500</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3014600</v>
+        <v>3068900</v>
       </c>
       <c r="E43" s="3">
-        <v>2972900</v>
+        <v>3026500</v>
       </c>
       <c r="F43" s="3">
-        <v>2927200</v>
+        <v>2979900</v>
       </c>
       <c r="G43" s="3">
-        <v>2464400</v>
+        <v>2508800</v>
       </c>
       <c r="H43" s="3">
-        <v>2179500</v>
+        <v>2218700</v>
       </c>
       <c r="I43" s="3">
-        <v>2292600</v>
+        <v>2333800</v>
       </c>
       <c r="J43" s="3">
-        <v>1999200</v>
+        <v>2035200</v>
       </c>
       <c r="K43" s="3">
         <v>1773000</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2232100</v>
+        <v>2272300</v>
       </c>
       <c r="E44" s="3">
-        <v>2141900</v>
+        <v>2180400</v>
       </c>
       <c r="F44" s="3">
-        <v>1959100</v>
+        <v>1994400</v>
       </c>
       <c r="G44" s="3">
-        <v>1458500</v>
+        <v>1484700</v>
       </c>
       <c r="H44" s="3">
-        <v>1483300</v>
+        <v>1510000</v>
       </c>
       <c r="I44" s="3">
-        <v>1425600</v>
+        <v>1451200</v>
       </c>
       <c r="J44" s="3">
-        <v>1287500</v>
+        <v>1310700</v>
       </c>
       <c r="K44" s="3">
         <v>1253200</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>428800</v>
+        <v>436500</v>
       </c>
       <c r="E45" s="3">
-        <v>480800</v>
+        <v>489400</v>
       </c>
       <c r="F45" s="3">
-        <v>557200</v>
+        <v>567300</v>
       </c>
       <c r="G45" s="3">
-        <v>604700</v>
+        <v>615600</v>
       </c>
       <c r="H45" s="3">
-        <v>430000</v>
+        <v>437800</v>
       </c>
       <c r="I45" s="3">
-        <v>565200</v>
+        <v>575400</v>
       </c>
       <c r="J45" s="3">
-        <v>430200</v>
+        <v>438000</v>
       </c>
       <c r="K45" s="3">
         <v>484400</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9123600</v>
+        <v>9287900</v>
       </c>
       <c r="E46" s="3">
-        <v>8708300</v>
+        <v>8865100</v>
       </c>
       <c r="F46" s="3">
-        <v>8495400</v>
+        <v>8648400</v>
       </c>
       <c r="G46" s="3">
-        <v>8176300</v>
+        <v>8323600</v>
       </c>
       <c r="H46" s="3">
-        <v>6995000</v>
+        <v>7121000</v>
       </c>
       <c r="I46" s="3">
-        <v>6987900</v>
+        <v>7113700</v>
       </c>
       <c r="J46" s="3">
-        <v>6167000</v>
+        <v>6278100</v>
       </c>
       <c r="K46" s="3">
         <v>5550600</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>313700</v>
+        <v>319300</v>
       </c>
       <c r="E47" s="3">
-        <v>1466100</v>
+        <v>1492500</v>
       </c>
       <c r="F47" s="3">
-        <v>1465500</v>
+        <v>1491900</v>
       </c>
       <c r="G47" s="3">
-        <v>1527600</v>
+        <v>1555100</v>
       </c>
       <c r="H47" s="3">
-        <v>333600</v>
+        <v>339600</v>
       </c>
       <c r="I47" s="3">
-        <v>431700</v>
+        <v>439500</v>
       </c>
       <c r="J47" s="3">
-        <v>362500</v>
+        <v>369000</v>
       </c>
       <c r="K47" s="3">
         <v>292800</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6139400</v>
+        <v>6250000</v>
       </c>
       <c r="E48" s="3">
-        <v>5693400</v>
+        <v>5795900</v>
       </c>
       <c r="F48" s="3">
-        <v>5150900</v>
+        <v>5243600</v>
       </c>
       <c r="G48" s="3">
-        <v>4386500</v>
+        <v>4465400</v>
       </c>
       <c r="H48" s="3">
-        <v>4603300</v>
+        <v>4686200</v>
       </c>
       <c r="I48" s="3">
-        <v>4033300</v>
+        <v>4105900</v>
       </c>
       <c r="J48" s="3">
-        <v>3530900</v>
+        <v>3594400</v>
       </c>
       <c r="K48" s="3">
         <v>3326000</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2272100</v>
+        <v>2313100</v>
       </c>
       <c r="E49" s="3">
-        <v>2392900</v>
+        <v>2436000</v>
       </c>
       <c r="F49" s="3">
-        <v>2297600</v>
+        <v>2339000</v>
       </c>
       <c r="G49" s="3">
-        <v>1065300</v>
+        <v>1084500</v>
       </c>
       <c r="H49" s="3">
-        <v>1121800</v>
+        <v>1142000</v>
       </c>
       <c r="I49" s="3">
-        <v>1047900</v>
+        <v>1066800</v>
       </c>
       <c r="J49" s="3">
-        <v>1114900</v>
+        <v>1135000</v>
       </c>
       <c r="K49" s="3">
         <v>1036600</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>496600</v>
+        <v>505600</v>
       </c>
       <c r="E52" s="3">
-        <v>548400</v>
+        <v>558300</v>
       </c>
       <c r="F52" s="3">
-        <v>575900</v>
+        <v>586200</v>
       </c>
       <c r="G52" s="3">
-        <v>555600</v>
+        <v>565600</v>
       </c>
       <c r="H52" s="3">
-        <v>639900</v>
+        <v>651400</v>
       </c>
       <c r="I52" s="3">
-        <v>755700</v>
+        <v>769300</v>
       </c>
       <c r="J52" s="3">
-        <v>526400</v>
+        <v>535900</v>
       </c>
       <c r="K52" s="3">
         <v>425900</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18345500</v>
+        <v>18675900</v>
       </c>
       <c r="E54" s="3">
-        <v>18809000</v>
+        <v>19147700</v>
       </c>
       <c r="F54" s="3">
-        <v>17985200</v>
+        <v>18309100</v>
       </c>
       <c r="G54" s="3">
-        <v>15711300</v>
+        <v>15994200</v>
       </c>
       <c r="H54" s="3">
-        <v>13693500</v>
+        <v>13940100</v>
       </c>
       <c r="I54" s="3">
-        <v>13256400</v>
+        <v>13495200</v>
       </c>
       <c r="J54" s="3">
-        <v>11701700</v>
+        <v>11912500</v>
       </c>
       <c r="K54" s="3">
         <v>10632000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1905200</v>
+        <v>1939500</v>
       </c>
       <c r="E57" s="3">
-        <v>1792600</v>
+        <v>1824900</v>
       </c>
       <c r="F57" s="3">
-        <v>2140900</v>
+        <v>2179500</v>
       </c>
       <c r="G57" s="3">
-        <v>1667500</v>
+        <v>1697500</v>
       </c>
       <c r="H57" s="3">
-        <v>1063500</v>
+        <v>1082700</v>
       </c>
       <c r="I57" s="3">
-        <v>1053400</v>
+        <v>1072400</v>
       </c>
       <c r="J57" s="3">
-        <v>903300</v>
+        <v>919600</v>
       </c>
       <c r="K57" s="3">
         <v>772800</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2692200</v>
+        <v>2740600</v>
       </c>
       <c r="E58" s="3">
-        <v>2950800</v>
+        <v>3004000</v>
       </c>
       <c r="F58" s="3">
-        <v>1785500</v>
+        <v>1817600</v>
       </c>
       <c r="G58" s="3">
-        <v>1134700</v>
+        <v>1155100</v>
       </c>
       <c r="H58" s="3">
-        <v>1840000</v>
+        <v>1873100</v>
       </c>
       <c r="I58" s="3">
-        <v>1291900</v>
+        <v>1315100</v>
       </c>
       <c r="J58" s="3">
-        <v>1599000</v>
+        <v>1627800</v>
       </c>
       <c r="K58" s="3">
         <v>1801100</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2189100</v>
+        <v>2228500</v>
       </c>
       <c r="E59" s="3">
-        <v>1999800</v>
+        <v>2035800</v>
       </c>
       <c r="F59" s="3">
-        <v>1766300</v>
+        <v>1798100</v>
       </c>
       <c r="G59" s="3">
-        <v>1706300</v>
+        <v>1737000</v>
       </c>
       <c r="H59" s="3">
-        <v>1356100</v>
+        <v>1380600</v>
       </c>
       <c r="I59" s="3">
-        <v>1316300</v>
+        <v>1340000</v>
       </c>
       <c r="J59" s="3">
-        <v>1026200</v>
+        <v>1044700</v>
       </c>
       <c r="K59" s="3">
         <v>861600</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6786500</v>
+        <v>6908700</v>
       </c>
       <c r="E60" s="3">
-        <v>6743200</v>
+        <v>6864600</v>
       </c>
       <c r="F60" s="3">
-        <v>5692700</v>
+        <v>5795200</v>
       </c>
       <c r="G60" s="3">
-        <v>4508500</v>
+        <v>4589700</v>
       </c>
       <c r="H60" s="3">
-        <v>4259600</v>
+        <v>4336400</v>
       </c>
       <c r="I60" s="3">
-        <v>3661600</v>
+        <v>3727500</v>
       </c>
       <c r="J60" s="3">
-        <v>3528500</v>
+        <v>3592000</v>
       </c>
       <c r="K60" s="3">
         <v>3435400</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1372400</v>
+        <v>1397100</v>
       </c>
       <c r="E61" s="3">
-        <v>1960500</v>
+        <v>1995800</v>
       </c>
       <c r="F61" s="3">
-        <v>2774200</v>
+        <v>2824200</v>
       </c>
       <c r="G61" s="3">
-        <v>2019500</v>
+        <v>2055900</v>
       </c>
       <c r="H61" s="3">
-        <v>1329600</v>
+        <v>1353500</v>
       </c>
       <c r="I61" s="3">
-        <v>1241200</v>
+        <v>1263600</v>
       </c>
       <c r="J61" s="3">
-        <v>921600</v>
+        <v>938200</v>
       </c>
       <c r="K61" s="3">
         <v>886100</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2176200</v>
+        <v>2215300</v>
       </c>
       <c r="E62" s="3">
-        <v>1762700</v>
+        <v>1794400</v>
       </c>
       <c r="F62" s="3">
-        <v>1671400</v>
+        <v>1701500</v>
       </c>
       <c r="G62" s="3">
-        <v>1611300</v>
+        <v>1640300</v>
       </c>
       <c r="H62" s="3">
-        <v>1641300</v>
+        <v>1670900</v>
       </c>
       <c r="I62" s="3">
-        <v>1198100</v>
+        <v>1219700</v>
       </c>
       <c r="J62" s="3">
-        <v>1094500</v>
+        <v>1114200</v>
       </c>
       <c r="K62" s="3">
         <v>1032700</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10378500</v>
+        <v>10565400</v>
       </c>
       <c r="E66" s="3">
-        <v>10527400</v>
+        <v>10717000</v>
       </c>
       <c r="F66" s="3">
-        <v>10200600</v>
+        <v>10384300</v>
       </c>
       <c r="G66" s="3">
-        <v>8219600</v>
+        <v>8367600</v>
       </c>
       <c r="H66" s="3">
-        <v>7318100</v>
+        <v>7449900</v>
       </c>
       <c r="I66" s="3">
-        <v>6281600</v>
+        <v>6394700</v>
       </c>
       <c r="J66" s="3">
-        <v>5704200</v>
+        <v>5807000</v>
       </c>
       <c r="K66" s="3">
         <v>5531000</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9594800</v>
+        <v>9767500</v>
       </c>
       <c r="E72" s="3">
-        <v>9252000</v>
+        <v>9418600</v>
       </c>
       <c r="F72" s="3">
-        <v>8684100</v>
+        <v>8840500</v>
       </c>
       <c r="G72" s="3">
-        <v>8228000</v>
+        <v>8376200</v>
       </c>
       <c r="H72" s="3">
-        <v>7001900</v>
+        <v>7128000</v>
       </c>
       <c r="I72" s="3">
-        <v>6521600</v>
+        <v>6639000</v>
       </c>
       <c r="J72" s="3">
-        <v>6150800</v>
+        <v>6261600</v>
       </c>
       <c r="K72" s="3">
         <v>5843100</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7967000</v>
+        <v>8110400</v>
       </c>
       <c r="E76" s="3">
-        <v>8281600</v>
+        <v>8430800</v>
       </c>
       <c r="F76" s="3">
-        <v>7784500</v>
+        <v>7924700</v>
       </c>
       <c r="G76" s="3">
-        <v>7491700</v>
+        <v>7626600</v>
       </c>
       <c r="H76" s="3">
-        <v>6375400</v>
+        <v>6490200</v>
       </c>
       <c r="I76" s="3">
-        <v>6974800</v>
+        <v>7100500</v>
       </c>
       <c r="J76" s="3">
-        <v>5997500</v>
+        <v>6105500</v>
       </c>
       <c r="K76" s="3">
         <v>5101000</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>545400</v>
+        <v>555300</v>
       </c>
       <c r="E81" s="3">
-        <v>776000</v>
+        <v>790000</v>
       </c>
       <c r="F81" s="3">
-        <v>565900</v>
+        <v>576100</v>
       </c>
       <c r="G81" s="3">
-        <v>1369700</v>
+        <v>1394400</v>
       </c>
       <c r="H81" s="3">
-        <v>612000</v>
+        <v>623000</v>
       </c>
       <c r="I81" s="3">
-        <v>466700</v>
+        <v>475100</v>
       </c>
       <c r="J81" s="3">
-        <v>153800</v>
+        <v>156500</v>
       </c>
       <c r="K81" s="3">
         <v>10900</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1179800</v>
+        <v>1201100</v>
       </c>
       <c r="E83" s="3">
-        <v>1006600</v>
+        <v>1024700</v>
       </c>
       <c r="F83" s="3">
-        <v>870100</v>
+        <v>885800</v>
       </c>
       <c r="G83" s="3">
-        <v>825900</v>
+        <v>840800</v>
       </c>
       <c r="H83" s="3">
-        <v>785600</v>
+        <v>799800</v>
       </c>
       <c r="I83" s="3">
-        <v>757600</v>
+        <v>771200</v>
       </c>
       <c r="J83" s="3">
-        <v>784500</v>
+        <v>798700</v>
       </c>
       <c r="K83" s="3">
         <v>708500</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2099400</v>
+        <v>2137200</v>
       </c>
       <c r="E89" s="3">
-        <v>1324200</v>
+        <v>1348000</v>
       </c>
       <c r="F89" s="3">
-        <v>862000</v>
+        <v>877500</v>
       </c>
       <c r="G89" s="3">
-        <v>1511700</v>
+        <v>1538900</v>
       </c>
       <c r="H89" s="3">
-        <v>1430800</v>
+        <v>1456500</v>
       </c>
       <c r="I89" s="3">
-        <v>1348500</v>
+        <v>1372800</v>
       </c>
       <c r="J89" s="3">
-        <v>1201800</v>
+        <v>1223400</v>
       </c>
       <c r="K89" s="3">
         <v>990300</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1637200</v>
+        <v>-1666700</v>
       </c>
       <c r="E91" s="3">
-        <v>-1638700</v>
+        <v>-1668200</v>
       </c>
       <c r="F91" s="3">
-        <v>-1686100</v>
+        <v>-1716500</v>
       </c>
       <c r="G91" s="3">
-        <v>-1582400</v>
+        <v>-1610900</v>
       </c>
       <c r="H91" s="3">
-        <v>-1516800</v>
+        <v>-1544100</v>
       </c>
       <c r="I91" s="3">
-        <v>-967800</v>
+        <v>-985300</v>
       </c>
       <c r="J91" s="3">
-        <v>-647600</v>
+        <v>-659300</v>
       </c>
       <c r="K91" s="3">
         <v>-778200</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-396100</v>
+        <v>-403300</v>
       </c>
       <c r="E94" s="3">
-        <v>-1323300</v>
+        <v>-1347100</v>
       </c>
       <c r="F94" s="3">
-        <v>-2323200</v>
+        <v>-2365000</v>
       </c>
       <c r="G94" s="3">
-        <v>-671300</v>
+        <v>-683400</v>
       </c>
       <c r="H94" s="3">
-        <v>-1327100</v>
+        <v>-1351000</v>
       </c>
       <c r="I94" s="3">
-        <v>-1201800</v>
+        <v>-1223500</v>
       </c>
       <c r="J94" s="3">
-        <v>-523300</v>
+        <v>-532800</v>
       </c>
       <c r="K94" s="3">
         <v>-819500</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-202700</v>
+        <v>-206300</v>
       </c>
       <c r="E96" s="3">
-        <v>-178900</v>
+        <v>-182100</v>
       </c>
       <c r="F96" s="3">
-        <v>-142900</v>
+        <v>-145500</v>
       </c>
       <c r="G96" s="3">
-        <v>-142800</v>
+        <v>-145400</v>
       </c>
       <c r="H96" s="3">
-        <v>-130900</v>
+        <v>-133200</v>
       </c>
       <c r="I96" s="3">
-        <v>-95100</v>
+        <v>-96800</v>
       </c>
       <c r="J96" s="3">
-        <v>-71300</v>
+        <v>-72600</v>
       </c>
       <c r="K96" s="3">
         <v>-91500</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1149500</v>
+        <v>-1170200</v>
       </c>
       <c r="E100" s="3">
-        <v>89100</v>
+        <v>90700</v>
       </c>
       <c r="F100" s="3">
-        <v>1039200</v>
+        <v>1057900</v>
       </c>
       <c r="G100" s="3">
-        <v>-356400</v>
+        <v>-362800</v>
       </c>
       <c r="H100" s="3">
-        <v>276600</v>
+        <v>281600</v>
       </c>
       <c r="I100" s="3">
-        <v>-332700</v>
+        <v>-338700</v>
       </c>
       <c r="J100" s="3">
-        <v>-529800</v>
+        <v>-539300</v>
       </c>
       <c r="K100" s="3">
         <v>40000</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-142700</v>
+        <v>-145300</v>
       </c>
       <c r="E101" s="3">
         <v>200</v>
       </c>
       <c r="F101" s="3">
-        <v>-57200</v>
+        <v>-58300</v>
       </c>
       <c r="G101" s="3">
-        <v>-60000</v>
+        <v>-61000</v>
       </c>
       <c r="H101" s="3">
-        <v>-188000</v>
+        <v>-191400</v>
       </c>
       <c r="I101" s="3">
-        <v>320600</v>
+        <v>326400</v>
       </c>
       <c r="J101" s="3">
-        <v>202100</v>
+        <v>205700</v>
       </c>
       <c r="K101" s="3">
         <v>213500</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>411000</v>
+        <v>418400</v>
       </c>
       <c r="E102" s="3">
-        <v>90200</v>
+        <v>91800</v>
       </c>
       <c r="F102" s="3">
-        <v>-479200</v>
+        <v>-487800</v>
       </c>
       <c r="G102" s="3">
-        <v>424000</v>
+        <v>431700</v>
       </c>
       <c r="H102" s="3">
-        <v>192200</v>
+        <v>195700</v>
       </c>
       <c r="I102" s="3">
-        <v>134600</v>
+        <v>137000</v>
       </c>
       <c r="J102" s="3">
-        <v>350800</v>
+        <v>357100</v>
       </c>
       <c r="K102" s="3">
         <v>424200</v>

--- a/AAII_Financials/Yearly/TTDKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TTDKY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13098800</v>
+        <v>12485400</v>
       </c>
       <c r="E8" s="3">
-        <v>13279200</v>
+        <v>12657300</v>
       </c>
       <c r="F8" s="3">
-        <v>12221500</v>
+        <v>11649200</v>
       </c>
       <c r="G8" s="3">
-        <v>11323000</v>
+        <v>10792800</v>
       </c>
       <c r="H8" s="3">
-        <v>11073200</v>
+        <v>10554700</v>
       </c>
       <c r="I8" s="3">
-        <v>10403400</v>
+        <v>9916200</v>
       </c>
       <c r="J8" s="3">
-        <v>9461300</v>
+        <v>9018200</v>
       </c>
       <c r="K8" s="3">
         <v>7740800</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9222900</v>
+        <v>8791000</v>
       </c>
       <c r="E9" s="3">
-        <v>9468900</v>
+        <v>9025500</v>
       </c>
       <c r="F9" s="3">
-        <v>8923100</v>
+        <v>8505300</v>
       </c>
       <c r="G9" s="3">
-        <v>8225700</v>
+        <v>7840500</v>
       </c>
       <c r="H9" s="3">
-        <v>7987100</v>
+        <v>7613100</v>
       </c>
       <c r="I9" s="3">
-        <v>7709400</v>
+        <v>7348400</v>
       </c>
       <c r="J9" s="3">
-        <v>7337900</v>
+        <v>6994300</v>
       </c>
       <c r="K9" s="3">
         <v>6145600</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3875900</v>
+        <v>3694400</v>
       </c>
       <c r="E10" s="3">
-        <v>3810200</v>
+        <v>3631800</v>
       </c>
       <c r="F10" s="3">
-        <v>3298400</v>
+        <v>3143900</v>
       </c>
       <c r="G10" s="3">
-        <v>3097400</v>
+        <v>2952400</v>
       </c>
       <c r="H10" s="3">
-        <v>3086100</v>
+        <v>2941600</v>
       </c>
       <c r="I10" s="3">
-        <v>2694000</v>
+        <v>2567900</v>
       </c>
       <c r="J10" s="3">
-        <v>2123400</v>
+        <v>2023900</v>
       </c>
       <c r="K10" s="3">
         <v>1595300</v>
@@ -897,7 +897,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>191200</v>
+        <v>182300</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12170800</v>
+        <v>11600900</v>
       </c>
       <c r="E17" s="3">
-        <v>12243000</v>
+        <v>11669700</v>
       </c>
       <c r="F17" s="3">
-        <v>11359500</v>
+        <v>10827600</v>
       </c>
       <c r="G17" s="3">
-        <v>9317800</v>
+        <v>8881500</v>
       </c>
       <c r="H17" s="3">
-        <v>10175500</v>
+        <v>9699000</v>
       </c>
       <c r="I17" s="3">
-        <v>9707100</v>
+        <v>9252500</v>
       </c>
       <c r="J17" s="3">
-        <v>9109400</v>
+        <v>8682800</v>
       </c>
       <c r="K17" s="3">
         <v>7544000</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>928000</v>
+        <v>884500</v>
       </c>
       <c r="E18" s="3">
-        <v>1036200</v>
+        <v>987700</v>
       </c>
       <c r="F18" s="3">
-        <v>861900</v>
+        <v>821600</v>
       </c>
       <c r="G18" s="3">
-        <v>2005200</v>
+        <v>1911300</v>
       </c>
       <c r="H18" s="3">
-        <v>897700</v>
+        <v>855700</v>
       </c>
       <c r="I18" s="3">
-        <v>696300</v>
+        <v>663700</v>
       </c>
       <c r="J18" s="3">
-        <v>351900</v>
+        <v>335400</v>
       </c>
       <c r="K18" s="3">
         <v>196800</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>28700</v>
+        <v>27300</v>
       </c>
       <c r="E20" s="3">
-        <v>114200</v>
+        <v>108900</v>
       </c>
       <c r="F20" s="3">
-        <v>44000</v>
+        <v>42000</v>
       </c>
       <c r="G20" s="3">
-        <v>62300</v>
+        <v>59400</v>
       </c>
       <c r="H20" s="3">
-        <v>14800</v>
+        <v>14100</v>
       </c>
       <c r="I20" s="3">
-        <v>48500</v>
+        <v>46300</v>
       </c>
       <c r="J20" s="3">
-        <v>63600</v>
+        <v>60600</v>
       </c>
       <c r="K20" s="3">
         <v>500</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2155200</v>
+        <v>2061700</v>
       </c>
       <c r="E21" s="3">
-        <v>2173000</v>
+        <v>2077500</v>
       </c>
       <c r="F21" s="3">
-        <v>1789900</v>
+        <v>1711500</v>
       </c>
       <c r="G21" s="3">
-        <v>2906600</v>
+        <v>2775600</v>
       </c>
       <c r="H21" s="3">
-        <v>1710600</v>
+        <v>1635400</v>
       </c>
       <c r="I21" s="3">
-        <v>1514400</v>
+        <v>1448300</v>
       </c>
       <c r="J21" s="3">
-        <v>1212400</v>
+        <v>1160600</v>
       </c>
       <c r="K21" s="3">
         <v>907300</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>35300</v>
+        <v>33600</v>
       </c>
       <c r="E22" s="3">
-        <v>39900</v>
+        <v>38100</v>
       </c>
       <c r="F22" s="3">
-        <v>42900</v>
+        <v>40900</v>
       </c>
       <c r="G22" s="3">
-        <v>32900</v>
+        <v>31400</v>
       </c>
       <c r="H22" s="3">
-        <v>29900</v>
+        <v>28500</v>
       </c>
       <c r="I22" s="3">
-        <v>28800</v>
+        <v>27400</v>
       </c>
       <c r="J22" s="3">
-        <v>33200</v>
+        <v>31700</v>
       </c>
       <c r="K22" s="3">
         <v>25800</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>921400</v>
+        <v>878200</v>
       </c>
       <c r="E23" s="3">
-        <v>1110500</v>
+        <v>1058500</v>
       </c>
       <c r="F23" s="3">
-        <v>863100</v>
+        <v>822700</v>
       </c>
       <c r="G23" s="3">
-        <v>2034600</v>
+        <v>1939300</v>
       </c>
       <c r="H23" s="3">
-        <v>882600</v>
+        <v>841200</v>
       </c>
       <c r="I23" s="3">
-        <v>716100</v>
+        <v>682600</v>
       </c>
       <c r="J23" s="3">
-        <v>382200</v>
+        <v>364300</v>
       </c>
       <c r="K23" s="3">
         <v>171400</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>372100</v>
+        <v>354700</v>
       </c>
       <c r="E24" s="3">
-        <v>317200</v>
+        <v>302300</v>
       </c>
       <c r="F24" s="3">
-        <v>248300</v>
+        <v>236600</v>
       </c>
       <c r="G24" s="3">
-        <v>635800</v>
+        <v>606000</v>
       </c>
       <c r="H24" s="3">
-        <v>242300</v>
+        <v>231000</v>
       </c>
       <c r="I24" s="3">
-        <v>208900</v>
+        <v>199100</v>
       </c>
       <c r="J24" s="3">
-        <v>172400</v>
+        <v>164300</v>
       </c>
       <c r="K24" s="3">
         <v>130200</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>549300</v>
+        <v>523600</v>
       </c>
       <c r="E26" s="3">
-        <v>793300</v>
+        <v>756200</v>
       </c>
       <c r="F26" s="3">
-        <v>614800</v>
+        <v>586000</v>
       </c>
       <c r="G26" s="3">
-        <v>1398800</v>
+        <v>1333300</v>
       </c>
       <c r="H26" s="3">
-        <v>640200</v>
+        <v>610300</v>
       </c>
       <c r="I26" s="3">
-        <v>507200</v>
+        <v>483500</v>
       </c>
       <c r="J26" s="3">
-        <v>209800</v>
+        <v>200000</v>
       </c>
       <c r="K26" s="3">
         <v>41200</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>555300</v>
+        <v>529300</v>
       </c>
       <c r="E27" s="3">
-        <v>790000</v>
+        <v>753000</v>
       </c>
       <c r="F27" s="3">
-        <v>609900</v>
+        <v>581300</v>
       </c>
       <c r="G27" s="3">
-        <v>1394400</v>
+        <v>1329100</v>
       </c>
       <c r="H27" s="3">
-        <v>623000</v>
+        <v>593800</v>
       </c>
       <c r="I27" s="3">
-        <v>475100</v>
+        <v>452900</v>
       </c>
       <c r="J27" s="3">
-        <v>191100</v>
+        <v>182200</v>
       </c>
       <c r="K27" s="3">
         <v>10900</v>
@@ -1359,7 +1359,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="3">
-        <v>-33800</v>
+        <v>-32200</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1371,7 +1371,7 @@
         <v>8</v>
       </c>
       <c r="J29" s="3">
-        <v>-34600</v>
+        <v>-33000</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-28700</v>
+        <v>-27300</v>
       </c>
       <c r="E32" s="3">
-        <v>-114200</v>
+        <v>-108900</v>
       </c>
       <c r="F32" s="3">
-        <v>-44000</v>
+        <v>-42000</v>
       </c>
       <c r="G32" s="3">
-        <v>-62300</v>
+        <v>-59400</v>
       </c>
       <c r="H32" s="3">
-        <v>-14800</v>
+        <v>-14100</v>
       </c>
       <c r="I32" s="3">
-        <v>-48500</v>
+        <v>-46300</v>
       </c>
       <c r="J32" s="3">
-        <v>-63600</v>
+        <v>-60600</v>
       </c>
       <c r="K32" s="3">
         <v>-500</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>555300</v>
+        <v>529300</v>
       </c>
       <c r="E33" s="3">
-        <v>790000</v>
+        <v>753000</v>
       </c>
       <c r="F33" s="3">
-        <v>576100</v>
+        <v>549100</v>
       </c>
       <c r="G33" s="3">
-        <v>1394400</v>
+        <v>1329100</v>
       </c>
       <c r="H33" s="3">
-        <v>623000</v>
+        <v>593800</v>
       </c>
       <c r="I33" s="3">
-        <v>475100</v>
+        <v>452900</v>
       </c>
       <c r="J33" s="3">
-        <v>156500</v>
+        <v>149200</v>
       </c>
       <c r="K33" s="3">
         <v>10900</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>555300</v>
+        <v>529300</v>
       </c>
       <c r="E35" s="3">
-        <v>790000</v>
+        <v>753000</v>
       </c>
       <c r="F35" s="3">
-        <v>576100</v>
+        <v>549100</v>
       </c>
       <c r="G35" s="3">
-        <v>1394400</v>
+        <v>1329100</v>
       </c>
       <c r="H35" s="3">
-        <v>623000</v>
+        <v>593800</v>
       </c>
       <c r="I35" s="3">
-        <v>475100</v>
+        <v>452900</v>
       </c>
       <c r="J35" s="3">
-        <v>156500</v>
+        <v>149200</v>
       </c>
       <c r="K35" s="3">
         <v>10900</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3197400</v>
+        <v>3047700</v>
       </c>
       <c r="E41" s="3">
-        <v>2779000</v>
+        <v>2648800</v>
       </c>
       <c r="F41" s="3">
-        <v>2687200</v>
+        <v>2561400</v>
       </c>
       <c r="G41" s="3">
-        <v>3175000</v>
+        <v>3026400</v>
       </c>
       <c r="H41" s="3">
-        <v>2743300</v>
+        <v>2614900</v>
       </c>
       <c r="I41" s="3">
-        <v>2547600</v>
+        <v>2428400</v>
       </c>
       <c r="J41" s="3">
-        <v>2410600</v>
+        <v>2297800</v>
       </c>
       <c r="K41" s="3">
         <v>1942400</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>312800</v>
+        <v>298200</v>
       </c>
       <c r="E42" s="3">
-        <v>389800</v>
+        <v>371500</v>
       </c>
       <c r="F42" s="3">
-        <v>419600</v>
+        <v>400000</v>
       </c>
       <c r="G42" s="3">
-        <v>539400</v>
+        <v>514200</v>
       </c>
       <c r="H42" s="3">
-        <v>211100</v>
+        <v>201200</v>
       </c>
       <c r="I42" s="3">
-        <v>205600</v>
+        <v>196000</v>
       </c>
       <c r="J42" s="3">
-        <v>83500</v>
+        <v>79600</v>
       </c>
       <c r="K42" s="3">
         <v>97500</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3068900</v>
+        <v>2925200</v>
       </c>
       <c r="E43" s="3">
-        <v>3026500</v>
+        <v>2884700</v>
       </c>
       <c r="F43" s="3">
-        <v>2979900</v>
+        <v>2840400</v>
       </c>
       <c r="G43" s="3">
-        <v>2508800</v>
+        <v>2391300</v>
       </c>
       <c r="H43" s="3">
-        <v>2218700</v>
+        <v>2114800</v>
       </c>
       <c r="I43" s="3">
-        <v>2333800</v>
+        <v>2224600</v>
       </c>
       <c r="J43" s="3">
-        <v>2035200</v>
+        <v>1939900</v>
       </c>
       <c r="K43" s="3">
         <v>1773000</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2272300</v>
+        <v>2165900</v>
       </c>
       <c r="E44" s="3">
-        <v>2180400</v>
+        <v>2078300</v>
       </c>
       <c r="F44" s="3">
-        <v>1994400</v>
+        <v>1901000</v>
       </c>
       <c r="G44" s="3">
-        <v>1484700</v>
+        <v>1415200</v>
       </c>
       <c r="H44" s="3">
-        <v>1510000</v>
+        <v>1439300</v>
       </c>
       <c r="I44" s="3">
-        <v>1451200</v>
+        <v>1383300</v>
       </c>
       <c r="J44" s="3">
-        <v>1310700</v>
+        <v>1249300</v>
       </c>
       <c r="K44" s="3">
         <v>1253200</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>436500</v>
+        <v>416000</v>
       </c>
       <c r="E45" s="3">
-        <v>489400</v>
+        <v>466500</v>
       </c>
       <c r="F45" s="3">
-        <v>567300</v>
+        <v>540700</v>
       </c>
       <c r="G45" s="3">
-        <v>615600</v>
+        <v>586800</v>
       </c>
       <c r="H45" s="3">
-        <v>437800</v>
+        <v>417300</v>
       </c>
       <c r="I45" s="3">
-        <v>575400</v>
+        <v>548500</v>
       </c>
       <c r="J45" s="3">
-        <v>438000</v>
+        <v>417500</v>
       </c>
       <c r="K45" s="3">
         <v>484400</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9287900</v>
+        <v>8853000</v>
       </c>
       <c r="E46" s="3">
-        <v>8865100</v>
+        <v>8450000</v>
       </c>
       <c r="F46" s="3">
-        <v>8648400</v>
+        <v>8243400</v>
       </c>
       <c r="G46" s="3">
-        <v>8323600</v>
+        <v>7933800</v>
       </c>
       <c r="H46" s="3">
-        <v>7121000</v>
+        <v>6787500</v>
       </c>
       <c r="I46" s="3">
-        <v>7113700</v>
+        <v>6780600</v>
       </c>
       <c r="J46" s="3">
-        <v>6278100</v>
+        <v>5984100</v>
       </c>
       <c r="K46" s="3">
         <v>5550600</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>319300</v>
+        <v>304400</v>
       </c>
       <c r="E47" s="3">
-        <v>1492500</v>
+        <v>1422600</v>
       </c>
       <c r="F47" s="3">
-        <v>1491900</v>
+        <v>1422000</v>
       </c>
       <c r="G47" s="3">
-        <v>1555100</v>
+        <v>1482300</v>
       </c>
       <c r="H47" s="3">
-        <v>339600</v>
+        <v>323700</v>
       </c>
       <c r="I47" s="3">
-        <v>439500</v>
+        <v>418900</v>
       </c>
       <c r="J47" s="3">
-        <v>369000</v>
+        <v>351800</v>
       </c>
       <c r="K47" s="3">
         <v>292800</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6250000</v>
+        <v>5957300</v>
       </c>
       <c r="E48" s="3">
-        <v>5795900</v>
+        <v>5524500</v>
       </c>
       <c r="F48" s="3">
-        <v>5243600</v>
+        <v>4998100</v>
       </c>
       <c r="G48" s="3">
-        <v>4465400</v>
+        <v>4256300</v>
       </c>
       <c r="H48" s="3">
-        <v>4686200</v>
+        <v>4466800</v>
       </c>
       <c r="I48" s="3">
-        <v>4105900</v>
+        <v>3913600</v>
       </c>
       <c r="J48" s="3">
-        <v>3594400</v>
+        <v>3426100</v>
       </c>
       <c r="K48" s="3">
         <v>3326000</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2313100</v>
+        <v>2204700</v>
       </c>
       <c r="E49" s="3">
-        <v>2436000</v>
+        <v>2321900</v>
       </c>
       <c r="F49" s="3">
-        <v>2339000</v>
+        <v>2229400</v>
       </c>
       <c r="G49" s="3">
-        <v>1084500</v>
+        <v>1033700</v>
       </c>
       <c r="H49" s="3">
-        <v>1142000</v>
+        <v>1088500</v>
       </c>
       <c r="I49" s="3">
-        <v>1066800</v>
+        <v>1016800</v>
       </c>
       <c r="J49" s="3">
-        <v>1135000</v>
+        <v>1081800</v>
       </c>
       <c r="K49" s="3">
         <v>1036600</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>505600</v>
+        <v>481900</v>
       </c>
       <c r="E52" s="3">
-        <v>558300</v>
+        <v>532100</v>
       </c>
       <c r="F52" s="3">
-        <v>586200</v>
+        <v>558800</v>
       </c>
       <c r="G52" s="3">
-        <v>565600</v>
+        <v>539100</v>
       </c>
       <c r="H52" s="3">
-        <v>651400</v>
+        <v>620900</v>
       </c>
       <c r="I52" s="3">
-        <v>769300</v>
+        <v>733200</v>
       </c>
       <c r="J52" s="3">
-        <v>535900</v>
+        <v>510800</v>
       </c>
       <c r="K52" s="3">
         <v>425900</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18675900</v>
+        <v>17801400</v>
       </c>
       <c r="E54" s="3">
-        <v>19147700</v>
+        <v>18251100</v>
       </c>
       <c r="F54" s="3">
-        <v>18309100</v>
+        <v>17451700</v>
       </c>
       <c r="G54" s="3">
-        <v>15994200</v>
+        <v>15245300</v>
       </c>
       <c r="H54" s="3">
-        <v>13940100</v>
+        <v>13287400</v>
       </c>
       <c r="I54" s="3">
-        <v>13495200</v>
+        <v>12863200</v>
       </c>
       <c r="J54" s="3">
-        <v>11912500</v>
+        <v>11354600</v>
       </c>
       <c r="K54" s="3">
         <v>10632000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1939500</v>
+        <v>1848700</v>
       </c>
       <c r="E57" s="3">
-        <v>1824900</v>
+        <v>1739400</v>
       </c>
       <c r="F57" s="3">
-        <v>2179500</v>
+        <v>2077400</v>
       </c>
       <c r="G57" s="3">
-        <v>1697500</v>
+        <v>1618100</v>
       </c>
       <c r="H57" s="3">
-        <v>1082700</v>
+        <v>1032000</v>
       </c>
       <c r="I57" s="3">
-        <v>1072400</v>
+        <v>1022200</v>
       </c>
       <c r="J57" s="3">
-        <v>919600</v>
+        <v>876500</v>
       </c>
       <c r="K57" s="3">
         <v>772800</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2740600</v>
+        <v>2607200</v>
       </c>
       <c r="E58" s="3">
-        <v>3004000</v>
+        <v>2863300</v>
       </c>
       <c r="F58" s="3">
-        <v>1817600</v>
+        <v>1732500</v>
       </c>
       <c r="G58" s="3">
-        <v>1155100</v>
+        <v>1101000</v>
       </c>
       <c r="H58" s="3">
-        <v>1873100</v>
+        <v>1785400</v>
       </c>
       <c r="I58" s="3">
-        <v>1315100</v>
+        <v>1253500</v>
       </c>
       <c r="J58" s="3">
-        <v>1627800</v>
+        <v>1551600</v>
       </c>
       <c r="K58" s="3">
         <v>1801100</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2228500</v>
+        <v>2129300</v>
       </c>
       <c r="E59" s="3">
-        <v>2035800</v>
+        <v>1940500</v>
       </c>
       <c r="F59" s="3">
-        <v>1798100</v>
+        <v>1713900</v>
       </c>
       <c r="G59" s="3">
-        <v>1737000</v>
+        <v>1655700</v>
       </c>
       <c r="H59" s="3">
-        <v>1380600</v>
+        <v>1315900</v>
       </c>
       <c r="I59" s="3">
-        <v>1340000</v>
+        <v>1277200</v>
       </c>
       <c r="J59" s="3">
-        <v>1044700</v>
+        <v>995800</v>
       </c>
       <c r="K59" s="3">
         <v>861600</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6908700</v>
+        <v>6585200</v>
       </c>
       <c r="E60" s="3">
-        <v>6864600</v>
+        <v>6543200</v>
       </c>
       <c r="F60" s="3">
-        <v>5795200</v>
+        <v>5523800</v>
       </c>
       <c r="G60" s="3">
-        <v>4589700</v>
+        <v>4374800</v>
       </c>
       <c r="H60" s="3">
-        <v>4336400</v>
+        <v>4133300</v>
       </c>
       <c r="I60" s="3">
-        <v>3727500</v>
+        <v>3553000</v>
       </c>
       <c r="J60" s="3">
-        <v>3592000</v>
+        <v>3423800</v>
       </c>
       <c r="K60" s="3">
         <v>3435400</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1397100</v>
+        <v>1283000</v>
       </c>
       <c r="E61" s="3">
-        <v>1995800</v>
+        <v>1902400</v>
       </c>
       <c r="F61" s="3">
-        <v>2824200</v>
+        <v>2691900</v>
       </c>
       <c r="G61" s="3">
-        <v>2055900</v>
+        <v>1959600</v>
       </c>
       <c r="H61" s="3">
-        <v>1353500</v>
+        <v>1290200</v>
       </c>
       <c r="I61" s="3">
-        <v>1263600</v>
+        <v>1204400</v>
       </c>
       <c r="J61" s="3">
-        <v>938200</v>
+        <v>894200</v>
       </c>
       <c r="K61" s="3">
         <v>886100</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2215300</v>
+        <v>2160400</v>
       </c>
       <c r="E62" s="3">
-        <v>1794400</v>
+        <v>1710400</v>
       </c>
       <c r="F62" s="3">
-        <v>1701500</v>
+        <v>1621900</v>
       </c>
       <c r="G62" s="3">
-        <v>1640300</v>
+        <v>1563500</v>
       </c>
       <c r="H62" s="3">
-        <v>1670900</v>
+        <v>1592700</v>
       </c>
       <c r="I62" s="3">
-        <v>1219700</v>
+        <v>1162500</v>
       </c>
       <c r="J62" s="3">
-        <v>1114200</v>
+        <v>1062000</v>
       </c>
       <c r="K62" s="3">
         <v>1032700</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10565400</v>
+        <v>10070700</v>
       </c>
       <c r="E66" s="3">
-        <v>10717000</v>
+        <v>10215100</v>
       </c>
       <c r="F66" s="3">
-        <v>10384300</v>
+        <v>9898100</v>
       </c>
       <c r="G66" s="3">
-        <v>8367600</v>
+        <v>7975800</v>
       </c>
       <c r="H66" s="3">
-        <v>7449900</v>
+        <v>7101100</v>
       </c>
       <c r="I66" s="3">
-        <v>6394700</v>
+        <v>6095300</v>
       </c>
       <c r="J66" s="3">
-        <v>5807000</v>
+        <v>5535000</v>
       </c>
       <c r="K66" s="3">
         <v>5531000</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9767500</v>
+        <v>9310200</v>
       </c>
       <c r="E72" s="3">
-        <v>9418600</v>
+        <v>8977600</v>
       </c>
       <c r="F72" s="3">
-        <v>8840500</v>
+        <v>8426500</v>
       </c>
       <c r="G72" s="3">
-        <v>8376200</v>
+        <v>7984000</v>
       </c>
       <c r="H72" s="3">
-        <v>7128000</v>
+        <v>6794200</v>
       </c>
       <c r="I72" s="3">
-        <v>6639000</v>
+        <v>6328100</v>
       </c>
       <c r="J72" s="3">
-        <v>6261600</v>
+        <v>5968400</v>
       </c>
       <c r="K72" s="3">
         <v>5843100</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8110400</v>
+        <v>7730600</v>
       </c>
       <c r="E76" s="3">
-        <v>8430800</v>
+        <v>8036000</v>
       </c>
       <c r="F76" s="3">
-        <v>7924700</v>
+        <v>7553600</v>
       </c>
       <c r="G76" s="3">
-        <v>7626600</v>
+        <v>7269500</v>
       </c>
       <c r="H76" s="3">
-        <v>6490200</v>
+        <v>6186300</v>
       </c>
       <c r="I76" s="3">
-        <v>7100500</v>
+        <v>6768000</v>
       </c>
       <c r="J76" s="3">
-        <v>6105500</v>
+        <v>5819600</v>
       </c>
       <c r="K76" s="3">
         <v>5101000</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>555300</v>
+        <v>529300</v>
       </c>
       <c r="E81" s="3">
-        <v>790000</v>
+        <v>753000</v>
       </c>
       <c r="F81" s="3">
-        <v>576100</v>
+        <v>549100</v>
       </c>
       <c r="G81" s="3">
-        <v>1394400</v>
+        <v>1329100</v>
       </c>
       <c r="H81" s="3">
-        <v>623000</v>
+        <v>593800</v>
       </c>
       <c r="I81" s="3">
-        <v>475100</v>
+        <v>452900</v>
       </c>
       <c r="J81" s="3">
-        <v>156500</v>
+        <v>149200</v>
       </c>
       <c r="K81" s="3">
         <v>10900</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1201100</v>
+        <v>1144900</v>
       </c>
       <c r="E83" s="3">
-        <v>1024700</v>
+        <v>976700</v>
       </c>
       <c r="F83" s="3">
-        <v>885800</v>
+        <v>844300</v>
       </c>
       <c r="G83" s="3">
-        <v>840800</v>
+        <v>801400</v>
       </c>
       <c r="H83" s="3">
-        <v>799800</v>
+        <v>762300</v>
       </c>
       <c r="I83" s="3">
-        <v>771200</v>
+        <v>735100</v>
       </c>
       <c r="J83" s="3">
-        <v>798700</v>
+        <v>761300</v>
       </c>
       <c r="K83" s="3">
         <v>708500</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2137200</v>
+        <v>2037100</v>
       </c>
       <c r="E89" s="3">
-        <v>1348000</v>
+        <v>1284900</v>
       </c>
       <c r="F89" s="3">
-        <v>877500</v>
+        <v>836400</v>
       </c>
       <c r="G89" s="3">
-        <v>1538900</v>
+        <v>1466800</v>
       </c>
       <c r="H89" s="3">
-        <v>1456500</v>
+        <v>1388300</v>
       </c>
       <c r="I89" s="3">
-        <v>1372800</v>
+        <v>1308500</v>
       </c>
       <c r="J89" s="3">
-        <v>1223400</v>
+        <v>1166100</v>
       </c>
       <c r="K89" s="3">
         <v>990300</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1666700</v>
+        <v>-1588600</v>
       </c>
       <c r="E91" s="3">
-        <v>-1668200</v>
+        <v>-1590100</v>
       </c>
       <c r="F91" s="3">
-        <v>-1716500</v>
+        <v>-1636100</v>
       </c>
       <c r="G91" s="3">
-        <v>-1610900</v>
+        <v>-1535500</v>
       </c>
       <c r="H91" s="3">
-        <v>-1544100</v>
+        <v>-1471800</v>
       </c>
       <c r="I91" s="3">
-        <v>-985300</v>
+        <v>-939100</v>
       </c>
       <c r="J91" s="3">
-        <v>-659300</v>
+        <v>-628400</v>
       </c>
       <c r="K91" s="3">
         <v>-778200</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-403300</v>
+        <v>-384400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1347100</v>
+        <v>-1284000</v>
       </c>
       <c r="F94" s="3">
-        <v>-2365000</v>
+        <v>-2254300</v>
       </c>
       <c r="G94" s="3">
-        <v>-683400</v>
+        <v>-651400</v>
       </c>
       <c r="H94" s="3">
-        <v>-1351000</v>
+        <v>-1287800</v>
       </c>
       <c r="I94" s="3">
-        <v>-1223500</v>
+        <v>-1166200</v>
       </c>
       <c r="J94" s="3">
-        <v>-532800</v>
+        <v>-507800</v>
       </c>
       <c r="K94" s="3">
         <v>-819500</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-206300</v>
+        <v>-196700</v>
       </c>
       <c r="E96" s="3">
-        <v>-182100</v>
+        <v>-173600</v>
       </c>
       <c r="F96" s="3">
-        <v>-145500</v>
+        <v>-138700</v>
       </c>
       <c r="G96" s="3">
-        <v>-145400</v>
+        <v>-138600</v>
       </c>
       <c r="H96" s="3">
-        <v>-133200</v>
+        <v>-127000</v>
       </c>
       <c r="I96" s="3">
-        <v>-96800</v>
+        <v>-92200</v>
       </c>
       <c r="J96" s="3">
-        <v>-72600</v>
+        <v>-69200</v>
       </c>
       <c r="K96" s="3">
         <v>-91500</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1170200</v>
+        <v>-1115400</v>
       </c>
       <c r="E100" s="3">
-        <v>90700</v>
+        <v>86400</v>
       </c>
       <c r="F100" s="3">
-        <v>1057900</v>
+        <v>1008400</v>
       </c>
       <c r="G100" s="3">
-        <v>-362800</v>
+        <v>-345800</v>
       </c>
       <c r="H100" s="3">
-        <v>281600</v>
+        <v>268400</v>
       </c>
       <c r="I100" s="3">
-        <v>-338700</v>
+        <v>-322800</v>
       </c>
       <c r="J100" s="3">
-        <v>-539300</v>
+        <v>-514000</v>
       </c>
       <c r="K100" s="3">
         <v>40000</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-145300</v>
+        <v>-138500</v>
       </c>
       <c r="E101" s="3">
         <v>200</v>
       </c>
       <c r="F101" s="3">
-        <v>-58300</v>
+        <v>-55500</v>
       </c>
       <c r="G101" s="3">
-        <v>-61000</v>
+        <v>-58200</v>
       </c>
       <c r="H101" s="3">
-        <v>-191400</v>
+        <v>-182500</v>
       </c>
       <c r="I101" s="3">
-        <v>326400</v>
+        <v>311100</v>
       </c>
       <c r="J101" s="3">
-        <v>205700</v>
+        <v>196100</v>
       </c>
       <c r="K101" s="3">
         <v>213500</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>418400</v>
+        <v>398800</v>
       </c>
       <c r="E102" s="3">
-        <v>91800</v>
+        <v>87500</v>
       </c>
       <c r="F102" s="3">
-        <v>-487800</v>
+        <v>-465000</v>
       </c>
       <c r="G102" s="3">
-        <v>431700</v>
+        <v>411500</v>
       </c>
       <c r="H102" s="3">
-        <v>195700</v>
+        <v>186500</v>
       </c>
       <c r="I102" s="3">
-        <v>137000</v>
+        <v>130600</v>
       </c>
       <c r="J102" s="3">
-        <v>357100</v>
+        <v>340400</v>
       </c>
       <c r="K102" s="3">
         <v>424200</v>

--- a/AAII_Financials/Yearly/TTDKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TTDKY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>TTDKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42825</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42460</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42094</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41729</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41364</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40999</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12485400</v>
+        <v>13592100</v>
       </c>
       <c r="E8" s="3">
-        <v>12657300</v>
+        <v>12526300</v>
       </c>
       <c r="F8" s="3">
-        <v>11649200</v>
+        <v>12698800</v>
       </c>
       <c r="G8" s="3">
-        <v>10792800</v>
+        <v>11687400</v>
       </c>
       <c r="H8" s="3">
-        <v>10554700</v>
+        <v>10828200</v>
       </c>
       <c r="I8" s="3">
-        <v>9916200</v>
+        <v>10589200</v>
       </c>
       <c r="J8" s="3">
+        <v>9948700</v>
+      </c>
+      <c r="K8" s="3">
         <v>9018200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7740800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7363100</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8791000</v>
+        <v>9600700</v>
       </c>
       <c r="E9" s="3">
-        <v>9025500</v>
+        <v>8819800</v>
       </c>
       <c r="F9" s="3">
-        <v>8505300</v>
+        <v>9055100</v>
       </c>
       <c r="G9" s="3">
-        <v>7840500</v>
+        <v>8533100</v>
       </c>
       <c r="H9" s="3">
-        <v>7613100</v>
+        <v>7866200</v>
       </c>
       <c r="I9" s="3">
-        <v>7348400</v>
+        <v>7638000</v>
       </c>
       <c r="J9" s="3">
+        <v>7372400</v>
+      </c>
+      <c r="K9" s="3">
         <v>6994300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6145600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5733700</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3694400</v>
+        <v>3991400</v>
       </c>
       <c r="E10" s="3">
-        <v>3631800</v>
+        <v>3706500</v>
       </c>
       <c r="F10" s="3">
-        <v>3143900</v>
+        <v>3643700</v>
       </c>
       <c r="G10" s="3">
-        <v>2952400</v>
+        <v>3154200</v>
       </c>
       <c r="H10" s="3">
-        <v>2941600</v>
+        <v>2962000</v>
       </c>
       <c r="I10" s="3">
-        <v>2567900</v>
+        <v>2951200</v>
       </c>
       <c r="J10" s="3">
+        <v>2576300</v>
+      </c>
+      <c r="K10" s="3">
         <v>2023900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1595300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1629400</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,17 +906,20 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>182300</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>182900</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -917,15 +936,18 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-60900</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -956,9 +978,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11600900</v>
+        <v>12567100</v>
       </c>
       <c r="E17" s="3">
-        <v>11669700</v>
+        <v>11638900</v>
       </c>
       <c r="F17" s="3">
-        <v>10827600</v>
+        <v>11707900</v>
       </c>
       <c r="G17" s="3">
-        <v>8881500</v>
+        <v>10863100</v>
       </c>
       <c r="H17" s="3">
-        <v>9699000</v>
+        <v>8910600</v>
       </c>
       <c r="I17" s="3">
-        <v>9252500</v>
+        <v>9730700</v>
       </c>
       <c r="J17" s="3">
+        <v>9282800</v>
+      </c>
+      <c r="K17" s="3">
         <v>8682800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7544000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7194100</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>884500</v>
+        <v>1025000</v>
       </c>
       <c r="E18" s="3">
-        <v>987700</v>
+        <v>887400</v>
       </c>
       <c r="F18" s="3">
-        <v>821600</v>
+        <v>990900</v>
       </c>
       <c r="G18" s="3">
-        <v>1911300</v>
+        <v>824300</v>
       </c>
       <c r="H18" s="3">
-        <v>855700</v>
+        <v>1917600</v>
       </c>
       <c r="I18" s="3">
-        <v>663700</v>
+        <v>858500</v>
       </c>
       <c r="J18" s="3">
+        <v>665900</v>
+      </c>
+      <c r="K18" s="3">
         <v>335400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>196800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>168900</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>27300</v>
+        <v>127700</v>
       </c>
       <c r="E20" s="3">
-        <v>108900</v>
+        <v>27400</v>
       </c>
       <c r="F20" s="3">
-        <v>42000</v>
+        <v>109200</v>
       </c>
       <c r="G20" s="3">
-        <v>59400</v>
+        <v>42100</v>
       </c>
       <c r="H20" s="3">
-        <v>14100</v>
+        <v>59600</v>
       </c>
       <c r="I20" s="3">
-        <v>46300</v>
+        <v>14200</v>
       </c>
       <c r="J20" s="3">
+        <v>46400</v>
+      </c>
+      <c r="K20" s="3">
         <v>60600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-31300</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2061700</v>
+        <v>2443300</v>
       </c>
       <c r="E21" s="3">
-        <v>2077500</v>
+        <v>2064700</v>
       </c>
       <c r="F21" s="3">
-        <v>1711500</v>
+        <v>2081100</v>
       </c>
       <c r="G21" s="3">
-        <v>2775600</v>
+        <v>1714300</v>
       </c>
       <c r="H21" s="3">
-        <v>1635400</v>
+        <v>2782100</v>
       </c>
       <c r="I21" s="3">
-        <v>1448300</v>
+        <v>1638300</v>
       </c>
       <c r="J21" s="3">
+        <v>1450600</v>
+      </c>
+      <c r="K21" s="3">
         <v>1160600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>907300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>863400</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>33600</v>
+        <v>32400</v>
       </c>
       <c r="E22" s="3">
-        <v>38100</v>
+        <v>33700</v>
       </c>
       <c r="F22" s="3">
-        <v>40900</v>
+        <v>38200</v>
       </c>
       <c r="G22" s="3">
-        <v>31400</v>
+        <v>41000</v>
       </c>
       <c r="H22" s="3">
-        <v>28500</v>
+        <v>31500</v>
       </c>
       <c r="I22" s="3">
-        <v>27400</v>
+        <v>28600</v>
       </c>
       <c r="J22" s="3">
+        <v>27500</v>
+      </c>
+      <c r="K22" s="3">
         <v>31700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>25800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>26900</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>878200</v>
+        <v>1120300</v>
       </c>
       <c r="E23" s="3">
-        <v>1058500</v>
+        <v>881100</v>
       </c>
       <c r="F23" s="3">
-        <v>822700</v>
+        <v>1061900</v>
       </c>
       <c r="G23" s="3">
-        <v>1939300</v>
+        <v>825400</v>
       </c>
       <c r="H23" s="3">
-        <v>841200</v>
+        <v>1945700</v>
       </c>
       <c r="I23" s="3">
-        <v>682600</v>
+        <v>844000</v>
       </c>
       <c r="J23" s="3">
+        <v>684800</v>
+      </c>
+      <c r="K23" s="3">
         <v>364300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>171400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>110700</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>354700</v>
+        <v>392400</v>
       </c>
       <c r="E24" s="3">
-        <v>302300</v>
+        <v>355800</v>
       </c>
       <c r="F24" s="3">
-        <v>236600</v>
+        <v>303300</v>
       </c>
       <c r="G24" s="3">
-        <v>606000</v>
+        <v>237400</v>
       </c>
       <c r="H24" s="3">
-        <v>231000</v>
+        <v>608000</v>
       </c>
       <c r="I24" s="3">
-        <v>199100</v>
+        <v>231700</v>
       </c>
       <c r="J24" s="3">
+        <v>199800</v>
+      </c>
+      <c r="K24" s="3">
         <v>164300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>130200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>103800</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>523600</v>
+        <v>727900</v>
       </c>
       <c r="E26" s="3">
-        <v>756200</v>
+        <v>525300</v>
       </c>
       <c r="F26" s="3">
-        <v>586000</v>
+        <v>758600</v>
       </c>
       <c r="G26" s="3">
-        <v>1333300</v>
+        <v>587900</v>
       </c>
       <c r="H26" s="3">
-        <v>610300</v>
+        <v>1337700</v>
       </c>
       <c r="I26" s="3">
-        <v>483500</v>
+        <v>612300</v>
       </c>
       <c r="J26" s="3">
+        <v>485000</v>
+      </c>
+      <c r="K26" s="3">
         <v>200000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>41200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>6900</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>529300</v>
+        <v>729100</v>
       </c>
       <c r="E27" s="3">
-        <v>753000</v>
+        <v>531000</v>
       </c>
       <c r="F27" s="3">
-        <v>581300</v>
+        <v>755500</v>
       </c>
       <c r="G27" s="3">
-        <v>1329100</v>
+        <v>583200</v>
       </c>
       <c r="H27" s="3">
-        <v>593800</v>
+        <v>1333500</v>
       </c>
       <c r="I27" s="3">
-        <v>452900</v>
+        <v>595800</v>
       </c>
       <c r="J27" s="3">
+        <v>454400</v>
+      </c>
+      <c r="K27" s="3">
         <v>182200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>10900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5800</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1358,11 +1418,11 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>-32200</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-32300</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1370,18 +1430,21 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>-33000</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-16400</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-27300</v>
+        <v>-127700</v>
       </c>
       <c r="E32" s="3">
-        <v>-108900</v>
+        <v>-27400</v>
       </c>
       <c r="F32" s="3">
-        <v>-42000</v>
+        <v>-109200</v>
       </c>
       <c r="G32" s="3">
-        <v>-59400</v>
+        <v>-42100</v>
       </c>
       <c r="H32" s="3">
-        <v>-14100</v>
+        <v>-59600</v>
       </c>
       <c r="I32" s="3">
-        <v>-46300</v>
+        <v>-14200</v>
       </c>
       <c r="J32" s="3">
+        <v>-46400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-60600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>31300</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>529300</v>
+        <v>729100</v>
       </c>
       <c r="E33" s="3">
-        <v>753000</v>
+        <v>531000</v>
       </c>
       <c r="F33" s="3">
-        <v>549100</v>
+        <v>755500</v>
       </c>
       <c r="G33" s="3">
-        <v>1329100</v>
+        <v>550900</v>
       </c>
       <c r="H33" s="3">
-        <v>593800</v>
+        <v>1333500</v>
       </c>
       <c r="I33" s="3">
-        <v>452900</v>
+        <v>595800</v>
       </c>
       <c r="J33" s="3">
+        <v>454400</v>
+      </c>
+      <c r="K33" s="3">
         <v>149200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>10900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-22200</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>529300</v>
+        <v>729100</v>
       </c>
       <c r="E35" s="3">
-        <v>753000</v>
+        <v>531000</v>
       </c>
       <c r="F35" s="3">
-        <v>549100</v>
+        <v>755500</v>
       </c>
       <c r="G35" s="3">
-        <v>1329100</v>
+        <v>550900</v>
       </c>
       <c r="H35" s="3">
-        <v>593800</v>
+        <v>1333500</v>
       </c>
       <c r="I35" s="3">
-        <v>452900</v>
+        <v>595800</v>
       </c>
       <c r="J35" s="3">
+        <v>454400</v>
+      </c>
+      <c r="K35" s="3">
         <v>149200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>10900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-22200</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42825</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42460</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42094</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41729</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41364</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40999</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,305 +1731,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3047700</v>
+        <v>3495800</v>
       </c>
       <c r="E41" s="3">
-        <v>2648800</v>
+        <v>3057700</v>
       </c>
       <c r="F41" s="3">
-        <v>2561400</v>
+        <v>2657500</v>
       </c>
       <c r="G41" s="3">
-        <v>3026400</v>
+        <v>2569700</v>
       </c>
       <c r="H41" s="3">
-        <v>2614900</v>
+        <v>3036300</v>
       </c>
       <c r="I41" s="3">
-        <v>2428400</v>
+        <v>2623500</v>
       </c>
       <c r="J41" s="3">
+        <v>2436300</v>
+      </c>
+      <c r="K41" s="3">
         <v>2297800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1942400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1509800</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>298200</v>
+        <v>606000</v>
       </c>
       <c r="E42" s="3">
-        <v>371500</v>
+        <v>299100</v>
       </c>
       <c r="F42" s="3">
-        <v>400000</v>
+        <v>372800</v>
       </c>
       <c r="G42" s="3">
-        <v>514200</v>
+        <v>401300</v>
       </c>
       <c r="H42" s="3">
-        <v>201200</v>
+        <v>515800</v>
       </c>
       <c r="I42" s="3">
-        <v>196000</v>
+        <v>201800</v>
       </c>
       <c r="J42" s="3">
+        <v>196600</v>
+      </c>
+      <c r="K42" s="3">
         <v>79600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>97500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>65000</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2925200</v>
+        <v>3946700</v>
       </c>
       <c r="E43" s="3">
-        <v>2884700</v>
+        <v>2934800</v>
       </c>
       <c r="F43" s="3">
-        <v>2840400</v>
+        <v>2894200</v>
       </c>
       <c r="G43" s="3">
-        <v>2391300</v>
+        <v>2849700</v>
       </c>
       <c r="H43" s="3">
-        <v>2114800</v>
+        <v>2399200</v>
       </c>
       <c r="I43" s="3">
-        <v>2224600</v>
+        <v>2121800</v>
       </c>
       <c r="J43" s="3">
+        <v>2231800</v>
+      </c>
+      <c r="K43" s="3">
         <v>1939900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1773000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1655000</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2165900</v>
+        <v>2654600</v>
       </c>
       <c r="E44" s="3">
-        <v>2078300</v>
+        <v>2173000</v>
       </c>
       <c r="F44" s="3">
-        <v>1901000</v>
+        <v>2085100</v>
       </c>
       <c r="G44" s="3">
-        <v>1415200</v>
+        <v>1907200</v>
       </c>
       <c r="H44" s="3">
-        <v>1439300</v>
+        <v>1419800</v>
       </c>
       <c r="I44" s="3">
-        <v>1383300</v>
+        <v>1444000</v>
       </c>
       <c r="J44" s="3">
+        <v>1387800</v>
+      </c>
+      <c r="K44" s="3">
         <v>1249300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1253200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1240600</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>416000</v>
+        <v>631800</v>
       </c>
       <c r="E45" s="3">
-        <v>466500</v>
+        <v>417400</v>
       </c>
       <c r="F45" s="3">
-        <v>540700</v>
+        <v>468000</v>
       </c>
       <c r="G45" s="3">
-        <v>586800</v>
+        <v>542500</v>
       </c>
       <c r="H45" s="3">
-        <v>417300</v>
+        <v>588700</v>
       </c>
       <c r="I45" s="3">
-        <v>548500</v>
+        <v>418700</v>
       </c>
       <c r="J45" s="3">
+        <v>550300</v>
+      </c>
+      <c r="K45" s="3">
         <v>417500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>484400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>463800</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8853000</v>
+        <v>11334800</v>
       </c>
       <c r="E46" s="3">
-        <v>8450000</v>
+        <v>8882000</v>
       </c>
       <c r="F46" s="3">
-        <v>8243400</v>
+        <v>8477600</v>
       </c>
       <c r="G46" s="3">
-        <v>7933800</v>
+        <v>8270400</v>
       </c>
       <c r="H46" s="3">
-        <v>6787500</v>
+        <v>7959800</v>
       </c>
       <c r="I46" s="3">
-        <v>6780600</v>
+        <v>6809700</v>
       </c>
       <c r="J46" s="3">
+        <v>6802800</v>
+      </c>
+      <c r="K46" s="3">
         <v>5984100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5550600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4934200</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>304400</v>
+        <v>407000</v>
       </c>
       <c r="E47" s="3">
-        <v>1422600</v>
+        <v>305400</v>
       </c>
       <c r="F47" s="3">
-        <v>1422000</v>
+        <v>1427300</v>
       </c>
       <c r="G47" s="3">
-        <v>1482300</v>
+        <v>1426700</v>
       </c>
       <c r="H47" s="3">
-        <v>323700</v>
+        <v>1487200</v>
       </c>
       <c r="I47" s="3">
-        <v>418900</v>
+        <v>324700</v>
       </c>
       <c r="J47" s="3">
+        <v>420300</v>
+      </c>
+      <c r="K47" s="3">
         <v>351800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>292800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>320500</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5957300</v>
+        <v>7597300</v>
       </c>
       <c r="E48" s="3">
-        <v>5524500</v>
+        <v>5976900</v>
       </c>
       <c r="F48" s="3">
-        <v>4998100</v>
+        <v>5542600</v>
       </c>
       <c r="G48" s="3">
-        <v>4256300</v>
+        <v>5014400</v>
       </c>
       <c r="H48" s="3">
-        <v>4466800</v>
+        <v>4270300</v>
       </c>
       <c r="I48" s="3">
-        <v>3913600</v>
+        <v>4481400</v>
       </c>
       <c r="J48" s="3">
+        <v>3926500</v>
+      </c>
+      <c r="K48" s="3">
         <v>3426100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3326000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3004200</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2204700</v>
+        <v>1517200</v>
       </c>
       <c r="E49" s="3">
-        <v>2321900</v>
+        <v>2212000</v>
       </c>
       <c r="F49" s="3">
-        <v>2229400</v>
+        <v>2329500</v>
       </c>
       <c r="G49" s="3">
-        <v>1033700</v>
+        <v>2236700</v>
       </c>
       <c r="H49" s="3">
-        <v>1088500</v>
+        <v>1037100</v>
       </c>
       <c r="I49" s="3">
-        <v>1016800</v>
+        <v>1092100</v>
       </c>
       <c r="J49" s="3">
+        <v>1020100</v>
+      </c>
+      <c r="K49" s="3">
         <v>1081800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1036600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>981500</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>481900</v>
+        <v>1212800</v>
       </c>
       <c r="E52" s="3">
-        <v>532100</v>
+        <v>483500</v>
       </c>
       <c r="F52" s="3">
-        <v>558800</v>
+        <v>533900</v>
       </c>
       <c r="G52" s="3">
-        <v>539100</v>
+        <v>560600</v>
       </c>
       <c r="H52" s="3">
-        <v>620900</v>
+        <v>540900</v>
       </c>
       <c r="I52" s="3">
-        <v>733200</v>
+        <v>622900</v>
       </c>
       <c r="J52" s="3">
+        <v>735600</v>
+      </c>
+      <c r="K52" s="3">
         <v>510800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>425900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>457900</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17801400</v>
+        <v>22069200</v>
       </c>
       <c r="E54" s="3">
-        <v>18251100</v>
+        <v>17859700</v>
       </c>
       <c r="F54" s="3">
-        <v>17451700</v>
+        <v>18310900</v>
       </c>
       <c r="G54" s="3">
-        <v>15245300</v>
+        <v>17508900</v>
       </c>
       <c r="H54" s="3">
-        <v>13287400</v>
+        <v>15295200</v>
       </c>
       <c r="I54" s="3">
-        <v>12863200</v>
+        <v>13330900</v>
       </c>
       <c r="J54" s="3">
+        <v>12905400</v>
+      </c>
+      <c r="K54" s="3">
         <v>11354600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10632000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9698400</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1848700</v>
+        <v>2981000</v>
       </c>
       <c r="E57" s="3">
-        <v>1739400</v>
+        <v>1854800</v>
       </c>
       <c r="F57" s="3">
-        <v>2077400</v>
+        <v>1745100</v>
       </c>
       <c r="G57" s="3">
-        <v>1618100</v>
+        <v>2084200</v>
       </c>
       <c r="H57" s="3">
-        <v>1032000</v>
+        <v>1623400</v>
       </c>
       <c r="I57" s="3">
-        <v>1022200</v>
+        <v>1035400</v>
       </c>
       <c r="J57" s="3">
+        <v>1025500</v>
+      </c>
+      <c r="K57" s="3">
         <v>876500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>772800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>792500</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2607200</v>
+        <v>3014900</v>
       </c>
       <c r="E58" s="3">
-        <v>2863300</v>
+        <v>2615700</v>
       </c>
       <c r="F58" s="3">
-        <v>1732500</v>
+        <v>2872700</v>
       </c>
       <c r="G58" s="3">
-        <v>1101000</v>
+        <v>1738200</v>
       </c>
       <c r="H58" s="3">
-        <v>1785400</v>
+        <v>1104600</v>
       </c>
       <c r="I58" s="3">
-        <v>1253500</v>
+        <v>1791200</v>
       </c>
       <c r="J58" s="3">
+        <v>1257600</v>
+      </c>
+      <c r="K58" s="3">
         <v>1551600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1801100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1291800</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2129300</v>
+        <v>3299600</v>
       </c>
       <c r="E59" s="3">
-        <v>1940500</v>
+        <v>2136200</v>
       </c>
       <c r="F59" s="3">
-        <v>1713900</v>
+        <v>1946800</v>
       </c>
       <c r="G59" s="3">
-        <v>1655700</v>
+        <v>1719500</v>
       </c>
       <c r="H59" s="3">
-        <v>1315900</v>
+        <v>1661100</v>
       </c>
       <c r="I59" s="3">
-        <v>1277200</v>
+        <v>1320200</v>
       </c>
       <c r="J59" s="3">
+        <v>1281400</v>
+      </c>
+      <c r="K59" s="3">
         <v>995800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>861600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>861900</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6585200</v>
+        <v>9295500</v>
       </c>
       <c r="E60" s="3">
-        <v>6543200</v>
+        <v>6606700</v>
       </c>
       <c r="F60" s="3">
-        <v>5523800</v>
+        <v>6564600</v>
       </c>
       <c r="G60" s="3">
-        <v>4374800</v>
+        <v>5541900</v>
       </c>
       <c r="H60" s="3">
-        <v>4133300</v>
+        <v>4389100</v>
       </c>
       <c r="I60" s="3">
-        <v>3553000</v>
+        <v>4146800</v>
       </c>
       <c r="J60" s="3">
+        <v>3564600</v>
+      </c>
+      <c r="K60" s="3">
         <v>3423800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3435400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2946200</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1283000</v>
+        <v>1427000</v>
       </c>
       <c r="E61" s="3">
-        <v>1902400</v>
+        <v>1287200</v>
       </c>
       <c r="F61" s="3">
-        <v>2691900</v>
+        <v>1908600</v>
       </c>
       <c r="G61" s="3">
-        <v>1959600</v>
+        <v>2700800</v>
       </c>
       <c r="H61" s="3">
-        <v>1290200</v>
+        <v>1966100</v>
       </c>
       <c r="I61" s="3">
-        <v>1204400</v>
+        <v>1294400</v>
       </c>
       <c r="J61" s="3">
+        <v>1208300</v>
+      </c>
+      <c r="K61" s="3">
         <v>894200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>886100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1174700</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2160400</v>
+        <v>2098900</v>
       </c>
       <c r="E62" s="3">
-        <v>1710400</v>
+        <v>2167500</v>
       </c>
       <c r="F62" s="3">
-        <v>1621900</v>
+        <v>1716000</v>
       </c>
       <c r="G62" s="3">
-        <v>1563500</v>
+        <v>1627200</v>
       </c>
       <c r="H62" s="3">
-        <v>1592700</v>
+        <v>1568600</v>
       </c>
       <c r="I62" s="3">
-        <v>1162500</v>
+        <v>1597900</v>
       </c>
       <c r="J62" s="3">
+        <v>1166300</v>
+      </c>
+      <c r="K62" s="3">
         <v>1062000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1032700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>948600</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10070700</v>
+        <v>12846700</v>
       </c>
       <c r="E66" s="3">
-        <v>10215100</v>
+        <v>10103700</v>
       </c>
       <c r="F66" s="3">
-        <v>9898100</v>
+        <v>10248600</v>
       </c>
       <c r="G66" s="3">
-        <v>7975800</v>
+        <v>9930500</v>
       </c>
       <c r="H66" s="3">
-        <v>7101100</v>
+        <v>8001900</v>
       </c>
       <c r="I66" s="3">
-        <v>6095300</v>
+        <v>7124300</v>
       </c>
       <c r="J66" s="3">
+        <v>6115200</v>
+      </c>
+      <c r="K66" s="3">
         <v>5535000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5531000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5195000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9310200</v>
+        <v>9837200</v>
       </c>
       <c r="E72" s="3">
-        <v>8977600</v>
+        <v>9340700</v>
       </c>
       <c r="F72" s="3">
-        <v>8426500</v>
+        <v>9007000</v>
       </c>
       <c r="G72" s="3">
-        <v>7984000</v>
+        <v>8454100</v>
       </c>
       <c r="H72" s="3">
-        <v>6794200</v>
+        <v>8010100</v>
       </c>
       <c r="I72" s="3">
-        <v>6328100</v>
+        <v>6816500</v>
       </c>
       <c r="J72" s="3">
+        <v>6348900</v>
+      </c>
+      <c r="K72" s="3">
         <v>5968400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5843100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5891000</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7730600</v>
+        <v>9222500</v>
       </c>
       <c r="E76" s="3">
-        <v>8036000</v>
+        <v>7756000</v>
       </c>
       <c r="F76" s="3">
-        <v>7553600</v>
+        <v>8062300</v>
       </c>
       <c r="G76" s="3">
-        <v>7269500</v>
+        <v>7578400</v>
       </c>
       <c r="H76" s="3">
-        <v>6186300</v>
+        <v>7293300</v>
       </c>
       <c r="I76" s="3">
-        <v>6768000</v>
+        <v>6206600</v>
       </c>
       <c r="J76" s="3">
+        <v>6790100</v>
+      </c>
+      <c r="K76" s="3">
         <v>5819600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5101000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4503400</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42825</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42460</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42094</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41729</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41364</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40999</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>529300</v>
+        <v>729100</v>
       </c>
       <c r="E81" s="3">
-        <v>753000</v>
+        <v>531000</v>
       </c>
       <c r="F81" s="3">
-        <v>549100</v>
+        <v>755500</v>
       </c>
       <c r="G81" s="3">
-        <v>1329100</v>
+        <v>550900</v>
       </c>
       <c r="H81" s="3">
-        <v>593800</v>
+        <v>1333500</v>
       </c>
       <c r="I81" s="3">
-        <v>452900</v>
+        <v>595800</v>
       </c>
       <c r="J81" s="3">
+        <v>454400</v>
+      </c>
+      <c r="K81" s="3">
         <v>149200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>10900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-22200</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1144900</v>
+        <v>1289200</v>
       </c>
       <c r="E83" s="3">
-        <v>976700</v>
+        <v>1148600</v>
       </c>
       <c r="F83" s="3">
-        <v>844300</v>
+        <v>979900</v>
       </c>
       <c r="G83" s="3">
-        <v>801400</v>
+        <v>847100</v>
       </c>
       <c r="H83" s="3">
-        <v>762300</v>
+        <v>804000</v>
       </c>
       <c r="I83" s="3">
-        <v>735100</v>
+        <v>764800</v>
       </c>
       <c r="J83" s="3">
+        <v>737500</v>
+      </c>
+      <c r="K83" s="3">
         <v>761300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>708500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>725000</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2037100</v>
+        <v>2047700</v>
       </c>
       <c r="E89" s="3">
-        <v>1284900</v>
+        <v>2043800</v>
       </c>
       <c r="F89" s="3">
-        <v>836400</v>
+        <v>1289100</v>
       </c>
       <c r="G89" s="3">
-        <v>1466800</v>
+        <v>839100</v>
       </c>
       <c r="H89" s="3">
-        <v>1388300</v>
+        <v>1471600</v>
       </c>
       <c r="I89" s="3">
-        <v>1308500</v>
+        <v>1392900</v>
       </c>
       <c r="J89" s="3">
+        <v>1312800</v>
+      </c>
+      <c r="K89" s="3">
         <v>1166100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>990300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>500200</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1588600</v>
+        <v>-1951500</v>
       </c>
       <c r="E91" s="3">
-        <v>-1590100</v>
+        <v>-1593800</v>
       </c>
       <c r="F91" s="3">
-        <v>-1636100</v>
+        <v>-1595300</v>
       </c>
       <c r="G91" s="3">
-        <v>-1535500</v>
+        <v>-1641400</v>
       </c>
       <c r="H91" s="3">
-        <v>-1471800</v>
+        <v>-1540500</v>
       </c>
       <c r="I91" s="3">
-        <v>-939100</v>
+        <v>-1476600</v>
       </c>
       <c r="J91" s="3">
+        <v>-942200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-628400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-778200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-900900</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-384400</v>
+        <v>-2127400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1284000</v>
+        <v>-385600</v>
       </c>
       <c r="F94" s="3">
-        <v>-2254300</v>
+        <v>-1288200</v>
       </c>
       <c r="G94" s="3">
-        <v>-651400</v>
+        <v>-2261600</v>
       </c>
       <c r="H94" s="3">
-        <v>-1287800</v>
+        <v>-653500</v>
       </c>
       <c r="I94" s="3">
-        <v>-1166200</v>
+        <v>-1292000</v>
       </c>
       <c r="J94" s="3">
+        <v>-1170000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-507800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-819500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-270300</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-196700</v>
+        <v>-209000</v>
       </c>
       <c r="E96" s="3">
-        <v>-173600</v>
+        <v>-197300</v>
       </c>
       <c r="F96" s="3">
-        <v>-138700</v>
+        <v>-174100</v>
       </c>
       <c r="G96" s="3">
-        <v>-138600</v>
+        <v>-139100</v>
       </c>
       <c r="H96" s="3">
-        <v>-127000</v>
+        <v>-139100</v>
       </c>
       <c r="I96" s="3">
-        <v>-92200</v>
+        <v>-127400</v>
       </c>
       <c r="J96" s="3">
+        <v>-92500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-69200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-91500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-93300</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1115400</v>
+        <v>268300</v>
       </c>
       <c r="E100" s="3">
-        <v>86400</v>
+        <v>-1119100</v>
       </c>
       <c r="F100" s="3">
-        <v>1008400</v>
+        <v>86700</v>
       </c>
       <c r="G100" s="3">
-        <v>-345800</v>
+        <v>1011700</v>
       </c>
       <c r="H100" s="3">
-        <v>268400</v>
+        <v>-347000</v>
       </c>
       <c r="I100" s="3">
-        <v>-322800</v>
+        <v>269300</v>
       </c>
       <c r="J100" s="3">
+        <v>-323900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-514000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>40000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>116900</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-138500</v>
+        <v>249500</v>
       </c>
       <c r="E101" s="3">
+        <v>-138900</v>
+      </c>
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
-        <v>-55500</v>
-      </c>
       <c r="G101" s="3">
-        <v>-58200</v>
+        <v>-55700</v>
       </c>
       <c r="H101" s="3">
-        <v>-182500</v>
+        <v>-58400</v>
       </c>
       <c r="I101" s="3">
-        <v>311100</v>
+        <v>-183100</v>
       </c>
       <c r="J101" s="3">
+        <v>312100</v>
+      </c>
+      <c r="K101" s="3">
         <v>196100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>213500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-4000</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>398800</v>
+        <v>438100</v>
       </c>
       <c r="E102" s="3">
-        <v>87500</v>
+        <v>400200</v>
       </c>
       <c r="F102" s="3">
-        <v>-465000</v>
+        <v>87800</v>
       </c>
       <c r="G102" s="3">
-        <v>411500</v>
+        <v>-466500</v>
       </c>
       <c r="H102" s="3">
-        <v>186500</v>
+        <v>412800</v>
       </c>
       <c r="I102" s="3">
-        <v>130600</v>
+        <v>187100</v>
       </c>
       <c r="J102" s="3">
+        <v>131000</v>
+      </c>
+      <c r="K102" s="3">
         <v>340400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>424200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>342800</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TTDKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TTDKY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>TTDKY</t>
   </si>
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13592100</v>
+        <v>13473800</v>
       </c>
       <c r="E8" s="3">
-        <v>12526300</v>
+        <v>12417300</v>
       </c>
       <c r="F8" s="3">
-        <v>12698800</v>
+        <v>12588300</v>
       </c>
       <c r="G8" s="3">
-        <v>11687400</v>
+        <v>11585600</v>
       </c>
       <c r="H8" s="3">
-        <v>10828200</v>
+        <v>10733900</v>
       </c>
       <c r="I8" s="3">
-        <v>10589200</v>
+        <v>10497000</v>
       </c>
       <c r="J8" s="3">
-        <v>9948700</v>
+        <v>9862100</v>
       </c>
       <c r="K8" s="3">
         <v>9018200</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9600700</v>
+        <v>9517100</v>
       </c>
       <c r="E9" s="3">
-        <v>8819800</v>
+        <v>8743000</v>
       </c>
       <c r="F9" s="3">
-        <v>9055100</v>
+        <v>8976300</v>
       </c>
       <c r="G9" s="3">
-        <v>8533100</v>
+        <v>8458900</v>
       </c>
       <c r="H9" s="3">
-        <v>7866200</v>
+        <v>7797700</v>
       </c>
       <c r="I9" s="3">
-        <v>7638000</v>
+        <v>7571500</v>
       </c>
       <c r="J9" s="3">
-        <v>7372400</v>
+        <v>7308300</v>
       </c>
       <c r="K9" s="3">
         <v>6994300</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3991400</v>
+        <v>3956600</v>
       </c>
       <c r="E10" s="3">
-        <v>3706500</v>
+        <v>3674300</v>
       </c>
       <c r="F10" s="3">
-        <v>3643700</v>
+        <v>3612000</v>
       </c>
       <c r="G10" s="3">
-        <v>3154200</v>
+        <v>3126800</v>
       </c>
       <c r="H10" s="3">
-        <v>2962000</v>
+        <v>2936200</v>
       </c>
       <c r="I10" s="3">
-        <v>2951200</v>
+        <v>2925500</v>
       </c>
       <c r="J10" s="3">
-        <v>2576300</v>
+        <v>2553900</v>
       </c>
       <c r="K10" s="3">
         <v>2023900</v>
@@ -915,11 +915,11 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>72100</v>
       </c>
       <c r="E14" s="3">
-        <v>182900</v>
+        <v>181300</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12567100</v>
+        <v>12457700</v>
       </c>
       <c r="E17" s="3">
-        <v>11638900</v>
+        <v>11537600</v>
       </c>
       <c r="F17" s="3">
-        <v>11707900</v>
+        <v>11606000</v>
       </c>
       <c r="G17" s="3">
-        <v>10863100</v>
+        <v>10768500</v>
       </c>
       <c r="H17" s="3">
-        <v>8910600</v>
+        <v>8833000</v>
       </c>
       <c r="I17" s="3">
-        <v>9730700</v>
+        <v>9646000</v>
       </c>
       <c r="J17" s="3">
-        <v>9282800</v>
+        <v>9202000</v>
       </c>
       <c r="K17" s="3">
         <v>8682800</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1025000</v>
+        <v>1016100</v>
       </c>
       <c r="E18" s="3">
-        <v>887400</v>
+        <v>879700</v>
       </c>
       <c r="F18" s="3">
-        <v>990900</v>
+        <v>982300</v>
       </c>
       <c r="G18" s="3">
-        <v>824300</v>
+        <v>817100</v>
       </c>
       <c r="H18" s="3">
-        <v>1917600</v>
+        <v>1900900</v>
       </c>
       <c r="I18" s="3">
-        <v>858500</v>
+        <v>851000</v>
       </c>
       <c r="J18" s="3">
-        <v>665900</v>
+        <v>660100</v>
       </c>
       <c r="K18" s="3">
         <v>335400</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>127700</v>
+        <v>126600</v>
       </c>
       <c r="E20" s="3">
-        <v>27400</v>
+        <v>27200</v>
       </c>
       <c r="F20" s="3">
-        <v>109200</v>
+        <v>108300</v>
       </c>
       <c r="G20" s="3">
-        <v>42100</v>
+        <v>41700</v>
       </c>
       <c r="H20" s="3">
-        <v>59600</v>
+        <v>59100</v>
       </c>
       <c r="I20" s="3">
-        <v>14200</v>
+        <v>14000</v>
       </c>
       <c r="J20" s="3">
-        <v>46400</v>
+        <v>46000</v>
       </c>
       <c r="K20" s="3">
         <v>60600</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2443300</v>
+        <v>2420700</v>
       </c>
       <c r="E21" s="3">
-        <v>2064700</v>
+        <v>2045500</v>
       </c>
       <c r="F21" s="3">
-        <v>2081100</v>
+        <v>2062000</v>
       </c>
       <c r="G21" s="3">
-        <v>1714300</v>
+        <v>1698500</v>
       </c>
       <c r="H21" s="3">
-        <v>2782100</v>
+        <v>2757000</v>
       </c>
       <c r="I21" s="3">
-        <v>1638300</v>
+        <v>1623200</v>
       </c>
       <c r="J21" s="3">
-        <v>1450600</v>
+        <v>1437200</v>
       </c>
       <c r="K21" s="3">
         <v>1160600</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>32400</v>
+        <v>32100</v>
       </c>
       <c r="E22" s="3">
-        <v>33700</v>
+        <v>33400</v>
       </c>
       <c r="F22" s="3">
-        <v>38200</v>
+        <v>37900</v>
       </c>
       <c r="G22" s="3">
-        <v>41000</v>
+        <v>40600</v>
       </c>
       <c r="H22" s="3">
-        <v>31500</v>
+        <v>31200</v>
       </c>
       <c r="I22" s="3">
-        <v>28600</v>
+        <v>28400</v>
       </c>
       <c r="J22" s="3">
-        <v>27500</v>
+        <v>27300</v>
       </c>
       <c r="K22" s="3">
         <v>31700</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1120300</v>
+        <v>1110500</v>
       </c>
       <c r="E23" s="3">
-        <v>881100</v>
+        <v>873400</v>
       </c>
       <c r="F23" s="3">
-        <v>1061900</v>
+        <v>1052700</v>
       </c>
       <c r="G23" s="3">
-        <v>825400</v>
+        <v>818200</v>
       </c>
       <c r="H23" s="3">
-        <v>1945700</v>
+        <v>1928700</v>
       </c>
       <c r="I23" s="3">
-        <v>844000</v>
+        <v>836700</v>
       </c>
       <c r="J23" s="3">
-        <v>684800</v>
+        <v>678800</v>
       </c>
       <c r="K23" s="3">
         <v>364300</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>392400</v>
+        <v>389000</v>
       </c>
       <c r="E24" s="3">
-        <v>355800</v>
+        <v>352700</v>
       </c>
       <c r="F24" s="3">
-        <v>303300</v>
+        <v>300700</v>
       </c>
       <c r="G24" s="3">
-        <v>237400</v>
+        <v>235300</v>
       </c>
       <c r="H24" s="3">
-        <v>608000</v>
+        <v>602700</v>
       </c>
       <c r="I24" s="3">
-        <v>231700</v>
+        <v>229700</v>
       </c>
       <c r="J24" s="3">
-        <v>199800</v>
+        <v>198000</v>
       </c>
       <c r="K24" s="3">
         <v>164300</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>727900</v>
+        <v>721600</v>
       </c>
       <c r="E26" s="3">
-        <v>525300</v>
+        <v>520700</v>
       </c>
       <c r="F26" s="3">
-        <v>758600</v>
+        <v>752000</v>
       </c>
       <c r="G26" s="3">
-        <v>587900</v>
+        <v>582800</v>
       </c>
       <c r="H26" s="3">
-        <v>1337700</v>
+        <v>1326100</v>
       </c>
       <c r="I26" s="3">
-        <v>612300</v>
+        <v>606900</v>
       </c>
       <c r="J26" s="3">
-        <v>485000</v>
+        <v>480800</v>
       </c>
       <c r="K26" s="3">
         <v>200000</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>729100</v>
+        <v>722800</v>
       </c>
       <c r="E27" s="3">
-        <v>531000</v>
+        <v>526400</v>
       </c>
       <c r="F27" s="3">
-        <v>755500</v>
+        <v>748900</v>
       </c>
       <c r="G27" s="3">
-        <v>583200</v>
+        <v>578100</v>
       </c>
       <c r="H27" s="3">
-        <v>1333500</v>
+        <v>1321900</v>
       </c>
       <c r="I27" s="3">
-        <v>595800</v>
+        <v>590600</v>
       </c>
       <c r="J27" s="3">
-        <v>454400</v>
+        <v>450400</v>
       </c>
       <c r="K27" s="3">
         <v>182200</v>
@@ -1422,7 +1422,7 @@
         <v>8</v>
       </c>
       <c r="G29" s="3">
-        <v>-32300</v>
+        <v>-32000</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-127700</v>
+        <v>-126600</v>
       </c>
       <c r="E32" s="3">
-        <v>-27400</v>
+        <v>-27200</v>
       </c>
       <c r="F32" s="3">
-        <v>-109200</v>
+        <v>-108300</v>
       </c>
       <c r="G32" s="3">
-        <v>-42100</v>
+        <v>-41700</v>
       </c>
       <c r="H32" s="3">
-        <v>-59600</v>
+        <v>-59100</v>
       </c>
       <c r="I32" s="3">
-        <v>-14200</v>
+        <v>-14000</v>
       </c>
       <c r="J32" s="3">
-        <v>-46400</v>
+        <v>-46000</v>
       </c>
       <c r="K32" s="3">
         <v>-60600</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>729100</v>
+        <v>722800</v>
       </c>
       <c r="E33" s="3">
-        <v>531000</v>
+        <v>526400</v>
       </c>
       <c r="F33" s="3">
-        <v>755500</v>
+        <v>748900</v>
       </c>
       <c r="G33" s="3">
-        <v>550900</v>
+        <v>546100</v>
       </c>
       <c r="H33" s="3">
-        <v>1333500</v>
+        <v>1321900</v>
       </c>
       <c r="I33" s="3">
-        <v>595800</v>
+        <v>590600</v>
       </c>
       <c r="J33" s="3">
-        <v>454400</v>
+        <v>450400</v>
       </c>
       <c r="K33" s="3">
         <v>149200</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>729100</v>
+        <v>722800</v>
       </c>
       <c r="E35" s="3">
-        <v>531000</v>
+        <v>526400</v>
       </c>
       <c r="F35" s="3">
-        <v>755500</v>
+        <v>748900</v>
       </c>
       <c r="G35" s="3">
-        <v>550900</v>
+        <v>546100</v>
       </c>
       <c r="H35" s="3">
-        <v>1333500</v>
+        <v>1321900</v>
       </c>
       <c r="I35" s="3">
-        <v>595800</v>
+        <v>590600</v>
       </c>
       <c r="J35" s="3">
-        <v>454400</v>
+        <v>450400</v>
       </c>
       <c r="K35" s="3">
         <v>149200</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3495800</v>
+        <v>3465300</v>
       </c>
       <c r="E41" s="3">
-        <v>3057700</v>
+        <v>3031100</v>
       </c>
       <c r="F41" s="3">
-        <v>2657500</v>
+        <v>2634400</v>
       </c>
       <c r="G41" s="3">
-        <v>2569700</v>
+        <v>2547400</v>
       </c>
       <c r="H41" s="3">
-        <v>3036300</v>
+        <v>3009800</v>
       </c>
       <c r="I41" s="3">
-        <v>2623500</v>
+        <v>2600600</v>
       </c>
       <c r="J41" s="3">
-        <v>2436300</v>
+        <v>2415100</v>
       </c>
       <c r="K41" s="3">
         <v>2297800</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>606000</v>
+        <v>600700</v>
       </c>
       <c r="E42" s="3">
-        <v>299100</v>
+        <v>296500</v>
       </c>
       <c r="F42" s="3">
-        <v>372800</v>
+        <v>369500</v>
       </c>
       <c r="G42" s="3">
-        <v>401300</v>
+        <v>397800</v>
       </c>
       <c r="H42" s="3">
-        <v>515800</v>
+        <v>511400</v>
       </c>
       <c r="I42" s="3">
-        <v>201800</v>
+        <v>200100</v>
       </c>
       <c r="J42" s="3">
-        <v>196600</v>
+        <v>194900</v>
       </c>
       <c r="K42" s="3">
         <v>79600</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3946700</v>
+        <v>3957700</v>
       </c>
       <c r="E43" s="3">
-        <v>2934800</v>
+        <v>2909200</v>
       </c>
       <c r="F43" s="3">
-        <v>2894200</v>
+        <v>2869000</v>
       </c>
       <c r="G43" s="3">
-        <v>2849700</v>
+        <v>2824900</v>
       </c>
       <c r="H43" s="3">
-        <v>2399200</v>
+        <v>2378300</v>
       </c>
       <c r="I43" s="3">
-        <v>2121800</v>
+        <v>2103300</v>
       </c>
       <c r="J43" s="3">
-        <v>2231800</v>
+        <v>2212400</v>
       </c>
       <c r="K43" s="3">
         <v>1939900</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2654600</v>
+        <v>2631500</v>
       </c>
       <c r="E44" s="3">
-        <v>2173000</v>
+        <v>2154100</v>
       </c>
       <c r="F44" s="3">
-        <v>2085100</v>
+        <v>2067000</v>
       </c>
       <c r="G44" s="3">
-        <v>1907200</v>
+        <v>1890600</v>
       </c>
       <c r="H44" s="3">
-        <v>1419800</v>
+        <v>1407500</v>
       </c>
       <c r="I44" s="3">
-        <v>1444000</v>
+        <v>1431400</v>
       </c>
       <c r="J44" s="3">
-        <v>1387800</v>
+        <v>1375700</v>
       </c>
       <c r="K44" s="3">
         <v>1249300</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>631800</v>
+        <v>580900</v>
       </c>
       <c r="E45" s="3">
-        <v>417400</v>
+        <v>413800</v>
       </c>
       <c r="F45" s="3">
-        <v>468000</v>
+        <v>463900</v>
       </c>
       <c r="G45" s="3">
-        <v>542500</v>
+        <v>537800</v>
       </c>
       <c r="H45" s="3">
-        <v>588700</v>
+        <v>583600</v>
       </c>
       <c r="I45" s="3">
-        <v>418700</v>
+        <v>415000</v>
       </c>
       <c r="J45" s="3">
-        <v>550300</v>
+        <v>545500</v>
       </c>
       <c r="K45" s="3">
         <v>417500</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11334800</v>
+        <v>11236100</v>
       </c>
       <c r="E46" s="3">
-        <v>8882000</v>
+        <v>8804700</v>
       </c>
       <c r="F46" s="3">
-        <v>8477600</v>
+        <v>8403800</v>
       </c>
       <c r="G46" s="3">
-        <v>8270400</v>
+        <v>8198400</v>
       </c>
       <c r="H46" s="3">
-        <v>7959800</v>
+        <v>7890500</v>
       </c>
       <c r="I46" s="3">
-        <v>6809700</v>
+        <v>6750500</v>
       </c>
       <c r="J46" s="3">
-        <v>6802800</v>
+        <v>6743600</v>
       </c>
       <c r="K46" s="3">
         <v>5984100</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>407000</v>
+        <v>403500</v>
       </c>
       <c r="E47" s="3">
-        <v>305400</v>
+        <v>302700</v>
       </c>
       <c r="F47" s="3">
-        <v>1427300</v>
+        <v>1414800</v>
       </c>
       <c r="G47" s="3">
-        <v>1426700</v>
+        <v>1414200</v>
       </c>
       <c r="H47" s="3">
-        <v>1487200</v>
+        <v>1474200</v>
       </c>
       <c r="I47" s="3">
-        <v>324700</v>
+        <v>321900</v>
       </c>
       <c r="J47" s="3">
-        <v>420300</v>
+        <v>416600</v>
       </c>
       <c r="K47" s="3">
         <v>351800</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7597300</v>
+        <v>7531200</v>
       </c>
       <c r="E48" s="3">
-        <v>5976900</v>
+        <v>5924800</v>
       </c>
       <c r="F48" s="3">
-        <v>5542600</v>
+        <v>5494300</v>
       </c>
       <c r="G48" s="3">
-        <v>5014400</v>
+        <v>4970800</v>
       </c>
       <c r="H48" s="3">
-        <v>4270300</v>
+        <v>4233100</v>
       </c>
       <c r="I48" s="3">
-        <v>4481400</v>
+        <v>4442400</v>
       </c>
       <c r="J48" s="3">
-        <v>3926500</v>
+        <v>3892300</v>
       </c>
       <c r="K48" s="3">
         <v>3426100</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1517200</v>
+        <v>2171600</v>
       </c>
       <c r="E49" s="3">
-        <v>2212000</v>
+        <v>2192700</v>
       </c>
       <c r="F49" s="3">
-        <v>2329500</v>
+        <v>2309300</v>
       </c>
       <c r="G49" s="3">
-        <v>2236700</v>
+        <v>2217300</v>
       </c>
       <c r="H49" s="3">
-        <v>1037100</v>
+        <v>1028100</v>
       </c>
       <c r="I49" s="3">
-        <v>1092100</v>
+        <v>1082600</v>
       </c>
       <c r="J49" s="3">
-        <v>1020100</v>
+        <v>1011300</v>
       </c>
       <c r="K49" s="3">
         <v>1081800</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1212800</v>
+        <v>534700</v>
       </c>
       <c r="E52" s="3">
-        <v>483500</v>
+        <v>479300</v>
       </c>
       <c r="F52" s="3">
-        <v>533900</v>
+        <v>529200</v>
       </c>
       <c r="G52" s="3">
-        <v>560600</v>
+        <v>555700</v>
       </c>
       <c r="H52" s="3">
-        <v>540900</v>
+        <v>536200</v>
       </c>
       <c r="I52" s="3">
-        <v>622900</v>
+        <v>617500</v>
       </c>
       <c r="J52" s="3">
-        <v>735600</v>
+        <v>729200</v>
       </c>
       <c r="K52" s="3">
         <v>510800</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>22069200</v>
+        <v>21877100</v>
       </c>
       <c r="E54" s="3">
-        <v>17859700</v>
+        <v>17704200</v>
       </c>
       <c r="F54" s="3">
-        <v>18310900</v>
+        <v>18151500</v>
       </c>
       <c r="G54" s="3">
-        <v>17508900</v>
+        <v>17356500</v>
       </c>
       <c r="H54" s="3">
-        <v>15295200</v>
+        <v>15162100</v>
       </c>
       <c r="I54" s="3">
-        <v>13330900</v>
+        <v>13214800</v>
       </c>
       <c r="J54" s="3">
-        <v>12905400</v>
+        <v>12793000</v>
       </c>
       <c r="K54" s="3">
         <v>11354600</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2981000</v>
+        <v>2955000</v>
       </c>
       <c r="E57" s="3">
-        <v>1854800</v>
+        <v>1838600</v>
       </c>
       <c r="F57" s="3">
-        <v>1745100</v>
+        <v>1729900</v>
       </c>
       <c r="G57" s="3">
-        <v>2084200</v>
+        <v>2066100</v>
       </c>
       <c r="H57" s="3">
-        <v>1623400</v>
+        <v>1609200</v>
       </c>
       <c r="I57" s="3">
-        <v>1035400</v>
+        <v>1026400</v>
       </c>
       <c r="J57" s="3">
-        <v>1025500</v>
+        <v>1016600</v>
       </c>
       <c r="K57" s="3">
         <v>876500</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3014900</v>
+        <v>2988700</v>
       </c>
       <c r="E58" s="3">
-        <v>2615700</v>
+        <v>2593000</v>
       </c>
       <c r="F58" s="3">
-        <v>2872700</v>
+        <v>2847700</v>
       </c>
       <c r="G58" s="3">
-        <v>1738200</v>
+        <v>1723100</v>
       </c>
       <c r="H58" s="3">
-        <v>1104600</v>
+        <v>1095000</v>
       </c>
       <c r="I58" s="3">
-        <v>1791200</v>
+        <v>1775600</v>
       </c>
       <c r="J58" s="3">
-        <v>1257600</v>
+        <v>1246700</v>
       </c>
       <c r="K58" s="3">
         <v>1551600</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3299600</v>
+        <v>3270900</v>
       </c>
       <c r="E59" s="3">
-        <v>2136200</v>
+        <v>2117600</v>
       </c>
       <c r="F59" s="3">
-        <v>1946800</v>
+        <v>1929900</v>
       </c>
       <c r="G59" s="3">
-        <v>1719500</v>
+        <v>1704500</v>
       </c>
       <c r="H59" s="3">
-        <v>1661100</v>
+        <v>1646700</v>
       </c>
       <c r="I59" s="3">
-        <v>1320200</v>
+        <v>1308700</v>
       </c>
       <c r="J59" s="3">
-        <v>1281400</v>
+        <v>1270300</v>
       </c>
       <c r="K59" s="3">
         <v>995800</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9295500</v>
+        <v>9214500</v>
       </c>
       <c r="E60" s="3">
-        <v>6606700</v>
+        <v>6549200</v>
       </c>
       <c r="F60" s="3">
-        <v>6564600</v>
+        <v>6507500</v>
       </c>
       <c r="G60" s="3">
-        <v>5541900</v>
+        <v>5493700</v>
       </c>
       <c r="H60" s="3">
-        <v>4389100</v>
+        <v>4350900</v>
       </c>
       <c r="I60" s="3">
-        <v>4146800</v>
+        <v>4110700</v>
       </c>
       <c r="J60" s="3">
-        <v>3564600</v>
+        <v>3533600</v>
       </c>
       <c r="K60" s="3">
         <v>3423800</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1427000</v>
+        <v>1414500</v>
       </c>
       <c r="E61" s="3">
-        <v>1287200</v>
+        <v>1276000</v>
       </c>
       <c r="F61" s="3">
-        <v>1908600</v>
+        <v>1892000</v>
       </c>
       <c r="G61" s="3">
-        <v>2700800</v>
+        <v>2677200</v>
       </c>
       <c r="H61" s="3">
-        <v>1966100</v>
+        <v>1948900</v>
       </c>
       <c r="I61" s="3">
-        <v>1294400</v>
+        <v>1283100</v>
       </c>
       <c r="J61" s="3">
-        <v>1208300</v>
+        <v>1197800</v>
       </c>
       <c r="K61" s="3">
         <v>894200</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2098900</v>
+        <v>2080600</v>
       </c>
       <c r="E62" s="3">
-        <v>2167500</v>
+        <v>2148600</v>
       </c>
       <c r="F62" s="3">
-        <v>1716000</v>
+        <v>1701000</v>
       </c>
       <c r="G62" s="3">
-        <v>1627200</v>
+        <v>1613000</v>
       </c>
       <c r="H62" s="3">
-        <v>1568600</v>
+        <v>1554900</v>
       </c>
       <c r="I62" s="3">
-        <v>1597900</v>
+        <v>1584000</v>
       </c>
       <c r="J62" s="3">
-        <v>1166300</v>
+        <v>1156200</v>
       </c>
       <c r="K62" s="3">
         <v>1062000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12846700</v>
+        <v>12734800</v>
       </c>
       <c r="E66" s="3">
-        <v>10103700</v>
+        <v>10015700</v>
       </c>
       <c r="F66" s="3">
-        <v>10248600</v>
+        <v>10159400</v>
       </c>
       <c r="G66" s="3">
-        <v>9930500</v>
+        <v>9844000</v>
       </c>
       <c r="H66" s="3">
-        <v>8001900</v>
+        <v>7932300</v>
       </c>
       <c r="I66" s="3">
-        <v>7124300</v>
+        <v>7062300</v>
       </c>
       <c r="J66" s="3">
-        <v>6115200</v>
+        <v>6062000</v>
       </c>
       <c r="K66" s="3">
         <v>5535000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9837200</v>
+        <v>9751500</v>
       </c>
       <c r="E72" s="3">
-        <v>9340700</v>
+        <v>9259300</v>
       </c>
       <c r="F72" s="3">
-        <v>9007000</v>
+        <v>8928600</v>
       </c>
       <c r="G72" s="3">
-        <v>8454100</v>
+        <v>8380600</v>
       </c>
       <c r="H72" s="3">
-        <v>8010100</v>
+        <v>7940400</v>
       </c>
       <c r="I72" s="3">
-        <v>6816500</v>
+        <v>6757200</v>
       </c>
       <c r="J72" s="3">
-        <v>6348900</v>
+        <v>6293600</v>
       </c>
       <c r="K72" s="3">
         <v>5968400</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9222500</v>
+        <v>9142200</v>
       </c>
       <c r="E76" s="3">
-        <v>7756000</v>
+        <v>7688400</v>
       </c>
       <c r="F76" s="3">
-        <v>8062300</v>
+        <v>7992100</v>
       </c>
       <c r="G76" s="3">
-        <v>7578400</v>
+        <v>7512400</v>
       </c>
       <c r="H76" s="3">
-        <v>7293300</v>
+        <v>7229800</v>
       </c>
       <c r="I76" s="3">
-        <v>6206600</v>
+        <v>6152500</v>
       </c>
       <c r="J76" s="3">
-        <v>6790100</v>
+        <v>6731000</v>
       </c>
       <c r="K76" s="3">
         <v>5819600</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>729100</v>
+        <v>722800</v>
       </c>
       <c r="E81" s="3">
-        <v>531000</v>
+        <v>526400</v>
       </c>
       <c r="F81" s="3">
-        <v>755500</v>
+        <v>748900</v>
       </c>
       <c r="G81" s="3">
-        <v>550900</v>
+        <v>546100</v>
       </c>
       <c r="H81" s="3">
-        <v>1333500</v>
+        <v>1321900</v>
       </c>
       <c r="I81" s="3">
-        <v>595800</v>
+        <v>590600</v>
       </c>
       <c r="J81" s="3">
-        <v>454400</v>
+        <v>450400</v>
       </c>
       <c r="K81" s="3">
         <v>149200</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1289200</v>
+        <v>1278000</v>
       </c>
       <c r="E83" s="3">
-        <v>1148600</v>
+        <v>1138600</v>
       </c>
       <c r="F83" s="3">
-        <v>979900</v>
+        <v>971400</v>
       </c>
       <c r="G83" s="3">
-        <v>847100</v>
+        <v>839700</v>
       </c>
       <c r="H83" s="3">
-        <v>804000</v>
+        <v>797000</v>
       </c>
       <c r="I83" s="3">
-        <v>764800</v>
+        <v>758200</v>
       </c>
       <c r="J83" s="3">
-        <v>737500</v>
+        <v>731100</v>
       </c>
       <c r="K83" s="3">
         <v>761300</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2047700</v>
+        <v>2029800</v>
       </c>
       <c r="E89" s="3">
-        <v>2043800</v>
+        <v>2026000</v>
       </c>
       <c r="F89" s="3">
-        <v>1289100</v>
+        <v>1277900</v>
       </c>
       <c r="G89" s="3">
-        <v>839100</v>
+        <v>831800</v>
       </c>
       <c r="H89" s="3">
-        <v>1471600</v>
+        <v>1458800</v>
       </c>
       <c r="I89" s="3">
-        <v>1392900</v>
+        <v>1380700</v>
       </c>
       <c r="J89" s="3">
-        <v>1312800</v>
+        <v>1301400</v>
       </c>
       <c r="K89" s="3">
         <v>1166100</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1951500</v>
+        <v>-1934600</v>
       </c>
       <c r="E91" s="3">
-        <v>-1593800</v>
+        <v>-1579900</v>
       </c>
       <c r="F91" s="3">
-        <v>-1595300</v>
+        <v>-1581400</v>
       </c>
       <c r="G91" s="3">
-        <v>-1641400</v>
+        <v>-1627200</v>
       </c>
       <c r="H91" s="3">
-        <v>-1540500</v>
+        <v>-1527100</v>
       </c>
       <c r="I91" s="3">
-        <v>-1476600</v>
+        <v>-1463700</v>
       </c>
       <c r="J91" s="3">
-        <v>-942200</v>
+        <v>-934000</v>
       </c>
       <c r="K91" s="3">
         <v>-628400</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2127400</v>
+        <v>-2108900</v>
       </c>
       <c r="E94" s="3">
-        <v>-385600</v>
+        <v>-382300</v>
       </c>
       <c r="F94" s="3">
-        <v>-1288200</v>
+        <v>-1277000</v>
       </c>
       <c r="G94" s="3">
-        <v>-2261600</v>
+        <v>-2242000</v>
       </c>
       <c r="H94" s="3">
-        <v>-653500</v>
+        <v>-647800</v>
       </c>
       <c r="I94" s="3">
-        <v>-1292000</v>
+        <v>-1280700</v>
       </c>
       <c r="J94" s="3">
-        <v>-1170000</v>
+        <v>-1159800</v>
       </c>
       <c r="K94" s="3">
         <v>-507800</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-209000</v>
+        <v>-207100</v>
       </c>
       <c r="E96" s="3">
-        <v>-197300</v>
+        <v>-195600</v>
       </c>
       <c r="F96" s="3">
-        <v>-174100</v>
+        <v>-172600</v>
       </c>
       <c r="G96" s="3">
-        <v>-139100</v>
+        <v>-137900</v>
       </c>
       <c r="H96" s="3">
-        <v>-139100</v>
+        <v>-137900</v>
       </c>
       <c r="I96" s="3">
-        <v>-127400</v>
+        <v>-126300</v>
       </c>
       <c r="J96" s="3">
-        <v>-92500</v>
+        <v>-91700</v>
       </c>
       <c r="K96" s="3">
         <v>-69200</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>268300</v>
+        <v>265900</v>
       </c>
       <c r="E100" s="3">
-        <v>-1119100</v>
+        <v>-1109300</v>
       </c>
       <c r="F100" s="3">
-        <v>86700</v>
+        <v>86000</v>
       </c>
       <c r="G100" s="3">
-        <v>1011700</v>
+        <v>1002900</v>
       </c>
       <c r="H100" s="3">
-        <v>-347000</v>
+        <v>-343900</v>
       </c>
       <c r="I100" s="3">
-        <v>269300</v>
+        <v>267000</v>
       </c>
       <c r="J100" s="3">
-        <v>-323900</v>
+        <v>-321100</v>
       </c>
       <c r="K100" s="3">
         <v>-514000</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>249500</v>
+        <v>247300</v>
       </c>
       <c r="E101" s="3">
-        <v>-138900</v>
+        <v>-137700</v>
       </c>
       <c r="F101" s="3">
         <v>200</v>
       </c>
       <c r="G101" s="3">
-        <v>-55700</v>
+        <v>-55200</v>
       </c>
       <c r="H101" s="3">
-        <v>-58400</v>
+        <v>-57900</v>
       </c>
       <c r="I101" s="3">
-        <v>-183100</v>
+        <v>-181500</v>
       </c>
       <c r="J101" s="3">
-        <v>312100</v>
+        <v>309400</v>
       </c>
       <c r="K101" s="3">
         <v>196100</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>438100</v>
+        <v>434300</v>
       </c>
       <c r="E102" s="3">
-        <v>400200</v>
+        <v>396700</v>
       </c>
       <c r="F102" s="3">
-        <v>87800</v>
+        <v>87000</v>
       </c>
       <c r="G102" s="3">
-        <v>-466500</v>
+        <v>-462500</v>
       </c>
       <c r="H102" s="3">
-        <v>412800</v>
+        <v>409200</v>
       </c>
       <c r="I102" s="3">
-        <v>187100</v>
+        <v>185500</v>
       </c>
       <c r="J102" s="3">
-        <v>131000</v>
+        <v>129900</v>
       </c>
       <c r="K102" s="3">
         <v>340400</v>

--- a/AAII_Financials/Yearly/TTDKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TTDKY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13473800</v>
+        <v>13030100</v>
       </c>
       <c r="E8" s="3">
-        <v>12417300</v>
+        <v>12008400</v>
       </c>
       <c r="F8" s="3">
-        <v>12588300</v>
+        <v>12173700</v>
       </c>
       <c r="G8" s="3">
-        <v>11585600</v>
+        <v>11204100</v>
       </c>
       <c r="H8" s="3">
-        <v>10733900</v>
+        <v>10380400</v>
       </c>
       <c r="I8" s="3">
-        <v>10497000</v>
+        <v>10151400</v>
       </c>
       <c r="J8" s="3">
-        <v>9862100</v>
+        <v>9537400</v>
       </c>
       <c r="K8" s="3">
         <v>9018200</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9517100</v>
+        <v>9203700</v>
       </c>
       <c r="E9" s="3">
-        <v>8743000</v>
+        <v>8455100</v>
       </c>
       <c r="F9" s="3">
-        <v>8976300</v>
+        <v>8680700</v>
       </c>
       <c r="G9" s="3">
-        <v>8458900</v>
+        <v>8180300</v>
       </c>
       <c r="H9" s="3">
-        <v>7797700</v>
+        <v>7540900</v>
       </c>
       <c r="I9" s="3">
-        <v>7571500</v>
+        <v>7322200</v>
       </c>
       <c r="J9" s="3">
-        <v>7308300</v>
+        <v>7067600</v>
       </c>
       <c r="K9" s="3">
         <v>6994300</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3956600</v>
+        <v>3826300</v>
       </c>
       <c r="E10" s="3">
-        <v>3674300</v>
+        <v>3553300</v>
       </c>
       <c r="F10" s="3">
-        <v>3612000</v>
+        <v>3493000</v>
       </c>
       <c r="G10" s="3">
-        <v>3126800</v>
+        <v>3023800</v>
       </c>
       <c r="H10" s="3">
-        <v>2936200</v>
+        <v>2839500</v>
       </c>
       <c r="I10" s="3">
-        <v>2925500</v>
+        <v>2829200</v>
       </c>
       <c r="J10" s="3">
-        <v>2553900</v>
+        <v>2469800</v>
       </c>
       <c r="K10" s="3">
         <v>2023900</v>
@@ -916,10 +916,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>72100</v>
+        <v>69700</v>
       </c>
       <c r="E14" s="3">
-        <v>181300</v>
+        <v>175300</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12457700</v>
+        <v>12047400</v>
       </c>
       <c r="E17" s="3">
-        <v>11537600</v>
+        <v>11157600</v>
       </c>
       <c r="F17" s="3">
-        <v>11606000</v>
+        <v>11223800</v>
       </c>
       <c r="G17" s="3">
-        <v>10768500</v>
+        <v>10413900</v>
       </c>
       <c r="H17" s="3">
-        <v>8833000</v>
+        <v>8542100</v>
       </c>
       <c r="I17" s="3">
-        <v>9646000</v>
+        <v>9328400</v>
       </c>
       <c r="J17" s="3">
-        <v>9202000</v>
+        <v>8899000</v>
       </c>
       <c r="K17" s="3">
         <v>8682800</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1016100</v>
+        <v>982600</v>
       </c>
       <c r="E18" s="3">
-        <v>879700</v>
+        <v>850700</v>
       </c>
       <c r="F18" s="3">
-        <v>982300</v>
+        <v>949900</v>
       </c>
       <c r="G18" s="3">
-        <v>817100</v>
+        <v>790200</v>
       </c>
       <c r="H18" s="3">
-        <v>1900900</v>
+        <v>1838300</v>
       </c>
       <c r="I18" s="3">
-        <v>851000</v>
+        <v>823000</v>
       </c>
       <c r="J18" s="3">
-        <v>660100</v>
+        <v>638400</v>
       </c>
       <c r="K18" s="3">
         <v>335400</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>126600</v>
+        <v>122400</v>
       </c>
       <c r="E20" s="3">
-        <v>27200</v>
+        <v>26300</v>
       </c>
       <c r="F20" s="3">
-        <v>108300</v>
+        <v>104700</v>
       </c>
       <c r="G20" s="3">
-        <v>41700</v>
+        <v>40300</v>
       </c>
       <c r="H20" s="3">
-        <v>59100</v>
+        <v>57100</v>
       </c>
       <c r="I20" s="3">
-        <v>14000</v>
+        <v>13600</v>
       </c>
       <c r="J20" s="3">
-        <v>46000</v>
+        <v>44500</v>
       </c>
       <c r="K20" s="3">
         <v>60600</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2420700</v>
+        <v>2343800</v>
       </c>
       <c r="E21" s="3">
-        <v>2045500</v>
+        <v>1980600</v>
       </c>
       <c r="F21" s="3">
-        <v>2062000</v>
+        <v>1996200</v>
       </c>
       <c r="G21" s="3">
-        <v>1698500</v>
+        <v>1644400</v>
       </c>
       <c r="H21" s="3">
-        <v>2757000</v>
+        <v>2668000</v>
       </c>
       <c r="I21" s="3">
-        <v>1623200</v>
+        <v>1571400</v>
       </c>
       <c r="J21" s="3">
-        <v>1437200</v>
+        <v>1391500</v>
       </c>
       <c r="K21" s="3">
         <v>1160600</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>32100</v>
+        <v>31100</v>
       </c>
       <c r="E22" s="3">
-        <v>33400</v>
+        <v>32300</v>
       </c>
       <c r="F22" s="3">
-        <v>37900</v>
+        <v>36600</v>
       </c>
       <c r="G22" s="3">
-        <v>40600</v>
+        <v>39300</v>
       </c>
       <c r="H22" s="3">
-        <v>31200</v>
+        <v>30200</v>
       </c>
       <c r="I22" s="3">
-        <v>28400</v>
+        <v>27500</v>
       </c>
       <c r="J22" s="3">
-        <v>27300</v>
+        <v>26400</v>
       </c>
       <c r="K22" s="3">
         <v>31700</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1110500</v>
+        <v>1074000</v>
       </c>
       <c r="E23" s="3">
-        <v>873400</v>
+        <v>844700</v>
       </c>
       <c r="F23" s="3">
-        <v>1052700</v>
+        <v>1018000</v>
       </c>
       <c r="G23" s="3">
-        <v>818200</v>
+        <v>791200</v>
       </c>
       <c r="H23" s="3">
-        <v>1928700</v>
+        <v>1865200</v>
       </c>
       <c r="I23" s="3">
-        <v>836700</v>
+        <v>809100</v>
       </c>
       <c r="J23" s="3">
-        <v>678800</v>
+        <v>656500</v>
       </c>
       <c r="K23" s="3">
         <v>364300</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>389000</v>
+        <v>376200</v>
       </c>
       <c r="E24" s="3">
-        <v>352700</v>
+        <v>341100</v>
       </c>
       <c r="F24" s="3">
-        <v>300700</v>
+        <v>290800</v>
       </c>
       <c r="G24" s="3">
-        <v>235300</v>
+        <v>227600</v>
       </c>
       <c r="H24" s="3">
-        <v>602700</v>
+        <v>582800</v>
       </c>
       <c r="I24" s="3">
-        <v>229700</v>
+        <v>222200</v>
       </c>
       <c r="J24" s="3">
-        <v>198000</v>
+        <v>191500</v>
       </c>
       <c r="K24" s="3">
         <v>164300</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>721600</v>
+        <v>697800</v>
       </c>
       <c r="E26" s="3">
-        <v>520700</v>
+        <v>503600</v>
       </c>
       <c r="F26" s="3">
-        <v>752000</v>
+        <v>727300</v>
       </c>
       <c r="G26" s="3">
-        <v>582800</v>
+        <v>563600</v>
       </c>
       <c r="H26" s="3">
-        <v>1326100</v>
+        <v>1282400</v>
       </c>
       <c r="I26" s="3">
-        <v>606900</v>
+        <v>586900</v>
       </c>
       <c r="J26" s="3">
-        <v>480800</v>
+        <v>465000</v>
       </c>
       <c r="K26" s="3">
         <v>200000</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>722800</v>
+        <v>699000</v>
       </c>
       <c r="E27" s="3">
-        <v>526400</v>
+        <v>509000</v>
       </c>
       <c r="F27" s="3">
-        <v>748900</v>
+        <v>724200</v>
       </c>
       <c r="G27" s="3">
-        <v>578100</v>
+        <v>559100</v>
       </c>
       <c r="H27" s="3">
-        <v>1321900</v>
+        <v>1278300</v>
       </c>
       <c r="I27" s="3">
-        <v>590600</v>
+        <v>571100</v>
       </c>
       <c r="J27" s="3">
-        <v>450400</v>
+        <v>435600</v>
       </c>
       <c r="K27" s="3">
         <v>182200</v>
@@ -1422,7 +1422,7 @@
         <v>8</v>
       </c>
       <c r="G29" s="3">
-        <v>-32000</v>
+        <v>-30900</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-126600</v>
+        <v>-122400</v>
       </c>
       <c r="E32" s="3">
-        <v>-27200</v>
+        <v>-26300</v>
       </c>
       <c r="F32" s="3">
-        <v>-108300</v>
+        <v>-104700</v>
       </c>
       <c r="G32" s="3">
-        <v>-41700</v>
+        <v>-40300</v>
       </c>
       <c r="H32" s="3">
-        <v>-59100</v>
+        <v>-57100</v>
       </c>
       <c r="I32" s="3">
-        <v>-14000</v>
+        <v>-13600</v>
       </c>
       <c r="J32" s="3">
-        <v>-46000</v>
+        <v>-44500</v>
       </c>
       <c r="K32" s="3">
         <v>-60600</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>722800</v>
+        <v>699000</v>
       </c>
       <c r="E33" s="3">
-        <v>526400</v>
+        <v>509000</v>
       </c>
       <c r="F33" s="3">
-        <v>748900</v>
+        <v>724200</v>
       </c>
       <c r="G33" s="3">
-        <v>546100</v>
+        <v>528200</v>
       </c>
       <c r="H33" s="3">
-        <v>1321900</v>
+        <v>1278300</v>
       </c>
       <c r="I33" s="3">
-        <v>590600</v>
+        <v>571100</v>
       </c>
       <c r="J33" s="3">
-        <v>450400</v>
+        <v>435600</v>
       </c>
       <c r="K33" s="3">
         <v>149200</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>722800</v>
+        <v>699000</v>
       </c>
       <c r="E35" s="3">
-        <v>526400</v>
+        <v>509000</v>
       </c>
       <c r="F35" s="3">
-        <v>748900</v>
+        <v>724200</v>
       </c>
       <c r="G35" s="3">
-        <v>546100</v>
+        <v>528200</v>
       </c>
       <c r="H35" s="3">
-        <v>1321900</v>
+        <v>1278300</v>
       </c>
       <c r="I35" s="3">
-        <v>590600</v>
+        <v>571100</v>
       </c>
       <c r="J35" s="3">
-        <v>450400</v>
+        <v>435600</v>
       </c>
       <c r="K35" s="3">
         <v>149200</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3465300</v>
+        <v>3351200</v>
       </c>
       <c r="E41" s="3">
-        <v>3031100</v>
+        <v>2931200</v>
       </c>
       <c r="F41" s="3">
-        <v>2634400</v>
+        <v>2547600</v>
       </c>
       <c r="G41" s="3">
-        <v>2547400</v>
+        <v>2463500</v>
       </c>
       <c r="H41" s="3">
-        <v>3009800</v>
+        <v>2910700</v>
       </c>
       <c r="I41" s="3">
-        <v>2600600</v>
+        <v>2515000</v>
       </c>
       <c r="J41" s="3">
-        <v>2415100</v>
+        <v>2335600</v>
       </c>
       <c r="K41" s="3">
         <v>2297800</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>600700</v>
+        <v>580900</v>
       </c>
       <c r="E42" s="3">
-        <v>296500</v>
+        <v>286800</v>
       </c>
       <c r="F42" s="3">
-        <v>369500</v>
+        <v>357400</v>
       </c>
       <c r="G42" s="3">
-        <v>397800</v>
+        <v>384700</v>
       </c>
       <c r="H42" s="3">
-        <v>511400</v>
+        <v>494500</v>
       </c>
       <c r="I42" s="3">
-        <v>200100</v>
+        <v>193500</v>
       </c>
       <c r="J42" s="3">
-        <v>194900</v>
+        <v>188500</v>
       </c>
       <c r="K42" s="3">
         <v>79600</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3957700</v>
+        <v>3827400</v>
       </c>
       <c r="E43" s="3">
-        <v>2909200</v>
+        <v>2813400</v>
       </c>
       <c r="F43" s="3">
-        <v>2869000</v>
+        <v>2774500</v>
       </c>
       <c r="G43" s="3">
-        <v>2824900</v>
+        <v>2731800</v>
       </c>
       <c r="H43" s="3">
-        <v>2378300</v>
+        <v>2300000</v>
       </c>
       <c r="I43" s="3">
-        <v>2103300</v>
+        <v>2034000</v>
       </c>
       <c r="J43" s="3">
-        <v>2212400</v>
+        <v>2139600</v>
       </c>
       <c r="K43" s="3">
         <v>1939900</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2631500</v>
+        <v>2544800</v>
       </c>
       <c r="E44" s="3">
-        <v>2154100</v>
+        <v>2083200</v>
       </c>
       <c r="F44" s="3">
-        <v>2067000</v>
+        <v>1998900</v>
       </c>
       <c r="G44" s="3">
-        <v>1890600</v>
+        <v>1828400</v>
       </c>
       <c r="H44" s="3">
-        <v>1407500</v>
+        <v>1361100</v>
       </c>
       <c r="I44" s="3">
-        <v>1431400</v>
+        <v>1384300</v>
       </c>
       <c r="J44" s="3">
-        <v>1375700</v>
+        <v>1330400</v>
       </c>
       <c r="K44" s="3">
         <v>1249300</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>580900</v>
+        <v>561800</v>
       </c>
       <c r="E45" s="3">
-        <v>413800</v>
+        <v>400100</v>
       </c>
       <c r="F45" s="3">
-        <v>463900</v>
+        <v>448700</v>
       </c>
       <c r="G45" s="3">
-        <v>537800</v>
+        <v>520000</v>
       </c>
       <c r="H45" s="3">
-        <v>583600</v>
+        <v>564300</v>
       </c>
       <c r="I45" s="3">
-        <v>415000</v>
+        <v>401300</v>
       </c>
       <c r="J45" s="3">
-        <v>545500</v>
+        <v>527500</v>
       </c>
       <c r="K45" s="3">
         <v>417500</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11236100</v>
+        <v>10866100</v>
       </c>
       <c r="E46" s="3">
-        <v>8804700</v>
+        <v>8514700</v>
       </c>
       <c r="F46" s="3">
-        <v>8403800</v>
+        <v>8127100</v>
       </c>
       <c r="G46" s="3">
-        <v>8198400</v>
+        <v>7928400</v>
       </c>
       <c r="H46" s="3">
-        <v>7890500</v>
+        <v>7630700</v>
       </c>
       <c r="I46" s="3">
-        <v>6750500</v>
+        <v>6528200</v>
       </c>
       <c r="J46" s="3">
-        <v>6743600</v>
+        <v>6521500</v>
       </c>
       <c r="K46" s="3">
         <v>5984100</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>403500</v>
+        <v>390200</v>
       </c>
       <c r="E47" s="3">
-        <v>302700</v>
+        <v>292700</v>
       </c>
       <c r="F47" s="3">
-        <v>1414800</v>
+        <v>1368200</v>
       </c>
       <c r="G47" s="3">
-        <v>1414200</v>
+        <v>1367700</v>
       </c>
       <c r="H47" s="3">
-        <v>1474200</v>
+        <v>1425700</v>
       </c>
       <c r="I47" s="3">
-        <v>321900</v>
+        <v>311300</v>
       </c>
       <c r="J47" s="3">
-        <v>416600</v>
+        <v>402900</v>
       </c>
       <c r="K47" s="3">
         <v>351800</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7531200</v>
+        <v>7283200</v>
       </c>
       <c r="E48" s="3">
-        <v>5924800</v>
+        <v>5729700</v>
       </c>
       <c r="F48" s="3">
-        <v>5494300</v>
+        <v>5313400</v>
       </c>
       <c r="G48" s="3">
-        <v>4970800</v>
+        <v>4807100</v>
       </c>
       <c r="H48" s="3">
-        <v>4233100</v>
+        <v>4093700</v>
       </c>
       <c r="I48" s="3">
-        <v>4442400</v>
+        <v>4296100</v>
       </c>
       <c r="J48" s="3">
-        <v>3892300</v>
+        <v>3764100</v>
       </c>
       <c r="K48" s="3">
         <v>3426100</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2171600</v>
+        <v>2100100</v>
       </c>
       <c r="E49" s="3">
-        <v>2192700</v>
+        <v>2120500</v>
       </c>
       <c r="F49" s="3">
-        <v>2309300</v>
+        <v>2233200</v>
       </c>
       <c r="G49" s="3">
-        <v>2217300</v>
+        <v>2144300</v>
       </c>
       <c r="H49" s="3">
-        <v>1028100</v>
+        <v>994200</v>
       </c>
       <c r="I49" s="3">
-        <v>1082600</v>
+        <v>1046900</v>
       </c>
       <c r="J49" s="3">
-        <v>1011300</v>
+        <v>978000</v>
       </c>
       <c r="K49" s="3">
         <v>1081800</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>534700</v>
+        <v>517100</v>
       </c>
       <c r="E52" s="3">
-        <v>479300</v>
+        <v>463500</v>
       </c>
       <c r="F52" s="3">
-        <v>529200</v>
+        <v>511800</v>
       </c>
       <c r="G52" s="3">
-        <v>555700</v>
+        <v>537400</v>
       </c>
       <c r="H52" s="3">
-        <v>536200</v>
+        <v>518500</v>
       </c>
       <c r="I52" s="3">
-        <v>617500</v>
+        <v>597200</v>
       </c>
       <c r="J52" s="3">
-        <v>729200</v>
+        <v>705200</v>
       </c>
       <c r="K52" s="3">
         <v>510800</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>21877100</v>
+        <v>21156600</v>
       </c>
       <c r="E54" s="3">
-        <v>17704200</v>
+        <v>17121200</v>
       </c>
       <c r="F54" s="3">
-        <v>18151500</v>
+        <v>17553700</v>
       </c>
       <c r="G54" s="3">
-        <v>17356500</v>
+        <v>16784900</v>
       </c>
       <c r="H54" s="3">
-        <v>15162100</v>
+        <v>14662800</v>
       </c>
       <c r="I54" s="3">
-        <v>13214800</v>
+        <v>12779700</v>
       </c>
       <c r="J54" s="3">
-        <v>12793000</v>
+        <v>12371700</v>
       </c>
       <c r="K54" s="3">
         <v>11354600</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2955000</v>
+        <v>2857700</v>
       </c>
       <c r="E57" s="3">
-        <v>1838600</v>
+        <v>1778100</v>
       </c>
       <c r="F57" s="3">
-        <v>1729900</v>
+        <v>1672900</v>
       </c>
       <c r="G57" s="3">
-        <v>2066100</v>
+        <v>1998000</v>
       </c>
       <c r="H57" s="3">
-        <v>1609200</v>
+        <v>1556200</v>
       </c>
       <c r="I57" s="3">
-        <v>1026400</v>
+        <v>992600</v>
       </c>
       <c r="J57" s="3">
-        <v>1016600</v>
+        <v>983100</v>
       </c>
       <c r="K57" s="3">
         <v>876500</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2988700</v>
+        <v>2890200</v>
       </c>
       <c r="E58" s="3">
-        <v>2593000</v>
+        <v>2507600</v>
       </c>
       <c r="F58" s="3">
-        <v>2847700</v>
+        <v>2753900</v>
       </c>
       <c r="G58" s="3">
-        <v>1723100</v>
+        <v>1666300</v>
       </c>
       <c r="H58" s="3">
-        <v>1095000</v>
+        <v>1058900</v>
       </c>
       <c r="I58" s="3">
-        <v>1775600</v>
+        <v>1717200</v>
       </c>
       <c r="J58" s="3">
-        <v>1246700</v>
+        <v>1205600</v>
       </c>
       <c r="K58" s="3">
         <v>1551600</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3270900</v>
+        <v>3163100</v>
       </c>
       <c r="E59" s="3">
-        <v>2117600</v>
+        <v>2047900</v>
       </c>
       <c r="F59" s="3">
-        <v>1929900</v>
+        <v>1866300</v>
       </c>
       <c r="G59" s="3">
-        <v>1704500</v>
+        <v>1648400</v>
       </c>
       <c r="H59" s="3">
-        <v>1646700</v>
+        <v>1592400</v>
       </c>
       <c r="I59" s="3">
-        <v>1308700</v>
+        <v>1265600</v>
       </c>
       <c r="J59" s="3">
-        <v>1270300</v>
+        <v>1228400</v>
       </c>
       <c r="K59" s="3">
         <v>995800</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9214500</v>
+        <v>8911100</v>
       </c>
       <c r="E60" s="3">
-        <v>6549200</v>
+        <v>6333600</v>
       </c>
       <c r="F60" s="3">
-        <v>6507500</v>
+        <v>6293200</v>
       </c>
       <c r="G60" s="3">
-        <v>5493700</v>
+        <v>5312800</v>
       </c>
       <c r="H60" s="3">
-        <v>4350900</v>
+        <v>4207600</v>
       </c>
       <c r="I60" s="3">
-        <v>4110700</v>
+        <v>3975400</v>
       </c>
       <c r="J60" s="3">
-        <v>3533600</v>
+        <v>3417200</v>
       </c>
       <c r="K60" s="3">
         <v>3423800</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1414500</v>
+        <v>1368000</v>
       </c>
       <c r="E61" s="3">
-        <v>1276000</v>
+        <v>1233900</v>
       </c>
       <c r="F61" s="3">
-        <v>1892000</v>
+        <v>1829700</v>
       </c>
       <c r="G61" s="3">
-        <v>2677200</v>
+        <v>2589100</v>
       </c>
       <c r="H61" s="3">
-        <v>1948900</v>
+        <v>1884800</v>
       </c>
       <c r="I61" s="3">
-        <v>1283100</v>
+        <v>1240900</v>
       </c>
       <c r="J61" s="3">
-        <v>1197800</v>
+        <v>1158400</v>
       </c>
       <c r="K61" s="3">
         <v>894200</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2080600</v>
+        <v>2012100</v>
       </c>
       <c r="E62" s="3">
-        <v>2148600</v>
+        <v>2077800</v>
       </c>
       <c r="F62" s="3">
-        <v>1701000</v>
+        <v>1645000</v>
       </c>
       <c r="G62" s="3">
-        <v>1613000</v>
+        <v>1559900</v>
       </c>
       <c r="H62" s="3">
-        <v>1554900</v>
+        <v>1503700</v>
       </c>
       <c r="I62" s="3">
-        <v>1584000</v>
+        <v>1531800</v>
       </c>
       <c r="J62" s="3">
-        <v>1156200</v>
+        <v>1118100</v>
       </c>
       <c r="K62" s="3">
         <v>1062000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12734800</v>
+        <v>12315500</v>
       </c>
       <c r="E66" s="3">
-        <v>10015700</v>
+        <v>9685900</v>
       </c>
       <c r="F66" s="3">
-        <v>10159400</v>
+        <v>9824800</v>
       </c>
       <c r="G66" s="3">
-        <v>9844000</v>
+        <v>9519900</v>
       </c>
       <c r="H66" s="3">
-        <v>7932300</v>
+        <v>7671000</v>
       </c>
       <c r="I66" s="3">
-        <v>7062300</v>
+        <v>6829700</v>
       </c>
       <c r="J66" s="3">
-        <v>6062000</v>
+        <v>5862400</v>
       </c>
       <c r="K66" s="3">
         <v>5535000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9751500</v>
+        <v>9430400</v>
       </c>
       <c r="E72" s="3">
-        <v>9259300</v>
+        <v>8954400</v>
       </c>
       <c r="F72" s="3">
-        <v>8928600</v>
+        <v>8634500</v>
       </c>
       <c r="G72" s="3">
-        <v>8380600</v>
+        <v>8104600</v>
       </c>
       <c r="H72" s="3">
-        <v>7940400</v>
+        <v>7678900</v>
       </c>
       <c r="I72" s="3">
-        <v>6757200</v>
+        <v>6534600</v>
       </c>
       <c r="J72" s="3">
-        <v>6293600</v>
+        <v>6086300</v>
       </c>
       <c r="K72" s="3">
         <v>5968400</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9142200</v>
+        <v>8841200</v>
       </c>
       <c r="E76" s="3">
-        <v>7688400</v>
+        <v>7435300</v>
       </c>
       <c r="F76" s="3">
-        <v>7992100</v>
+        <v>7728900</v>
       </c>
       <c r="G76" s="3">
-        <v>7512400</v>
+        <v>7265000</v>
       </c>
       <c r="H76" s="3">
-        <v>7229800</v>
+        <v>6991700</v>
       </c>
       <c r="I76" s="3">
-        <v>6152500</v>
+        <v>5949900</v>
       </c>
       <c r="J76" s="3">
-        <v>6731000</v>
+        <v>6509400</v>
       </c>
       <c r="K76" s="3">
         <v>5819600</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>722800</v>
+        <v>699000</v>
       </c>
       <c r="E81" s="3">
-        <v>526400</v>
+        <v>509000</v>
       </c>
       <c r="F81" s="3">
-        <v>748900</v>
+        <v>724200</v>
       </c>
       <c r="G81" s="3">
-        <v>546100</v>
+        <v>528200</v>
       </c>
       <c r="H81" s="3">
-        <v>1321900</v>
+        <v>1278300</v>
       </c>
       <c r="I81" s="3">
-        <v>590600</v>
+        <v>571100</v>
       </c>
       <c r="J81" s="3">
-        <v>450400</v>
+        <v>435600</v>
       </c>
       <c r="K81" s="3">
         <v>149200</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1278000</v>
+        <v>1235900</v>
       </c>
       <c r="E83" s="3">
-        <v>1138600</v>
+        <v>1101100</v>
       </c>
       <c r="F83" s="3">
-        <v>971400</v>
+        <v>939400</v>
       </c>
       <c r="G83" s="3">
-        <v>839700</v>
+        <v>812000</v>
       </c>
       <c r="H83" s="3">
-        <v>797000</v>
+        <v>770800</v>
       </c>
       <c r="I83" s="3">
-        <v>758200</v>
+        <v>733200</v>
       </c>
       <c r="J83" s="3">
-        <v>731100</v>
+        <v>707000</v>
       </c>
       <c r="K83" s="3">
         <v>761300</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2029800</v>
+        <v>1963000</v>
       </c>
       <c r="E89" s="3">
-        <v>2026000</v>
+        <v>1959300</v>
       </c>
       <c r="F89" s="3">
-        <v>1277900</v>
+        <v>1235800</v>
       </c>
       <c r="G89" s="3">
-        <v>831800</v>
+        <v>804400</v>
       </c>
       <c r="H89" s="3">
-        <v>1458800</v>
+        <v>1410800</v>
       </c>
       <c r="I89" s="3">
-        <v>1380700</v>
+        <v>1335300</v>
       </c>
       <c r="J89" s="3">
-        <v>1301400</v>
+        <v>1258500</v>
       </c>
       <c r="K89" s="3">
         <v>1166100</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1934600</v>
+        <v>-1870800</v>
       </c>
       <c r="E91" s="3">
-        <v>-1579900</v>
+        <v>-1527900</v>
       </c>
       <c r="F91" s="3">
-        <v>-1581400</v>
+        <v>-1529300</v>
       </c>
       <c r="G91" s="3">
-        <v>-1627200</v>
+        <v>-1573600</v>
       </c>
       <c r="H91" s="3">
-        <v>-1527100</v>
+        <v>-1476800</v>
       </c>
       <c r="I91" s="3">
-        <v>-1463700</v>
+        <v>-1415500</v>
       </c>
       <c r="J91" s="3">
-        <v>-934000</v>
+        <v>-903200</v>
       </c>
       <c r="K91" s="3">
         <v>-628400</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2108900</v>
+        <v>-2039400</v>
       </c>
       <c r="E94" s="3">
-        <v>-382300</v>
+        <v>-369700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1277000</v>
+        <v>-1235000</v>
       </c>
       <c r="G94" s="3">
-        <v>-2242000</v>
+        <v>-2168100</v>
       </c>
       <c r="H94" s="3">
-        <v>-647800</v>
+        <v>-626500</v>
       </c>
       <c r="I94" s="3">
-        <v>-1280700</v>
+        <v>-1238600</v>
       </c>
       <c r="J94" s="3">
-        <v>-1159800</v>
+        <v>-1121600</v>
       </c>
       <c r="K94" s="3">
         <v>-507800</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-207100</v>
+        <v>-200300</v>
       </c>
       <c r="E96" s="3">
-        <v>-195600</v>
+        <v>-189100</v>
       </c>
       <c r="F96" s="3">
-        <v>-172600</v>
+        <v>-166900</v>
       </c>
       <c r="G96" s="3">
-        <v>-137900</v>
+        <v>-133400</v>
       </c>
       <c r="H96" s="3">
-        <v>-137900</v>
+        <v>-133300</v>
       </c>
       <c r="I96" s="3">
-        <v>-126300</v>
+        <v>-122100</v>
       </c>
       <c r="J96" s="3">
-        <v>-91700</v>
+        <v>-88700</v>
       </c>
       <c r="K96" s="3">
         <v>-69200</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>265900</v>
+        <v>257200</v>
       </c>
       <c r="E100" s="3">
-        <v>-1109300</v>
+        <v>-1072800</v>
       </c>
       <c r="F100" s="3">
-        <v>86000</v>
+        <v>83100</v>
       </c>
       <c r="G100" s="3">
-        <v>1002900</v>
+        <v>969900</v>
       </c>
       <c r="H100" s="3">
-        <v>-343900</v>
+        <v>-332600</v>
       </c>
       <c r="I100" s="3">
-        <v>267000</v>
+        <v>258200</v>
       </c>
       <c r="J100" s="3">
-        <v>-321100</v>
+        <v>-310500</v>
       </c>
       <c r="K100" s="3">
         <v>-514000</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>247300</v>
+        <v>239200</v>
       </c>
       <c r="E101" s="3">
-        <v>-137700</v>
+        <v>-133200</v>
       </c>
       <c r="F101" s="3">
         <v>200</v>
       </c>
       <c r="G101" s="3">
-        <v>-55200</v>
+        <v>-53400</v>
       </c>
       <c r="H101" s="3">
-        <v>-57900</v>
+        <v>-56000</v>
       </c>
       <c r="I101" s="3">
-        <v>-181500</v>
+        <v>-175500</v>
       </c>
       <c r="J101" s="3">
-        <v>309400</v>
+        <v>299200</v>
       </c>
       <c r="K101" s="3">
         <v>196100</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>434300</v>
+        <v>420000</v>
       </c>
       <c r="E102" s="3">
-        <v>396700</v>
+        <v>383600</v>
       </c>
       <c r="F102" s="3">
-        <v>87000</v>
+        <v>84100</v>
       </c>
       <c r="G102" s="3">
-        <v>-462500</v>
+        <v>-447200</v>
       </c>
       <c r="H102" s="3">
-        <v>409200</v>
+        <v>395700</v>
       </c>
       <c r="I102" s="3">
-        <v>185500</v>
+        <v>179400</v>
       </c>
       <c r="J102" s="3">
-        <v>129900</v>
+        <v>125600</v>
       </c>
       <c r="K102" s="3">
         <v>340400</v>

--- a/AAII_Financials/Yearly/TTDKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TTDKY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13030100</v>
+        <v>12615900</v>
       </c>
       <c r="E8" s="3">
-        <v>12008400</v>
+        <v>11626700</v>
       </c>
       <c r="F8" s="3">
-        <v>12173700</v>
+        <v>11786800</v>
       </c>
       <c r="G8" s="3">
-        <v>11204100</v>
+        <v>10848000</v>
       </c>
       <c r="H8" s="3">
-        <v>10380400</v>
+        <v>10050500</v>
       </c>
       <c r="I8" s="3">
-        <v>10151400</v>
+        <v>9828700</v>
       </c>
       <c r="J8" s="3">
-        <v>9537400</v>
+        <v>9234200</v>
       </c>
       <c r="K8" s="3">
         <v>9018200</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9203700</v>
+        <v>8911200</v>
       </c>
       <c r="E9" s="3">
-        <v>8455100</v>
+        <v>8186400</v>
       </c>
       <c r="F9" s="3">
-        <v>8680700</v>
+        <v>8404800</v>
       </c>
       <c r="G9" s="3">
-        <v>8180300</v>
+        <v>7920300</v>
       </c>
       <c r="H9" s="3">
-        <v>7540900</v>
+        <v>7301200</v>
       </c>
       <c r="I9" s="3">
-        <v>7322200</v>
+        <v>7089500</v>
       </c>
       <c r="J9" s="3">
-        <v>7067600</v>
+        <v>6843000</v>
       </c>
       <c r="K9" s="3">
         <v>6994300</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3826300</v>
+        <v>3704700</v>
       </c>
       <c r="E10" s="3">
-        <v>3553300</v>
+        <v>3440300</v>
       </c>
       <c r="F10" s="3">
-        <v>3493000</v>
+        <v>3382000</v>
       </c>
       <c r="G10" s="3">
-        <v>3023800</v>
+        <v>2927700</v>
       </c>
       <c r="H10" s="3">
-        <v>2839500</v>
+        <v>2749300</v>
       </c>
       <c r="I10" s="3">
-        <v>2829200</v>
+        <v>2739300</v>
       </c>
       <c r="J10" s="3">
-        <v>2469800</v>
+        <v>2391300</v>
       </c>
       <c r="K10" s="3">
         <v>2023900</v>
@@ -916,10 +916,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>69700</v>
+        <v>67500</v>
       </c>
       <c r="E14" s="3">
-        <v>175300</v>
+        <v>169700</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12047400</v>
+        <v>11664500</v>
       </c>
       <c r="E17" s="3">
-        <v>11157600</v>
+        <v>10803000</v>
       </c>
       <c r="F17" s="3">
-        <v>11223800</v>
+        <v>10867100</v>
       </c>
       <c r="G17" s="3">
-        <v>10413900</v>
+        <v>10082900</v>
       </c>
       <c r="H17" s="3">
-        <v>8542100</v>
+        <v>8270700</v>
       </c>
       <c r="I17" s="3">
-        <v>9328400</v>
+        <v>9031900</v>
       </c>
       <c r="J17" s="3">
-        <v>8899000</v>
+        <v>8616200</v>
       </c>
       <c r="K17" s="3">
         <v>8682800</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>982600</v>
+        <v>951400</v>
       </c>
       <c r="E18" s="3">
-        <v>850700</v>
+        <v>823700</v>
       </c>
       <c r="F18" s="3">
-        <v>949900</v>
+        <v>919700</v>
       </c>
       <c r="G18" s="3">
-        <v>790200</v>
+        <v>765100</v>
       </c>
       <c r="H18" s="3">
-        <v>1838300</v>
+        <v>1779900</v>
       </c>
       <c r="I18" s="3">
-        <v>823000</v>
+        <v>796800</v>
       </c>
       <c r="J18" s="3">
-        <v>638400</v>
+        <v>618100</v>
       </c>
       <c r="K18" s="3">
         <v>335400</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>122400</v>
+        <v>118500</v>
       </c>
       <c r="E20" s="3">
-        <v>26300</v>
+        <v>25400</v>
       </c>
       <c r="F20" s="3">
-        <v>104700</v>
+        <v>101400</v>
       </c>
       <c r="G20" s="3">
-        <v>40300</v>
+        <v>39100</v>
       </c>
       <c r="H20" s="3">
-        <v>57100</v>
+        <v>55300</v>
       </c>
       <c r="I20" s="3">
-        <v>13600</v>
+        <v>13100</v>
       </c>
       <c r="J20" s="3">
-        <v>44500</v>
+        <v>43100</v>
       </c>
       <c r="K20" s="3">
         <v>60600</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2343800</v>
+        <v>2280600</v>
       </c>
       <c r="E21" s="3">
-        <v>1980600</v>
+        <v>1927700</v>
       </c>
       <c r="F21" s="3">
-        <v>1996200</v>
+        <v>1941300</v>
       </c>
       <c r="G21" s="3">
-        <v>1644400</v>
+        <v>1599600</v>
       </c>
       <c r="H21" s="3">
-        <v>2668000</v>
+        <v>2590200</v>
       </c>
       <c r="I21" s="3">
-        <v>1571400</v>
+        <v>1528200</v>
       </c>
       <c r="J21" s="3">
-        <v>1391500</v>
+        <v>1353700</v>
       </c>
       <c r="K21" s="3">
         <v>1160600</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>31100</v>
+        <v>30100</v>
       </c>
       <c r="E22" s="3">
-        <v>32300</v>
+        <v>31300</v>
       </c>
       <c r="F22" s="3">
-        <v>36600</v>
+        <v>35400</v>
       </c>
       <c r="G22" s="3">
-        <v>39300</v>
+        <v>38100</v>
       </c>
       <c r="H22" s="3">
-        <v>30200</v>
+        <v>29200</v>
       </c>
       <c r="I22" s="3">
-        <v>27500</v>
+        <v>26600</v>
       </c>
       <c r="J22" s="3">
-        <v>26400</v>
+        <v>25500</v>
       </c>
       <c r="K22" s="3">
         <v>31700</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1074000</v>
+        <v>1039800</v>
       </c>
       <c r="E23" s="3">
-        <v>844700</v>
+        <v>817800</v>
       </c>
       <c r="F23" s="3">
-        <v>1018000</v>
+        <v>985700</v>
       </c>
       <c r="G23" s="3">
-        <v>791200</v>
+        <v>766100</v>
       </c>
       <c r="H23" s="3">
-        <v>1865200</v>
+        <v>1805900</v>
       </c>
       <c r="I23" s="3">
-        <v>809100</v>
+        <v>783400</v>
       </c>
       <c r="J23" s="3">
-        <v>656500</v>
+        <v>635600</v>
       </c>
       <c r="K23" s="3">
         <v>364300</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>376200</v>
+        <v>364200</v>
       </c>
       <c r="E24" s="3">
-        <v>341100</v>
+        <v>330300</v>
       </c>
       <c r="F24" s="3">
-        <v>290800</v>
+        <v>281500</v>
       </c>
       <c r="G24" s="3">
-        <v>227600</v>
+        <v>220400</v>
       </c>
       <c r="H24" s="3">
-        <v>582800</v>
+        <v>564300</v>
       </c>
       <c r="I24" s="3">
-        <v>222200</v>
+        <v>215100</v>
       </c>
       <c r="J24" s="3">
-        <v>191500</v>
+        <v>185400</v>
       </c>
       <c r="K24" s="3">
         <v>164300</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>697800</v>
+        <v>675600</v>
       </c>
       <c r="E26" s="3">
-        <v>503600</v>
+        <v>487500</v>
       </c>
       <c r="F26" s="3">
-        <v>727300</v>
+        <v>704200</v>
       </c>
       <c r="G26" s="3">
-        <v>563600</v>
+        <v>545700</v>
       </c>
       <c r="H26" s="3">
-        <v>1282400</v>
+        <v>1241600</v>
       </c>
       <c r="I26" s="3">
-        <v>586900</v>
+        <v>568300</v>
       </c>
       <c r="J26" s="3">
-        <v>465000</v>
+        <v>450200</v>
       </c>
       <c r="K26" s="3">
         <v>200000</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>699000</v>
+        <v>676800</v>
       </c>
       <c r="E27" s="3">
-        <v>509000</v>
+        <v>492900</v>
       </c>
       <c r="F27" s="3">
-        <v>724200</v>
+        <v>701200</v>
       </c>
       <c r="G27" s="3">
-        <v>559100</v>
+        <v>541300</v>
       </c>
       <c r="H27" s="3">
-        <v>1278300</v>
+        <v>1237700</v>
       </c>
       <c r="I27" s="3">
-        <v>571100</v>
+        <v>553000</v>
       </c>
       <c r="J27" s="3">
-        <v>435600</v>
+        <v>421700</v>
       </c>
       <c r="K27" s="3">
         <v>182200</v>
@@ -1422,7 +1422,7 @@
         <v>8</v>
       </c>
       <c r="G29" s="3">
-        <v>-30900</v>
+        <v>-30000</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-122400</v>
+        <v>-118500</v>
       </c>
       <c r="E32" s="3">
-        <v>-26300</v>
+        <v>-25400</v>
       </c>
       <c r="F32" s="3">
-        <v>-104700</v>
+        <v>-101400</v>
       </c>
       <c r="G32" s="3">
-        <v>-40300</v>
+        <v>-39100</v>
       </c>
       <c r="H32" s="3">
-        <v>-57100</v>
+        <v>-55300</v>
       </c>
       <c r="I32" s="3">
-        <v>-13600</v>
+        <v>-13100</v>
       </c>
       <c r="J32" s="3">
-        <v>-44500</v>
+        <v>-43100</v>
       </c>
       <c r="K32" s="3">
         <v>-60600</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>699000</v>
+        <v>676800</v>
       </c>
       <c r="E33" s="3">
-        <v>509000</v>
+        <v>492900</v>
       </c>
       <c r="F33" s="3">
-        <v>724200</v>
+        <v>701200</v>
       </c>
       <c r="G33" s="3">
-        <v>528200</v>
+        <v>511400</v>
       </c>
       <c r="H33" s="3">
-        <v>1278300</v>
+        <v>1237700</v>
       </c>
       <c r="I33" s="3">
-        <v>571100</v>
+        <v>553000</v>
       </c>
       <c r="J33" s="3">
-        <v>435600</v>
+        <v>421700</v>
       </c>
       <c r="K33" s="3">
         <v>149200</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>699000</v>
+        <v>676800</v>
       </c>
       <c r="E35" s="3">
-        <v>509000</v>
+        <v>492900</v>
       </c>
       <c r="F35" s="3">
-        <v>724200</v>
+        <v>701200</v>
       </c>
       <c r="G35" s="3">
-        <v>528200</v>
+        <v>511400</v>
       </c>
       <c r="H35" s="3">
-        <v>1278300</v>
+        <v>1237700</v>
       </c>
       <c r="I35" s="3">
-        <v>571100</v>
+        <v>553000</v>
       </c>
       <c r="J35" s="3">
-        <v>435600</v>
+        <v>421700</v>
       </c>
       <c r="K35" s="3">
         <v>149200</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3351200</v>
+        <v>3244700</v>
       </c>
       <c r="E41" s="3">
-        <v>2931200</v>
+        <v>2838100</v>
       </c>
       <c r="F41" s="3">
-        <v>2547600</v>
+        <v>2466700</v>
       </c>
       <c r="G41" s="3">
-        <v>2463500</v>
+        <v>2385200</v>
       </c>
       <c r="H41" s="3">
-        <v>2910700</v>
+        <v>2818200</v>
       </c>
       <c r="I41" s="3">
-        <v>2515000</v>
+        <v>2435000</v>
       </c>
       <c r="J41" s="3">
-        <v>2335600</v>
+        <v>2261300</v>
       </c>
       <c r="K41" s="3">
         <v>2297800</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>580900</v>
+        <v>562500</v>
       </c>
       <c r="E42" s="3">
-        <v>286800</v>
+        <v>277700</v>
       </c>
       <c r="F42" s="3">
-        <v>357400</v>
+        <v>346000</v>
       </c>
       <c r="G42" s="3">
-        <v>384700</v>
+        <v>372500</v>
       </c>
       <c r="H42" s="3">
-        <v>494500</v>
+        <v>478800</v>
       </c>
       <c r="I42" s="3">
-        <v>193500</v>
+        <v>187400</v>
       </c>
       <c r="J42" s="3">
-        <v>188500</v>
+        <v>182500</v>
       </c>
       <c r="K42" s="3">
         <v>79600</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3827400</v>
+        <v>3705700</v>
       </c>
       <c r="E43" s="3">
-        <v>2813400</v>
+        <v>2724000</v>
       </c>
       <c r="F43" s="3">
-        <v>2774500</v>
+        <v>2686300</v>
       </c>
       <c r="G43" s="3">
-        <v>2731800</v>
+        <v>2645000</v>
       </c>
       <c r="H43" s="3">
-        <v>2300000</v>
+        <v>2226900</v>
       </c>
       <c r="I43" s="3">
-        <v>2034000</v>
+        <v>1969400</v>
       </c>
       <c r="J43" s="3">
-        <v>2139600</v>
+        <v>2071600</v>
       </c>
       <c r="K43" s="3">
         <v>1939900</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2544800</v>
+        <v>2463900</v>
       </c>
       <c r="E44" s="3">
-        <v>2083200</v>
+        <v>2016900</v>
       </c>
       <c r="F44" s="3">
-        <v>1998900</v>
+        <v>1935400</v>
       </c>
       <c r="G44" s="3">
-        <v>1828400</v>
+        <v>1770200</v>
       </c>
       <c r="H44" s="3">
-        <v>1361100</v>
+        <v>1317900</v>
       </c>
       <c r="I44" s="3">
-        <v>1384300</v>
+        <v>1340300</v>
       </c>
       <c r="J44" s="3">
-        <v>1330400</v>
+        <v>1288100</v>
       </c>
       <c r="K44" s="3">
         <v>1249300</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>561800</v>
+        <v>543900</v>
       </c>
       <c r="E45" s="3">
-        <v>400100</v>
+        <v>387400</v>
       </c>
       <c r="F45" s="3">
-        <v>448700</v>
+        <v>434400</v>
       </c>
       <c r="G45" s="3">
-        <v>520000</v>
+        <v>503500</v>
       </c>
       <c r="H45" s="3">
-        <v>564300</v>
+        <v>546400</v>
       </c>
       <c r="I45" s="3">
-        <v>401300</v>
+        <v>388600</v>
       </c>
       <c r="J45" s="3">
-        <v>527500</v>
+        <v>510800</v>
       </c>
       <c r="K45" s="3">
         <v>417500</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10866100</v>
+        <v>10520800</v>
       </c>
       <c r="E46" s="3">
-        <v>8514700</v>
+        <v>8244100</v>
       </c>
       <c r="F46" s="3">
-        <v>8127100</v>
+        <v>7868800</v>
       </c>
       <c r="G46" s="3">
-        <v>7928400</v>
+        <v>7676500</v>
       </c>
       <c r="H46" s="3">
-        <v>7630700</v>
+        <v>7388100</v>
       </c>
       <c r="I46" s="3">
-        <v>6528200</v>
+        <v>6320700</v>
       </c>
       <c r="J46" s="3">
-        <v>6521500</v>
+        <v>6314300</v>
       </c>
       <c r="K46" s="3">
         <v>5984100</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>390200</v>
+        <v>377800</v>
       </c>
       <c r="E47" s="3">
-        <v>292700</v>
+        <v>283400</v>
       </c>
       <c r="F47" s="3">
-        <v>1368200</v>
+        <v>1324800</v>
       </c>
       <c r="G47" s="3">
-        <v>1367700</v>
+        <v>1324200</v>
       </c>
       <c r="H47" s="3">
-        <v>1425700</v>
+        <v>1380400</v>
       </c>
       <c r="I47" s="3">
-        <v>311300</v>
+        <v>301400</v>
       </c>
       <c r="J47" s="3">
-        <v>402900</v>
+        <v>390100</v>
       </c>
       <c r="K47" s="3">
         <v>351800</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7283200</v>
+        <v>7051700</v>
       </c>
       <c r="E48" s="3">
-        <v>5729700</v>
+        <v>5547600</v>
       </c>
       <c r="F48" s="3">
-        <v>5313400</v>
+        <v>5144500</v>
       </c>
       <c r="G48" s="3">
-        <v>4807100</v>
+        <v>4654300</v>
       </c>
       <c r="H48" s="3">
-        <v>4093700</v>
+        <v>3963600</v>
       </c>
       <c r="I48" s="3">
-        <v>4296100</v>
+        <v>4159600</v>
       </c>
       <c r="J48" s="3">
-        <v>3764100</v>
+        <v>3644500</v>
       </c>
       <c r="K48" s="3">
         <v>3426100</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2100100</v>
+        <v>2033300</v>
       </c>
       <c r="E49" s="3">
-        <v>2120500</v>
+        <v>2053100</v>
       </c>
       <c r="F49" s="3">
-        <v>2233200</v>
+        <v>2162200</v>
       </c>
       <c r="G49" s="3">
-        <v>2144300</v>
+        <v>2076100</v>
       </c>
       <c r="H49" s="3">
-        <v>994200</v>
+        <v>962600</v>
       </c>
       <c r="I49" s="3">
-        <v>1046900</v>
+        <v>1013700</v>
       </c>
       <c r="J49" s="3">
-        <v>978000</v>
+        <v>946900</v>
       </c>
       <c r="K49" s="3">
         <v>1081800</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>517100</v>
+        <v>500600</v>
       </c>
       <c r="E52" s="3">
-        <v>463500</v>
+        <v>448800</v>
       </c>
       <c r="F52" s="3">
-        <v>511800</v>
+        <v>495500</v>
       </c>
       <c r="G52" s="3">
-        <v>537400</v>
+        <v>520400</v>
       </c>
       <c r="H52" s="3">
-        <v>518500</v>
+        <v>502000</v>
       </c>
       <c r="I52" s="3">
-        <v>597200</v>
+        <v>578200</v>
       </c>
       <c r="J52" s="3">
-        <v>705200</v>
+        <v>682800</v>
       </c>
       <c r="K52" s="3">
         <v>510800</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>21156600</v>
+        <v>20484200</v>
       </c>
       <c r="E54" s="3">
-        <v>17121200</v>
+        <v>16577000</v>
       </c>
       <c r="F54" s="3">
-        <v>17553700</v>
+        <v>16995900</v>
       </c>
       <c r="G54" s="3">
-        <v>16784900</v>
+        <v>16251400</v>
       </c>
       <c r="H54" s="3">
-        <v>14662800</v>
+        <v>14196800</v>
       </c>
       <c r="I54" s="3">
-        <v>12779700</v>
+        <v>12373500</v>
       </c>
       <c r="J54" s="3">
-        <v>12371700</v>
+        <v>11978500</v>
       </c>
       <c r="K54" s="3">
         <v>11354600</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2857700</v>
+        <v>2766900</v>
       </c>
       <c r="E57" s="3">
-        <v>1778100</v>
+        <v>1721600</v>
       </c>
       <c r="F57" s="3">
-        <v>1672900</v>
+        <v>1619800</v>
       </c>
       <c r="G57" s="3">
-        <v>1998000</v>
+        <v>1934500</v>
       </c>
       <c r="H57" s="3">
-        <v>1556200</v>
+        <v>1506800</v>
       </c>
       <c r="I57" s="3">
-        <v>992600</v>
+        <v>961000</v>
       </c>
       <c r="J57" s="3">
-        <v>983100</v>
+        <v>951900</v>
       </c>
       <c r="K57" s="3">
         <v>876500</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2890200</v>
+        <v>2798400</v>
       </c>
       <c r="E58" s="3">
-        <v>2507600</v>
+        <v>2427900</v>
       </c>
       <c r="F58" s="3">
-        <v>2753900</v>
+        <v>2666400</v>
       </c>
       <c r="G58" s="3">
-        <v>1666300</v>
+        <v>1613400</v>
       </c>
       <c r="H58" s="3">
-        <v>1058900</v>
+        <v>1025300</v>
       </c>
       <c r="I58" s="3">
-        <v>1717200</v>
+        <v>1662600</v>
       </c>
       <c r="J58" s="3">
-        <v>1205600</v>
+        <v>1167300</v>
       </c>
       <c r="K58" s="3">
         <v>1551600</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3163100</v>
+        <v>3062600</v>
       </c>
       <c r="E59" s="3">
-        <v>2047900</v>
+        <v>1982800</v>
       </c>
       <c r="F59" s="3">
-        <v>1866300</v>
+        <v>1807000</v>
       </c>
       <c r="G59" s="3">
-        <v>1648400</v>
+        <v>1596000</v>
       </c>
       <c r="H59" s="3">
-        <v>1592400</v>
+        <v>1541800</v>
       </c>
       <c r="I59" s="3">
-        <v>1265600</v>
+        <v>1225400</v>
       </c>
       <c r="J59" s="3">
-        <v>1228400</v>
+        <v>1189400</v>
       </c>
       <c r="K59" s="3">
         <v>995800</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8911100</v>
+        <v>8627900</v>
       </c>
       <c r="E60" s="3">
-        <v>6333600</v>
+        <v>6132300</v>
       </c>
       <c r="F60" s="3">
-        <v>6293200</v>
+        <v>6093100</v>
       </c>
       <c r="G60" s="3">
-        <v>5312800</v>
+        <v>5143900</v>
       </c>
       <c r="H60" s="3">
-        <v>4207600</v>
+        <v>4073900</v>
       </c>
       <c r="I60" s="3">
-        <v>3975400</v>
+        <v>3849000</v>
       </c>
       <c r="J60" s="3">
-        <v>3417200</v>
+        <v>3308600</v>
       </c>
       <c r="K60" s="3">
         <v>3423800</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1368000</v>
+        <v>1324500</v>
       </c>
       <c r="E61" s="3">
-        <v>1233900</v>
+        <v>1194700</v>
       </c>
       <c r="F61" s="3">
-        <v>1829700</v>
+        <v>1771500</v>
       </c>
       <c r="G61" s="3">
-        <v>2589100</v>
+        <v>2506800</v>
       </c>
       <c r="H61" s="3">
-        <v>1884800</v>
+        <v>1824900</v>
       </c>
       <c r="I61" s="3">
-        <v>1240900</v>
+        <v>1201400</v>
       </c>
       <c r="J61" s="3">
-        <v>1158400</v>
+        <v>1121500</v>
       </c>
       <c r="K61" s="3">
         <v>894200</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2012100</v>
+        <v>1948100</v>
       </c>
       <c r="E62" s="3">
-        <v>2077800</v>
+        <v>2011800</v>
       </c>
       <c r="F62" s="3">
-        <v>1645000</v>
+        <v>1592700</v>
       </c>
       <c r="G62" s="3">
-        <v>1559900</v>
+        <v>1510300</v>
       </c>
       <c r="H62" s="3">
-        <v>1503700</v>
+        <v>1456000</v>
       </c>
       <c r="I62" s="3">
-        <v>1531800</v>
+        <v>1483100</v>
       </c>
       <c r="J62" s="3">
-        <v>1118100</v>
+        <v>1082600</v>
       </c>
       <c r="K62" s="3">
         <v>1062000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12315500</v>
+        <v>11924000</v>
       </c>
       <c r="E66" s="3">
-        <v>9685900</v>
+        <v>9378100</v>
       </c>
       <c r="F66" s="3">
-        <v>9824800</v>
+        <v>9512600</v>
       </c>
       <c r="G66" s="3">
-        <v>9519900</v>
+        <v>9217300</v>
       </c>
       <c r="H66" s="3">
-        <v>7671000</v>
+        <v>7427200</v>
       </c>
       <c r="I66" s="3">
-        <v>6829700</v>
+        <v>6612700</v>
       </c>
       <c r="J66" s="3">
-        <v>5862400</v>
+        <v>5676000</v>
       </c>
       <c r="K66" s="3">
         <v>5535000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9430400</v>
+        <v>9130700</v>
       </c>
       <c r="E72" s="3">
-        <v>8954400</v>
+        <v>8669800</v>
       </c>
       <c r="F72" s="3">
-        <v>8634500</v>
+        <v>8360100</v>
       </c>
       <c r="G72" s="3">
-        <v>8104600</v>
+        <v>7847000</v>
       </c>
       <c r="H72" s="3">
-        <v>7678900</v>
+        <v>7434800</v>
       </c>
       <c r="I72" s="3">
-        <v>6534600</v>
+        <v>6326900</v>
       </c>
       <c r="J72" s="3">
-        <v>6086300</v>
+        <v>5892900</v>
       </c>
       <c r="K72" s="3">
         <v>5968400</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8841200</v>
+        <v>8560200</v>
       </c>
       <c r="E76" s="3">
-        <v>7435300</v>
+        <v>7199000</v>
       </c>
       <c r="F76" s="3">
-        <v>7728900</v>
+        <v>7483300</v>
       </c>
       <c r="G76" s="3">
-        <v>7265000</v>
+        <v>7034100</v>
       </c>
       <c r="H76" s="3">
-        <v>6991700</v>
+        <v>6769500</v>
       </c>
       <c r="I76" s="3">
-        <v>5949900</v>
+        <v>5760800</v>
       </c>
       <c r="J76" s="3">
-        <v>6509400</v>
+        <v>6302500</v>
       </c>
       <c r="K76" s="3">
         <v>5819600</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>699000</v>
+        <v>676800</v>
       </c>
       <c r="E81" s="3">
-        <v>509000</v>
+        <v>492900</v>
       </c>
       <c r="F81" s="3">
-        <v>724200</v>
+        <v>701200</v>
       </c>
       <c r="G81" s="3">
-        <v>528200</v>
+        <v>511400</v>
       </c>
       <c r="H81" s="3">
-        <v>1278300</v>
+        <v>1237700</v>
       </c>
       <c r="I81" s="3">
-        <v>571100</v>
+        <v>553000</v>
       </c>
       <c r="J81" s="3">
-        <v>435600</v>
+        <v>421700</v>
       </c>
       <c r="K81" s="3">
         <v>149200</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1235900</v>
+        <v>1196600</v>
       </c>
       <c r="E83" s="3">
-        <v>1101100</v>
+        <v>1066100</v>
       </c>
       <c r="F83" s="3">
-        <v>939400</v>
+        <v>909600</v>
       </c>
       <c r="G83" s="3">
-        <v>812000</v>
+        <v>786200</v>
       </c>
       <c r="H83" s="3">
-        <v>770800</v>
+        <v>746300</v>
       </c>
       <c r="I83" s="3">
-        <v>733200</v>
+        <v>709900</v>
       </c>
       <c r="J83" s="3">
-        <v>707000</v>
+        <v>684500</v>
       </c>
       <c r="K83" s="3">
         <v>761300</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1963000</v>
+        <v>1900600</v>
       </c>
       <c r="E89" s="3">
-        <v>1959300</v>
+        <v>1897000</v>
       </c>
       <c r="F89" s="3">
-        <v>1235800</v>
+        <v>1196500</v>
       </c>
       <c r="G89" s="3">
-        <v>804400</v>
+        <v>778900</v>
       </c>
       <c r="H89" s="3">
-        <v>1410800</v>
+        <v>1366000</v>
       </c>
       <c r="I89" s="3">
-        <v>1335300</v>
+        <v>1292800</v>
       </c>
       <c r="J89" s="3">
-        <v>1258500</v>
+        <v>1218500</v>
       </c>
       <c r="K89" s="3">
         <v>1166100</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1870800</v>
+        <v>-1811400</v>
       </c>
       <c r="E91" s="3">
-        <v>-1527900</v>
+        <v>-1479300</v>
       </c>
       <c r="F91" s="3">
-        <v>-1529300</v>
+        <v>-1480700</v>
       </c>
       <c r="G91" s="3">
-        <v>-1573600</v>
+        <v>-1523600</v>
       </c>
       <c r="H91" s="3">
-        <v>-1476800</v>
+        <v>-1429900</v>
       </c>
       <c r="I91" s="3">
-        <v>-1415500</v>
+        <v>-1370500</v>
       </c>
       <c r="J91" s="3">
-        <v>-903200</v>
+        <v>-874500</v>
       </c>
       <c r="K91" s="3">
         <v>-628400</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2039400</v>
+        <v>-1974600</v>
       </c>
       <c r="E94" s="3">
-        <v>-369700</v>
+        <v>-358000</v>
       </c>
       <c r="F94" s="3">
-        <v>-1235000</v>
+        <v>-1195700</v>
       </c>
       <c r="G94" s="3">
-        <v>-2168100</v>
+        <v>-2099200</v>
       </c>
       <c r="H94" s="3">
-        <v>-626500</v>
+        <v>-606600</v>
       </c>
       <c r="I94" s="3">
-        <v>-1238600</v>
+        <v>-1199200</v>
       </c>
       <c r="J94" s="3">
-        <v>-1121600</v>
+        <v>-1086000</v>
       </c>
       <c r="K94" s="3">
         <v>-507800</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-200300</v>
+        <v>-194000</v>
       </c>
       <c r="E96" s="3">
-        <v>-189100</v>
+        <v>-183100</v>
       </c>
       <c r="F96" s="3">
-        <v>-166900</v>
+        <v>-161600</v>
       </c>
       <c r="G96" s="3">
-        <v>-133400</v>
+        <v>-129100</v>
       </c>
       <c r="H96" s="3">
-        <v>-133300</v>
+        <v>-129100</v>
       </c>
       <c r="I96" s="3">
-        <v>-122100</v>
+        <v>-118300</v>
       </c>
       <c r="J96" s="3">
-        <v>-88700</v>
+        <v>-85900</v>
       </c>
       <c r="K96" s="3">
         <v>-69200</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>257200</v>
+        <v>249000</v>
       </c>
       <c r="E100" s="3">
-        <v>-1072800</v>
+        <v>-1038700</v>
       </c>
       <c r="F100" s="3">
-        <v>83100</v>
+        <v>80500</v>
       </c>
       <c r="G100" s="3">
-        <v>969900</v>
+        <v>939100</v>
       </c>
       <c r="H100" s="3">
-        <v>-332600</v>
+        <v>-322000</v>
       </c>
       <c r="I100" s="3">
-        <v>258200</v>
+        <v>250000</v>
       </c>
       <c r="J100" s="3">
-        <v>-310500</v>
+        <v>-300600</v>
       </c>
       <c r="K100" s="3">
         <v>-514000</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>239200</v>
+        <v>231600</v>
       </c>
       <c r="E101" s="3">
-        <v>-133200</v>
+        <v>-128900</v>
       </c>
       <c r="F101" s="3">
         <v>200</v>
       </c>
       <c r="G101" s="3">
-        <v>-53400</v>
+        <v>-51700</v>
       </c>
       <c r="H101" s="3">
-        <v>-56000</v>
+        <v>-54200</v>
       </c>
       <c r="I101" s="3">
-        <v>-175500</v>
+        <v>-169900</v>
       </c>
       <c r="J101" s="3">
-        <v>299200</v>
+        <v>289700</v>
       </c>
       <c r="K101" s="3">
         <v>196100</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>420000</v>
+        <v>406600</v>
       </c>
       <c r="E102" s="3">
-        <v>383600</v>
+        <v>371400</v>
       </c>
       <c r="F102" s="3">
-        <v>84100</v>
+        <v>81500</v>
       </c>
       <c r="G102" s="3">
-        <v>-447200</v>
+        <v>-433000</v>
       </c>
       <c r="H102" s="3">
-        <v>395700</v>
+        <v>383200</v>
       </c>
       <c r="I102" s="3">
-        <v>179400</v>
+        <v>173700</v>
       </c>
       <c r="J102" s="3">
-        <v>125600</v>
+        <v>121600</v>
       </c>
       <c r="K102" s="3">
         <v>340400</v>

--- a/AAII_Financials/Yearly/TTDKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TTDKY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>TTDKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42825</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42460</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42094</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41729</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41364</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40999</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12615900</v>
+        <v>14817500</v>
       </c>
       <c r="E8" s="3">
-        <v>11626700</v>
+        <v>11521500</v>
       </c>
       <c r="F8" s="3">
-        <v>11786800</v>
+        <v>10618100</v>
       </c>
       <c r="G8" s="3">
-        <v>10848000</v>
+        <v>10764300</v>
       </c>
       <c r="H8" s="3">
-        <v>10050500</v>
+        <v>9906900</v>
       </c>
       <c r="I8" s="3">
-        <v>9828700</v>
+        <v>9178600</v>
       </c>
       <c r="J8" s="3">
+        <v>8976100</v>
+      </c>
+      <c r="K8" s="3">
         <v>9234200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9018200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7740800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7363100</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8911200</v>
+        <v>10406700</v>
       </c>
       <c r="E9" s="3">
-        <v>8186400</v>
+        <v>8138100</v>
       </c>
       <c r="F9" s="3">
-        <v>8404800</v>
+        <v>7476200</v>
       </c>
       <c r="G9" s="3">
-        <v>7920300</v>
+        <v>7675700</v>
       </c>
       <c r="H9" s="3">
-        <v>7301200</v>
+        <v>7233200</v>
       </c>
       <c r="I9" s="3">
-        <v>7089500</v>
+        <v>6667800</v>
       </c>
       <c r="J9" s="3">
+        <v>6474400</v>
+      </c>
+      <c r="K9" s="3">
         <v>6843000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6994300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6145600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5733700</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3704700</v>
+        <v>4410800</v>
       </c>
       <c r="E10" s="3">
-        <v>3440300</v>
+        <v>3383300</v>
       </c>
       <c r="F10" s="3">
-        <v>3382000</v>
+        <v>3141900</v>
       </c>
       <c r="G10" s="3">
-        <v>2927700</v>
+        <v>3088600</v>
       </c>
       <c r="H10" s="3">
-        <v>2749300</v>
+        <v>2673700</v>
       </c>
       <c r="I10" s="3">
-        <v>2739300</v>
+        <v>2510800</v>
       </c>
       <c r="J10" s="3">
+        <v>2501600</v>
+      </c>
+      <c r="K10" s="3">
         <v>2391300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2023900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1595300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1629400</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,20 +925,23 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>67500</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>169700</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+        <v>61700</v>
+      </c>
+      <c r="F14" s="3">
+        <v>155000</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -939,15 +958,18 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-60900</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -981,9 +1003,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11664500</v>
+        <v>13519200</v>
       </c>
       <c r="E17" s="3">
-        <v>10803000</v>
+        <v>10652600</v>
       </c>
       <c r="F17" s="3">
-        <v>10867100</v>
+        <v>9865800</v>
       </c>
       <c r="G17" s="3">
-        <v>10082900</v>
+        <v>9924300</v>
       </c>
       <c r="H17" s="3">
-        <v>8270700</v>
+        <v>9208200</v>
       </c>
       <c r="I17" s="3">
-        <v>9031900</v>
+        <v>7553200</v>
       </c>
       <c r="J17" s="3">
+        <v>8248400</v>
+      </c>
+      <c r="K17" s="3">
         <v>8616200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8682800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7544000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7194100</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>951400</v>
+        <v>1298300</v>
       </c>
       <c r="E18" s="3">
-        <v>823700</v>
+        <v>868900</v>
       </c>
       <c r="F18" s="3">
-        <v>919700</v>
+        <v>752200</v>
       </c>
       <c r="G18" s="3">
-        <v>765100</v>
+        <v>839900</v>
       </c>
       <c r="H18" s="3">
-        <v>1779900</v>
+        <v>698700</v>
       </c>
       <c r="I18" s="3">
-        <v>796800</v>
+        <v>1625500</v>
       </c>
       <c r="J18" s="3">
+        <v>727700</v>
+      </c>
+      <c r="K18" s="3">
         <v>618100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>335400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>196800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>168900</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>118500</v>
+        <v>563200</v>
       </c>
       <c r="E20" s="3">
-        <v>25400</v>
+        <v>108200</v>
       </c>
       <c r="F20" s="3">
-        <v>101400</v>
+        <v>23200</v>
       </c>
       <c r="G20" s="3">
-        <v>39100</v>
+        <v>92600</v>
       </c>
       <c r="H20" s="3">
-        <v>55300</v>
+        <v>35700</v>
       </c>
       <c r="I20" s="3">
-        <v>13100</v>
+        <v>50500</v>
       </c>
       <c r="J20" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K20" s="3">
         <v>43100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>60600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-31300</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2280600</v>
+        <v>3159100</v>
       </c>
       <c r="E21" s="3">
-        <v>1927700</v>
+        <v>2055900</v>
       </c>
       <c r="F21" s="3">
-        <v>1941300</v>
+        <v>1736600</v>
       </c>
       <c r="G21" s="3">
-        <v>1599600</v>
+        <v>1752500</v>
       </c>
       <c r="H21" s="3">
-        <v>2590200</v>
+        <v>1443200</v>
       </c>
       <c r="I21" s="3">
-        <v>1528200</v>
+        <v>2348800</v>
       </c>
       <c r="J21" s="3">
+        <v>1379700</v>
+      </c>
+      <c r="K21" s="3">
         <v>1353700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1160600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>907300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>863400</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>30100</v>
+        <v>37200</v>
       </c>
       <c r="E22" s="3">
-        <v>31300</v>
+        <v>27500</v>
       </c>
       <c r="F22" s="3">
-        <v>35400</v>
+        <v>28600</v>
       </c>
       <c r="G22" s="3">
-        <v>38100</v>
+        <v>32400</v>
       </c>
       <c r="H22" s="3">
-        <v>29200</v>
+        <v>34800</v>
       </c>
       <c r="I22" s="3">
-        <v>26600</v>
+        <v>26700</v>
       </c>
       <c r="J22" s="3">
+        <v>24300</v>
+      </c>
+      <c r="K22" s="3">
         <v>25500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>31700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>25800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>26900</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1039800</v>
+        <v>1824300</v>
       </c>
       <c r="E23" s="3">
-        <v>817800</v>
+        <v>949600</v>
       </c>
       <c r="F23" s="3">
-        <v>985700</v>
+        <v>746900</v>
       </c>
       <c r="G23" s="3">
-        <v>766100</v>
+        <v>900200</v>
       </c>
       <c r="H23" s="3">
-        <v>1805900</v>
+        <v>699600</v>
       </c>
       <c r="I23" s="3">
-        <v>783400</v>
+        <v>1649300</v>
       </c>
       <c r="J23" s="3">
+        <v>715400</v>
+      </c>
+      <c r="K23" s="3">
         <v>635600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>364300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>171400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>110700</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>364200</v>
+        <v>437600</v>
       </c>
       <c r="E24" s="3">
-        <v>330300</v>
+        <v>332600</v>
       </c>
       <c r="F24" s="3">
-        <v>281500</v>
+        <v>301600</v>
       </c>
       <c r="G24" s="3">
-        <v>220400</v>
+        <v>257100</v>
       </c>
       <c r="H24" s="3">
-        <v>564300</v>
+        <v>201200</v>
       </c>
       <c r="I24" s="3">
-        <v>215100</v>
+        <v>515400</v>
       </c>
       <c r="J24" s="3">
+        <v>196400</v>
+      </c>
+      <c r="K24" s="3">
         <v>185400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>164300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>130200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>103800</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>675600</v>
+        <v>1386700</v>
       </c>
       <c r="E26" s="3">
-        <v>487500</v>
+        <v>617000</v>
       </c>
       <c r="F26" s="3">
-        <v>704200</v>
+        <v>445300</v>
       </c>
       <c r="G26" s="3">
-        <v>545700</v>
+        <v>643100</v>
       </c>
       <c r="H26" s="3">
-        <v>1241600</v>
+        <v>498400</v>
       </c>
       <c r="I26" s="3">
-        <v>568300</v>
+        <v>1133900</v>
       </c>
       <c r="J26" s="3">
+        <v>519000</v>
+      </c>
+      <c r="K26" s="3">
         <v>450200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>200000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>41200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>6900</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>676800</v>
+        <v>1382800</v>
       </c>
       <c r="E27" s="3">
-        <v>492900</v>
+        <v>618100</v>
       </c>
       <c r="F27" s="3">
-        <v>701200</v>
+        <v>450100</v>
       </c>
       <c r="G27" s="3">
-        <v>541300</v>
+        <v>640400</v>
       </c>
       <c r="H27" s="3">
-        <v>1237700</v>
+        <v>494400</v>
       </c>
       <c r="I27" s="3">
-        <v>553000</v>
+        <v>1130300</v>
       </c>
       <c r="J27" s="3">
+        <v>505000</v>
+      </c>
+      <c r="K27" s="3">
         <v>421700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>182200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>10900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5800</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1421,11 +1481,11 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>-30000</v>
-      </c>
-      <c r="H29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H29" s="3">
+        <v>-27400</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1433,18 +1493,21 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>-33000</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-16400</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-118500</v>
+        <v>-563200</v>
       </c>
       <c r="E32" s="3">
-        <v>-25400</v>
+        <v>-108200</v>
       </c>
       <c r="F32" s="3">
-        <v>-101400</v>
+        <v>-23200</v>
       </c>
       <c r="G32" s="3">
-        <v>-39100</v>
+        <v>-92600</v>
       </c>
       <c r="H32" s="3">
-        <v>-55300</v>
+        <v>-35700</v>
       </c>
       <c r="I32" s="3">
-        <v>-13100</v>
+        <v>-50500</v>
       </c>
       <c r="J32" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-43100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-60600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>31300</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>676800</v>
+        <v>1382800</v>
       </c>
       <c r="E33" s="3">
-        <v>492900</v>
+        <v>618100</v>
       </c>
       <c r="F33" s="3">
-        <v>701200</v>
+        <v>450100</v>
       </c>
       <c r="G33" s="3">
-        <v>511400</v>
+        <v>640400</v>
       </c>
       <c r="H33" s="3">
-        <v>1237700</v>
+        <v>467000</v>
       </c>
       <c r="I33" s="3">
-        <v>553000</v>
+        <v>1130300</v>
       </c>
       <c r="J33" s="3">
+        <v>505000</v>
+      </c>
+      <c r="K33" s="3">
         <v>421700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>149200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>10900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-22200</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>676800</v>
+        <v>1382800</v>
       </c>
       <c r="E35" s="3">
-        <v>492900</v>
+        <v>618100</v>
       </c>
       <c r="F35" s="3">
-        <v>701200</v>
+        <v>450100</v>
       </c>
       <c r="G35" s="3">
-        <v>511400</v>
+        <v>640400</v>
       </c>
       <c r="H35" s="3">
-        <v>1237700</v>
+        <v>467000</v>
       </c>
       <c r="I35" s="3">
-        <v>553000</v>
+        <v>1130300</v>
       </c>
       <c r="J35" s="3">
+        <v>505000</v>
+      </c>
+      <c r="K35" s="3">
         <v>421700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>149200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>10900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-22200</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42825</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42460</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42094</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41729</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41364</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40999</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,332 +1817,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3244700</v>
+        <v>3422500</v>
       </c>
       <c r="E41" s="3">
-        <v>2838100</v>
+        <v>2963200</v>
       </c>
       <c r="F41" s="3">
-        <v>2466700</v>
+        <v>2591900</v>
       </c>
       <c r="G41" s="3">
-        <v>2385200</v>
+        <v>2252700</v>
       </c>
       <c r="H41" s="3">
-        <v>2818200</v>
+        <v>2178300</v>
       </c>
       <c r="I41" s="3">
-        <v>2435000</v>
+        <v>2573700</v>
       </c>
       <c r="J41" s="3">
+        <v>2223800</v>
+      </c>
+      <c r="K41" s="3">
         <v>2261300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2297800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1942400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1509800</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>562500</v>
+        <v>418400</v>
       </c>
       <c r="E42" s="3">
-        <v>277700</v>
+        <v>513700</v>
       </c>
       <c r="F42" s="3">
-        <v>346000</v>
+        <v>253600</v>
       </c>
       <c r="G42" s="3">
-        <v>372500</v>
+        <v>316000</v>
       </c>
       <c r="H42" s="3">
-        <v>478800</v>
+        <v>340200</v>
       </c>
       <c r="I42" s="3">
-        <v>187400</v>
+        <v>437300</v>
       </c>
       <c r="J42" s="3">
+        <v>171100</v>
+      </c>
+      <c r="K42" s="3">
         <v>182500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>79600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>97500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>65000</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3705700</v>
+        <v>4086500</v>
       </c>
       <c r="E43" s="3">
-        <v>2724000</v>
+        <v>3384300</v>
       </c>
       <c r="F43" s="3">
-        <v>2686300</v>
+        <v>2487700</v>
       </c>
       <c r="G43" s="3">
-        <v>2645000</v>
+        <v>2453300</v>
       </c>
       <c r="H43" s="3">
-        <v>2226900</v>
+        <v>2415600</v>
       </c>
       <c r="I43" s="3">
-        <v>1969400</v>
+        <v>2033700</v>
       </c>
       <c r="J43" s="3">
+        <v>1798500</v>
+      </c>
+      <c r="K43" s="3">
         <v>2071600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1939900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1773000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1655000</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2463900</v>
+        <v>3407300</v>
       </c>
       <c r="E44" s="3">
-        <v>2016900</v>
+        <v>2250200</v>
       </c>
       <c r="F44" s="3">
-        <v>1935400</v>
+        <v>1842000</v>
       </c>
       <c r="G44" s="3">
-        <v>1770200</v>
+        <v>1767500</v>
       </c>
       <c r="H44" s="3">
-        <v>1317900</v>
+        <v>1616700</v>
       </c>
       <c r="I44" s="3">
-        <v>1340300</v>
+        <v>1203500</v>
       </c>
       <c r="J44" s="3">
+        <v>1224000</v>
+      </c>
+      <c r="K44" s="3">
         <v>1288100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1249300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1253200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1240600</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>543900</v>
+        <v>634100</v>
       </c>
       <c r="E45" s="3">
-        <v>387400</v>
+        <v>496700</v>
       </c>
       <c r="F45" s="3">
-        <v>434400</v>
+        <v>353800</v>
       </c>
       <c r="G45" s="3">
-        <v>503500</v>
+        <v>396700</v>
       </c>
       <c r="H45" s="3">
-        <v>546400</v>
+        <v>459800</v>
       </c>
       <c r="I45" s="3">
-        <v>388600</v>
+        <v>499000</v>
       </c>
       <c r="J45" s="3">
+        <v>354900</v>
+      </c>
+      <c r="K45" s="3">
         <v>510800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>417500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>484400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>463800</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10520800</v>
+        <v>11968800</v>
       </c>
       <c r="E46" s="3">
-        <v>8244100</v>
+        <v>9608100</v>
       </c>
       <c r="F46" s="3">
-        <v>7868800</v>
+        <v>7528900</v>
       </c>
       <c r="G46" s="3">
-        <v>7676500</v>
+        <v>7186200</v>
       </c>
       <c r="H46" s="3">
-        <v>7388100</v>
+        <v>7010500</v>
       </c>
       <c r="I46" s="3">
-        <v>6320700</v>
+        <v>6747200</v>
       </c>
       <c r="J46" s="3">
+        <v>5772300</v>
+      </c>
+      <c r="K46" s="3">
         <v>6314300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5984100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5550600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4934200</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>377800</v>
+        <v>973500</v>
       </c>
       <c r="E47" s="3">
-        <v>283400</v>
+        <v>345000</v>
       </c>
       <c r="F47" s="3">
-        <v>1324800</v>
+        <v>258900</v>
       </c>
       <c r="G47" s="3">
-        <v>1324200</v>
+        <v>1209800</v>
       </c>
       <c r="H47" s="3">
-        <v>1380400</v>
+        <v>1209300</v>
       </c>
       <c r="I47" s="3">
-        <v>301400</v>
+        <v>1260600</v>
       </c>
       <c r="J47" s="3">
+        <v>275300</v>
+      </c>
+      <c r="K47" s="3">
         <v>390100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>351800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>292800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>320500</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7051700</v>
+        <v>7783300</v>
       </c>
       <c r="E48" s="3">
-        <v>5547600</v>
+        <v>6440000</v>
       </c>
       <c r="F48" s="3">
-        <v>5144500</v>
+        <v>5066300</v>
       </c>
       <c r="G48" s="3">
-        <v>4654300</v>
+        <v>4698200</v>
       </c>
       <c r="H48" s="3">
-        <v>3963600</v>
+        <v>4250500</v>
       </c>
       <c r="I48" s="3">
-        <v>4159600</v>
+        <v>3619800</v>
       </c>
       <c r="J48" s="3">
+        <v>3798700</v>
+      </c>
+      <c r="K48" s="3">
         <v>3644500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3426100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3326000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3004200</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2033300</v>
+        <v>1409500</v>
       </c>
       <c r="E49" s="3">
-        <v>2053100</v>
+        <v>1856900</v>
       </c>
       <c r="F49" s="3">
-        <v>2162200</v>
+        <v>1875000</v>
       </c>
       <c r="G49" s="3">
-        <v>2076100</v>
+        <v>1974700</v>
       </c>
       <c r="H49" s="3">
-        <v>962600</v>
+        <v>1896000</v>
       </c>
       <c r="I49" s="3">
-        <v>1013700</v>
+        <v>879100</v>
       </c>
       <c r="J49" s="3">
+        <v>925700</v>
+      </c>
+      <c r="K49" s="3">
         <v>946900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1081800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1036600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>981500</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>500600</v>
+        <v>1912000</v>
       </c>
       <c r="E52" s="3">
-        <v>448800</v>
+        <v>457200</v>
       </c>
       <c r="F52" s="3">
-        <v>495500</v>
+        <v>409800</v>
       </c>
       <c r="G52" s="3">
-        <v>520400</v>
+        <v>452500</v>
       </c>
       <c r="H52" s="3">
-        <v>502000</v>
+        <v>475200</v>
       </c>
       <c r="I52" s="3">
-        <v>578200</v>
+        <v>458500</v>
       </c>
       <c r="J52" s="3">
+        <v>528000</v>
+      </c>
+      <c r="K52" s="3">
         <v>682800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>510800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>425900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>457900</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>20484200</v>
+        <v>24047100</v>
       </c>
       <c r="E54" s="3">
-        <v>16577000</v>
+        <v>18707200</v>
       </c>
       <c r="F54" s="3">
-        <v>16995900</v>
+        <v>15138900</v>
       </c>
       <c r="G54" s="3">
-        <v>16251400</v>
+        <v>15521400</v>
       </c>
       <c r="H54" s="3">
-        <v>14196800</v>
+        <v>14841600</v>
       </c>
       <c r="I54" s="3">
-        <v>12373500</v>
+        <v>12965200</v>
       </c>
       <c r="J54" s="3">
+        <v>11300100</v>
+      </c>
+      <c r="K54" s="3">
         <v>11978500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11354600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10632000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9698400</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2766900</v>
+        <v>3584400</v>
       </c>
       <c r="E57" s="3">
-        <v>1721600</v>
+        <v>2526900</v>
       </c>
       <c r="F57" s="3">
-        <v>1619800</v>
+        <v>1572200</v>
       </c>
       <c r="G57" s="3">
-        <v>1934500</v>
+        <v>1479300</v>
       </c>
       <c r="H57" s="3">
-        <v>1506800</v>
+        <v>1766700</v>
       </c>
       <c r="I57" s="3">
-        <v>961000</v>
+        <v>1376100</v>
       </c>
       <c r="J57" s="3">
+        <v>877700</v>
+      </c>
+      <c r="K57" s="3">
         <v>951900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>876500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>772800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>792500</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2798400</v>
+        <v>1375400</v>
       </c>
       <c r="E58" s="3">
-        <v>2427900</v>
+        <v>2555600</v>
       </c>
       <c r="F58" s="3">
-        <v>2666400</v>
+        <v>2217300</v>
       </c>
       <c r="G58" s="3">
-        <v>1613400</v>
+        <v>2435000</v>
       </c>
       <c r="H58" s="3">
-        <v>1025300</v>
+        <v>1473400</v>
       </c>
       <c r="I58" s="3">
-        <v>1662600</v>
+        <v>936300</v>
       </c>
       <c r="J58" s="3">
+        <v>1518400</v>
+      </c>
+      <c r="K58" s="3">
         <v>1167300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1551600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1801100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1291800</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3062600</v>
+        <v>3114400</v>
       </c>
       <c r="E59" s="3">
-        <v>1982800</v>
+        <v>2796900</v>
       </c>
       <c r="F59" s="3">
-        <v>1807000</v>
+        <v>1810800</v>
       </c>
       <c r="G59" s="3">
-        <v>1596000</v>
+        <v>1650200</v>
       </c>
       <c r="H59" s="3">
-        <v>1541800</v>
+        <v>1457600</v>
       </c>
       <c r="I59" s="3">
-        <v>1225400</v>
+        <v>1408100</v>
       </c>
       <c r="J59" s="3">
+        <v>1119100</v>
+      </c>
+      <c r="K59" s="3">
         <v>1189400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>995800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>861600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>861900</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8627900</v>
+        <v>8074200</v>
       </c>
       <c r="E60" s="3">
-        <v>6132300</v>
+        <v>7879400</v>
       </c>
       <c r="F60" s="3">
-        <v>6093100</v>
+        <v>5600300</v>
       </c>
       <c r="G60" s="3">
-        <v>5143900</v>
+        <v>5564600</v>
       </c>
       <c r="H60" s="3">
-        <v>4073900</v>
+        <v>4697700</v>
       </c>
       <c r="I60" s="3">
-        <v>3849000</v>
+        <v>3720500</v>
       </c>
       <c r="J60" s="3">
+        <v>3515100</v>
+      </c>
+      <c r="K60" s="3">
         <v>3308600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3423800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3435400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2946200</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1324500</v>
+        <v>3597000</v>
       </c>
       <c r="E61" s="3">
-        <v>1194700</v>
+        <v>1209600</v>
       </c>
       <c r="F61" s="3">
-        <v>1771500</v>
+        <v>1091100</v>
       </c>
       <c r="G61" s="3">
-        <v>2506800</v>
+        <v>1617800</v>
       </c>
       <c r="H61" s="3">
-        <v>1824900</v>
+        <v>2289300</v>
       </c>
       <c r="I61" s="3">
-        <v>1201400</v>
+        <v>1666600</v>
       </c>
       <c r="J61" s="3">
+        <v>1097200</v>
+      </c>
+      <c r="K61" s="3">
         <v>1121500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>894200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>886100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1174700</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1948100</v>
+        <v>1906200</v>
       </c>
       <c r="E62" s="3">
-        <v>2011800</v>
+        <v>1779100</v>
       </c>
       <c r="F62" s="3">
-        <v>1592700</v>
+        <v>1837300</v>
       </c>
       <c r="G62" s="3">
-        <v>1510300</v>
+        <v>1454600</v>
       </c>
       <c r="H62" s="3">
-        <v>1456000</v>
+        <v>1379300</v>
       </c>
       <c r="I62" s="3">
-        <v>1483100</v>
+        <v>1329600</v>
       </c>
       <c r="J62" s="3">
+        <v>1354500</v>
+      </c>
+      <c r="K62" s="3">
         <v>1082600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1062000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1032700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>948600</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11924000</v>
+        <v>13604200</v>
       </c>
       <c r="E66" s="3">
-        <v>9378100</v>
+        <v>10889600</v>
       </c>
       <c r="F66" s="3">
-        <v>9512600</v>
+        <v>8564500</v>
       </c>
       <c r="G66" s="3">
-        <v>9217300</v>
+        <v>8687300</v>
       </c>
       <c r="H66" s="3">
-        <v>7427200</v>
+        <v>8417700</v>
       </c>
       <c r="I66" s="3">
-        <v>6612700</v>
+        <v>6782900</v>
       </c>
       <c r="J66" s="3">
+        <v>6039000</v>
+      </c>
+      <c r="K66" s="3">
         <v>5676000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5535000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5531000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5195000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9130700</v>
+        <v>9533400</v>
       </c>
       <c r="E72" s="3">
-        <v>8669800</v>
+        <v>8338600</v>
       </c>
       <c r="F72" s="3">
-        <v>8360100</v>
+        <v>7917700</v>
       </c>
       <c r="G72" s="3">
-        <v>7847000</v>
+        <v>7634900</v>
       </c>
       <c r="H72" s="3">
-        <v>7434800</v>
+        <v>7166200</v>
       </c>
       <c r="I72" s="3">
-        <v>6326900</v>
+        <v>6789800</v>
       </c>
       <c r="J72" s="3">
+        <v>5778100</v>
+      </c>
+      <c r="K72" s="3">
         <v>5892900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5968400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5843100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5891000</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8560200</v>
+        <v>10442900</v>
       </c>
       <c r="E76" s="3">
-        <v>7199000</v>
+        <v>7817600</v>
       </c>
       <c r="F76" s="3">
-        <v>7483300</v>
+        <v>6574400</v>
       </c>
       <c r="G76" s="3">
-        <v>7034100</v>
+        <v>6834100</v>
       </c>
       <c r="H76" s="3">
-        <v>6769500</v>
+        <v>6423900</v>
       </c>
       <c r="I76" s="3">
-        <v>5760800</v>
+        <v>6182300</v>
       </c>
       <c r="J76" s="3">
+        <v>5261100</v>
+      </c>
+      <c r="K76" s="3">
         <v>6302500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5819600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5101000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4503400</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42825</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42460</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42094</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41729</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41364</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40999</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>676800</v>
+        <v>1382800</v>
       </c>
       <c r="E81" s="3">
-        <v>492900</v>
+        <v>618100</v>
       </c>
       <c r="F81" s="3">
-        <v>701200</v>
+        <v>450100</v>
       </c>
       <c r="G81" s="3">
-        <v>511400</v>
+        <v>640400</v>
       </c>
       <c r="H81" s="3">
-        <v>1237700</v>
+        <v>467000</v>
       </c>
       <c r="I81" s="3">
-        <v>553000</v>
+        <v>1130300</v>
       </c>
       <c r="J81" s="3">
+        <v>505000</v>
+      </c>
+      <c r="K81" s="3">
         <v>421700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>149200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>10900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-22200</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1196600</v>
+        <v>1314500</v>
       </c>
       <c r="E83" s="3">
-        <v>1066100</v>
+        <v>1092800</v>
       </c>
       <c r="F83" s="3">
-        <v>909600</v>
+        <v>973600</v>
       </c>
       <c r="G83" s="3">
-        <v>786200</v>
+        <v>830700</v>
       </c>
       <c r="H83" s="3">
-        <v>746300</v>
+        <v>718000</v>
       </c>
       <c r="I83" s="3">
-        <v>709900</v>
+        <v>681600</v>
       </c>
       <c r="J83" s="3">
+        <v>648300</v>
+      </c>
+      <c r="K83" s="3">
         <v>684500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>761300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>708500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>725000</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1900600</v>
+        <v>1321300</v>
       </c>
       <c r="E89" s="3">
-        <v>1897000</v>
+        <v>1735700</v>
       </c>
       <c r="F89" s="3">
-        <v>1196500</v>
+        <v>1732400</v>
       </c>
       <c r="G89" s="3">
-        <v>778900</v>
+        <v>1092700</v>
       </c>
       <c r="H89" s="3">
-        <v>1366000</v>
+        <v>711300</v>
       </c>
       <c r="I89" s="3">
-        <v>1292800</v>
+        <v>1247500</v>
       </c>
       <c r="J89" s="3">
+        <v>1180700</v>
+      </c>
+      <c r="K89" s="3">
         <v>1218500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1166100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>990300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>500200</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1811400</v>
+        <v>-2269800</v>
       </c>
       <c r="E91" s="3">
-        <v>-1479300</v>
+        <v>-1654200</v>
       </c>
       <c r="F91" s="3">
-        <v>-1480700</v>
+        <v>-1351000</v>
       </c>
       <c r="G91" s="3">
-        <v>-1523600</v>
+        <v>-1352300</v>
       </c>
       <c r="H91" s="3">
-        <v>-1429900</v>
+        <v>-1391400</v>
       </c>
       <c r="I91" s="3">
-        <v>-1370500</v>
+        <v>-1305800</v>
       </c>
       <c r="J91" s="3">
+        <v>-1251700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-874500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-628400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-778200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-900900</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1974600</v>
+        <v>-2190500</v>
       </c>
       <c r="E94" s="3">
-        <v>-358000</v>
+        <v>-1803300</v>
       </c>
       <c r="F94" s="3">
-        <v>-1195700</v>
+        <v>-326900</v>
       </c>
       <c r="G94" s="3">
-        <v>-2099200</v>
+        <v>-1092000</v>
       </c>
       <c r="H94" s="3">
-        <v>-606600</v>
+        <v>-1917100</v>
       </c>
       <c r="I94" s="3">
-        <v>-1199200</v>
+        <v>-554000</v>
       </c>
       <c r="J94" s="3">
+        <v>-1095200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1086000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-507800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-819500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-270300</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-194000</v>
+        <v>-186900</v>
       </c>
       <c r="E96" s="3">
-        <v>-183100</v>
+        <v>-177100</v>
       </c>
       <c r="F96" s="3">
-        <v>-161600</v>
+        <v>-167200</v>
       </c>
       <c r="G96" s="3">
-        <v>-129100</v>
+        <v>-147600</v>
       </c>
       <c r="H96" s="3">
-        <v>-129100</v>
+        <v>-117900</v>
       </c>
       <c r="I96" s="3">
-        <v>-118300</v>
+        <v>-117900</v>
       </c>
       <c r="J96" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-85900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-69200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-91500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-93300</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>249000</v>
+        <v>956300</v>
       </c>
       <c r="E100" s="3">
-        <v>-1038700</v>
+        <v>227400</v>
       </c>
       <c r="F100" s="3">
-        <v>80500</v>
+        <v>-948600</v>
       </c>
       <c r="G100" s="3">
-        <v>939100</v>
+        <v>73500</v>
       </c>
       <c r="H100" s="3">
-        <v>-322000</v>
+        <v>857600</v>
       </c>
       <c r="I100" s="3">
-        <v>250000</v>
+        <v>-294100</v>
       </c>
       <c r="J100" s="3">
+        <v>228300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-300600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-514000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>40000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>116900</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>231600</v>
+        <v>372100</v>
       </c>
       <c r="E101" s="3">
-        <v>-128900</v>
+        <v>211500</v>
       </c>
       <c r="F101" s="3">
+        <v>-117700</v>
+      </c>
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
-        <v>-51700</v>
-      </c>
       <c r="H101" s="3">
-        <v>-54200</v>
+        <v>-47200</v>
       </c>
       <c r="I101" s="3">
-        <v>-169900</v>
+        <v>-49500</v>
       </c>
       <c r="J101" s="3">
+        <v>-155200</v>
+      </c>
+      <c r="K101" s="3">
         <v>289700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>196100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>213500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-4000</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>406600</v>
+        <v>459200</v>
       </c>
       <c r="E102" s="3">
-        <v>371400</v>
+        <v>371300</v>
       </c>
       <c r="F102" s="3">
-        <v>81500</v>
+        <v>339200</v>
       </c>
       <c r="G102" s="3">
-        <v>-433000</v>
+        <v>74400</v>
       </c>
       <c r="H102" s="3">
-        <v>383200</v>
+        <v>-395500</v>
       </c>
       <c r="I102" s="3">
-        <v>173700</v>
+        <v>349900</v>
       </c>
       <c r="J102" s="3">
+        <v>158600</v>
+      </c>
+      <c r="K102" s="3">
         <v>121600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>340400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>424200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>342800</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TTDKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TTDKY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>TTDKY</t>
   </si>
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14817500</v>
+        <v>13942600</v>
       </c>
       <c r="E8" s="3">
-        <v>11521500</v>
+        <v>10841100</v>
       </c>
       <c r="F8" s="3">
-        <v>10618100</v>
+        <v>9991100</v>
       </c>
       <c r="G8" s="3">
-        <v>10764300</v>
+        <v>10128600</v>
       </c>
       <c r="H8" s="3">
-        <v>9906900</v>
+        <v>9321900</v>
       </c>
       <c r="I8" s="3">
-        <v>9178600</v>
+        <v>8636600</v>
       </c>
       <c r="J8" s="3">
-        <v>8976100</v>
+        <v>8446000</v>
       </c>
       <c r="K8" s="3">
         <v>9234200</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10406700</v>
+        <v>9809600</v>
       </c>
       <c r="E9" s="3">
-        <v>8138100</v>
+        <v>7714200</v>
       </c>
       <c r="F9" s="3">
-        <v>7476200</v>
+        <v>7034700</v>
       </c>
       <c r="G9" s="3">
-        <v>7675700</v>
+        <v>7222400</v>
       </c>
       <c r="H9" s="3">
-        <v>7233200</v>
+        <v>6806100</v>
       </c>
       <c r="I9" s="3">
-        <v>6667800</v>
+        <v>6274100</v>
       </c>
       <c r="J9" s="3">
-        <v>6474400</v>
+        <v>6092100</v>
       </c>
       <c r="K9" s="3">
         <v>6843000</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4410800</v>
+        <v>4133000</v>
       </c>
       <c r="E10" s="3">
-        <v>3383300</v>
+        <v>3127000</v>
       </c>
       <c r="F10" s="3">
-        <v>3141900</v>
+        <v>2956400</v>
       </c>
       <c r="G10" s="3">
-        <v>3088600</v>
+        <v>2906200</v>
       </c>
       <c r="H10" s="3">
-        <v>2673700</v>
+        <v>2515800</v>
       </c>
       <c r="I10" s="3">
-        <v>2510800</v>
+        <v>2362500</v>
       </c>
       <c r="J10" s="3">
-        <v>2501600</v>
+        <v>2353900</v>
       </c>
       <c r="K10" s="3">
         <v>2391300</v>
@@ -934,14 +934,14 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>-54900</v>
       </c>
       <c r="E14" s="3">
-        <v>61700</v>
+        <v>10900</v>
       </c>
       <c r="F14" s="3">
-        <v>155000</v>
+        <v>145800</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13519200</v>
+        <v>12720100</v>
       </c>
       <c r="E17" s="3">
-        <v>10652600</v>
+        <v>10021500</v>
       </c>
       <c r="F17" s="3">
-        <v>9865800</v>
+        <v>9283200</v>
       </c>
       <c r="G17" s="3">
-        <v>9924300</v>
+        <v>9338300</v>
       </c>
       <c r="H17" s="3">
-        <v>9208200</v>
+        <v>8664500</v>
       </c>
       <c r="I17" s="3">
-        <v>7553200</v>
+        <v>7107100</v>
       </c>
       <c r="J17" s="3">
-        <v>8248400</v>
+        <v>7761300</v>
       </c>
       <c r="K17" s="3">
         <v>8616200</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1298300</v>
+        <v>1222500</v>
       </c>
       <c r="E18" s="3">
-        <v>868900</v>
+        <v>819600</v>
       </c>
       <c r="F18" s="3">
-        <v>752200</v>
+        <v>707800</v>
       </c>
       <c r="G18" s="3">
-        <v>839900</v>
+        <v>790300</v>
       </c>
       <c r="H18" s="3">
-        <v>698700</v>
+        <v>657400</v>
       </c>
       <c r="I18" s="3">
-        <v>1625500</v>
+        <v>1529500</v>
       </c>
       <c r="J18" s="3">
-        <v>727700</v>
+        <v>684700</v>
       </c>
       <c r="K18" s="3">
         <v>618100</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>563200</v>
+        <v>94000</v>
       </c>
       <c r="E20" s="3">
-        <v>108200</v>
+        <v>107800</v>
       </c>
       <c r="F20" s="3">
-        <v>23200</v>
+        <v>21900</v>
       </c>
       <c r="G20" s="3">
-        <v>92600</v>
+        <v>87100</v>
       </c>
       <c r="H20" s="3">
-        <v>35700</v>
+        <v>33600</v>
       </c>
       <c r="I20" s="3">
-        <v>50500</v>
+        <v>47500</v>
       </c>
       <c r="J20" s="3">
-        <v>12000</v>
+        <v>11300</v>
       </c>
       <c r="K20" s="3">
         <v>43100</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3159100</v>
+        <v>2607100</v>
       </c>
       <c r="E21" s="3">
-        <v>2055900</v>
+        <v>2008900</v>
       </c>
       <c r="F21" s="3">
-        <v>1736600</v>
+        <v>1640800</v>
       </c>
       <c r="G21" s="3">
-        <v>1752500</v>
+        <v>1654800</v>
       </c>
       <c r="H21" s="3">
-        <v>1443200</v>
+        <v>1362900</v>
       </c>
       <c r="I21" s="3">
-        <v>2348800</v>
+        <v>2214800</v>
       </c>
       <c r="J21" s="3">
-        <v>1379700</v>
+        <v>1302700</v>
       </c>
       <c r="K21" s="3">
         <v>1353700</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>37200</v>
+        <v>52100</v>
       </c>
       <c r="E22" s="3">
-        <v>27500</v>
+        <v>67800</v>
       </c>
       <c r="F22" s="3">
-        <v>28600</v>
+        <v>26900</v>
       </c>
       <c r="G22" s="3">
-        <v>32400</v>
+        <v>30500</v>
       </c>
       <c r="H22" s="3">
-        <v>34800</v>
+        <v>32700</v>
       </c>
       <c r="I22" s="3">
-        <v>26700</v>
+        <v>25100</v>
       </c>
       <c r="J22" s="3">
-        <v>24300</v>
+        <v>22800</v>
       </c>
       <c r="K22" s="3">
         <v>25500</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1824300</v>
+        <v>1264400</v>
       </c>
       <c r="E23" s="3">
-        <v>949600</v>
+        <v>859500</v>
       </c>
       <c r="F23" s="3">
-        <v>746900</v>
+        <v>702800</v>
       </c>
       <c r="G23" s="3">
-        <v>900200</v>
+        <v>847000</v>
       </c>
       <c r="H23" s="3">
-        <v>699600</v>
+        <v>658300</v>
       </c>
       <c r="I23" s="3">
-        <v>1649300</v>
+        <v>1551900</v>
       </c>
       <c r="J23" s="3">
-        <v>715400</v>
+        <v>673200</v>
       </c>
       <c r="K23" s="3">
         <v>635600</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>437600</v>
+        <v>298100</v>
       </c>
       <c r="E24" s="3">
-        <v>332600</v>
+        <v>313000</v>
       </c>
       <c r="F24" s="3">
-        <v>301600</v>
+        <v>283800</v>
       </c>
       <c r="G24" s="3">
-        <v>257100</v>
+        <v>241900</v>
       </c>
       <c r="H24" s="3">
-        <v>201200</v>
+        <v>189400</v>
       </c>
       <c r="I24" s="3">
-        <v>515400</v>
+        <v>484900</v>
       </c>
       <c r="J24" s="3">
-        <v>196400</v>
+        <v>184800</v>
       </c>
       <c r="K24" s="3">
         <v>185400</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1386700</v>
+        <v>966200</v>
       </c>
       <c r="E26" s="3">
-        <v>617000</v>
+        <v>546500</v>
       </c>
       <c r="F26" s="3">
-        <v>445300</v>
+        <v>419000</v>
       </c>
       <c r="G26" s="3">
-        <v>643100</v>
+        <v>605100</v>
       </c>
       <c r="H26" s="3">
-        <v>498400</v>
+        <v>469000</v>
       </c>
       <c r="I26" s="3">
-        <v>1133900</v>
+        <v>1067000</v>
       </c>
       <c r="J26" s="3">
-        <v>519000</v>
+        <v>488300</v>
       </c>
       <c r="K26" s="3">
         <v>450200</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1382800</v>
+        <v>962400</v>
       </c>
       <c r="E27" s="3">
-        <v>618100</v>
+        <v>548400</v>
       </c>
       <c r="F27" s="3">
-        <v>450100</v>
+        <v>423500</v>
       </c>
       <c r="G27" s="3">
-        <v>640400</v>
+        <v>602600</v>
       </c>
       <c r="H27" s="3">
-        <v>494400</v>
+        <v>465200</v>
       </c>
       <c r="I27" s="3">
-        <v>1130300</v>
+        <v>1063600</v>
       </c>
       <c r="J27" s="3">
-        <v>505000</v>
+        <v>475200</v>
       </c>
       <c r="K27" s="3">
         <v>421700</v>
@@ -1485,7 +1485,7 @@
         <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>-27400</v>
+        <v>-25800</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-563200</v>
+        <v>-94000</v>
       </c>
       <c r="E32" s="3">
-        <v>-108200</v>
+        <v>-107800</v>
       </c>
       <c r="F32" s="3">
-        <v>-23200</v>
+        <v>-21900</v>
       </c>
       <c r="G32" s="3">
-        <v>-92600</v>
+        <v>-87100</v>
       </c>
       <c r="H32" s="3">
-        <v>-35700</v>
+        <v>-33600</v>
       </c>
       <c r="I32" s="3">
-        <v>-50500</v>
+        <v>-47500</v>
       </c>
       <c r="J32" s="3">
-        <v>-12000</v>
+        <v>-11300</v>
       </c>
       <c r="K32" s="3">
         <v>-43100</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1382800</v>
+        <v>962400</v>
       </c>
       <c r="E33" s="3">
-        <v>618100</v>
+        <v>548400</v>
       </c>
       <c r="F33" s="3">
-        <v>450100</v>
+        <v>423500</v>
       </c>
       <c r="G33" s="3">
-        <v>640400</v>
+        <v>602600</v>
       </c>
       <c r="H33" s="3">
-        <v>467000</v>
+        <v>439400</v>
       </c>
       <c r="I33" s="3">
-        <v>1130300</v>
+        <v>1063600</v>
       </c>
       <c r="J33" s="3">
-        <v>505000</v>
+        <v>475200</v>
       </c>
       <c r="K33" s="3">
         <v>421700</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1382800</v>
+        <v>962400</v>
       </c>
       <c r="E35" s="3">
-        <v>618100</v>
+        <v>548400</v>
       </c>
       <c r="F35" s="3">
-        <v>450100</v>
+        <v>423500</v>
       </c>
       <c r="G35" s="3">
-        <v>640400</v>
+        <v>602600</v>
       </c>
       <c r="H35" s="3">
-        <v>467000</v>
+        <v>439400</v>
       </c>
       <c r="I35" s="3">
-        <v>1130300</v>
+        <v>1063600</v>
       </c>
       <c r="J35" s="3">
-        <v>505000</v>
+        <v>475200</v>
       </c>
       <c r="K35" s="3">
         <v>421700</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3422500</v>
+        <v>3220400</v>
       </c>
       <c r="E41" s="3">
-        <v>2963200</v>
+        <v>2788200</v>
       </c>
       <c r="F41" s="3">
-        <v>2591900</v>
+        <v>2438800</v>
       </c>
       <c r="G41" s="3">
-        <v>2252700</v>
+        <v>2119700</v>
       </c>
       <c r="H41" s="3">
-        <v>2178300</v>
+        <v>2049600</v>
       </c>
       <c r="I41" s="3">
-        <v>2573700</v>
+        <v>2421700</v>
       </c>
       <c r="J41" s="3">
-        <v>2223800</v>
+        <v>2092500</v>
       </c>
       <c r="K41" s="3">
         <v>2261300</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>418400</v>
+        <v>490700</v>
       </c>
       <c r="E42" s="3">
-        <v>513700</v>
+        <v>1036700</v>
       </c>
       <c r="F42" s="3">
-        <v>253600</v>
+        <v>238600</v>
       </c>
       <c r="G42" s="3">
-        <v>316000</v>
+        <v>297300</v>
       </c>
       <c r="H42" s="3">
-        <v>340200</v>
+        <v>320100</v>
       </c>
       <c r="I42" s="3">
-        <v>437300</v>
+        <v>411400</v>
       </c>
       <c r="J42" s="3">
-        <v>171100</v>
+        <v>161000</v>
       </c>
       <c r="K42" s="3">
         <v>182500</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4086500</v>
+        <v>4070800</v>
       </c>
       <c r="E43" s="3">
-        <v>3384300</v>
+        <v>6579800</v>
       </c>
       <c r="F43" s="3">
-        <v>2487700</v>
+        <v>2340800</v>
       </c>
       <c r="G43" s="3">
-        <v>2453300</v>
+        <v>2308400</v>
       </c>
       <c r="H43" s="3">
-        <v>2415600</v>
+        <v>2272900</v>
       </c>
       <c r="I43" s="3">
-        <v>2033700</v>
+        <v>1913600</v>
       </c>
       <c r="J43" s="3">
-        <v>1798500</v>
+        <v>1692300</v>
       </c>
       <c r="K43" s="3">
         <v>2071600</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3407300</v>
+        <v>3203200</v>
       </c>
       <c r="E44" s="3">
-        <v>2250200</v>
+        <v>4230900</v>
       </c>
       <c r="F44" s="3">
-        <v>1842000</v>
+        <v>1733200</v>
       </c>
       <c r="G44" s="3">
-        <v>1767500</v>
+        <v>1663100</v>
       </c>
       <c r="H44" s="3">
-        <v>1616700</v>
+        <v>1521200</v>
       </c>
       <c r="I44" s="3">
-        <v>1203500</v>
+        <v>1132500</v>
       </c>
       <c r="J44" s="3">
-        <v>1224000</v>
+        <v>1151800</v>
       </c>
       <c r="K44" s="3">
         <v>1288100</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>634100</v>
+        <v>253000</v>
       </c>
       <c r="E45" s="3">
-        <v>496700</v>
+        <v>639100</v>
       </c>
       <c r="F45" s="3">
-        <v>353800</v>
+        <v>332900</v>
       </c>
       <c r="G45" s="3">
-        <v>396700</v>
+        <v>373300</v>
       </c>
       <c r="H45" s="3">
-        <v>459800</v>
+        <v>432700</v>
       </c>
       <c r="I45" s="3">
-        <v>499000</v>
+        <v>469500</v>
       </c>
       <c r="J45" s="3">
-        <v>354900</v>
+        <v>333900</v>
       </c>
       <c r="K45" s="3">
         <v>510800</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11968800</v>
+        <v>11238200</v>
       </c>
       <c r="E46" s="3">
-        <v>9608100</v>
+        <v>9022300</v>
       </c>
       <c r="F46" s="3">
-        <v>7528900</v>
+        <v>7084300</v>
       </c>
       <c r="G46" s="3">
-        <v>7186200</v>
+        <v>6761800</v>
       </c>
       <c r="H46" s="3">
-        <v>7010500</v>
+        <v>6596500</v>
       </c>
       <c r="I46" s="3">
-        <v>6747200</v>
+        <v>6348800</v>
       </c>
       <c r="J46" s="3">
-        <v>5772300</v>
+        <v>5431500</v>
       </c>
       <c r="K46" s="3">
         <v>6314300</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>973500</v>
+        <v>1027800</v>
       </c>
       <c r="E47" s="3">
-        <v>345000</v>
+        <v>750000</v>
       </c>
       <c r="F47" s="3">
-        <v>258900</v>
+        <v>243600</v>
       </c>
       <c r="G47" s="3">
-        <v>1209800</v>
+        <v>1138400</v>
       </c>
       <c r="H47" s="3">
-        <v>1209300</v>
+        <v>1137900</v>
       </c>
       <c r="I47" s="3">
-        <v>1260600</v>
+        <v>1186200</v>
       </c>
       <c r="J47" s="3">
-        <v>275300</v>
+        <v>259000</v>
       </c>
       <c r="K47" s="3">
         <v>390100</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7783300</v>
+        <v>7294900</v>
       </c>
       <c r="E48" s="3">
-        <v>6440000</v>
+        <v>12086300</v>
       </c>
       <c r="F48" s="3">
-        <v>5066300</v>
+        <v>4767200</v>
       </c>
       <c r="G48" s="3">
-        <v>4698200</v>
+        <v>4420800</v>
       </c>
       <c r="H48" s="3">
-        <v>4250500</v>
+        <v>3999500</v>
       </c>
       <c r="I48" s="3">
-        <v>3619800</v>
+        <v>3406000</v>
       </c>
       <c r="J48" s="3">
-        <v>3798700</v>
+        <v>3574400</v>
       </c>
       <c r="K48" s="3">
         <v>3644500</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1409500</v>
+        <v>1512800</v>
       </c>
       <c r="E49" s="3">
-        <v>1856900</v>
+        <v>3206100</v>
       </c>
       <c r="F49" s="3">
-        <v>1875000</v>
+        <v>1764300</v>
       </c>
       <c r="G49" s="3">
-        <v>1974700</v>
+        <v>1858100</v>
       </c>
       <c r="H49" s="3">
-        <v>1896000</v>
+        <v>1784000</v>
       </c>
       <c r="I49" s="3">
-        <v>879100</v>
+        <v>827200</v>
       </c>
       <c r="J49" s="3">
-        <v>925700</v>
+        <v>871100</v>
       </c>
       <c r="K49" s="3">
         <v>946900</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1912000</v>
+        <v>1221700</v>
       </c>
       <c r="E52" s="3">
-        <v>457200</v>
+        <v>492800</v>
       </c>
       <c r="F52" s="3">
-        <v>409800</v>
+        <v>385600</v>
       </c>
       <c r="G52" s="3">
-        <v>452500</v>
+        <v>425800</v>
       </c>
       <c r="H52" s="3">
-        <v>475200</v>
+        <v>447200</v>
       </c>
       <c r="I52" s="3">
-        <v>458500</v>
+        <v>431400</v>
       </c>
       <c r="J52" s="3">
-        <v>528000</v>
+        <v>496800</v>
       </c>
       <c r="K52" s="3">
         <v>682800</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>24047100</v>
+        <v>22295300</v>
       </c>
       <c r="E54" s="3">
-        <v>18707200</v>
+        <v>17296300</v>
       </c>
       <c r="F54" s="3">
-        <v>15138900</v>
+        <v>14245000</v>
       </c>
       <c r="G54" s="3">
-        <v>15521400</v>
+        <v>14604900</v>
       </c>
       <c r="H54" s="3">
-        <v>14841600</v>
+        <v>13965200</v>
       </c>
       <c r="I54" s="3">
-        <v>12965200</v>
+        <v>12199600</v>
       </c>
       <c r="J54" s="3">
-        <v>11300100</v>
+        <v>10632800</v>
       </c>
       <c r="K54" s="3">
         <v>11978500</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3584400</v>
+        <v>3372800</v>
       </c>
       <c r="E57" s="3">
-        <v>2526900</v>
+        <v>4755300</v>
       </c>
       <c r="F57" s="3">
-        <v>1572200</v>
+        <v>1479400</v>
       </c>
       <c r="G57" s="3">
-        <v>1479300</v>
+        <v>1391900</v>
       </c>
       <c r="H57" s="3">
-        <v>1766700</v>
+        <v>1662400</v>
       </c>
       <c r="I57" s="3">
-        <v>1376100</v>
+        <v>1294800</v>
       </c>
       <c r="J57" s="3">
-        <v>877700</v>
+        <v>825800</v>
       </c>
       <c r="K57" s="3">
         <v>951900</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1375400</v>
+        <v>1358700</v>
       </c>
       <c r="E58" s="3">
-        <v>2555600</v>
+        <v>4872300</v>
       </c>
       <c r="F58" s="3">
-        <v>2217300</v>
+        <v>2086300</v>
       </c>
       <c r="G58" s="3">
-        <v>2435000</v>
+        <v>2291300</v>
       </c>
       <c r="H58" s="3">
-        <v>1473400</v>
+        <v>1386400</v>
       </c>
       <c r="I58" s="3">
-        <v>936300</v>
+        <v>881000</v>
       </c>
       <c r="J58" s="3">
-        <v>1518400</v>
+        <v>1428700</v>
       </c>
       <c r="K58" s="3">
         <v>1167300</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3114400</v>
+        <v>3055700</v>
       </c>
       <c r="E59" s="3">
-        <v>2796900</v>
+        <v>5324200</v>
       </c>
       <c r="F59" s="3">
-        <v>1810800</v>
+        <v>1703900</v>
       </c>
       <c r="G59" s="3">
-        <v>1650200</v>
+        <v>1552800</v>
       </c>
       <c r="H59" s="3">
-        <v>1457600</v>
+        <v>1371500</v>
       </c>
       <c r="I59" s="3">
-        <v>1408100</v>
+        <v>1324900</v>
       </c>
       <c r="J59" s="3">
-        <v>1119100</v>
+        <v>1053000</v>
       </c>
       <c r="K59" s="3">
         <v>1189400</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8074200</v>
+        <v>7787100</v>
       </c>
       <c r="E60" s="3">
-        <v>7879400</v>
+        <v>7537600</v>
       </c>
       <c r="F60" s="3">
-        <v>5600300</v>
+        <v>5269600</v>
       </c>
       <c r="G60" s="3">
-        <v>5564600</v>
+        <v>5236000</v>
       </c>
       <c r="H60" s="3">
-        <v>4697700</v>
+        <v>4420300</v>
       </c>
       <c r="I60" s="3">
-        <v>3720500</v>
+        <v>3500800</v>
       </c>
       <c r="J60" s="3">
-        <v>3515100</v>
+        <v>3307500</v>
       </c>
       <c r="K60" s="3">
         <v>3308600</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3597000</v>
+        <v>3624400</v>
       </c>
       <c r="E61" s="3">
-        <v>1209600</v>
+        <v>1357400</v>
       </c>
       <c r="F61" s="3">
-        <v>1091100</v>
+        <v>1026600</v>
       </c>
       <c r="G61" s="3">
-        <v>1617800</v>
+        <v>1522300</v>
       </c>
       <c r="H61" s="3">
-        <v>2289300</v>
+        <v>2154100</v>
       </c>
       <c r="I61" s="3">
-        <v>1666600</v>
+        <v>1568100</v>
       </c>
       <c r="J61" s="3">
-        <v>1097200</v>
+        <v>1032400</v>
       </c>
       <c r="K61" s="3">
         <v>1121500</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1906200</v>
+        <v>1327300</v>
       </c>
       <c r="E62" s="3">
-        <v>1779100</v>
+        <v>2426600</v>
       </c>
       <c r="F62" s="3">
-        <v>1837300</v>
+        <v>1728800</v>
       </c>
       <c r="G62" s="3">
-        <v>1454600</v>
+        <v>1368700</v>
       </c>
       <c r="H62" s="3">
-        <v>1379300</v>
+        <v>1297800</v>
       </c>
       <c r="I62" s="3">
-        <v>1329600</v>
+        <v>1251100</v>
       </c>
       <c r="J62" s="3">
-        <v>1354500</v>
+        <v>1274500</v>
       </c>
       <c r="K62" s="3">
         <v>1082600</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13604200</v>
+        <v>12764000</v>
       </c>
       <c r="E66" s="3">
-        <v>10889600</v>
+        <v>10267400</v>
       </c>
       <c r="F66" s="3">
-        <v>8564500</v>
+        <v>8058800</v>
       </c>
       <c r="G66" s="3">
-        <v>8687300</v>
+        <v>8174300</v>
       </c>
       <c r="H66" s="3">
-        <v>8417700</v>
+        <v>7920600</v>
       </c>
       <c r="I66" s="3">
-        <v>6782900</v>
+        <v>6382400</v>
       </c>
       <c r="J66" s="3">
-        <v>6039000</v>
+        <v>5682400</v>
       </c>
       <c r="K66" s="3">
         <v>5676000</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9533400</v>
+        <v>7145000</v>
       </c>
       <c r="E72" s="3">
-        <v>8338600</v>
+        <v>13763100</v>
       </c>
       <c r="F72" s="3">
-        <v>7917700</v>
+        <v>7450200</v>
       </c>
       <c r="G72" s="3">
-        <v>7634900</v>
+        <v>7184000</v>
       </c>
       <c r="H72" s="3">
-        <v>7166200</v>
+        <v>6743100</v>
       </c>
       <c r="I72" s="3">
-        <v>6789800</v>
+        <v>6388900</v>
       </c>
       <c r="J72" s="3">
-        <v>5778100</v>
+        <v>5436900</v>
       </c>
       <c r="K72" s="3">
         <v>5892900</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10442900</v>
+        <v>9531300</v>
       </c>
       <c r="E76" s="3">
-        <v>7817600</v>
+        <v>7028900</v>
       </c>
       <c r="F76" s="3">
-        <v>6574400</v>
+        <v>6186200</v>
       </c>
       <c r="G76" s="3">
-        <v>6834100</v>
+        <v>6430500</v>
       </c>
       <c r="H76" s="3">
-        <v>6423900</v>
+        <v>6044600</v>
       </c>
       <c r="I76" s="3">
-        <v>6182300</v>
+        <v>5817200</v>
       </c>
       <c r="J76" s="3">
-        <v>5261100</v>
+        <v>4950400</v>
       </c>
       <c r="K76" s="3">
         <v>6302500</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1382800</v>
+        <v>962400</v>
       </c>
       <c r="E81" s="3">
-        <v>618100</v>
+        <v>548400</v>
       </c>
       <c r="F81" s="3">
-        <v>450100</v>
+        <v>423500</v>
       </c>
       <c r="G81" s="3">
-        <v>640400</v>
+        <v>602600</v>
       </c>
       <c r="H81" s="3">
-        <v>467000</v>
+        <v>439400</v>
       </c>
       <c r="I81" s="3">
-        <v>1130300</v>
+        <v>1063600</v>
       </c>
       <c r="J81" s="3">
-        <v>505000</v>
+        <v>475200</v>
       </c>
       <c r="K81" s="3">
         <v>421700</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1314500</v>
+        <v>1297600</v>
       </c>
       <c r="E83" s="3">
-        <v>1092800</v>
+        <v>1087400</v>
       </c>
       <c r="F83" s="3">
-        <v>973600</v>
+        <v>916100</v>
       </c>
       <c r="G83" s="3">
-        <v>830700</v>
+        <v>781600</v>
       </c>
       <c r="H83" s="3">
-        <v>718000</v>
+        <v>675600</v>
       </c>
       <c r="I83" s="3">
-        <v>681600</v>
+        <v>641300</v>
       </c>
       <c r="J83" s="3">
-        <v>648300</v>
+        <v>610000</v>
       </c>
       <c r="K83" s="3">
         <v>684500</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1321300</v>
+        <v>1312000</v>
       </c>
       <c r="E89" s="3">
-        <v>1735700</v>
+        <v>1692200</v>
       </c>
       <c r="F89" s="3">
-        <v>1732400</v>
+        <v>1630100</v>
       </c>
       <c r="G89" s="3">
-        <v>1092700</v>
+        <v>1028200</v>
       </c>
       <c r="H89" s="3">
-        <v>711300</v>
+        <v>669300</v>
       </c>
       <c r="I89" s="3">
-        <v>1247500</v>
+        <v>1173800</v>
       </c>
       <c r="J89" s="3">
-        <v>1180700</v>
+        <v>1111000</v>
       </c>
       <c r="K89" s="3">
         <v>1218500</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2269800</v>
+        <v>-2135500</v>
       </c>
       <c r="E91" s="3">
-        <v>-1654200</v>
+        <v>-1555400</v>
       </c>
       <c r="F91" s="3">
-        <v>-1351000</v>
+        <v>-1271200</v>
       </c>
       <c r="G91" s="3">
-        <v>-1352300</v>
+        <v>-1272400</v>
       </c>
       <c r="H91" s="3">
-        <v>-1391400</v>
+        <v>-1309200</v>
       </c>
       <c r="I91" s="3">
-        <v>-1305800</v>
+        <v>-1228700</v>
       </c>
       <c r="J91" s="3">
-        <v>-1251700</v>
+        <v>-1177700</v>
       </c>
       <c r="K91" s="3">
         <v>-874500</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2190500</v>
+        <v>-2063700</v>
       </c>
       <c r="E94" s="3">
-        <v>-1803300</v>
+        <v>-1696300</v>
       </c>
       <c r="F94" s="3">
-        <v>-326900</v>
+        <v>-307600</v>
       </c>
       <c r="G94" s="3">
-        <v>-1092000</v>
+        <v>-1027500</v>
       </c>
       <c r="H94" s="3">
-        <v>-1917100</v>
+        <v>-1803900</v>
       </c>
       <c r="I94" s="3">
-        <v>-554000</v>
+        <v>-521200</v>
       </c>
       <c r="J94" s="3">
-        <v>-1095200</v>
+        <v>-1030500</v>
       </c>
       <c r="K94" s="3">
         <v>-1086000</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-186900</v>
+        <v>-175800</v>
       </c>
       <c r="E96" s="3">
-        <v>-177100</v>
+        <v>-166700</v>
       </c>
       <c r="F96" s="3">
-        <v>-167200</v>
+        <v>-157400</v>
       </c>
       <c r="G96" s="3">
-        <v>-147600</v>
+        <v>-138900</v>
       </c>
       <c r="H96" s="3">
-        <v>-117900</v>
+        <v>-111000</v>
       </c>
       <c r="I96" s="3">
-        <v>-117900</v>
+        <v>-110900</v>
       </c>
       <c r="J96" s="3">
-        <v>-108000</v>
+        <v>-101600</v>
       </c>
       <c r="K96" s="3">
         <v>-85900</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>956300</v>
+        <v>833700</v>
       </c>
       <c r="E100" s="3">
-        <v>227400</v>
+        <v>154500</v>
       </c>
       <c r="F100" s="3">
-        <v>-948600</v>
+        <v>-892600</v>
       </c>
       <c r="G100" s="3">
-        <v>73500</v>
+        <v>69200</v>
       </c>
       <c r="H100" s="3">
-        <v>857600</v>
+        <v>806900</v>
       </c>
       <c r="I100" s="3">
-        <v>-294100</v>
+        <v>-276700</v>
       </c>
       <c r="J100" s="3">
-        <v>228300</v>
+        <v>214800</v>
       </c>
       <c r="K100" s="3">
         <v>-300600</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>372100</v>
+        <v>350100</v>
       </c>
       <c r="E101" s="3">
-        <v>211500</v>
+        <v>199000</v>
       </c>
       <c r="F101" s="3">
-        <v>-117700</v>
+        <v>-110800</v>
       </c>
       <c r="G101" s="3">
         <v>200</v>
       </c>
       <c r="H101" s="3">
-        <v>-47200</v>
+        <v>-44400</v>
       </c>
       <c r="I101" s="3">
-        <v>-49500</v>
+        <v>-46600</v>
       </c>
       <c r="J101" s="3">
-        <v>-155200</v>
+        <v>-146000</v>
       </c>
       <c r="K101" s="3">
         <v>289700</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>459200</v>
+        <v>432100</v>
       </c>
       <c r="E102" s="3">
-        <v>371300</v>
+        <v>349400</v>
       </c>
       <c r="F102" s="3">
-        <v>339200</v>
+        <v>319200</v>
       </c>
       <c r="G102" s="3">
-        <v>74400</v>
+        <v>70000</v>
       </c>
       <c r="H102" s="3">
-        <v>-395500</v>
+        <v>-372100</v>
       </c>
       <c r="I102" s="3">
-        <v>349900</v>
+        <v>329300</v>
       </c>
       <c r="J102" s="3">
-        <v>158600</v>
+        <v>149300</v>
       </c>
       <c r="K102" s="3">
         <v>121600</v>

--- a/AAII_Financials/Yearly/TTDKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TTDKY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13942600</v>
+        <v>13486100</v>
       </c>
       <c r="E8" s="3">
-        <v>10841100</v>
+        <v>10486200</v>
       </c>
       <c r="F8" s="3">
-        <v>9991100</v>
+        <v>9663900</v>
       </c>
       <c r="G8" s="3">
-        <v>10128600</v>
+        <v>9797000</v>
       </c>
       <c r="H8" s="3">
-        <v>9321900</v>
+        <v>9016700</v>
       </c>
       <c r="I8" s="3">
-        <v>8636600</v>
+        <v>8353800</v>
       </c>
       <c r="J8" s="3">
-        <v>8446000</v>
+        <v>8169500</v>
       </c>
       <c r="K8" s="3">
         <v>9234200</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9809600</v>
+        <v>9488400</v>
       </c>
       <c r="E9" s="3">
-        <v>7714200</v>
+        <v>7461600</v>
       </c>
       <c r="F9" s="3">
-        <v>7034700</v>
+        <v>6804400</v>
       </c>
       <c r="G9" s="3">
-        <v>7222400</v>
+        <v>6985900</v>
       </c>
       <c r="H9" s="3">
-        <v>6806100</v>
+        <v>6583200</v>
       </c>
       <c r="I9" s="3">
-        <v>6274100</v>
+        <v>6068700</v>
       </c>
       <c r="J9" s="3">
-        <v>6092100</v>
+        <v>5892700</v>
       </c>
       <c r="K9" s="3">
         <v>6843000</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4133000</v>
+        <v>3997700</v>
       </c>
       <c r="E10" s="3">
-        <v>3127000</v>
+        <v>3024600</v>
       </c>
       <c r="F10" s="3">
-        <v>2956400</v>
+        <v>2859600</v>
       </c>
       <c r="G10" s="3">
-        <v>2906200</v>
+        <v>2811100</v>
       </c>
       <c r="H10" s="3">
-        <v>2515800</v>
+        <v>2433400</v>
       </c>
       <c r="I10" s="3">
-        <v>2362500</v>
+        <v>2285200</v>
       </c>
       <c r="J10" s="3">
-        <v>2353900</v>
+        <v>2276800</v>
       </c>
       <c r="K10" s="3">
         <v>2391300</v>
@@ -935,13 +935,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-54900</v>
+        <v>-53100</v>
       </c>
       <c r="E14" s="3">
-        <v>10900</v>
+        <v>10500</v>
       </c>
       <c r="F14" s="3">
-        <v>145800</v>
+        <v>141100</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12720100</v>
+        <v>12303600</v>
       </c>
       <c r="E17" s="3">
-        <v>10021500</v>
+        <v>9693400</v>
       </c>
       <c r="F17" s="3">
-        <v>9283200</v>
+        <v>8979300</v>
       </c>
       <c r="G17" s="3">
-        <v>9338300</v>
+        <v>9032500</v>
       </c>
       <c r="H17" s="3">
-        <v>8664500</v>
+        <v>8380800</v>
       </c>
       <c r="I17" s="3">
-        <v>7107100</v>
+        <v>6874400</v>
       </c>
       <c r="J17" s="3">
-        <v>7761300</v>
+        <v>7507200</v>
       </c>
       <c r="K17" s="3">
         <v>8616200</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1222500</v>
+        <v>1182400</v>
       </c>
       <c r="E18" s="3">
-        <v>819600</v>
+        <v>792800</v>
       </c>
       <c r="F18" s="3">
-        <v>707800</v>
+        <v>684600</v>
       </c>
       <c r="G18" s="3">
-        <v>790300</v>
+        <v>764500</v>
       </c>
       <c r="H18" s="3">
-        <v>657400</v>
+        <v>635900</v>
       </c>
       <c r="I18" s="3">
-        <v>1529500</v>
+        <v>1479400</v>
       </c>
       <c r="J18" s="3">
-        <v>684700</v>
+        <v>662300</v>
       </c>
       <c r="K18" s="3">
         <v>618100</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>94000</v>
+        <v>91000</v>
       </c>
       <c r="E20" s="3">
-        <v>107800</v>
+        <v>104200</v>
       </c>
       <c r="F20" s="3">
-        <v>21900</v>
+        <v>21100</v>
       </c>
       <c r="G20" s="3">
-        <v>87100</v>
+        <v>84300</v>
       </c>
       <c r="H20" s="3">
-        <v>33600</v>
+        <v>32500</v>
       </c>
       <c r="I20" s="3">
-        <v>47500</v>
+        <v>46000</v>
       </c>
       <c r="J20" s="3">
-        <v>11300</v>
+        <v>10900</v>
       </c>
       <c r="K20" s="3">
         <v>43100</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2607100</v>
+        <v>2482500</v>
       </c>
       <c r="E21" s="3">
-        <v>2008900</v>
+        <v>1910300</v>
       </c>
       <c r="F21" s="3">
-        <v>1640800</v>
+        <v>1559400</v>
       </c>
       <c r="G21" s="3">
-        <v>1654800</v>
+        <v>1577000</v>
       </c>
       <c r="H21" s="3">
-        <v>1362900</v>
+        <v>1297900</v>
       </c>
       <c r="I21" s="3">
-        <v>2214800</v>
+        <v>2122900</v>
       </c>
       <c r="J21" s="3">
-        <v>1302700</v>
+        <v>1241700</v>
       </c>
       <c r="K21" s="3">
         <v>1353700</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>52100</v>
+        <v>50400</v>
       </c>
       <c r="E22" s="3">
-        <v>67800</v>
+        <v>65600</v>
       </c>
       <c r="F22" s="3">
-        <v>26900</v>
+        <v>26000</v>
       </c>
       <c r="G22" s="3">
-        <v>30500</v>
+        <v>29500</v>
       </c>
       <c r="H22" s="3">
-        <v>32700</v>
+        <v>31600</v>
       </c>
       <c r="I22" s="3">
-        <v>25100</v>
+        <v>24300</v>
       </c>
       <c r="J22" s="3">
-        <v>22800</v>
+        <v>22100</v>
       </c>
       <c r="K22" s="3">
         <v>25500</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1264400</v>
+        <v>1223000</v>
       </c>
       <c r="E23" s="3">
-        <v>859500</v>
+        <v>831400</v>
       </c>
       <c r="F23" s="3">
-        <v>702800</v>
+        <v>679800</v>
       </c>
       <c r="G23" s="3">
-        <v>847000</v>
+        <v>819300</v>
       </c>
       <c r="H23" s="3">
-        <v>658300</v>
+        <v>636800</v>
       </c>
       <c r="I23" s="3">
-        <v>1551900</v>
+        <v>1501100</v>
       </c>
       <c r="J23" s="3">
-        <v>673200</v>
+        <v>651100</v>
       </c>
       <c r="K23" s="3">
         <v>635600</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>298100</v>
+        <v>288400</v>
       </c>
       <c r="E24" s="3">
-        <v>313000</v>
+        <v>302800</v>
       </c>
       <c r="F24" s="3">
-        <v>283800</v>
+        <v>274500</v>
       </c>
       <c r="G24" s="3">
-        <v>241900</v>
+        <v>234000</v>
       </c>
       <c r="H24" s="3">
-        <v>189400</v>
+        <v>183200</v>
       </c>
       <c r="I24" s="3">
-        <v>484900</v>
+        <v>469100</v>
       </c>
       <c r="J24" s="3">
-        <v>184800</v>
+        <v>178800</v>
       </c>
       <c r="K24" s="3">
         <v>185400</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>966200</v>
+        <v>934600</v>
       </c>
       <c r="E26" s="3">
-        <v>546500</v>
+        <v>528600</v>
       </c>
       <c r="F26" s="3">
-        <v>419000</v>
+        <v>405200</v>
       </c>
       <c r="G26" s="3">
-        <v>605100</v>
+        <v>585300</v>
       </c>
       <c r="H26" s="3">
-        <v>469000</v>
+        <v>453600</v>
       </c>
       <c r="I26" s="3">
-        <v>1067000</v>
+        <v>1032000</v>
       </c>
       <c r="J26" s="3">
-        <v>488300</v>
+        <v>472400</v>
       </c>
       <c r="K26" s="3">
         <v>450200</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>962400</v>
+        <v>930900</v>
       </c>
       <c r="E27" s="3">
-        <v>548400</v>
+        <v>530400</v>
       </c>
       <c r="F27" s="3">
-        <v>423500</v>
+        <v>409700</v>
       </c>
       <c r="G27" s="3">
-        <v>602600</v>
+        <v>582800</v>
       </c>
       <c r="H27" s="3">
-        <v>465200</v>
+        <v>450000</v>
       </c>
       <c r="I27" s="3">
-        <v>1063600</v>
+        <v>1028800</v>
       </c>
       <c r="J27" s="3">
-        <v>475200</v>
+        <v>459600</v>
       </c>
       <c r="K27" s="3">
         <v>421700</v>
@@ -1485,7 +1485,7 @@
         <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>-25800</v>
+        <v>-24900</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-94000</v>
+        <v>-91000</v>
       </c>
       <c r="E32" s="3">
-        <v>-107800</v>
+        <v>-104200</v>
       </c>
       <c r="F32" s="3">
-        <v>-21900</v>
+        <v>-21100</v>
       </c>
       <c r="G32" s="3">
-        <v>-87100</v>
+        <v>-84300</v>
       </c>
       <c r="H32" s="3">
-        <v>-33600</v>
+        <v>-32500</v>
       </c>
       <c r="I32" s="3">
-        <v>-47500</v>
+        <v>-46000</v>
       </c>
       <c r="J32" s="3">
-        <v>-11300</v>
+        <v>-10900</v>
       </c>
       <c r="K32" s="3">
         <v>-43100</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>962400</v>
+        <v>930900</v>
       </c>
       <c r="E33" s="3">
-        <v>548400</v>
+        <v>530400</v>
       </c>
       <c r="F33" s="3">
-        <v>423500</v>
+        <v>409700</v>
       </c>
       <c r="G33" s="3">
-        <v>602600</v>
+        <v>582800</v>
       </c>
       <c r="H33" s="3">
-        <v>439400</v>
+        <v>425000</v>
       </c>
       <c r="I33" s="3">
-        <v>1063600</v>
+        <v>1028800</v>
       </c>
       <c r="J33" s="3">
-        <v>475200</v>
+        <v>459600</v>
       </c>
       <c r="K33" s="3">
         <v>421700</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>962400</v>
+        <v>930900</v>
       </c>
       <c r="E35" s="3">
-        <v>548400</v>
+        <v>530400</v>
       </c>
       <c r="F35" s="3">
-        <v>423500</v>
+        <v>409700</v>
       </c>
       <c r="G35" s="3">
-        <v>602600</v>
+        <v>582800</v>
       </c>
       <c r="H35" s="3">
-        <v>439400</v>
+        <v>425000</v>
       </c>
       <c r="I35" s="3">
-        <v>1063600</v>
+        <v>1028800</v>
       </c>
       <c r="J35" s="3">
-        <v>475200</v>
+        <v>459600</v>
       </c>
       <c r="K35" s="3">
         <v>421700</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3220400</v>
+        <v>3114900</v>
       </c>
       <c r="E41" s="3">
-        <v>2788200</v>
+        <v>2696900</v>
       </c>
       <c r="F41" s="3">
-        <v>2438800</v>
+        <v>2359000</v>
       </c>
       <c r="G41" s="3">
-        <v>2119700</v>
+        <v>2050300</v>
       </c>
       <c r="H41" s="3">
-        <v>2049600</v>
+        <v>1982500</v>
       </c>
       <c r="I41" s="3">
-        <v>2421700</v>
+        <v>2342500</v>
       </c>
       <c r="J41" s="3">
-        <v>2092500</v>
+        <v>2024000</v>
       </c>
       <c r="K41" s="3">
         <v>2261300</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>490700</v>
+        <v>474600</v>
       </c>
       <c r="E42" s="3">
-        <v>1036700</v>
+        <v>1002800</v>
       </c>
       <c r="F42" s="3">
-        <v>238600</v>
+        <v>230800</v>
       </c>
       <c r="G42" s="3">
-        <v>297300</v>
+        <v>287600</v>
       </c>
       <c r="H42" s="3">
-        <v>320100</v>
+        <v>309600</v>
       </c>
       <c r="I42" s="3">
-        <v>411400</v>
+        <v>398000</v>
       </c>
       <c r="J42" s="3">
-        <v>161000</v>
+        <v>155700</v>
       </c>
       <c r="K42" s="3">
         <v>182500</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4070800</v>
+        <v>3937500</v>
       </c>
       <c r="E43" s="3">
-        <v>6579800</v>
+        <v>6364400</v>
       </c>
       <c r="F43" s="3">
-        <v>2340800</v>
+        <v>2264100</v>
       </c>
       <c r="G43" s="3">
-        <v>2308400</v>
+        <v>2232800</v>
       </c>
       <c r="H43" s="3">
-        <v>2272900</v>
+        <v>2198500</v>
       </c>
       <c r="I43" s="3">
-        <v>1913600</v>
+        <v>1850900</v>
       </c>
       <c r="J43" s="3">
-        <v>1692300</v>
+        <v>1636900</v>
       </c>
       <c r="K43" s="3">
         <v>2071600</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3203200</v>
+        <v>3098400</v>
       </c>
       <c r="E44" s="3">
-        <v>4230900</v>
+        <v>4092300</v>
       </c>
       <c r="F44" s="3">
-        <v>1733200</v>
+        <v>1676500</v>
       </c>
       <c r="G44" s="3">
-        <v>1663100</v>
+        <v>1608700</v>
       </c>
       <c r="H44" s="3">
-        <v>1521200</v>
+        <v>1471400</v>
       </c>
       <c r="I44" s="3">
-        <v>1132500</v>
+        <v>1095400</v>
       </c>
       <c r="J44" s="3">
-        <v>1151800</v>
+        <v>1114000</v>
       </c>
       <c r="K44" s="3">
         <v>1288100</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>253000</v>
+        <v>244700</v>
       </c>
       <c r="E45" s="3">
-        <v>639100</v>
+        <v>618200</v>
       </c>
       <c r="F45" s="3">
-        <v>332900</v>
+        <v>322000</v>
       </c>
       <c r="G45" s="3">
-        <v>373300</v>
+        <v>361100</v>
       </c>
       <c r="H45" s="3">
-        <v>432700</v>
+        <v>418500</v>
       </c>
       <c r="I45" s="3">
-        <v>469500</v>
+        <v>454200</v>
       </c>
       <c r="J45" s="3">
-        <v>333900</v>
+        <v>323000</v>
       </c>
       <c r="K45" s="3">
         <v>510800</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11238200</v>
+        <v>10870200</v>
       </c>
       <c r="E46" s="3">
-        <v>9022300</v>
+        <v>8726900</v>
       </c>
       <c r="F46" s="3">
-        <v>7084300</v>
+        <v>6852400</v>
       </c>
       <c r="G46" s="3">
-        <v>6761800</v>
+        <v>6540400</v>
       </c>
       <c r="H46" s="3">
-        <v>6596500</v>
+        <v>6380500</v>
       </c>
       <c r="I46" s="3">
-        <v>6348800</v>
+        <v>6140900</v>
       </c>
       <c r="J46" s="3">
-        <v>5431500</v>
+        <v>5253600</v>
       </c>
       <c r="K46" s="3">
         <v>6314300</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1027800</v>
+        <v>994100</v>
       </c>
       <c r="E47" s="3">
-        <v>750000</v>
+        <v>725400</v>
       </c>
       <c r="F47" s="3">
-        <v>243600</v>
+        <v>235600</v>
       </c>
       <c r="G47" s="3">
-        <v>1138400</v>
+        <v>1101100</v>
       </c>
       <c r="H47" s="3">
-        <v>1137900</v>
+        <v>1100700</v>
       </c>
       <c r="I47" s="3">
-        <v>1186200</v>
+        <v>1147300</v>
       </c>
       <c r="J47" s="3">
-        <v>259000</v>
+        <v>250500</v>
       </c>
       <c r="K47" s="3">
         <v>390100</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7294900</v>
+        <v>7056000</v>
       </c>
       <c r="E48" s="3">
-        <v>12086300</v>
+        <v>11690500</v>
       </c>
       <c r="F48" s="3">
-        <v>4767200</v>
+        <v>4611100</v>
       </c>
       <c r="G48" s="3">
-        <v>4420800</v>
+        <v>4276000</v>
       </c>
       <c r="H48" s="3">
-        <v>3999500</v>
+        <v>3868600</v>
       </c>
       <c r="I48" s="3">
-        <v>3406000</v>
+        <v>3294500</v>
       </c>
       <c r="J48" s="3">
-        <v>3574400</v>
+        <v>3457400</v>
       </c>
       <c r="K48" s="3">
         <v>3644500</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1512800</v>
+        <v>1463200</v>
       </c>
       <c r="E49" s="3">
-        <v>3206100</v>
+        <v>3101200</v>
       </c>
       <c r="F49" s="3">
-        <v>1764300</v>
+        <v>1706500</v>
       </c>
       <c r="G49" s="3">
-        <v>1858100</v>
+        <v>1797200</v>
       </c>
       <c r="H49" s="3">
-        <v>1784000</v>
+        <v>1725600</v>
       </c>
       <c r="I49" s="3">
-        <v>827200</v>
+        <v>800100</v>
       </c>
       <c r="J49" s="3">
-        <v>871100</v>
+        <v>842500</v>
       </c>
       <c r="K49" s="3">
         <v>946900</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1221700</v>
+        <v>1181700</v>
       </c>
       <c r="E52" s="3">
-        <v>492800</v>
+        <v>476600</v>
       </c>
       <c r="F52" s="3">
-        <v>385600</v>
+        <v>373000</v>
       </c>
       <c r="G52" s="3">
-        <v>425800</v>
+        <v>411900</v>
       </c>
       <c r="H52" s="3">
-        <v>447200</v>
+        <v>432500</v>
       </c>
       <c r="I52" s="3">
-        <v>431400</v>
+        <v>417300</v>
       </c>
       <c r="J52" s="3">
-        <v>496800</v>
+        <v>480600</v>
       </c>
       <c r="K52" s="3">
         <v>682800</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>22295300</v>
+        <v>21565300</v>
       </c>
       <c r="E54" s="3">
-        <v>17296300</v>
+        <v>16730000</v>
       </c>
       <c r="F54" s="3">
-        <v>14245000</v>
+        <v>13778600</v>
       </c>
       <c r="G54" s="3">
-        <v>14604900</v>
+        <v>14126700</v>
       </c>
       <c r="H54" s="3">
-        <v>13965200</v>
+        <v>13507900</v>
       </c>
       <c r="I54" s="3">
-        <v>12199600</v>
+        <v>11800100</v>
       </c>
       <c r="J54" s="3">
-        <v>10632800</v>
+        <v>10284600</v>
       </c>
       <c r="K54" s="3">
         <v>11978500</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3372800</v>
+        <v>3262300</v>
       </c>
       <c r="E57" s="3">
-        <v>4755300</v>
+        <v>4599600</v>
       </c>
       <c r="F57" s="3">
-        <v>1479400</v>
+        <v>1430900</v>
       </c>
       <c r="G57" s="3">
-        <v>1391900</v>
+        <v>1346300</v>
       </c>
       <c r="H57" s="3">
-        <v>1662400</v>
+        <v>1607900</v>
       </c>
       <c r="I57" s="3">
-        <v>1294800</v>
+        <v>1252400</v>
       </c>
       <c r="J57" s="3">
-        <v>825800</v>
+        <v>798800</v>
       </c>
       <c r="K57" s="3">
         <v>951900</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1358700</v>
+        <v>1314200</v>
       </c>
       <c r="E58" s="3">
-        <v>4872300</v>
+        <v>4712700</v>
       </c>
       <c r="F58" s="3">
-        <v>2086300</v>
+        <v>2018000</v>
       </c>
       <c r="G58" s="3">
-        <v>2291300</v>
+        <v>2216200</v>
       </c>
       <c r="H58" s="3">
-        <v>1386400</v>
+        <v>1341000</v>
       </c>
       <c r="I58" s="3">
-        <v>881000</v>
+        <v>852200</v>
       </c>
       <c r="J58" s="3">
-        <v>1428700</v>
+        <v>1381900</v>
       </c>
       <c r="K58" s="3">
         <v>1167300</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3055700</v>
+        <v>2955600</v>
       </c>
       <c r="E59" s="3">
-        <v>5324200</v>
+        <v>5149800</v>
       </c>
       <c r="F59" s="3">
-        <v>1703900</v>
+        <v>1648100</v>
       </c>
       <c r="G59" s="3">
-        <v>1552800</v>
+        <v>1502000</v>
       </c>
       <c r="H59" s="3">
-        <v>1371500</v>
+        <v>1326600</v>
       </c>
       <c r="I59" s="3">
-        <v>1324900</v>
+        <v>1281500</v>
       </c>
       <c r="J59" s="3">
-        <v>1053000</v>
+        <v>1018500</v>
       </c>
       <c r="K59" s="3">
         <v>1189400</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7787100</v>
+        <v>7532100</v>
       </c>
       <c r="E60" s="3">
-        <v>7537600</v>
+        <v>7290800</v>
       </c>
       <c r="F60" s="3">
-        <v>5269600</v>
+        <v>5097000</v>
       </c>
       <c r="G60" s="3">
-        <v>5236000</v>
+        <v>5064500</v>
       </c>
       <c r="H60" s="3">
-        <v>4420300</v>
+        <v>4275500</v>
       </c>
       <c r="I60" s="3">
-        <v>3500800</v>
+        <v>3386100</v>
       </c>
       <c r="J60" s="3">
-        <v>3307500</v>
+        <v>3199200</v>
       </c>
       <c r="K60" s="3">
         <v>3308600</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3624400</v>
+        <v>3505700</v>
       </c>
       <c r="E61" s="3">
-        <v>1357400</v>
+        <v>1313000</v>
       </c>
       <c r="F61" s="3">
-        <v>1026600</v>
+        <v>993000</v>
       </c>
       <c r="G61" s="3">
-        <v>1522300</v>
+        <v>1472500</v>
       </c>
       <c r="H61" s="3">
-        <v>2154100</v>
+        <v>2083600</v>
       </c>
       <c r="I61" s="3">
-        <v>1568100</v>
+        <v>1516800</v>
       </c>
       <c r="J61" s="3">
-        <v>1032400</v>
+        <v>998600</v>
       </c>
       <c r="K61" s="3">
         <v>1121500</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1327300</v>
+        <v>1283900</v>
       </c>
       <c r="E62" s="3">
-        <v>2426600</v>
+        <v>2347100</v>
       </c>
       <c r="F62" s="3">
-        <v>1728800</v>
+        <v>1672200</v>
       </c>
       <c r="G62" s="3">
-        <v>1368700</v>
+        <v>1323900</v>
       </c>
       <c r="H62" s="3">
-        <v>1297800</v>
+        <v>1255400</v>
       </c>
       <c r="I62" s="3">
-        <v>1251100</v>
+        <v>1210200</v>
       </c>
       <c r="J62" s="3">
-        <v>1274500</v>
+        <v>1232700</v>
       </c>
       <c r="K62" s="3">
         <v>1082600</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12764000</v>
+        <v>12346100</v>
       </c>
       <c r="E66" s="3">
-        <v>10267400</v>
+        <v>9931200</v>
       </c>
       <c r="F66" s="3">
-        <v>8058800</v>
+        <v>7794900</v>
       </c>
       <c r="G66" s="3">
-        <v>8174300</v>
+        <v>7906700</v>
       </c>
       <c r="H66" s="3">
-        <v>7920600</v>
+        <v>7661300</v>
       </c>
       <c r="I66" s="3">
-        <v>6382400</v>
+        <v>6173400</v>
       </c>
       <c r="J66" s="3">
-        <v>5682400</v>
+        <v>5496300</v>
       </c>
       <c r="K66" s="3">
         <v>5676000</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7145000</v>
+        <v>6911100</v>
       </c>
       <c r="E72" s="3">
-        <v>13763100</v>
+        <v>13312500</v>
       </c>
       <c r="F72" s="3">
-        <v>7450200</v>
+        <v>7206200</v>
       </c>
       <c r="G72" s="3">
-        <v>7184000</v>
+        <v>6948800</v>
       </c>
       <c r="H72" s="3">
-        <v>6743100</v>
+        <v>6522300</v>
       </c>
       <c r="I72" s="3">
-        <v>6388900</v>
+        <v>6179700</v>
       </c>
       <c r="J72" s="3">
-        <v>5436900</v>
+        <v>5258900</v>
       </c>
       <c r="K72" s="3">
         <v>5892900</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9531300</v>
+        <v>9219200</v>
       </c>
       <c r="E76" s="3">
-        <v>7028900</v>
+        <v>6798800</v>
       </c>
       <c r="F76" s="3">
-        <v>6186200</v>
+        <v>5983700</v>
       </c>
       <c r="G76" s="3">
-        <v>6430500</v>
+        <v>6220000</v>
       </c>
       <c r="H76" s="3">
-        <v>6044600</v>
+        <v>5846700</v>
       </c>
       <c r="I76" s="3">
-        <v>5817200</v>
+        <v>5626700</v>
       </c>
       <c r="J76" s="3">
-        <v>4950400</v>
+        <v>4788300</v>
       </c>
       <c r="K76" s="3">
         <v>6302500</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>962400</v>
+        <v>930900</v>
       </c>
       <c r="E81" s="3">
-        <v>548400</v>
+        <v>530400</v>
       </c>
       <c r="F81" s="3">
-        <v>423500</v>
+        <v>409700</v>
       </c>
       <c r="G81" s="3">
-        <v>602600</v>
+        <v>582800</v>
       </c>
       <c r="H81" s="3">
-        <v>439400</v>
+        <v>425000</v>
       </c>
       <c r="I81" s="3">
-        <v>1063600</v>
+        <v>1028800</v>
       </c>
       <c r="J81" s="3">
-        <v>475200</v>
+        <v>459600</v>
       </c>
       <c r="K81" s="3">
         <v>421700</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1297600</v>
+        <v>1255100</v>
       </c>
       <c r="E83" s="3">
-        <v>1087400</v>
+        <v>1051800</v>
       </c>
       <c r="F83" s="3">
-        <v>916100</v>
+        <v>886100</v>
       </c>
       <c r="G83" s="3">
-        <v>781600</v>
+        <v>756000</v>
       </c>
       <c r="H83" s="3">
-        <v>675600</v>
+        <v>653500</v>
       </c>
       <c r="I83" s="3">
-        <v>641300</v>
+        <v>620300</v>
       </c>
       <c r="J83" s="3">
-        <v>610000</v>
+        <v>590100</v>
       </c>
       <c r="K83" s="3">
         <v>684500</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1312000</v>
+        <v>1269000</v>
       </c>
       <c r="E89" s="3">
-        <v>1692200</v>
+        <v>1636800</v>
       </c>
       <c r="F89" s="3">
-        <v>1630100</v>
+        <v>1576700</v>
       </c>
       <c r="G89" s="3">
-        <v>1028200</v>
+        <v>994500</v>
       </c>
       <c r="H89" s="3">
-        <v>669300</v>
+        <v>647400</v>
       </c>
       <c r="I89" s="3">
-        <v>1173800</v>
+        <v>1135400</v>
       </c>
       <c r="J89" s="3">
-        <v>1111000</v>
+        <v>1074600</v>
       </c>
       <c r="K89" s="3">
         <v>1218500</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2135500</v>
+        <v>-2065600</v>
       </c>
       <c r="E91" s="3">
-        <v>-1555400</v>
+        <v>-1504500</v>
       </c>
       <c r="F91" s="3">
-        <v>-1271200</v>
+        <v>-1229600</v>
       </c>
       <c r="G91" s="3">
-        <v>-1272400</v>
+        <v>-1230800</v>
       </c>
       <c r="H91" s="3">
-        <v>-1309200</v>
+        <v>-1266400</v>
       </c>
       <c r="I91" s="3">
-        <v>-1228700</v>
+        <v>-1188500</v>
       </c>
       <c r="J91" s="3">
-        <v>-1177700</v>
+        <v>-1139200</v>
       </c>
       <c r="K91" s="3">
         <v>-874500</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2063700</v>
+        <v>-1996200</v>
       </c>
       <c r="E94" s="3">
-        <v>-1696300</v>
+        <v>-1640800</v>
       </c>
       <c r="F94" s="3">
-        <v>-307600</v>
+        <v>-297500</v>
       </c>
       <c r="G94" s="3">
-        <v>-1027500</v>
+        <v>-993900</v>
       </c>
       <c r="H94" s="3">
-        <v>-1803900</v>
+        <v>-1744800</v>
       </c>
       <c r="I94" s="3">
-        <v>-521200</v>
+        <v>-504200</v>
       </c>
       <c r="J94" s="3">
-        <v>-1030500</v>
+        <v>-996700</v>
       </c>
       <c r="K94" s="3">
         <v>-1086000</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-175800</v>
+        <v>-170100</v>
       </c>
       <c r="E96" s="3">
-        <v>-166700</v>
+        <v>-161200</v>
       </c>
       <c r="F96" s="3">
-        <v>-157400</v>
+        <v>-152200</v>
       </c>
       <c r="G96" s="3">
-        <v>-138900</v>
+        <v>-134300</v>
       </c>
       <c r="H96" s="3">
-        <v>-111000</v>
+        <v>-107300</v>
       </c>
       <c r="I96" s="3">
-        <v>-110900</v>
+        <v>-107300</v>
       </c>
       <c r="J96" s="3">
-        <v>-101600</v>
+        <v>-98300</v>
       </c>
       <c r="K96" s="3">
         <v>-85900</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>833700</v>
+        <v>806400</v>
       </c>
       <c r="E100" s="3">
-        <v>154500</v>
+        <v>149500</v>
       </c>
       <c r="F100" s="3">
-        <v>-892600</v>
+        <v>-863300</v>
       </c>
       <c r="G100" s="3">
-        <v>69200</v>
+        <v>66900</v>
       </c>
       <c r="H100" s="3">
-        <v>806900</v>
+        <v>780500</v>
       </c>
       <c r="I100" s="3">
-        <v>-276700</v>
+        <v>-267700</v>
       </c>
       <c r="J100" s="3">
-        <v>214800</v>
+        <v>207800</v>
       </c>
       <c r="K100" s="3">
         <v>-300600</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>350100</v>
+        <v>338700</v>
       </c>
       <c r="E101" s="3">
-        <v>199000</v>
+        <v>192500</v>
       </c>
       <c r="F101" s="3">
-        <v>-110800</v>
+        <v>-107200</v>
       </c>
       <c r="G101" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H101" s="3">
-        <v>-44400</v>
+        <v>-43000</v>
       </c>
       <c r="I101" s="3">
-        <v>-46600</v>
+        <v>-45000</v>
       </c>
       <c r="J101" s="3">
-        <v>-146000</v>
+        <v>-141200</v>
       </c>
       <c r="K101" s="3">
         <v>289700</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>432100</v>
+        <v>418000</v>
       </c>
       <c r="E102" s="3">
-        <v>349400</v>
+        <v>338000</v>
       </c>
       <c r="F102" s="3">
-        <v>319200</v>
+        <v>308700</v>
       </c>
       <c r="G102" s="3">
-        <v>70000</v>
+        <v>67700</v>
       </c>
       <c r="H102" s="3">
-        <v>-372100</v>
+        <v>-359900</v>
       </c>
       <c r="I102" s="3">
-        <v>329300</v>
+        <v>318500</v>
       </c>
       <c r="J102" s="3">
-        <v>149300</v>
+        <v>144400</v>
       </c>
       <c r="K102" s="3">
         <v>121600</v>

--- a/AAII_Financials/Yearly/TTDKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TTDKY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13486100</v>
+        <v>13980600</v>
       </c>
       <c r="E8" s="3">
-        <v>10486200</v>
+        <v>10870700</v>
       </c>
       <c r="F8" s="3">
-        <v>9663900</v>
+        <v>10018300</v>
       </c>
       <c r="G8" s="3">
-        <v>9797000</v>
+        <v>10156300</v>
       </c>
       <c r="H8" s="3">
-        <v>9016700</v>
+        <v>9347300</v>
       </c>
       <c r="I8" s="3">
-        <v>8353800</v>
+        <v>8660200</v>
       </c>
       <c r="J8" s="3">
-        <v>8169500</v>
+        <v>8469100</v>
       </c>
       <c r="K8" s="3">
         <v>9234200</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9488400</v>
+        <v>9836300</v>
       </c>
       <c r="E9" s="3">
-        <v>7461600</v>
+        <v>7735200</v>
       </c>
       <c r="F9" s="3">
-        <v>6804400</v>
+        <v>7053900</v>
       </c>
       <c r="G9" s="3">
-        <v>6985900</v>
+        <v>7242100</v>
       </c>
       <c r="H9" s="3">
-        <v>6583200</v>
+        <v>6824700</v>
       </c>
       <c r="I9" s="3">
-        <v>6068700</v>
+        <v>6291200</v>
       </c>
       <c r="J9" s="3">
-        <v>5892700</v>
+        <v>6108800</v>
       </c>
       <c r="K9" s="3">
         <v>6843000</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3997700</v>
+        <v>4144300</v>
       </c>
       <c r="E10" s="3">
-        <v>3024600</v>
+        <v>3135500</v>
       </c>
       <c r="F10" s="3">
-        <v>2859600</v>
+        <v>2964400</v>
       </c>
       <c r="G10" s="3">
-        <v>2811100</v>
+        <v>2914200</v>
       </c>
       <c r="H10" s="3">
-        <v>2433400</v>
+        <v>2522700</v>
       </c>
       <c r="I10" s="3">
-        <v>2285200</v>
+        <v>2369000</v>
       </c>
       <c r="J10" s="3">
-        <v>2276800</v>
+        <v>2360300</v>
       </c>
       <c r="K10" s="3">
         <v>2391300</v>
@@ -935,13 +935,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-53100</v>
+        <v>-55000</v>
       </c>
       <c r="E14" s="3">
-        <v>10500</v>
+        <v>10900</v>
       </c>
       <c r="F14" s="3">
-        <v>141100</v>
+        <v>146200</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12303600</v>
+        <v>12754800</v>
       </c>
       <c r="E17" s="3">
-        <v>9693400</v>
+        <v>10048900</v>
       </c>
       <c r="F17" s="3">
-        <v>8979300</v>
+        <v>9308600</v>
       </c>
       <c r="G17" s="3">
-        <v>9032500</v>
+        <v>9363800</v>
       </c>
       <c r="H17" s="3">
-        <v>8380800</v>
+        <v>8688100</v>
       </c>
       <c r="I17" s="3">
-        <v>6874400</v>
+        <v>7126500</v>
       </c>
       <c r="J17" s="3">
-        <v>7507200</v>
+        <v>7782500</v>
       </c>
       <c r="K17" s="3">
         <v>8616200</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1182400</v>
+        <v>1225800</v>
       </c>
       <c r="E18" s="3">
-        <v>792800</v>
+        <v>821800</v>
       </c>
       <c r="F18" s="3">
-        <v>684600</v>
+        <v>709800</v>
       </c>
       <c r="G18" s="3">
-        <v>764500</v>
+        <v>792500</v>
       </c>
       <c r="H18" s="3">
-        <v>635900</v>
+        <v>659200</v>
       </c>
       <c r="I18" s="3">
-        <v>1479400</v>
+        <v>1533700</v>
       </c>
       <c r="J18" s="3">
-        <v>662300</v>
+        <v>686600</v>
       </c>
       <c r="K18" s="3">
         <v>618100</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>91000</v>
+        <v>94300</v>
       </c>
       <c r="E20" s="3">
-        <v>104200</v>
+        <v>108100</v>
       </c>
       <c r="F20" s="3">
-        <v>21100</v>
+        <v>21900</v>
       </c>
       <c r="G20" s="3">
-        <v>84300</v>
+        <v>87400</v>
       </c>
       <c r="H20" s="3">
-        <v>32500</v>
+        <v>33700</v>
       </c>
       <c r="I20" s="3">
-        <v>46000</v>
+        <v>47700</v>
       </c>
       <c r="J20" s="3">
-        <v>10900</v>
+        <v>11300</v>
       </c>
       <c r="K20" s="3">
         <v>43100</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2482500</v>
+        <v>2608900</v>
       </c>
       <c r="E21" s="3">
-        <v>1910300</v>
+        <v>2009900</v>
       </c>
       <c r="F21" s="3">
-        <v>1559400</v>
+        <v>1641600</v>
       </c>
       <c r="G21" s="3">
-        <v>1577000</v>
+        <v>1656100</v>
       </c>
       <c r="H21" s="3">
-        <v>1297900</v>
+        <v>1363900</v>
       </c>
       <c r="I21" s="3">
-        <v>2122900</v>
+        <v>2218300</v>
       </c>
       <c r="J21" s="3">
-        <v>1241700</v>
+        <v>1303800</v>
       </c>
       <c r="K21" s="3">
         <v>1353700</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>50400</v>
+        <v>52300</v>
       </c>
       <c r="E22" s="3">
-        <v>65600</v>
+        <v>68000</v>
       </c>
       <c r="F22" s="3">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="G22" s="3">
-        <v>29500</v>
+        <v>30500</v>
       </c>
       <c r="H22" s="3">
-        <v>31600</v>
+        <v>32800</v>
       </c>
       <c r="I22" s="3">
-        <v>24300</v>
+        <v>25200</v>
       </c>
       <c r="J22" s="3">
-        <v>22100</v>
+        <v>22900</v>
       </c>
       <c r="K22" s="3">
         <v>25500</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1223000</v>
+        <v>1267800</v>
       </c>
       <c r="E23" s="3">
-        <v>831400</v>
+        <v>861900</v>
       </c>
       <c r="F23" s="3">
-        <v>679800</v>
+        <v>704700</v>
       </c>
       <c r="G23" s="3">
-        <v>819300</v>
+        <v>849300</v>
       </c>
       <c r="H23" s="3">
-        <v>636800</v>
+        <v>660100</v>
       </c>
       <c r="I23" s="3">
-        <v>1501100</v>
+        <v>1556100</v>
       </c>
       <c r="J23" s="3">
-        <v>651100</v>
+        <v>675000</v>
       </c>
       <c r="K23" s="3">
         <v>635600</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>288400</v>
+        <v>299000</v>
       </c>
       <c r="E24" s="3">
-        <v>302800</v>
+        <v>313900</v>
       </c>
       <c r="F24" s="3">
-        <v>274500</v>
+        <v>284600</v>
       </c>
       <c r="G24" s="3">
-        <v>234000</v>
+        <v>242600</v>
       </c>
       <c r="H24" s="3">
-        <v>183200</v>
+        <v>189900</v>
       </c>
       <c r="I24" s="3">
-        <v>469100</v>
+        <v>486300</v>
       </c>
       <c r="J24" s="3">
-        <v>178800</v>
+        <v>185300</v>
       </c>
       <c r="K24" s="3">
         <v>185400</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>934600</v>
+        <v>968800</v>
       </c>
       <c r="E26" s="3">
-        <v>528600</v>
+        <v>548000</v>
       </c>
       <c r="F26" s="3">
-        <v>405200</v>
+        <v>420100</v>
       </c>
       <c r="G26" s="3">
-        <v>585300</v>
+        <v>606700</v>
       </c>
       <c r="H26" s="3">
-        <v>453600</v>
+        <v>470200</v>
       </c>
       <c r="I26" s="3">
-        <v>1032000</v>
+        <v>1069900</v>
       </c>
       <c r="J26" s="3">
-        <v>472400</v>
+        <v>489700</v>
       </c>
       <c r="K26" s="3">
         <v>450200</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>930900</v>
+        <v>965000</v>
       </c>
       <c r="E27" s="3">
-        <v>530400</v>
+        <v>549900</v>
       </c>
       <c r="F27" s="3">
-        <v>409700</v>
+        <v>424700</v>
       </c>
       <c r="G27" s="3">
-        <v>582800</v>
+        <v>604200</v>
       </c>
       <c r="H27" s="3">
-        <v>450000</v>
+        <v>466500</v>
       </c>
       <c r="I27" s="3">
-        <v>1028800</v>
+        <v>1066500</v>
       </c>
       <c r="J27" s="3">
-        <v>459600</v>
+        <v>476500</v>
       </c>
       <c r="K27" s="3">
         <v>421700</v>
@@ -1485,7 +1485,7 @@
         <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>-24900</v>
+        <v>-25800</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-91000</v>
+        <v>-94300</v>
       </c>
       <c r="E32" s="3">
-        <v>-104200</v>
+        <v>-108100</v>
       </c>
       <c r="F32" s="3">
-        <v>-21100</v>
+        <v>-21900</v>
       </c>
       <c r="G32" s="3">
-        <v>-84300</v>
+        <v>-87400</v>
       </c>
       <c r="H32" s="3">
-        <v>-32500</v>
+        <v>-33700</v>
       </c>
       <c r="I32" s="3">
-        <v>-46000</v>
+        <v>-47700</v>
       </c>
       <c r="J32" s="3">
-        <v>-10900</v>
+        <v>-11300</v>
       </c>
       <c r="K32" s="3">
         <v>-43100</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>930900</v>
+        <v>965000</v>
       </c>
       <c r="E33" s="3">
-        <v>530400</v>
+        <v>549900</v>
       </c>
       <c r="F33" s="3">
-        <v>409700</v>
+        <v>424700</v>
       </c>
       <c r="G33" s="3">
-        <v>582800</v>
+        <v>604200</v>
       </c>
       <c r="H33" s="3">
-        <v>425000</v>
+        <v>440600</v>
       </c>
       <c r="I33" s="3">
-        <v>1028800</v>
+        <v>1066500</v>
       </c>
       <c r="J33" s="3">
-        <v>459600</v>
+        <v>476500</v>
       </c>
       <c r="K33" s="3">
         <v>421700</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>930900</v>
+        <v>965000</v>
       </c>
       <c r="E35" s="3">
-        <v>530400</v>
+        <v>549900</v>
       </c>
       <c r="F35" s="3">
-        <v>409700</v>
+        <v>424700</v>
       </c>
       <c r="G35" s="3">
-        <v>582800</v>
+        <v>604200</v>
       </c>
       <c r="H35" s="3">
-        <v>425000</v>
+        <v>440600</v>
       </c>
       <c r="I35" s="3">
-        <v>1028800</v>
+        <v>1066500</v>
       </c>
       <c r="J35" s="3">
-        <v>459600</v>
+        <v>476500</v>
       </c>
       <c r="K35" s="3">
         <v>421700</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3114900</v>
+        <v>3229100</v>
       </c>
       <c r="E41" s="3">
-        <v>2696900</v>
+        <v>2795800</v>
       </c>
       <c r="F41" s="3">
-        <v>2359000</v>
+        <v>2445500</v>
       </c>
       <c r="G41" s="3">
-        <v>2050300</v>
+        <v>2125400</v>
       </c>
       <c r="H41" s="3">
-        <v>1982500</v>
+        <v>2055200</v>
       </c>
       <c r="I41" s="3">
-        <v>2342500</v>
+        <v>2428400</v>
       </c>
       <c r="J41" s="3">
-        <v>2024000</v>
+        <v>2098200</v>
       </c>
       <c r="K41" s="3">
         <v>2261300</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>474600</v>
+        <v>492000</v>
       </c>
       <c r="E42" s="3">
-        <v>1002800</v>
+        <v>1039500</v>
       </c>
       <c r="F42" s="3">
-        <v>230800</v>
+        <v>239200</v>
       </c>
       <c r="G42" s="3">
-        <v>287600</v>
+        <v>298100</v>
       </c>
       <c r="H42" s="3">
-        <v>309600</v>
+        <v>321000</v>
       </c>
       <c r="I42" s="3">
-        <v>398000</v>
+        <v>412600</v>
       </c>
       <c r="J42" s="3">
-        <v>155700</v>
+        <v>161400</v>
       </c>
       <c r="K42" s="3">
         <v>182500</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3937500</v>
+        <v>4081900</v>
       </c>
       <c r="E43" s="3">
-        <v>6364400</v>
+        <v>6597700</v>
       </c>
       <c r="F43" s="3">
-        <v>2264100</v>
+        <v>2347200</v>
       </c>
       <c r="G43" s="3">
-        <v>2232800</v>
+        <v>2314700</v>
       </c>
       <c r="H43" s="3">
-        <v>2198500</v>
+        <v>2279100</v>
       </c>
       <c r="I43" s="3">
-        <v>1850900</v>
+        <v>1918800</v>
       </c>
       <c r="J43" s="3">
-        <v>1636900</v>
+        <v>1697000</v>
       </c>
       <c r="K43" s="3">
         <v>2071600</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3098400</v>
+        <v>3212000</v>
       </c>
       <c r="E44" s="3">
-        <v>4092300</v>
+        <v>4242400</v>
       </c>
       <c r="F44" s="3">
-        <v>1676500</v>
+        <v>1737900</v>
       </c>
       <c r="G44" s="3">
-        <v>1608700</v>
+        <v>1667700</v>
       </c>
       <c r="H44" s="3">
-        <v>1471400</v>
+        <v>1525400</v>
       </c>
       <c r="I44" s="3">
-        <v>1095400</v>
+        <v>1135600</v>
       </c>
       <c r="J44" s="3">
-        <v>1114000</v>
+        <v>1154900</v>
       </c>
       <c r="K44" s="3">
         <v>1288100</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>244700</v>
+        <v>253700</v>
       </c>
       <c r="E45" s="3">
-        <v>618200</v>
+        <v>640900</v>
       </c>
       <c r="F45" s="3">
-        <v>322000</v>
+        <v>333800</v>
       </c>
       <c r="G45" s="3">
-        <v>361100</v>
+        <v>374300</v>
       </c>
       <c r="H45" s="3">
-        <v>418500</v>
+        <v>433900</v>
       </c>
       <c r="I45" s="3">
-        <v>454200</v>
+        <v>470800</v>
       </c>
       <c r="J45" s="3">
-        <v>323000</v>
+        <v>334800</v>
       </c>
       <c r="K45" s="3">
         <v>510800</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10870200</v>
+        <v>11268800</v>
       </c>
       <c r="E46" s="3">
-        <v>8726900</v>
+        <v>9046900</v>
       </c>
       <c r="F46" s="3">
-        <v>6852400</v>
+        <v>7103600</v>
       </c>
       <c r="G46" s="3">
-        <v>6540400</v>
+        <v>6780300</v>
       </c>
       <c r="H46" s="3">
-        <v>6380500</v>
+        <v>6614500</v>
       </c>
       <c r="I46" s="3">
-        <v>6140900</v>
+        <v>6366100</v>
       </c>
       <c r="J46" s="3">
-        <v>5253600</v>
+        <v>5446300</v>
       </c>
       <c r="K46" s="3">
         <v>6314300</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>994100</v>
+        <v>1030600</v>
       </c>
       <c r="E47" s="3">
-        <v>725400</v>
+        <v>752000</v>
       </c>
       <c r="F47" s="3">
-        <v>235600</v>
+        <v>244200</v>
       </c>
       <c r="G47" s="3">
-        <v>1101100</v>
+        <v>1141500</v>
       </c>
       <c r="H47" s="3">
-        <v>1100700</v>
+        <v>1141000</v>
       </c>
       <c r="I47" s="3">
-        <v>1147300</v>
+        <v>1189400</v>
       </c>
       <c r="J47" s="3">
-        <v>250500</v>
+        <v>259700</v>
       </c>
       <c r="K47" s="3">
         <v>390100</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7056000</v>
+        <v>7314800</v>
       </c>
       <c r="E48" s="3">
-        <v>11690500</v>
+        <v>12119200</v>
       </c>
       <c r="F48" s="3">
-        <v>4611100</v>
+        <v>4780200</v>
       </c>
       <c r="G48" s="3">
-        <v>4276000</v>
+        <v>4432900</v>
       </c>
       <c r="H48" s="3">
-        <v>3868600</v>
+        <v>4010500</v>
       </c>
       <c r="I48" s="3">
-        <v>3294500</v>
+        <v>3415300</v>
       </c>
       <c r="J48" s="3">
-        <v>3457400</v>
+        <v>3584100</v>
       </c>
       <c r="K48" s="3">
         <v>3644500</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1463200</v>
+        <v>1516900</v>
       </c>
       <c r="E49" s="3">
-        <v>3101200</v>
+        <v>3214900</v>
       </c>
       <c r="F49" s="3">
-        <v>1706500</v>
+        <v>1769100</v>
       </c>
       <c r="G49" s="3">
-        <v>1797200</v>
+        <v>1863100</v>
       </c>
       <c r="H49" s="3">
-        <v>1725600</v>
+        <v>1788900</v>
       </c>
       <c r="I49" s="3">
-        <v>800100</v>
+        <v>829500</v>
       </c>
       <c r="J49" s="3">
-        <v>842500</v>
+        <v>873400</v>
       </c>
       <c r="K49" s="3">
         <v>946900</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1181700</v>
+        <v>1225000</v>
       </c>
       <c r="E52" s="3">
-        <v>476600</v>
+        <v>494100</v>
       </c>
       <c r="F52" s="3">
-        <v>373000</v>
+        <v>386700</v>
       </c>
       <c r="G52" s="3">
-        <v>411900</v>
+        <v>427000</v>
       </c>
       <c r="H52" s="3">
-        <v>432500</v>
+        <v>448400</v>
       </c>
       <c r="I52" s="3">
-        <v>417300</v>
+        <v>432600</v>
       </c>
       <c r="J52" s="3">
-        <v>480600</v>
+        <v>498200</v>
       </c>
       <c r="K52" s="3">
         <v>682800</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>21565300</v>
+        <v>22356100</v>
       </c>
       <c r="E54" s="3">
-        <v>16730000</v>
+        <v>17343500</v>
       </c>
       <c r="F54" s="3">
-        <v>13778600</v>
+        <v>14283800</v>
       </c>
       <c r="G54" s="3">
-        <v>14126700</v>
+        <v>14644700</v>
       </c>
       <c r="H54" s="3">
-        <v>13507900</v>
+        <v>14003300</v>
       </c>
       <c r="I54" s="3">
-        <v>11800100</v>
+        <v>12232800</v>
       </c>
       <c r="J54" s="3">
-        <v>10284600</v>
+        <v>10661800</v>
       </c>
       <c r="K54" s="3">
         <v>11978500</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3262300</v>
+        <v>3382000</v>
       </c>
       <c r="E57" s="3">
-        <v>4599600</v>
+        <v>4768300</v>
       </c>
       <c r="F57" s="3">
-        <v>1430900</v>
+        <v>1483400</v>
       </c>
       <c r="G57" s="3">
-        <v>1346300</v>
+        <v>1395700</v>
       </c>
       <c r="H57" s="3">
-        <v>1607900</v>
+        <v>1666900</v>
       </c>
       <c r="I57" s="3">
-        <v>1252400</v>
+        <v>1298300</v>
       </c>
       <c r="J57" s="3">
-        <v>798800</v>
+        <v>828100</v>
       </c>
       <c r="K57" s="3">
         <v>951900</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1314200</v>
+        <v>1362400</v>
       </c>
       <c r="E58" s="3">
-        <v>4712700</v>
+        <v>4885600</v>
       </c>
       <c r="F58" s="3">
-        <v>2018000</v>
+        <v>2092000</v>
       </c>
       <c r="G58" s="3">
-        <v>2216200</v>
+        <v>2297500</v>
       </c>
       <c r="H58" s="3">
-        <v>1341000</v>
+        <v>1390200</v>
       </c>
       <c r="I58" s="3">
-        <v>852200</v>
+        <v>883400</v>
       </c>
       <c r="J58" s="3">
-        <v>1381900</v>
+        <v>1432600</v>
       </c>
       <c r="K58" s="3">
         <v>1167300</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2955600</v>
+        <v>3064000</v>
       </c>
       <c r="E59" s="3">
-        <v>5149800</v>
+        <v>5338700</v>
       </c>
       <c r="F59" s="3">
-        <v>1648100</v>
+        <v>1708500</v>
       </c>
       <c r="G59" s="3">
-        <v>1502000</v>
+        <v>1557000</v>
       </c>
       <c r="H59" s="3">
-        <v>1326600</v>
+        <v>1375200</v>
       </c>
       <c r="I59" s="3">
-        <v>1281500</v>
+        <v>1328500</v>
       </c>
       <c r="J59" s="3">
-        <v>1018500</v>
+        <v>1055900</v>
       </c>
       <c r="K59" s="3">
         <v>1189400</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7532100</v>
+        <v>7808300</v>
       </c>
       <c r="E60" s="3">
-        <v>7290800</v>
+        <v>7558200</v>
       </c>
       <c r="F60" s="3">
-        <v>5097000</v>
+        <v>5284000</v>
       </c>
       <c r="G60" s="3">
-        <v>5064500</v>
+        <v>5250300</v>
       </c>
       <c r="H60" s="3">
-        <v>4275500</v>
+        <v>4432300</v>
       </c>
       <c r="I60" s="3">
-        <v>3386100</v>
+        <v>3510300</v>
       </c>
       <c r="J60" s="3">
-        <v>3199200</v>
+        <v>3316600</v>
       </c>
       <c r="K60" s="3">
         <v>3308600</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3505700</v>
+        <v>3634300</v>
       </c>
       <c r="E61" s="3">
-        <v>1313000</v>
+        <v>1361100</v>
       </c>
       <c r="F61" s="3">
-        <v>993000</v>
+        <v>1029400</v>
       </c>
       <c r="G61" s="3">
-        <v>1472500</v>
+        <v>1526500</v>
       </c>
       <c r="H61" s="3">
-        <v>2083600</v>
+        <v>2160000</v>
       </c>
       <c r="I61" s="3">
-        <v>1516800</v>
+        <v>1572400</v>
       </c>
       <c r="J61" s="3">
-        <v>998600</v>
+        <v>1035200</v>
       </c>
       <c r="K61" s="3">
         <v>1121500</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1283900</v>
+        <v>1331000</v>
       </c>
       <c r="E62" s="3">
-        <v>2347100</v>
+        <v>2433200</v>
       </c>
       <c r="F62" s="3">
-        <v>1672200</v>
+        <v>1733500</v>
       </c>
       <c r="G62" s="3">
-        <v>1323900</v>
+        <v>1372400</v>
       </c>
       <c r="H62" s="3">
-        <v>1255400</v>
+        <v>1301400</v>
       </c>
       <c r="I62" s="3">
-        <v>1210200</v>
+        <v>1254500</v>
       </c>
       <c r="J62" s="3">
-        <v>1232700</v>
+        <v>1278000</v>
       </c>
       <c r="K62" s="3">
         <v>1082600</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12346100</v>
+        <v>12798800</v>
       </c>
       <c r="E66" s="3">
-        <v>9931200</v>
+        <v>10295400</v>
       </c>
       <c r="F66" s="3">
-        <v>7794900</v>
+        <v>8080800</v>
       </c>
       <c r="G66" s="3">
-        <v>7906700</v>
+        <v>8196600</v>
       </c>
       <c r="H66" s="3">
-        <v>7661300</v>
+        <v>7942200</v>
       </c>
       <c r="I66" s="3">
-        <v>6173400</v>
+        <v>6399800</v>
       </c>
       <c r="J66" s="3">
-        <v>5496300</v>
+        <v>5697900</v>
       </c>
       <c r="K66" s="3">
         <v>5676000</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6911100</v>
+        <v>7164500</v>
       </c>
       <c r="E72" s="3">
-        <v>13312500</v>
+        <v>13800600</v>
       </c>
       <c r="F72" s="3">
-        <v>7206200</v>
+        <v>7470500</v>
       </c>
       <c r="G72" s="3">
-        <v>6948800</v>
+        <v>7203600</v>
       </c>
       <c r="H72" s="3">
-        <v>6522300</v>
+        <v>6761500</v>
       </c>
       <c r="I72" s="3">
-        <v>6179700</v>
+        <v>6406300</v>
       </c>
       <c r="J72" s="3">
-        <v>5258900</v>
+        <v>5451700</v>
       </c>
       <c r="K72" s="3">
         <v>5892900</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9219200</v>
+        <v>9557300</v>
       </c>
       <c r="E76" s="3">
-        <v>6798800</v>
+        <v>7048100</v>
       </c>
       <c r="F76" s="3">
-        <v>5983700</v>
+        <v>6203100</v>
       </c>
       <c r="G76" s="3">
-        <v>6220000</v>
+        <v>6448100</v>
       </c>
       <c r="H76" s="3">
-        <v>5846700</v>
+        <v>6061100</v>
       </c>
       <c r="I76" s="3">
-        <v>5626700</v>
+        <v>5833100</v>
       </c>
       <c r="J76" s="3">
-        <v>4788300</v>
+        <v>4963900</v>
       </c>
       <c r="K76" s="3">
         <v>6302500</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>930900</v>
+        <v>965000</v>
       </c>
       <c r="E81" s="3">
-        <v>530400</v>
+        <v>549900</v>
       </c>
       <c r="F81" s="3">
-        <v>409700</v>
+        <v>424700</v>
       </c>
       <c r="G81" s="3">
-        <v>582800</v>
+        <v>604200</v>
       </c>
       <c r="H81" s="3">
-        <v>425000</v>
+        <v>440600</v>
       </c>
       <c r="I81" s="3">
-        <v>1028800</v>
+        <v>1066500</v>
       </c>
       <c r="J81" s="3">
-        <v>459600</v>
+        <v>476500</v>
       </c>
       <c r="K81" s="3">
         <v>421700</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1255100</v>
+        <v>1301200</v>
       </c>
       <c r="E83" s="3">
-        <v>1051800</v>
+        <v>1090400</v>
       </c>
       <c r="F83" s="3">
-        <v>886100</v>
+        <v>918600</v>
       </c>
       <c r="G83" s="3">
-        <v>756000</v>
+        <v>783700</v>
       </c>
       <c r="H83" s="3">
-        <v>653500</v>
+        <v>677500</v>
       </c>
       <c r="I83" s="3">
-        <v>620300</v>
+        <v>643100</v>
       </c>
       <c r="J83" s="3">
-        <v>590100</v>
+        <v>611700</v>
       </c>
       <c r="K83" s="3">
         <v>684500</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1269000</v>
+        <v>1315600</v>
       </c>
       <c r="E89" s="3">
-        <v>1636800</v>
+        <v>1696800</v>
       </c>
       <c r="F89" s="3">
-        <v>1576700</v>
+        <v>1634600</v>
       </c>
       <c r="G89" s="3">
-        <v>994500</v>
+        <v>1031000</v>
       </c>
       <c r="H89" s="3">
-        <v>647400</v>
+        <v>671100</v>
       </c>
       <c r="I89" s="3">
-        <v>1135400</v>
+        <v>1177000</v>
       </c>
       <c r="J89" s="3">
-        <v>1074600</v>
+        <v>1114000</v>
       </c>
       <c r="K89" s="3">
         <v>1218500</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2065600</v>
+        <v>-2141300</v>
       </c>
       <c r="E91" s="3">
-        <v>-1504500</v>
+        <v>-1559600</v>
       </c>
       <c r="F91" s="3">
-        <v>-1229600</v>
+        <v>-1274700</v>
       </c>
       <c r="G91" s="3">
-        <v>-1230800</v>
+        <v>-1275900</v>
       </c>
       <c r="H91" s="3">
-        <v>-1266400</v>
+        <v>-1312800</v>
       </c>
       <c r="I91" s="3">
-        <v>-1188500</v>
+        <v>-1232100</v>
       </c>
       <c r="J91" s="3">
-        <v>-1139200</v>
+        <v>-1181000</v>
       </c>
       <c r="K91" s="3">
         <v>-874500</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1996200</v>
+        <v>-2069400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1640800</v>
+        <v>-1700900</v>
       </c>
       <c r="F94" s="3">
-        <v>-297500</v>
+        <v>-308400</v>
       </c>
       <c r="G94" s="3">
-        <v>-993900</v>
+        <v>-1030300</v>
       </c>
       <c r="H94" s="3">
-        <v>-1744800</v>
+        <v>-1808800</v>
       </c>
       <c r="I94" s="3">
-        <v>-504200</v>
+        <v>-522700</v>
       </c>
       <c r="J94" s="3">
-        <v>-996700</v>
+        <v>-1033300</v>
       </c>
       <c r="K94" s="3">
         <v>-1086000</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-170100</v>
+        <v>-176300</v>
       </c>
       <c r="E96" s="3">
-        <v>-161200</v>
+        <v>-167100</v>
       </c>
       <c r="F96" s="3">
-        <v>-152200</v>
+        <v>-157800</v>
       </c>
       <c r="G96" s="3">
-        <v>-134300</v>
+        <v>-139300</v>
       </c>
       <c r="H96" s="3">
-        <v>-107300</v>
+        <v>-111300</v>
       </c>
       <c r="I96" s="3">
-        <v>-107300</v>
+        <v>-111200</v>
       </c>
       <c r="J96" s="3">
-        <v>-98300</v>
+        <v>-101900</v>
       </c>
       <c r="K96" s="3">
         <v>-85900</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>806400</v>
+        <v>836000</v>
       </c>
       <c r="E100" s="3">
-        <v>149500</v>
+        <v>155000</v>
       </c>
       <c r="F100" s="3">
-        <v>-863300</v>
+        <v>-895000</v>
       </c>
       <c r="G100" s="3">
-        <v>66900</v>
+        <v>69300</v>
       </c>
       <c r="H100" s="3">
-        <v>780500</v>
+        <v>809100</v>
       </c>
       <c r="I100" s="3">
-        <v>-267700</v>
+        <v>-277500</v>
       </c>
       <c r="J100" s="3">
-        <v>207800</v>
+        <v>215400</v>
       </c>
       <c r="K100" s="3">
         <v>-300600</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>338700</v>
+        <v>351100</v>
       </c>
       <c r="E101" s="3">
-        <v>192500</v>
+        <v>199600</v>
       </c>
       <c r="F101" s="3">
-        <v>-107200</v>
+        <v>-111100</v>
       </c>
       <c r="G101" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H101" s="3">
-        <v>-43000</v>
+        <v>-44600</v>
       </c>
       <c r="I101" s="3">
-        <v>-45000</v>
+        <v>-46700</v>
       </c>
       <c r="J101" s="3">
-        <v>-141200</v>
+        <v>-146400</v>
       </c>
       <c r="K101" s="3">
         <v>289700</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>418000</v>
+        <v>433300</v>
       </c>
       <c r="E102" s="3">
-        <v>338000</v>
+        <v>350400</v>
       </c>
       <c r="F102" s="3">
-        <v>308700</v>
+        <v>320000</v>
       </c>
       <c r="G102" s="3">
-        <v>67700</v>
+        <v>70200</v>
       </c>
       <c r="H102" s="3">
-        <v>-359900</v>
+        <v>-373100</v>
       </c>
       <c r="I102" s="3">
-        <v>318500</v>
+        <v>330200</v>
       </c>
       <c r="J102" s="3">
-        <v>144400</v>
+        <v>149700</v>
       </c>
       <c r="K102" s="3">
         <v>121600</v>

--- a/AAII_Financials/Yearly/TTDKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TTDKY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>TTDKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43190</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42460</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42094</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41729</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41364</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40999</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13980600</v>
+        <v>15723700</v>
       </c>
       <c r="E8" s="3">
-        <v>10870700</v>
+        <v>13714300</v>
       </c>
       <c r="F8" s="3">
-        <v>10018300</v>
+        <v>10663600</v>
       </c>
       <c r="G8" s="3">
-        <v>10156300</v>
+        <v>9827500</v>
       </c>
       <c r="H8" s="3">
-        <v>9347300</v>
+        <v>9962800</v>
       </c>
       <c r="I8" s="3">
-        <v>8660200</v>
+        <v>9169300</v>
       </c>
       <c r="J8" s="3">
+        <v>8495200</v>
+      </c>
+      <c r="K8" s="3">
         <v>8469100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9234200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9018200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7740800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7363100</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9836300</v>
+        <v>11509300</v>
       </c>
       <c r="E9" s="3">
-        <v>7735200</v>
+        <v>9649000</v>
       </c>
       <c r="F9" s="3">
-        <v>7053900</v>
+        <v>7587900</v>
       </c>
       <c r="G9" s="3">
-        <v>7242100</v>
+        <v>6919500</v>
       </c>
       <c r="H9" s="3">
-        <v>6824700</v>
+        <v>7104200</v>
       </c>
       <c r="I9" s="3">
-        <v>6291200</v>
+        <v>6694700</v>
       </c>
       <c r="J9" s="3">
+        <v>6171400</v>
+      </c>
+      <c r="K9" s="3">
         <v>6108800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6843000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6994300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6145600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5733700</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4144300</v>
+        <v>4214400</v>
       </c>
       <c r="E10" s="3">
-        <v>3135500</v>
+        <v>4065300</v>
       </c>
       <c r="F10" s="3">
-        <v>2964400</v>
+        <v>3075800</v>
       </c>
       <c r="G10" s="3">
-        <v>2914200</v>
+        <v>2908000</v>
       </c>
       <c r="H10" s="3">
-        <v>2522700</v>
+        <v>2858700</v>
       </c>
       <c r="I10" s="3">
-        <v>2369000</v>
+        <v>2474600</v>
       </c>
       <c r="J10" s="3">
+        <v>2323800</v>
+      </c>
+      <c r="K10" s="3">
         <v>2360300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2391300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2023900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1595300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1629400</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,23 +944,26 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>-55000</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>10900</v>
+        <v>-54000</v>
       </c>
       <c r="F14" s="3">
-        <v>146200</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+        <v>10700</v>
+      </c>
+      <c r="G14" s="3">
+        <v>143500</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -961,15 +980,18 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-60900</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,9 +1028,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12754800</v>
+        <v>14506400</v>
       </c>
       <c r="E17" s="3">
-        <v>10048900</v>
+        <v>12511900</v>
       </c>
       <c r="F17" s="3">
-        <v>9308600</v>
+        <v>9857500</v>
       </c>
       <c r="G17" s="3">
-        <v>9363800</v>
+        <v>9131300</v>
       </c>
       <c r="H17" s="3">
-        <v>8688100</v>
+        <v>9185400</v>
       </c>
       <c r="I17" s="3">
-        <v>7126500</v>
+        <v>8522600</v>
       </c>
       <c r="J17" s="3">
+        <v>6990800</v>
+      </c>
+      <c r="K17" s="3">
         <v>7782500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8616200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8682800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7544000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7194100</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1225800</v>
+        <v>1217200</v>
       </c>
       <c r="E18" s="3">
-        <v>821800</v>
+        <v>1202400</v>
       </c>
       <c r="F18" s="3">
-        <v>709800</v>
+        <v>806200</v>
       </c>
       <c r="G18" s="3">
-        <v>792500</v>
+        <v>696200</v>
       </c>
       <c r="H18" s="3">
-        <v>659200</v>
+        <v>777400</v>
       </c>
       <c r="I18" s="3">
-        <v>1533700</v>
+        <v>646700</v>
       </c>
       <c r="J18" s="3">
+        <v>1504400</v>
+      </c>
+      <c r="K18" s="3">
         <v>686600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>618100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>335400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>196800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>168900</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,203 +1148,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>94300</v>
+        <v>-11600</v>
       </c>
       <c r="E20" s="3">
-        <v>108100</v>
+        <v>92500</v>
       </c>
       <c r="F20" s="3">
-        <v>21900</v>
+        <v>106000</v>
       </c>
       <c r="G20" s="3">
-        <v>87400</v>
+        <v>21500</v>
       </c>
       <c r="H20" s="3">
-        <v>33700</v>
+        <v>85700</v>
       </c>
       <c r="I20" s="3">
-        <v>47700</v>
+        <v>33000</v>
       </c>
       <c r="J20" s="3">
+        <v>46800</v>
+      </c>
+      <c r="K20" s="3">
         <v>11300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>43100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>60600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-31300</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2608900</v>
+        <v>2703300</v>
       </c>
       <c r="E21" s="3">
-        <v>2009900</v>
+        <v>2580200</v>
       </c>
       <c r="F21" s="3">
-        <v>1641600</v>
+        <v>1989300</v>
       </c>
       <c r="G21" s="3">
-        <v>1656100</v>
+        <v>1625100</v>
       </c>
       <c r="H21" s="3">
-        <v>1363900</v>
+        <v>1637200</v>
       </c>
       <c r="I21" s="3">
-        <v>2218300</v>
+        <v>1348900</v>
       </c>
       <c r="J21" s="3">
+        <v>2186400</v>
+      </c>
+      <c r="K21" s="3">
         <v>1303800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1353700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1160600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>907300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>863400</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>52300</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>68000</v>
+        <v>51300</v>
       </c>
       <c r="F22" s="3">
-        <v>27000</v>
+        <v>66700</v>
       </c>
       <c r="G22" s="3">
-        <v>30500</v>
+        <v>26500</v>
       </c>
       <c r="H22" s="3">
-        <v>32800</v>
+        <v>30000</v>
       </c>
       <c r="I22" s="3">
-        <v>25200</v>
+        <v>32200</v>
       </c>
       <c r="J22" s="3">
+        <v>24700</v>
+      </c>
+      <c r="K22" s="3">
         <v>22900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>25500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>31700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>25800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>26900</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1267800</v>
+        <v>1205600</v>
       </c>
       <c r="E23" s="3">
-        <v>861900</v>
+        <v>1243700</v>
       </c>
       <c r="F23" s="3">
-        <v>704700</v>
+        <v>845500</v>
       </c>
       <c r="G23" s="3">
-        <v>849300</v>
+        <v>691300</v>
       </c>
       <c r="H23" s="3">
-        <v>660100</v>
+        <v>833100</v>
       </c>
       <c r="I23" s="3">
-        <v>1556100</v>
+        <v>647500</v>
       </c>
       <c r="J23" s="3">
+        <v>1526500</v>
+      </c>
+      <c r="K23" s="3">
         <v>675000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>635600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>364300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>171400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>110700</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>299000</v>
+        <v>381500</v>
       </c>
       <c r="E24" s="3">
-        <v>313900</v>
+        <v>293300</v>
       </c>
       <c r="F24" s="3">
-        <v>284600</v>
+        <v>307900</v>
       </c>
       <c r="G24" s="3">
-        <v>242600</v>
+        <v>279200</v>
       </c>
       <c r="H24" s="3">
-        <v>189900</v>
+        <v>238000</v>
       </c>
       <c r="I24" s="3">
-        <v>486300</v>
+        <v>186300</v>
       </c>
       <c r="J24" s="3">
+        <v>477000</v>
+      </c>
+      <c r="K24" s="3">
         <v>185300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>185400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>164300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>130200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>103800</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>968800</v>
+        <v>824100</v>
       </c>
       <c r="E26" s="3">
-        <v>548000</v>
+        <v>950400</v>
       </c>
       <c r="F26" s="3">
-        <v>420100</v>
+        <v>537600</v>
       </c>
       <c r="G26" s="3">
-        <v>606700</v>
+        <v>412100</v>
       </c>
       <c r="H26" s="3">
-        <v>470200</v>
+        <v>595200</v>
       </c>
       <c r="I26" s="3">
-        <v>1069900</v>
+        <v>461300</v>
       </c>
       <c r="J26" s="3">
+        <v>1049500</v>
+      </c>
+      <c r="K26" s="3">
         <v>489700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>450200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>200000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>41200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>6900</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>965000</v>
+        <v>823300</v>
       </c>
       <c r="E27" s="3">
-        <v>549900</v>
+        <v>946700</v>
       </c>
       <c r="F27" s="3">
-        <v>424700</v>
+        <v>539400</v>
       </c>
       <c r="G27" s="3">
-        <v>604200</v>
+        <v>416600</v>
       </c>
       <c r="H27" s="3">
-        <v>466500</v>
+        <v>592700</v>
       </c>
       <c r="I27" s="3">
-        <v>1066500</v>
+        <v>457600</v>
       </c>
       <c r="J27" s="3">
+        <v>1046200</v>
+      </c>
+      <c r="K27" s="3">
         <v>476500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>421700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>182200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>10900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5800</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1484,11 +1544,11 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>-25800</v>
-      </c>
-      <c r="I29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-25300</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1496,18 +1556,21 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>-33000</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-16400</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-94300</v>
+        <v>11600</v>
       </c>
       <c r="E32" s="3">
-        <v>-108100</v>
+        <v>-92500</v>
       </c>
       <c r="F32" s="3">
-        <v>-21900</v>
+        <v>-106000</v>
       </c>
       <c r="G32" s="3">
-        <v>-87400</v>
+        <v>-21500</v>
       </c>
       <c r="H32" s="3">
-        <v>-33700</v>
+        <v>-85700</v>
       </c>
       <c r="I32" s="3">
-        <v>-47700</v>
+        <v>-33000</v>
       </c>
       <c r="J32" s="3">
+        <v>-46800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-11300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-43100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-60600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>31300</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>965000</v>
+        <v>823300</v>
       </c>
       <c r="E33" s="3">
-        <v>549900</v>
+        <v>946700</v>
       </c>
       <c r="F33" s="3">
-        <v>424700</v>
+        <v>539400</v>
       </c>
       <c r="G33" s="3">
-        <v>604200</v>
+        <v>416600</v>
       </c>
       <c r="H33" s="3">
-        <v>440600</v>
+        <v>592700</v>
       </c>
       <c r="I33" s="3">
-        <v>1066500</v>
+        <v>432200</v>
       </c>
       <c r="J33" s="3">
+        <v>1046200</v>
+      </c>
+      <c r="K33" s="3">
         <v>476500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>421700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>149200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>10900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-22200</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>965000</v>
+        <v>823300</v>
       </c>
       <c r="E35" s="3">
-        <v>549900</v>
+        <v>946700</v>
       </c>
       <c r="F35" s="3">
-        <v>424700</v>
+        <v>539400</v>
       </c>
       <c r="G35" s="3">
-        <v>604200</v>
+        <v>416600</v>
       </c>
       <c r="H35" s="3">
-        <v>440600</v>
+        <v>592700</v>
       </c>
       <c r="I35" s="3">
-        <v>1066500</v>
+        <v>432200</v>
       </c>
       <c r="J35" s="3">
+        <v>1046200</v>
+      </c>
+      <c r="K35" s="3">
         <v>476500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>421700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>149200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>10900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-22200</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43190</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42460</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42094</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41729</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41364</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40999</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,359 +1903,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3229100</v>
+        <v>3649600</v>
       </c>
       <c r="E41" s="3">
-        <v>2795800</v>
+        <v>3167600</v>
       </c>
       <c r="F41" s="3">
-        <v>2445500</v>
+        <v>2742600</v>
       </c>
       <c r="G41" s="3">
-        <v>2125400</v>
+        <v>2398900</v>
       </c>
       <c r="H41" s="3">
-        <v>2055200</v>
+        <v>2085000</v>
       </c>
       <c r="I41" s="3">
-        <v>2428400</v>
+        <v>2016100</v>
       </c>
       <c r="J41" s="3">
+        <v>2382100</v>
+      </c>
+      <c r="K41" s="3">
         <v>2098200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2261300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2297800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1942400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1509800</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>492000</v>
+        <v>376000</v>
       </c>
       <c r="E42" s="3">
-        <v>1039500</v>
+        <v>482700</v>
       </c>
       <c r="F42" s="3">
-        <v>239200</v>
+        <v>1019700</v>
       </c>
       <c r="G42" s="3">
-        <v>298100</v>
+        <v>234700</v>
       </c>
       <c r="H42" s="3">
-        <v>321000</v>
+        <v>292500</v>
       </c>
       <c r="I42" s="3">
-        <v>412600</v>
+        <v>314800</v>
       </c>
       <c r="J42" s="3">
+        <v>404700</v>
+      </c>
+      <c r="K42" s="3">
         <v>161400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>182500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>79600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>97500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>65000</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4081900</v>
+        <v>3970400</v>
       </c>
       <c r="E43" s="3">
-        <v>6597700</v>
+        <v>4004200</v>
       </c>
       <c r="F43" s="3">
-        <v>2347200</v>
+        <v>6472100</v>
       </c>
       <c r="G43" s="3">
-        <v>2314700</v>
+        <v>2302500</v>
       </c>
       <c r="H43" s="3">
-        <v>2279100</v>
+        <v>2270600</v>
       </c>
       <c r="I43" s="3">
-        <v>1918800</v>
+        <v>2235700</v>
       </c>
       <c r="J43" s="3">
+        <v>1882300</v>
+      </c>
+      <c r="K43" s="3">
         <v>1697000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2071600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1939900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1773000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1655000</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3212000</v>
+        <v>3194000</v>
       </c>
       <c r="E44" s="3">
-        <v>4242400</v>
+        <v>3150800</v>
       </c>
       <c r="F44" s="3">
-        <v>1737900</v>
+        <v>4161600</v>
       </c>
       <c r="G44" s="3">
-        <v>1667700</v>
+        <v>1704800</v>
       </c>
       <c r="H44" s="3">
-        <v>1525400</v>
+        <v>1635900</v>
       </c>
       <c r="I44" s="3">
-        <v>1135600</v>
+        <v>1496300</v>
       </c>
       <c r="J44" s="3">
+        <v>1113900</v>
+      </c>
+      <c r="K44" s="3">
         <v>1154900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1288100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1249300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1253200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1240600</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>253700</v>
+        <v>398700</v>
       </c>
       <c r="E45" s="3">
-        <v>640900</v>
+        <v>248900</v>
       </c>
       <c r="F45" s="3">
-        <v>333800</v>
+        <v>628700</v>
       </c>
       <c r="G45" s="3">
-        <v>374300</v>
+        <v>327500</v>
       </c>
       <c r="H45" s="3">
-        <v>433900</v>
+        <v>367200</v>
       </c>
       <c r="I45" s="3">
-        <v>470800</v>
+        <v>425600</v>
       </c>
       <c r="J45" s="3">
+        <v>461800</v>
+      </c>
+      <c r="K45" s="3">
         <v>334800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>510800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>417500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>484400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>463800</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11268800</v>
+        <v>11588700</v>
       </c>
       <c r="E46" s="3">
-        <v>9046900</v>
+        <v>11054200</v>
       </c>
       <c r="F46" s="3">
-        <v>7103600</v>
+        <v>8874600</v>
       </c>
       <c r="G46" s="3">
-        <v>6780300</v>
+        <v>6968300</v>
       </c>
       <c r="H46" s="3">
-        <v>6614500</v>
+        <v>6651100</v>
       </c>
       <c r="I46" s="3">
-        <v>6366100</v>
+        <v>6488500</v>
       </c>
       <c r="J46" s="3">
+        <v>6244800</v>
+      </c>
+      <c r="K46" s="3">
         <v>5446300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6314300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5984100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5550600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4934200</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1030600</v>
+        <v>1288100</v>
       </c>
       <c r="E47" s="3">
-        <v>752000</v>
+        <v>1011000</v>
       </c>
       <c r="F47" s="3">
-        <v>244200</v>
+        <v>737700</v>
       </c>
       <c r="G47" s="3">
-        <v>1141500</v>
+        <v>239600</v>
       </c>
       <c r="H47" s="3">
-        <v>1141000</v>
+        <v>1119800</v>
       </c>
       <c r="I47" s="3">
-        <v>1189400</v>
+        <v>1119300</v>
       </c>
       <c r="J47" s="3">
+        <v>1166800</v>
+      </c>
+      <c r="K47" s="3">
         <v>259700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>390100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>351800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>292800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>320500</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7314800</v>
+        <v>7101600</v>
       </c>
       <c r="E48" s="3">
-        <v>12119200</v>
+        <v>7175500</v>
       </c>
       <c r="F48" s="3">
-        <v>4780200</v>
+        <v>11888400</v>
       </c>
       <c r="G48" s="3">
-        <v>4432900</v>
+        <v>4689100</v>
       </c>
       <c r="H48" s="3">
-        <v>4010500</v>
+        <v>4348400</v>
       </c>
       <c r="I48" s="3">
-        <v>3415300</v>
+        <v>3934100</v>
       </c>
       <c r="J48" s="3">
+        <v>3350200</v>
+      </c>
+      <c r="K48" s="3">
         <v>3584100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3644500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3426100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3326000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3004200</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1516900</v>
+        <v>1519600</v>
       </c>
       <c r="E49" s="3">
-        <v>3214900</v>
+        <v>1488000</v>
       </c>
       <c r="F49" s="3">
-        <v>1769100</v>
+        <v>3153700</v>
       </c>
       <c r="G49" s="3">
-        <v>1863100</v>
+        <v>1735400</v>
       </c>
       <c r="H49" s="3">
-        <v>1788900</v>
+        <v>1827600</v>
       </c>
       <c r="I49" s="3">
-        <v>829500</v>
+        <v>1754800</v>
       </c>
       <c r="J49" s="3">
+        <v>813700</v>
+      </c>
+      <c r="K49" s="3">
         <v>873400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>946900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1081800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1036600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>981500</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1225000</v>
+        <v>1192000</v>
       </c>
       <c r="E52" s="3">
-        <v>494100</v>
+        <v>1201700</v>
       </c>
       <c r="F52" s="3">
-        <v>386700</v>
+        <v>484700</v>
       </c>
       <c r="G52" s="3">
-        <v>427000</v>
+        <v>379300</v>
       </c>
       <c r="H52" s="3">
-        <v>448400</v>
+        <v>418800</v>
       </c>
       <c r="I52" s="3">
-        <v>432600</v>
+        <v>439800</v>
       </c>
       <c r="J52" s="3">
+        <v>424300</v>
+      </c>
+      <c r="K52" s="3">
         <v>498200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>682800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>510800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>425900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>457900</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>22356100</v>
+        <v>22690100</v>
       </c>
       <c r="E54" s="3">
-        <v>17343500</v>
+        <v>21930300</v>
       </c>
       <c r="F54" s="3">
-        <v>14283800</v>
+        <v>17013200</v>
       </c>
       <c r="G54" s="3">
-        <v>14644700</v>
+        <v>14011800</v>
       </c>
       <c r="H54" s="3">
-        <v>14003300</v>
+        <v>14365800</v>
       </c>
       <c r="I54" s="3">
-        <v>12232800</v>
+        <v>13736600</v>
       </c>
       <c r="J54" s="3">
+        <v>11999800</v>
+      </c>
+      <c r="K54" s="3">
         <v>10661800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11978500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11354600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10632000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9698400</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3382000</v>
+        <v>2533900</v>
       </c>
       <c r="E57" s="3">
-        <v>4768300</v>
+        <v>3317600</v>
       </c>
       <c r="F57" s="3">
-        <v>1483400</v>
+        <v>4677500</v>
       </c>
       <c r="G57" s="3">
-        <v>1395700</v>
+        <v>1455200</v>
       </c>
       <c r="H57" s="3">
-        <v>1666900</v>
+        <v>1369100</v>
       </c>
       <c r="I57" s="3">
-        <v>1298300</v>
+        <v>1635200</v>
       </c>
       <c r="J57" s="3">
+        <v>1273600</v>
+      </c>
+      <c r="K57" s="3">
         <v>828100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>951900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>876500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>772800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>792500</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1362400</v>
+        <v>1866000</v>
       </c>
       <c r="E58" s="3">
-        <v>4885600</v>
+        <v>1336400</v>
       </c>
       <c r="F58" s="3">
-        <v>2092000</v>
+        <v>4792500</v>
       </c>
       <c r="G58" s="3">
-        <v>2297500</v>
+        <v>2052200</v>
       </c>
       <c r="H58" s="3">
-        <v>1390200</v>
+        <v>2253700</v>
       </c>
       <c r="I58" s="3">
-        <v>883400</v>
+        <v>1363700</v>
       </c>
       <c r="J58" s="3">
+        <v>866600</v>
+      </c>
+      <c r="K58" s="3">
         <v>1432600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1167300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1551600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1801100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1291800</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3064000</v>
+        <v>2841200</v>
       </c>
       <c r="E59" s="3">
-        <v>5338700</v>
+        <v>3005600</v>
       </c>
       <c r="F59" s="3">
-        <v>1708500</v>
+        <v>5237000</v>
       </c>
       <c r="G59" s="3">
-        <v>1557000</v>
+        <v>1676000</v>
       </c>
       <c r="H59" s="3">
-        <v>1375200</v>
+        <v>1527400</v>
       </c>
       <c r="I59" s="3">
-        <v>1328500</v>
+        <v>1349000</v>
       </c>
       <c r="J59" s="3">
+        <v>1303200</v>
+      </c>
+      <c r="K59" s="3">
         <v>1055900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1189400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>995800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>861600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>861900</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7808300</v>
+        <v>7241100</v>
       </c>
       <c r="E60" s="3">
-        <v>7558200</v>
+        <v>7659600</v>
       </c>
       <c r="F60" s="3">
-        <v>5284000</v>
+        <v>7414200</v>
       </c>
       <c r="G60" s="3">
-        <v>5250300</v>
+        <v>5183300</v>
       </c>
       <c r="H60" s="3">
-        <v>4432300</v>
+        <v>5150200</v>
       </c>
       <c r="I60" s="3">
-        <v>3510300</v>
+        <v>4347900</v>
       </c>
       <c r="J60" s="3">
+        <v>3443500</v>
+      </c>
+      <c r="K60" s="3">
         <v>3316600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3308600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3423800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3435400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2946200</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3634300</v>
+        <v>3557100</v>
       </c>
       <c r="E61" s="3">
-        <v>1361100</v>
+        <v>3565000</v>
       </c>
       <c r="F61" s="3">
-        <v>1029400</v>
+        <v>1335200</v>
       </c>
       <c r="G61" s="3">
-        <v>1526500</v>
+        <v>1009800</v>
       </c>
       <c r="H61" s="3">
-        <v>2160000</v>
+        <v>1497400</v>
       </c>
       <c r="I61" s="3">
-        <v>1572400</v>
+        <v>2118900</v>
       </c>
       <c r="J61" s="3">
+        <v>1542500</v>
+      </c>
+      <c r="K61" s="3">
         <v>1035200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1121500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>894200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>886100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1174700</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1331000</v>
+        <v>1344700</v>
       </c>
       <c r="E62" s="3">
-        <v>2433200</v>
+        <v>1305600</v>
       </c>
       <c r="F62" s="3">
-        <v>1733500</v>
+        <v>2386800</v>
       </c>
       <c r="G62" s="3">
-        <v>1372400</v>
+        <v>1700500</v>
       </c>
       <c r="H62" s="3">
-        <v>1301400</v>
+        <v>1346300</v>
       </c>
       <c r="I62" s="3">
-        <v>1254500</v>
+        <v>1276600</v>
       </c>
       <c r="J62" s="3">
+        <v>1230600</v>
+      </c>
+      <c r="K62" s="3">
         <v>1278000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1082600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1062000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1032700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>948600</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12798800</v>
+        <v>12174700</v>
       </c>
       <c r="E66" s="3">
-        <v>10295400</v>
+        <v>12555000</v>
       </c>
       <c r="F66" s="3">
-        <v>8080800</v>
+        <v>10099300</v>
       </c>
       <c r="G66" s="3">
-        <v>8196600</v>
+        <v>7926800</v>
       </c>
       <c r="H66" s="3">
-        <v>7942200</v>
+        <v>8040500</v>
       </c>
       <c r="I66" s="3">
-        <v>6399800</v>
+        <v>7790900</v>
       </c>
       <c r="J66" s="3">
+        <v>6277900</v>
+      </c>
+      <c r="K66" s="3">
         <v>5697900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5676000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5535000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5531000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5195000</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7164500</v>
+        <v>7604700</v>
       </c>
       <c r="E72" s="3">
-        <v>13800600</v>
+        <v>7028100</v>
       </c>
       <c r="F72" s="3">
-        <v>7470500</v>
+        <v>13537800</v>
       </c>
       <c r="G72" s="3">
-        <v>7203600</v>
+        <v>7328200</v>
       </c>
       <c r="H72" s="3">
-        <v>6761500</v>
+        <v>7066400</v>
       </c>
       <c r="I72" s="3">
-        <v>6406300</v>
+        <v>6632700</v>
       </c>
       <c r="J72" s="3">
+        <v>6284300</v>
+      </c>
+      <c r="K72" s="3">
         <v>5451700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5892900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5968400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5843100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5891000</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9557300</v>
+        <v>10515400</v>
       </c>
       <c r="E76" s="3">
-        <v>7048100</v>
+        <v>9375300</v>
       </c>
       <c r="F76" s="3">
-        <v>6203100</v>
+        <v>6913900</v>
       </c>
       <c r="G76" s="3">
-        <v>6448100</v>
+        <v>6084900</v>
       </c>
       <c r="H76" s="3">
-        <v>6061100</v>
+        <v>6325300</v>
       </c>
       <c r="I76" s="3">
-        <v>5833100</v>
+        <v>5945600</v>
       </c>
       <c r="J76" s="3">
+        <v>5722000</v>
+      </c>
+      <c r="K76" s="3">
         <v>4963900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6302500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5819600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5101000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4503400</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43190</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42460</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42094</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41729</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41364</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40999</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>965000</v>
+        <v>823300</v>
       </c>
       <c r="E81" s="3">
-        <v>549900</v>
+        <v>946700</v>
       </c>
       <c r="F81" s="3">
-        <v>424700</v>
+        <v>539400</v>
       </c>
       <c r="G81" s="3">
-        <v>604200</v>
+        <v>416600</v>
       </c>
       <c r="H81" s="3">
-        <v>440600</v>
+        <v>592700</v>
       </c>
       <c r="I81" s="3">
-        <v>1066500</v>
+        <v>432200</v>
       </c>
       <c r="J81" s="3">
+        <v>1046200</v>
+      </c>
+      <c r="K81" s="3">
         <v>476500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>421700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>149200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>10900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-22200</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1301200</v>
+        <v>1487300</v>
       </c>
       <c r="E83" s="3">
-        <v>1090400</v>
+        <v>1276400</v>
       </c>
       <c r="F83" s="3">
-        <v>918600</v>
+        <v>1069600</v>
       </c>
       <c r="G83" s="3">
-        <v>783700</v>
+        <v>901100</v>
       </c>
       <c r="H83" s="3">
-        <v>677500</v>
+        <v>768800</v>
       </c>
       <c r="I83" s="3">
-        <v>643100</v>
+        <v>664600</v>
       </c>
       <c r="J83" s="3">
+        <v>630800</v>
+      </c>
+      <c r="K83" s="3">
         <v>611700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>684500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>761300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>708500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>725000</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1315600</v>
+        <v>1894600</v>
       </c>
       <c r="E89" s="3">
-        <v>1696800</v>
+        <v>1290500</v>
       </c>
       <c r="F89" s="3">
-        <v>1634600</v>
+        <v>1664500</v>
       </c>
       <c r="G89" s="3">
-        <v>1031000</v>
+        <v>1603400</v>
       </c>
       <c r="H89" s="3">
-        <v>671100</v>
+        <v>1011400</v>
       </c>
       <c r="I89" s="3">
-        <v>1177000</v>
+        <v>658300</v>
       </c>
       <c r="J89" s="3">
+        <v>1154600</v>
+      </c>
+      <c r="K89" s="3">
         <v>1114000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1218500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1166100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>990300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>500200</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2141300</v>
+        <v>-1987900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1559600</v>
+        <v>-2100500</v>
       </c>
       <c r="F91" s="3">
-        <v>-1274700</v>
+        <v>-1529900</v>
       </c>
       <c r="G91" s="3">
-        <v>-1275900</v>
+        <v>-1250400</v>
       </c>
       <c r="H91" s="3">
-        <v>-1312800</v>
+        <v>-1251600</v>
       </c>
       <c r="I91" s="3">
-        <v>-1232100</v>
+        <v>-1287800</v>
       </c>
       <c r="J91" s="3">
+        <v>-1208600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1181000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-874500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-628400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-778200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-900900</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2069400</v>
+        <v>-1690000</v>
       </c>
       <c r="E94" s="3">
-        <v>-1700900</v>
+        <v>-2029900</v>
       </c>
       <c r="F94" s="3">
-        <v>-308400</v>
+        <v>-1668500</v>
       </c>
       <c r="G94" s="3">
-        <v>-1030300</v>
+        <v>-302600</v>
       </c>
       <c r="H94" s="3">
-        <v>-1808800</v>
+        <v>-1010700</v>
       </c>
       <c r="I94" s="3">
-        <v>-522700</v>
+        <v>-1774400</v>
       </c>
       <c r="J94" s="3">
+        <v>-512700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1033300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1086000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-507800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-819500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-270300</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-176300</v>
+        <v>-268200</v>
       </c>
       <c r="E96" s="3">
-        <v>-167100</v>
+        <v>-172900</v>
       </c>
       <c r="F96" s="3">
-        <v>-157800</v>
+        <v>-163900</v>
       </c>
       <c r="G96" s="3">
-        <v>-139300</v>
+        <v>-154800</v>
       </c>
       <c r="H96" s="3">
-        <v>-111300</v>
+        <v>-136600</v>
       </c>
       <c r="I96" s="3">
-        <v>-111200</v>
+        <v>-109100</v>
       </c>
       <c r="J96" s="3">
+        <v>-109100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-101900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-85900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-69200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-91500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-93300</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>836000</v>
+        <v>107800</v>
       </c>
       <c r="E100" s="3">
-        <v>155000</v>
+        <v>820100</v>
       </c>
       <c r="F100" s="3">
-        <v>-895000</v>
+        <v>152000</v>
       </c>
       <c r="G100" s="3">
-        <v>69300</v>
+        <v>-878000</v>
       </c>
       <c r="H100" s="3">
-        <v>809100</v>
+        <v>68000</v>
       </c>
       <c r="I100" s="3">
-        <v>-277500</v>
+        <v>793700</v>
       </c>
       <c r="J100" s="3">
+        <v>-272200</v>
+      </c>
+      <c r="K100" s="3">
         <v>215400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-300600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-514000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>40000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>116900</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>351100</v>
+        <v>169600</v>
       </c>
       <c r="E101" s="3">
-        <v>199600</v>
+        <v>344400</v>
       </c>
       <c r="F101" s="3">
-        <v>-111100</v>
+        <v>195800</v>
       </c>
       <c r="G101" s="3">
+        <v>-109000</v>
+      </c>
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
-        <v>-44600</v>
-      </c>
       <c r="I101" s="3">
-        <v>-46700</v>
+        <v>-43700</v>
       </c>
       <c r="J101" s="3">
+        <v>-45800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-146400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>289700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>196100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>213500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-4000</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>433300</v>
+        <v>482000</v>
       </c>
       <c r="E102" s="3">
-        <v>350400</v>
+        <v>425000</v>
       </c>
       <c r="F102" s="3">
-        <v>320000</v>
+        <v>343700</v>
       </c>
       <c r="G102" s="3">
-        <v>70200</v>
+        <v>313900</v>
       </c>
       <c r="H102" s="3">
-        <v>-373100</v>
+        <v>68900</v>
       </c>
       <c r="I102" s="3">
-        <v>330200</v>
+        <v>-366000</v>
       </c>
       <c r="J102" s="3">
+        <v>323900</v>
+      </c>
+      <c r="K102" s="3">
         <v>149700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>121600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>340400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>424200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>342800</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TTDKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TTDKY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>TTDKY</t>
   </si>
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15723700</v>
+        <v>14982200</v>
       </c>
       <c r="E8" s="3">
-        <v>13714300</v>
+        <v>13067600</v>
       </c>
       <c r="F8" s="3">
-        <v>10663600</v>
+        <v>10160800</v>
       </c>
       <c r="G8" s="3">
-        <v>9827500</v>
+        <v>9364100</v>
       </c>
       <c r="H8" s="3">
-        <v>9962800</v>
+        <v>9493000</v>
       </c>
       <c r="I8" s="3">
-        <v>9169300</v>
+        <v>8736900</v>
       </c>
       <c r="J8" s="3">
-        <v>8495200</v>
+        <v>8094600</v>
       </c>
       <c r="K8" s="3">
         <v>8469100</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11509300</v>
+        <v>10966500</v>
       </c>
       <c r="E9" s="3">
-        <v>9649000</v>
+        <v>9194000</v>
       </c>
       <c r="F9" s="3">
-        <v>7587900</v>
+        <v>7230100</v>
       </c>
       <c r="G9" s="3">
-        <v>6919500</v>
+        <v>6593200</v>
       </c>
       <c r="H9" s="3">
-        <v>7104200</v>
+        <v>6769200</v>
       </c>
       <c r="I9" s="3">
-        <v>6694700</v>
+        <v>6379000</v>
       </c>
       <c r="J9" s="3">
-        <v>6171400</v>
+        <v>5880400</v>
       </c>
       <c r="K9" s="3">
         <v>6108800</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4214400</v>
+        <v>4015700</v>
       </c>
       <c r="E10" s="3">
-        <v>4065300</v>
+        <v>3873600</v>
       </c>
       <c r="F10" s="3">
-        <v>3075800</v>
+        <v>2930700</v>
       </c>
       <c r="G10" s="3">
-        <v>2908000</v>
+        <v>2770800</v>
       </c>
       <c r="H10" s="3">
-        <v>2858700</v>
+        <v>2723900</v>
       </c>
       <c r="I10" s="3">
-        <v>2474600</v>
+        <v>2357900</v>
       </c>
       <c r="J10" s="3">
-        <v>2323800</v>
+        <v>2214300</v>
       </c>
       <c r="K10" s="3">
         <v>2360300</v>
@@ -953,17 +953,17 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>-12400</v>
       </c>
       <c r="E14" s="3">
-        <v>-54000</v>
+        <v>-51400</v>
       </c>
       <c r="F14" s="3">
-        <v>10700</v>
+        <v>10200</v>
       </c>
       <c r="G14" s="3">
-        <v>143500</v>
+        <v>136700</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14506400</v>
+        <v>13822400</v>
       </c>
       <c r="E17" s="3">
-        <v>12511900</v>
+        <v>11921800</v>
       </c>
       <c r="F17" s="3">
-        <v>9857500</v>
+        <v>9392600</v>
       </c>
       <c r="G17" s="3">
-        <v>9131300</v>
+        <v>8700700</v>
       </c>
       <c r="H17" s="3">
-        <v>9185400</v>
+        <v>8752300</v>
       </c>
       <c r="I17" s="3">
-        <v>8522600</v>
+        <v>8120700</v>
       </c>
       <c r="J17" s="3">
-        <v>6990800</v>
+        <v>6661100</v>
       </c>
       <c r="K17" s="3">
         <v>7782500</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1217200</v>
+        <v>1159800</v>
       </c>
       <c r="E18" s="3">
-        <v>1202400</v>
+        <v>1145700</v>
       </c>
       <c r="F18" s="3">
-        <v>806200</v>
+        <v>768200</v>
       </c>
       <c r="G18" s="3">
-        <v>696200</v>
+        <v>663400</v>
       </c>
       <c r="H18" s="3">
-        <v>777400</v>
+        <v>740700</v>
       </c>
       <c r="I18" s="3">
-        <v>646700</v>
+        <v>616200</v>
       </c>
       <c r="J18" s="3">
-        <v>1504400</v>
+        <v>1433500</v>
       </c>
       <c r="K18" s="3">
         <v>686600</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-11600</v>
+        <v>66800</v>
       </c>
       <c r="E20" s="3">
-        <v>92500</v>
+        <v>88100</v>
       </c>
       <c r="F20" s="3">
-        <v>106000</v>
+        <v>101000</v>
       </c>
       <c r="G20" s="3">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="H20" s="3">
-        <v>85700</v>
+        <v>81700</v>
       </c>
       <c r="I20" s="3">
-        <v>33000</v>
+        <v>31500</v>
       </c>
       <c r="J20" s="3">
-        <v>46800</v>
+        <v>44600</v>
       </c>
       <c r="K20" s="3">
         <v>11300</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2703300</v>
+        <v>2643800</v>
       </c>
       <c r="E21" s="3">
-        <v>2580200</v>
+        <v>2450100</v>
       </c>
       <c r="F21" s="3">
-        <v>1989300</v>
+        <v>1888400</v>
       </c>
       <c r="G21" s="3">
-        <v>1625100</v>
+        <v>1542500</v>
       </c>
       <c r="H21" s="3">
-        <v>1637200</v>
+        <v>1555000</v>
       </c>
       <c r="I21" s="3">
-        <v>1348900</v>
+        <v>1280900</v>
       </c>
       <c r="J21" s="3">
-        <v>2186400</v>
+        <v>2079100</v>
       </c>
       <c r="K21" s="3">
         <v>1303800</v>
@@ -1238,26 +1238,26 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>77800</v>
       </c>
       <c r="E22" s="3">
-        <v>51300</v>
+        <v>48900</v>
       </c>
       <c r="F22" s="3">
-        <v>66700</v>
+        <v>63600</v>
       </c>
       <c r="G22" s="3">
-        <v>26500</v>
+        <v>25200</v>
       </c>
       <c r="H22" s="3">
-        <v>30000</v>
+        <v>28500</v>
       </c>
       <c r="I22" s="3">
-        <v>32200</v>
+        <v>30600</v>
       </c>
       <c r="J22" s="3">
-        <v>24700</v>
+        <v>23600</v>
       </c>
       <c r="K22" s="3">
         <v>22900</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1205600</v>
+        <v>1148800</v>
       </c>
       <c r="E23" s="3">
-        <v>1243700</v>
+        <v>1185000</v>
       </c>
       <c r="F23" s="3">
-        <v>845500</v>
+        <v>805600</v>
       </c>
       <c r="G23" s="3">
-        <v>691300</v>
+        <v>658700</v>
       </c>
       <c r="H23" s="3">
-        <v>833100</v>
+        <v>793900</v>
       </c>
       <c r="I23" s="3">
-        <v>647500</v>
+        <v>617000</v>
       </c>
       <c r="J23" s="3">
-        <v>1526500</v>
+        <v>1454500</v>
       </c>
       <c r="K23" s="3">
         <v>675000</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>381500</v>
+        <v>363500</v>
       </c>
       <c r="E24" s="3">
-        <v>293300</v>
+        <v>279400</v>
       </c>
       <c r="F24" s="3">
-        <v>307900</v>
+        <v>293400</v>
       </c>
       <c r="G24" s="3">
-        <v>279200</v>
+        <v>266000</v>
       </c>
       <c r="H24" s="3">
-        <v>238000</v>
+        <v>226700</v>
       </c>
       <c r="I24" s="3">
-        <v>186300</v>
+        <v>177500</v>
       </c>
       <c r="J24" s="3">
-        <v>477000</v>
+        <v>454500</v>
       </c>
       <c r="K24" s="3">
         <v>185300</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>824100</v>
+        <v>785200</v>
       </c>
       <c r="E26" s="3">
-        <v>950400</v>
+        <v>905600</v>
       </c>
       <c r="F26" s="3">
-        <v>537600</v>
+        <v>512200</v>
       </c>
       <c r="G26" s="3">
-        <v>412100</v>
+        <v>392700</v>
       </c>
       <c r="H26" s="3">
-        <v>595200</v>
+        <v>567100</v>
       </c>
       <c r="I26" s="3">
-        <v>461300</v>
+        <v>439500</v>
       </c>
       <c r="J26" s="3">
-        <v>1049500</v>
+        <v>1000000</v>
       </c>
       <c r="K26" s="3">
         <v>489700</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>823300</v>
+        <v>784500</v>
       </c>
       <c r="E27" s="3">
-        <v>946700</v>
+        <v>902000</v>
       </c>
       <c r="F27" s="3">
-        <v>539400</v>
+        <v>514000</v>
       </c>
       <c r="G27" s="3">
-        <v>416600</v>
+        <v>396900</v>
       </c>
       <c r="H27" s="3">
-        <v>592700</v>
+        <v>564700</v>
       </c>
       <c r="I27" s="3">
-        <v>457600</v>
+        <v>436000</v>
       </c>
       <c r="J27" s="3">
-        <v>1046200</v>
+        <v>996800</v>
       </c>
       <c r="K27" s="3">
         <v>476500</v>
@@ -1548,7 +1548,7 @@
         <v>8</v>
       </c>
       <c r="I29" s="3">
-        <v>-25300</v>
+        <v>-24100</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>11600</v>
+        <v>-66800</v>
       </c>
       <c r="E32" s="3">
-        <v>-92500</v>
+        <v>-88100</v>
       </c>
       <c r="F32" s="3">
-        <v>-106000</v>
+        <v>-101000</v>
       </c>
       <c r="G32" s="3">
-        <v>-21500</v>
+        <v>-20500</v>
       </c>
       <c r="H32" s="3">
-        <v>-85700</v>
+        <v>-81700</v>
       </c>
       <c r="I32" s="3">
-        <v>-33000</v>
+        <v>-31500</v>
       </c>
       <c r="J32" s="3">
-        <v>-46800</v>
+        <v>-44600</v>
       </c>
       <c r="K32" s="3">
         <v>-11300</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>823300</v>
+        <v>784500</v>
       </c>
       <c r="E33" s="3">
-        <v>946700</v>
+        <v>902000</v>
       </c>
       <c r="F33" s="3">
-        <v>539400</v>
+        <v>514000</v>
       </c>
       <c r="G33" s="3">
-        <v>416600</v>
+        <v>396900</v>
       </c>
       <c r="H33" s="3">
-        <v>592700</v>
+        <v>564700</v>
       </c>
       <c r="I33" s="3">
-        <v>432200</v>
+        <v>411900</v>
       </c>
       <c r="J33" s="3">
-        <v>1046200</v>
+        <v>996800</v>
       </c>
       <c r="K33" s="3">
         <v>476500</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>823300</v>
+        <v>784500</v>
       </c>
       <c r="E35" s="3">
-        <v>946700</v>
+        <v>902000</v>
       </c>
       <c r="F35" s="3">
-        <v>539400</v>
+        <v>514000</v>
       </c>
       <c r="G35" s="3">
-        <v>416600</v>
+        <v>396900</v>
       </c>
       <c r="H35" s="3">
-        <v>592700</v>
+        <v>564700</v>
       </c>
       <c r="I35" s="3">
-        <v>432200</v>
+        <v>411900</v>
       </c>
       <c r="J35" s="3">
-        <v>1046200</v>
+        <v>996800</v>
       </c>
       <c r="K35" s="3">
         <v>476500</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3649600</v>
+        <v>3477500</v>
       </c>
       <c r="E41" s="3">
-        <v>3167600</v>
+        <v>3018300</v>
       </c>
       <c r="F41" s="3">
-        <v>2742600</v>
+        <v>2613300</v>
       </c>
       <c r="G41" s="3">
-        <v>2398900</v>
+        <v>2285800</v>
       </c>
       <c r="H41" s="3">
-        <v>2085000</v>
+        <v>1986600</v>
       </c>
       <c r="I41" s="3">
-        <v>2016100</v>
+        <v>1921000</v>
       </c>
       <c r="J41" s="3">
-        <v>2382100</v>
+        <v>2269800</v>
       </c>
       <c r="K41" s="3">
         <v>2098200</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>376000</v>
+        <v>358200</v>
       </c>
       <c r="E42" s="3">
-        <v>482700</v>
+        <v>459900</v>
       </c>
       <c r="F42" s="3">
-        <v>1019700</v>
+        <v>971700</v>
       </c>
       <c r="G42" s="3">
-        <v>234700</v>
+        <v>223600</v>
       </c>
       <c r="H42" s="3">
-        <v>292500</v>
+        <v>278700</v>
       </c>
       <c r="I42" s="3">
-        <v>314800</v>
+        <v>300000</v>
       </c>
       <c r="J42" s="3">
-        <v>404700</v>
+        <v>385600</v>
       </c>
       <c r="K42" s="3">
         <v>161400</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3970400</v>
+        <v>3952800</v>
       </c>
       <c r="E43" s="3">
-        <v>4004200</v>
+        <v>3815400</v>
       </c>
       <c r="F43" s="3">
-        <v>6472100</v>
+        <v>6166900</v>
       </c>
       <c r="G43" s="3">
-        <v>2302500</v>
+        <v>2193900</v>
       </c>
       <c r="H43" s="3">
-        <v>2270600</v>
+        <v>2163600</v>
       </c>
       <c r="I43" s="3">
-        <v>2235700</v>
+        <v>2130300</v>
       </c>
       <c r="J43" s="3">
-        <v>1882300</v>
+        <v>1793500</v>
       </c>
       <c r="K43" s="3">
         <v>1697000</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3194000</v>
+        <v>3043400</v>
       </c>
       <c r="E44" s="3">
-        <v>3150800</v>
+        <v>3002200</v>
       </c>
       <c r="F44" s="3">
-        <v>4161600</v>
+        <v>3965400</v>
       </c>
       <c r="G44" s="3">
-        <v>1704800</v>
+        <v>1624400</v>
       </c>
       <c r="H44" s="3">
-        <v>1635900</v>
+        <v>1558700</v>
       </c>
       <c r="I44" s="3">
-        <v>1496300</v>
+        <v>1425700</v>
       </c>
       <c r="J44" s="3">
-        <v>1113900</v>
+        <v>1061400</v>
       </c>
       <c r="K44" s="3">
         <v>1154900</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>398700</v>
+        <v>210200</v>
       </c>
       <c r="E45" s="3">
-        <v>248900</v>
+        <v>237200</v>
       </c>
       <c r="F45" s="3">
-        <v>628700</v>
+        <v>599000</v>
       </c>
       <c r="G45" s="3">
-        <v>327500</v>
+        <v>312000</v>
       </c>
       <c r="H45" s="3">
-        <v>367200</v>
+        <v>349900</v>
       </c>
       <c r="I45" s="3">
-        <v>425600</v>
+        <v>405500</v>
       </c>
       <c r="J45" s="3">
-        <v>461800</v>
+        <v>440100</v>
       </c>
       <c r="K45" s="3">
         <v>334800</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11588700</v>
+        <v>11042200</v>
       </c>
       <c r="E46" s="3">
-        <v>11054200</v>
+        <v>10532900</v>
       </c>
       <c r="F46" s="3">
-        <v>8874600</v>
+        <v>8456100</v>
       </c>
       <c r="G46" s="3">
-        <v>6968300</v>
+        <v>6639700</v>
       </c>
       <c r="H46" s="3">
-        <v>6651100</v>
+        <v>6337500</v>
       </c>
       <c r="I46" s="3">
-        <v>6488500</v>
+        <v>6182600</v>
       </c>
       <c r="J46" s="3">
-        <v>6244800</v>
+        <v>5950400</v>
       </c>
       <c r="K46" s="3">
         <v>5446300</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1288100</v>
+        <v>1227400</v>
       </c>
       <c r="E47" s="3">
-        <v>1011000</v>
+        <v>963300</v>
       </c>
       <c r="F47" s="3">
-        <v>737700</v>
+        <v>702900</v>
       </c>
       <c r="G47" s="3">
-        <v>239600</v>
+        <v>228300</v>
       </c>
       <c r="H47" s="3">
-        <v>1119800</v>
+        <v>1067000</v>
       </c>
       <c r="I47" s="3">
-        <v>1119300</v>
+        <v>1066500</v>
       </c>
       <c r="J47" s="3">
-        <v>1166800</v>
+        <v>1111700</v>
       </c>
       <c r="K47" s="3">
         <v>259700</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7101600</v>
+        <v>6766800</v>
       </c>
       <c r="E48" s="3">
-        <v>7175500</v>
+        <v>6837100</v>
       </c>
       <c r="F48" s="3">
-        <v>11888400</v>
+        <v>11327800</v>
       </c>
       <c r="G48" s="3">
-        <v>4689100</v>
+        <v>4468000</v>
       </c>
       <c r="H48" s="3">
-        <v>4348400</v>
+        <v>4143400</v>
       </c>
       <c r="I48" s="3">
-        <v>3934100</v>
+        <v>3748600</v>
       </c>
       <c r="J48" s="3">
-        <v>3350200</v>
+        <v>3192300</v>
       </c>
       <c r="K48" s="3">
         <v>3584100</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1519600</v>
+        <v>1447900</v>
       </c>
       <c r="E49" s="3">
-        <v>1488000</v>
+        <v>1417800</v>
       </c>
       <c r="F49" s="3">
-        <v>3153700</v>
+        <v>3004900</v>
       </c>
       <c r="G49" s="3">
-        <v>1735400</v>
+        <v>1653600</v>
       </c>
       <c r="H49" s="3">
-        <v>1827600</v>
+        <v>1741500</v>
       </c>
       <c r="I49" s="3">
-        <v>1754800</v>
+        <v>1672100</v>
       </c>
       <c r="J49" s="3">
-        <v>813700</v>
+        <v>775300</v>
       </c>
       <c r="K49" s="3">
         <v>873400</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1192000</v>
+        <v>1135800</v>
       </c>
       <c r="E52" s="3">
-        <v>1201700</v>
+        <v>1145000</v>
       </c>
       <c r="F52" s="3">
-        <v>484700</v>
+        <v>461800</v>
       </c>
       <c r="G52" s="3">
-        <v>379300</v>
+        <v>361400</v>
       </c>
       <c r="H52" s="3">
-        <v>418800</v>
+        <v>399100</v>
       </c>
       <c r="I52" s="3">
-        <v>439800</v>
+        <v>419100</v>
       </c>
       <c r="J52" s="3">
-        <v>424300</v>
+        <v>404300</v>
       </c>
       <c r="K52" s="3">
         <v>498200</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>22690100</v>
+        <v>21620100</v>
       </c>
       <c r="E54" s="3">
-        <v>21930300</v>
+        <v>20896200</v>
       </c>
       <c r="F54" s="3">
-        <v>17013200</v>
+        <v>16210900</v>
       </c>
       <c r="G54" s="3">
-        <v>14011800</v>
+        <v>13351000</v>
       </c>
       <c r="H54" s="3">
-        <v>14365800</v>
+        <v>13688300</v>
       </c>
       <c r="I54" s="3">
-        <v>13736600</v>
+        <v>13088800</v>
       </c>
       <c r="J54" s="3">
-        <v>11999800</v>
+        <v>11434000</v>
       </c>
       <c r="K54" s="3">
         <v>10661800</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2533900</v>
+        <v>2414400</v>
       </c>
       <c r="E57" s="3">
-        <v>3317600</v>
+        <v>3161100</v>
       </c>
       <c r="F57" s="3">
-        <v>4677500</v>
+        <v>4456900</v>
       </c>
       <c r="G57" s="3">
-        <v>1455200</v>
+        <v>1386500</v>
       </c>
       <c r="H57" s="3">
-        <v>1369100</v>
+        <v>1304600</v>
       </c>
       <c r="I57" s="3">
-        <v>1635200</v>
+        <v>1558100</v>
       </c>
       <c r="J57" s="3">
-        <v>1273600</v>
+        <v>1213500</v>
       </c>
       <c r="K57" s="3">
         <v>828100</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1866000</v>
+        <v>1778000</v>
       </c>
       <c r="E58" s="3">
-        <v>1336400</v>
+        <v>1273400</v>
       </c>
       <c r="F58" s="3">
-        <v>4792500</v>
+        <v>4566500</v>
       </c>
       <c r="G58" s="3">
-        <v>2052200</v>
+        <v>1955400</v>
       </c>
       <c r="H58" s="3">
-        <v>2253700</v>
+        <v>2147500</v>
       </c>
       <c r="I58" s="3">
-        <v>1363700</v>
+        <v>1299400</v>
       </c>
       <c r="J58" s="3">
-        <v>866600</v>
+        <v>825800</v>
       </c>
       <c r="K58" s="3">
         <v>1432600</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2841200</v>
+        <v>2707200</v>
       </c>
       <c r="E59" s="3">
-        <v>3005600</v>
+        <v>2863900</v>
       </c>
       <c r="F59" s="3">
-        <v>5237000</v>
+        <v>4990000</v>
       </c>
       <c r="G59" s="3">
-        <v>1676000</v>
+        <v>1596900</v>
       </c>
       <c r="H59" s="3">
-        <v>1527400</v>
+        <v>1455400</v>
       </c>
       <c r="I59" s="3">
-        <v>1349000</v>
+        <v>1285400</v>
       </c>
       <c r="J59" s="3">
-        <v>1303200</v>
+        <v>1241800</v>
       </c>
       <c r="K59" s="3">
         <v>1055900</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7241100</v>
+        <v>6899600</v>
       </c>
       <c r="E60" s="3">
-        <v>7659600</v>
+        <v>7298400</v>
       </c>
       <c r="F60" s="3">
-        <v>7414200</v>
+        <v>7064600</v>
       </c>
       <c r="G60" s="3">
-        <v>5183300</v>
+        <v>4938900</v>
       </c>
       <c r="H60" s="3">
-        <v>5150200</v>
+        <v>4907400</v>
       </c>
       <c r="I60" s="3">
-        <v>4347900</v>
+        <v>4142900</v>
       </c>
       <c r="J60" s="3">
-        <v>3443500</v>
+        <v>3281100</v>
       </c>
       <c r="K60" s="3">
         <v>3316600</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3557100</v>
+        <v>3389300</v>
       </c>
       <c r="E61" s="3">
-        <v>3565000</v>
+        <v>3396900</v>
       </c>
       <c r="F61" s="3">
-        <v>1335200</v>
+        <v>1272200</v>
       </c>
       <c r="G61" s="3">
-        <v>1009800</v>
+        <v>962200</v>
       </c>
       <c r="H61" s="3">
-        <v>1497400</v>
+        <v>1426800</v>
       </c>
       <c r="I61" s="3">
-        <v>2118900</v>
+        <v>2019000</v>
       </c>
       <c r="J61" s="3">
-        <v>1542500</v>
+        <v>1469700</v>
       </c>
       <c r="K61" s="3">
         <v>1035200</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1344700</v>
+        <v>1281200</v>
       </c>
       <c r="E62" s="3">
-        <v>1305600</v>
+        <v>1244000</v>
       </c>
       <c r="F62" s="3">
-        <v>2386800</v>
+        <v>2274300</v>
       </c>
       <c r="G62" s="3">
-        <v>1700500</v>
+        <v>1620300</v>
       </c>
       <c r="H62" s="3">
-        <v>1346300</v>
+        <v>1282800</v>
       </c>
       <c r="I62" s="3">
-        <v>1276600</v>
+        <v>1216400</v>
       </c>
       <c r="J62" s="3">
-        <v>1230600</v>
+        <v>1172600</v>
       </c>
       <c r="K62" s="3">
         <v>1278000</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12174700</v>
+        <v>11600600</v>
       </c>
       <c r="E66" s="3">
-        <v>12555000</v>
+        <v>11963000</v>
       </c>
       <c r="F66" s="3">
-        <v>10099300</v>
+        <v>9623000</v>
       </c>
       <c r="G66" s="3">
-        <v>7926800</v>
+        <v>7553000</v>
       </c>
       <c r="H66" s="3">
-        <v>8040500</v>
+        <v>7661400</v>
       </c>
       <c r="I66" s="3">
-        <v>7790900</v>
+        <v>7423600</v>
       </c>
       <c r="J66" s="3">
-        <v>6277900</v>
+        <v>5981800</v>
       </c>
       <c r="K66" s="3">
         <v>5697900</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7604700</v>
+        <v>7246100</v>
       </c>
       <c r="E72" s="3">
-        <v>7028100</v>
+        <v>6696600</v>
       </c>
       <c r="F72" s="3">
-        <v>13537800</v>
+        <v>12899400</v>
       </c>
       <c r="G72" s="3">
-        <v>7328200</v>
+        <v>6982600</v>
       </c>
       <c r="H72" s="3">
-        <v>7066400</v>
+        <v>6733200</v>
       </c>
       <c r="I72" s="3">
-        <v>6632700</v>
+        <v>6319900</v>
       </c>
       <c r="J72" s="3">
-        <v>6284300</v>
+        <v>5988000</v>
       </c>
       <c r="K72" s="3">
         <v>5451700</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10515400</v>
+        <v>10019500</v>
       </c>
       <c r="E76" s="3">
-        <v>9375300</v>
+        <v>8933200</v>
       </c>
       <c r="F76" s="3">
-        <v>6913900</v>
+        <v>6587800</v>
       </c>
       <c r="G76" s="3">
-        <v>6084900</v>
+        <v>5798000</v>
       </c>
       <c r="H76" s="3">
-        <v>6325300</v>
+        <v>6027000</v>
       </c>
       <c r="I76" s="3">
-        <v>5945600</v>
+        <v>5665200</v>
       </c>
       <c r="J76" s="3">
-        <v>5722000</v>
+        <v>5452100</v>
       </c>
       <c r="K76" s="3">
         <v>4963900</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>823300</v>
+        <v>784500</v>
       </c>
       <c r="E81" s="3">
-        <v>946700</v>
+        <v>902000</v>
       </c>
       <c r="F81" s="3">
-        <v>539400</v>
+        <v>514000</v>
       </c>
       <c r="G81" s="3">
-        <v>416600</v>
+        <v>396900</v>
       </c>
       <c r="H81" s="3">
-        <v>592700</v>
+        <v>564700</v>
       </c>
       <c r="I81" s="3">
-        <v>432200</v>
+        <v>411900</v>
       </c>
       <c r="J81" s="3">
-        <v>1046200</v>
+        <v>996800</v>
       </c>
       <c r="K81" s="3">
         <v>476500</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1487300</v>
+        <v>1417200</v>
       </c>
       <c r="E83" s="3">
-        <v>1276400</v>
+        <v>1216200</v>
       </c>
       <c r="F83" s="3">
-        <v>1069600</v>
+        <v>1019200</v>
       </c>
       <c r="G83" s="3">
-        <v>901100</v>
+        <v>858600</v>
       </c>
       <c r="H83" s="3">
-        <v>768800</v>
+        <v>732600</v>
       </c>
       <c r="I83" s="3">
-        <v>664600</v>
+        <v>633200</v>
       </c>
       <c r="J83" s="3">
-        <v>630800</v>
+        <v>601100</v>
       </c>
       <c r="K83" s="3">
         <v>611700</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1894600</v>
+        <v>1805200</v>
       </c>
       <c r="E89" s="3">
-        <v>1290500</v>
+        <v>1229600</v>
       </c>
       <c r="F89" s="3">
-        <v>1664500</v>
+        <v>1586000</v>
       </c>
       <c r="G89" s="3">
-        <v>1603400</v>
+        <v>1527800</v>
       </c>
       <c r="H89" s="3">
-        <v>1011400</v>
+        <v>963700</v>
       </c>
       <c r="I89" s="3">
-        <v>658300</v>
+        <v>627300</v>
       </c>
       <c r="J89" s="3">
-        <v>1154600</v>
+        <v>1100100</v>
       </c>
       <c r="K89" s="3">
         <v>1114000</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1987900</v>
+        <v>-1894100</v>
       </c>
       <c r="E91" s="3">
-        <v>-2100500</v>
+        <v>-2001500</v>
       </c>
       <c r="F91" s="3">
-        <v>-1529900</v>
+        <v>-1457800</v>
       </c>
       <c r="G91" s="3">
-        <v>-1250400</v>
+        <v>-1191500</v>
       </c>
       <c r="H91" s="3">
-        <v>-1251600</v>
+        <v>-1192600</v>
       </c>
       <c r="I91" s="3">
-        <v>-1287800</v>
+        <v>-1227100</v>
       </c>
       <c r="J91" s="3">
-        <v>-1208600</v>
+        <v>-1151600</v>
       </c>
       <c r="K91" s="3">
         <v>-1181000</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1690000</v>
+        <v>-1610300</v>
       </c>
       <c r="E94" s="3">
-        <v>-2029900</v>
+        <v>-1934200</v>
       </c>
       <c r="F94" s="3">
-        <v>-1668500</v>
+        <v>-1589800</v>
       </c>
       <c r="G94" s="3">
-        <v>-302600</v>
+        <v>-288300</v>
       </c>
       <c r="H94" s="3">
-        <v>-1010700</v>
+        <v>-963000</v>
       </c>
       <c r="I94" s="3">
-        <v>-1774400</v>
+        <v>-1690700</v>
       </c>
       <c r="J94" s="3">
-        <v>-512700</v>
+        <v>-488500</v>
       </c>
       <c r="K94" s="3">
         <v>-1033300</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-268200</v>
+        <v>-255600</v>
       </c>
       <c r="E96" s="3">
-        <v>-172900</v>
+        <v>-164800</v>
       </c>
       <c r="F96" s="3">
-        <v>-163900</v>
+        <v>-156200</v>
       </c>
       <c r="G96" s="3">
-        <v>-154800</v>
+        <v>-147500</v>
       </c>
       <c r="H96" s="3">
-        <v>-136600</v>
+        <v>-130200</v>
       </c>
       <c r="I96" s="3">
-        <v>-109100</v>
+        <v>-104000</v>
       </c>
       <c r="J96" s="3">
-        <v>-109100</v>
+        <v>-104000</v>
       </c>
       <c r="K96" s="3">
         <v>-101900</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>107800</v>
+        <v>102700</v>
       </c>
       <c r="E100" s="3">
-        <v>820100</v>
+        <v>781400</v>
       </c>
       <c r="F100" s="3">
-        <v>152000</v>
+        <v>144800</v>
       </c>
       <c r="G100" s="3">
-        <v>-878000</v>
+        <v>-836600</v>
       </c>
       <c r="H100" s="3">
-        <v>68000</v>
+        <v>64800</v>
       </c>
       <c r="I100" s="3">
-        <v>793700</v>
+        <v>756300</v>
       </c>
       <c r="J100" s="3">
-        <v>-272200</v>
+        <v>-259400</v>
       </c>
       <c r="K100" s="3">
         <v>215400</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>169600</v>
+        <v>161600</v>
       </c>
       <c r="E101" s="3">
-        <v>344400</v>
+        <v>328200</v>
       </c>
       <c r="F101" s="3">
-        <v>195800</v>
+        <v>186500</v>
       </c>
       <c r="G101" s="3">
-        <v>-109000</v>
+        <v>-103800</v>
       </c>
       <c r="H101" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I101" s="3">
-        <v>-43700</v>
+        <v>-41700</v>
       </c>
       <c r="J101" s="3">
-        <v>-45800</v>
+        <v>-43600</v>
       </c>
       <c r="K101" s="3">
         <v>-146400</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>482000</v>
+        <v>459200</v>
       </c>
       <c r="E102" s="3">
-        <v>425000</v>
+        <v>405000</v>
       </c>
       <c r="F102" s="3">
-        <v>343700</v>
+        <v>327500</v>
       </c>
       <c r="G102" s="3">
-        <v>313900</v>
+        <v>299100</v>
       </c>
       <c r="H102" s="3">
-        <v>68900</v>
+        <v>65600</v>
       </c>
       <c r="I102" s="3">
-        <v>-366000</v>
+        <v>-348700</v>
       </c>
       <c r="J102" s="3">
-        <v>323900</v>
+        <v>308600</v>
       </c>
       <c r="K102" s="3">
         <v>149700</v>

--- a/AAII_Financials/Yearly/TTDKY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TTDKY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14982200</v>
+        <v>14480600</v>
       </c>
       <c r="E8" s="3">
-        <v>13067600</v>
+        <v>12630100</v>
       </c>
       <c r="F8" s="3">
-        <v>10160800</v>
+        <v>9820600</v>
       </c>
       <c r="G8" s="3">
-        <v>9364100</v>
+        <v>9050600</v>
       </c>
       <c r="H8" s="3">
-        <v>9493000</v>
+        <v>9175200</v>
       </c>
       <c r="I8" s="3">
-        <v>8736900</v>
+        <v>8444400</v>
       </c>
       <c r="J8" s="3">
-        <v>8094600</v>
+        <v>7823600</v>
       </c>
       <c r="K8" s="3">
         <v>8469100</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10966500</v>
+        <v>10599400</v>
       </c>
       <c r="E9" s="3">
-        <v>9194000</v>
+        <v>8886200</v>
       </c>
       <c r="F9" s="3">
-        <v>7230100</v>
+        <v>6988000</v>
       </c>
       <c r="G9" s="3">
-        <v>6593200</v>
+        <v>6372500</v>
       </c>
       <c r="H9" s="3">
-        <v>6769200</v>
+        <v>6542500</v>
       </c>
       <c r="I9" s="3">
-        <v>6379000</v>
+        <v>6165400</v>
       </c>
       <c r="J9" s="3">
-        <v>5880400</v>
+        <v>5683500</v>
       </c>
       <c r="K9" s="3">
         <v>6108800</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4015700</v>
+        <v>3881200</v>
       </c>
       <c r="E10" s="3">
-        <v>3873600</v>
+        <v>3744000</v>
       </c>
       <c r="F10" s="3">
-        <v>2930700</v>
+        <v>2832600</v>
       </c>
       <c r="G10" s="3">
-        <v>2770800</v>
+        <v>2678100</v>
       </c>
       <c r="H10" s="3">
-        <v>2723900</v>
+        <v>2632700</v>
       </c>
       <c r="I10" s="3">
-        <v>2357900</v>
+        <v>2279000</v>
       </c>
       <c r="J10" s="3">
-        <v>2214300</v>
+        <v>2140100</v>
       </c>
       <c r="K10" s="3">
         <v>2360300</v>
@@ -954,16 +954,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-12400</v>
+        <v>-11900</v>
       </c>
       <c r="E14" s="3">
-        <v>-51400</v>
+        <v>-49700</v>
       </c>
       <c r="F14" s="3">
-        <v>10200</v>
+        <v>9900</v>
       </c>
       <c r="G14" s="3">
-        <v>136700</v>
+        <v>132100</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13822400</v>
+        <v>13359600</v>
       </c>
       <c r="E17" s="3">
-        <v>11921800</v>
+        <v>11522700</v>
       </c>
       <c r="F17" s="3">
-        <v>9392600</v>
+        <v>9078200</v>
       </c>
       <c r="G17" s="3">
-        <v>8700700</v>
+        <v>8409400</v>
       </c>
       <c r="H17" s="3">
-        <v>8752300</v>
+        <v>8459200</v>
       </c>
       <c r="I17" s="3">
-        <v>8120700</v>
+        <v>7848800</v>
       </c>
       <c r="J17" s="3">
-        <v>6661100</v>
+        <v>6438100</v>
       </c>
       <c r="K17" s="3">
         <v>7782500</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1159800</v>
+        <v>1121000</v>
       </c>
       <c r="E18" s="3">
-        <v>1145700</v>
+        <v>1107400</v>
       </c>
       <c r="F18" s="3">
-        <v>768200</v>
+        <v>742400</v>
       </c>
       <c r="G18" s="3">
-        <v>663400</v>
+        <v>641200</v>
       </c>
       <c r="H18" s="3">
-        <v>740700</v>
+        <v>715900</v>
       </c>
       <c r="I18" s="3">
-        <v>616200</v>
+        <v>595600</v>
       </c>
       <c r="J18" s="3">
-        <v>1433500</v>
+        <v>1385500</v>
       </c>
       <c r="K18" s="3">
         <v>686600</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>66800</v>
+        <v>64500</v>
       </c>
       <c r="E20" s="3">
-        <v>88100</v>
+        <v>85200</v>
       </c>
       <c r="F20" s="3">
-        <v>101000</v>
+        <v>97600</v>
       </c>
       <c r="G20" s="3">
-        <v>20500</v>
+        <v>19800</v>
       </c>
       <c r="H20" s="3">
-        <v>81700</v>
+        <v>78900</v>
       </c>
       <c r="I20" s="3">
-        <v>31500</v>
+        <v>30400</v>
       </c>
       <c r="J20" s="3">
-        <v>44600</v>
+        <v>43100</v>
       </c>
       <c r="K20" s="3">
         <v>11300</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2643800</v>
+        <v>2549100</v>
       </c>
       <c r="E21" s="3">
-        <v>2450100</v>
+        <v>2362700</v>
       </c>
       <c r="F21" s="3">
-        <v>1888400</v>
+        <v>1820700</v>
       </c>
       <c r="G21" s="3">
-        <v>1542500</v>
+        <v>1487100</v>
       </c>
       <c r="H21" s="3">
-        <v>1555000</v>
+        <v>1499700</v>
       </c>
       <c r="I21" s="3">
-        <v>1280900</v>
+        <v>1235200</v>
       </c>
       <c r="J21" s="3">
-        <v>2079100</v>
+        <v>2006900</v>
       </c>
       <c r="K21" s="3">
         <v>1303800</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>77800</v>
+        <v>75200</v>
       </c>
       <c r="E22" s="3">
-        <v>48900</v>
+        <v>47200</v>
       </c>
       <c r="F22" s="3">
-        <v>63600</v>
+        <v>61400</v>
       </c>
       <c r="G22" s="3">
-        <v>25200</v>
+        <v>24400</v>
       </c>
       <c r="H22" s="3">
-        <v>28500</v>
+        <v>27600</v>
       </c>
       <c r="I22" s="3">
-        <v>30600</v>
+        <v>29600</v>
       </c>
       <c r="J22" s="3">
-        <v>23600</v>
+        <v>22800</v>
       </c>
       <c r="K22" s="3">
         <v>22900</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1148800</v>
+        <v>1110300</v>
       </c>
       <c r="E23" s="3">
-        <v>1185000</v>
+        <v>1145300</v>
       </c>
       <c r="F23" s="3">
-        <v>805600</v>
+        <v>778600</v>
       </c>
       <c r="G23" s="3">
-        <v>658700</v>
+        <v>636600</v>
       </c>
       <c r="H23" s="3">
-        <v>793900</v>
+        <v>767300</v>
       </c>
       <c r="I23" s="3">
-        <v>617000</v>
+        <v>596300</v>
       </c>
       <c r="J23" s="3">
-        <v>1454500</v>
+        <v>1405800</v>
       </c>
       <c r="K23" s="3">
         <v>675000</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>363500</v>
+        <v>351400</v>
       </c>
       <c r="E24" s="3">
-        <v>279400</v>
+        <v>270100</v>
       </c>
       <c r="F24" s="3">
-        <v>293400</v>
+        <v>283500</v>
       </c>
       <c r="G24" s="3">
-        <v>266000</v>
+        <v>257100</v>
       </c>
       <c r="H24" s="3">
-        <v>226700</v>
+        <v>219100</v>
       </c>
       <c r="I24" s="3">
-        <v>177500</v>
+        <v>171500</v>
       </c>
       <c r="J24" s="3">
-        <v>454500</v>
+        <v>439300</v>
       </c>
       <c r="K24" s="3">
         <v>185300</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>785200</v>
+        <v>759000</v>
       </c>
       <c r="E26" s="3">
-        <v>905600</v>
+        <v>875300</v>
       </c>
       <c r="F26" s="3">
-        <v>512200</v>
+        <v>495100</v>
       </c>
       <c r="G26" s="3">
-        <v>392700</v>
+        <v>379500</v>
       </c>
       <c r="H26" s="3">
-        <v>567100</v>
+        <v>548100</v>
       </c>
       <c r="I26" s="3">
-        <v>439500</v>
+        <v>424800</v>
       </c>
       <c r="J26" s="3">
-        <v>1000000</v>
+        <v>966500</v>
       </c>
       <c r="K26" s="3">
         <v>489700</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>784500</v>
+        <v>758200</v>
       </c>
       <c r="E27" s="3">
-        <v>902000</v>
+        <v>871800</v>
       </c>
       <c r="F27" s="3">
-        <v>514000</v>
+        <v>496800</v>
       </c>
       <c r="G27" s="3">
-        <v>396900</v>
+        <v>383700</v>
       </c>
       <c r="H27" s="3">
-        <v>564700</v>
+        <v>545800</v>
       </c>
       <c r="I27" s="3">
-        <v>436000</v>
+        <v>421400</v>
       </c>
       <c r="J27" s="3">
-        <v>996800</v>
+        <v>963500</v>
       </c>
       <c r="K27" s="3">
         <v>476500</v>
@@ -1548,7 +1548,7 @@
         <v>8</v>
       </c>
       <c r="I29" s="3">
-        <v>-24100</v>
+        <v>-23300</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-66800</v>
+        <v>-64500</v>
       </c>
       <c r="E32" s="3">
-        <v>-88100</v>
+        <v>-85200</v>
       </c>
       <c r="F32" s="3">
-        <v>-101000</v>
+        <v>-97600</v>
       </c>
       <c r="G32" s="3">
-        <v>-20500</v>
+        <v>-19800</v>
       </c>
       <c r="H32" s="3">
-        <v>-81700</v>
+        <v>-78900</v>
       </c>
       <c r="I32" s="3">
-        <v>-31500</v>
+        <v>-30400</v>
       </c>
       <c r="J32" s="3">
-        <v>-44600</v>
+        <v>-43100</v>
       </c>
       <c r="K32" s="3">
         <v>-11300</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>784500</v>
+        <v>758200</v>
       </c>
       <c r="E33" s="3">
-        <v>902000</v>
+        <v>871800</v>
       </c>
       <c r="F33" s="3">
-        <v>514000</v>
+        <v>496800</v>
       </c>
       <c r="G33" s="3">
-        <v>396900</v>
+        <v>383700</v>
       </c>
       <c r="H33" s="3">
-        <v>564700</v>
+        <v>545800</v>
       </c>
       <c r="I33" s="3">
-        <v>411900</v>
+        <v>398100</v>
       </c>
       <c r="J33" s="3">
-        <v>996800</v>
+        <v>963500</v>
       </c>
       <c r="K33" s="3">
         <v>476500</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>784500</v>
+        <v>758200</v>
       </c>
       <c r="E35" s="3">
-        <v>902000</v>
+        <v>871800</v>
       </c>
       <c r="F35" s="3">
-        <v>514000</v>
+        <v>496800</v>
       </c>
       <c r="G35" s="3">
-        <v>396900</v>
+        <v>383700</v>
       </c>
       <c r="H35" s="3">
-        <v>564700</v>
+        <v>545800</v>
       </c>
       <c r="I35" s="3">
-        <v>411900</v>
+        <v>398100</v>
       </c>
       <c r="J35" s="3">
-        <v>996800</v>
+        <v>963500</v>
       </c>
       <c r="K35" s="3">
         <v>476500</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3477500</v>
+        <v>3361100</v>
       </c>
       <c r="E41" s="3">
-        <v>3018300</v>
+        <v>2917200</v>
       </c>
       <c r="F41" s="3">
-        <v>2613300</v>
+        <v>2525800</v>
       </c>
       <c r="G41" s="3">
-        <v>2285800</v>
+        <v>2209200</v>
       </c>
       <c r="H41" s="3">
-        <v>1986600</v>
+        <v>1920100</v>
       </c>
       <c r="I41" s="3">
-        <v>1921000</v>
+        <v>1856700</v>
       </c>
       <c r="J41" s="3">
-        <v>2269800</v>
+        <v>2193800</v>
       </c>
       <c r="K41" s="3">
         <v>2098200</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>358200</v>
+        <v>346300</v>
       </c>
       <c r="E42" s="3">
-        <v>459900</v>
+        <v>444500</v>
       </c>
       <c r="F42" s="3">
-        <v>971700</v>
+        <v>939100</v>
       </c>
       <c r="G42" s="3">
-        <v>223600</v>
+        <v>216100</v>
       </c>
       <c r="H42" s="3">
-        <v>278700</v>
+        <v>269300</v>
       </c>
       <c r="I42" s="3">
-        <v>300000</v>
+        <v>289900</v>
       </c>
       <c r="J42" s="3">
-        <v>385600</v>
+        <v>372700</v>
       </c>
       <c r="K42" s="3">
         <v>161400</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3952800</v>
+        <v>3820500</v>
       </c>
       <c r="E43" s="3">
-        <v>3815400</v>
+        <v>3687600</v>
       </c>
       <c r="F43" s="3">
-        <v>6166900</v>
+        <v>5960400</v>
       </c>
       <c r="G43" s="3">
-        <v>2193900</v>
+        <v>2120400</v>
       </c>
       <c r="H43" s="3">
-        <v>2163600</v>
+        <v>2091100</v>
       </c>
       <c r="I43" s="3">
-        <v>2130300</v>
+        <v>2059000</v>
       </c>
       <c r="J43" s="3">
-        <v>1793500</v>
+        <v>1733500</v>
       </c>
       <c r="K43" s="3">
         <v>1697000</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3043400</v>
+        <v>2941500</v>
       </c>
       <c r="E44" s="3">
-        <v>3002200</v>
+        <v>2901700</v>
       </c>
       <c r="F44" s="3">
-        <v>3965400</v>
+        <v>3832600</v>
       </c>
       <c r="G44" s="3">
-        <v>1624400</v>
+        <v>1570000</v>
       </c>
       <c r="H44" s="3">
-        <v>1558700</v>
+        <v>1506600</v>
       </c>
       <c r="I44" s="3">
-        <v>1425700</v>
+        <v>1378000</v>
       </c>
       <c r="J44" s="3">
-        <v>1061400</v>
+        <v>1025900</v>
       </c>
       <c r="K44" s="3">
         <v>1154900</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>210200</v>
+        <v>203200</v>
       </c>
       <c r="E45" s="3">
-        <v>237200</v>
+        <v>229200</v>
       </c>
       <c r="F45" s="3">
-        <v>599000</v>
+        <v>579000</v>
       </c>
       <c r="G45" s="3">
-        <v>312000</v>
+        <v>301600</v>
       </c>
       <c r="H45" s="3">
-        <v>349900</v>
+        <v>338200</v>
       </c>
       <c r="I45" s="3">
-        <v>405500</v>
+        <v>392000</v>
       </c>
       <c r="J45" s="3">
-        <v>440100</v>
+        <v>425300</v>
       </c>
       <c r="K45" s="3">
         <v>334800</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11042200</v>
+        <v>10672500</v>
       </c>
       <c r="E46" s="3">
-        <v>10532900</v>
+        <v>10180300</v>
       </c>
       <c r="F46" s="3">
-        <v>8456100</v>
+        <v>8173000</v>
       </c>
       <c r="G46" s="3">
-        <v>6639700</v>
+        <v>6417400</v>
       </c>
       <c r="H46" s="3">
-        <v>6337500</v>
+        <v>6125300</v>
       </c>
       <c r="I46" s="3">
-        <v>6182600</v>
+        <v>5975600</v>
       </c>
       <c r="J46" s="3">
-        <v>5950400</v>
+        <v>5751100</v>
       </c>
       <c r="K46" s="3">
         <v>5446300</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1227400</v>
+        <v>1186300</v>
       </c>
       <c r="E47" s="3">
-        <v>963300</v>
+        <v>931000</v>
       </c>
       <c r="F47" s="3">
-        <v>702900</v>
+        <v>679400</v>
       </c>
       <c r="G47" s="3">
-        <v>228300</v>
+        <v>220600</v>
       </c>
       <c r="H47" s="3">
-        <v>1067000</v>
+        <v>1031200</v>
       </c>
       <c r="I47" s="3">
-        <v>1066500</v>
+        <v>1030800</v>
       </c>
       <c r="J47" s="3">
-        <v>1111700</v>
+        <v>1074500</v>
       </c>
       <c r="K47" s="3">
         <v>259700</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6766800</v>
+        <v>6540200</v>
       </c>
       <c r="E48" s="3">
-        <v>6837100</v>
+        <v>6608200</v>
       </c>
       <c r="F48" s="3">
-        <v>11327800</v>
+        <v>10948500</v>
       </c>
       <c r="G48" s="3">
-        <v>4468000</v>
+        <v>4318400</v>
       </c>
       <c r="H48" s="3">
-        <v>4143400</v>
+        <v>4004700</v>
       </c>
       <c r="I48" s="3">
-        <v>3748600</v>
+        <v>3623100</v>
       </c>
       <c r="J48" s="3">
-        <v>3192300</v>
+        <v>3085400</v>
       </c>
       <c r="K48" s="3">
         <v>3584100</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1447900</v>
+        <v>1399400</v>
       </c>
       <c r="E49" s="3">
-        <v>1417800</v>
+        <v>1370400</v>
       </c>
       <c r="F49" s="3">
-        <v>3004900</v>
+        <v>2904300</v>
       </c>
       <c r="G49" s="3">
-        <v>1653600</v>
+        <v>1598200</v>
       </c>
       <c r="H49" s="3">
-        <v>1741500</v>
+        <v>1683200</v>
       </c>
       <c r="I49" s="3">
-        <v>1672100</v>
+        <v>1616100</v>
       </c>
       <c r="J49" s="3">
-        <v>775300</v>
+        <v>749300</v>
       </c>
       <c r="K49" s="3">
         <v>873400</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1135800</v>
+        <v>1097800</v>
       </c>
       <c r="E52" s="3">
-        <v>1145000</v>
+        <v>1106700</v>
       </c>
       <c r="F52" s="3">
-        <v>461800</v>
+        <v>446400</v>
       </c>
       <c r="G52" s="3">
-        <v>361400</v>
+        <v>349300</v>
       </c>
       <c r="H52" s="3">
-        <v>399100</v>
+        <v>385700</v>
       </c>
       <c r="I52" s="3">
-        <v>419100</v>
+        <v>405100</v>
       </c>
       <c r="J52" s="3">
-        <v>404300</v>
+        <v>390800</v>
       </c>
       <c r="K52" s="3">
         <v>498200</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>21620100</v>
+        <v>20896300</v>
       </c>
       <c r="E54" s="3">
-        <v>20896200</v>
+        <v>20196600</v>
       </c>
       <c r="F54" s="3">
-        <v>16210900</v>
+        <v>15668200</v>
       </c>
       <c r="G54" s="3">
-        <v>13351000</v>
+        <v>12904000</v>
       </c>
       <c r="H54" s="3">
-        <v>13688300</v>
+        <v>13230100</v>
       </c>
       <c r="I54" s="3">
-        <v>13088800</v>
+        <v>12650600</v>
       </c>
       <c r="J54" s="3">
-        <v>11434000</v>
+        <v>11051200</v>
       </c>
       <c r="K54" s="3">
         <v>10661800</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2414400</v>
+        <v>2333600</v>
       </c>
       <c r="E57" s="3">
-        <v>3161100</v>
+        <v>3055300</v>
       </c>
       <c r="F57" s="3">
-        <v>4456900</v>
+        <v>4307700</v>
       </c>
       <c r="G57" s="3">
-        <v>1386500</v>
+        <v>1340100</v>
       </c>
       <c r="H57" s="3">
-        <v>1304600</v>
+        <v>1260900</v>
       </c>
       <c r="I57" s="3">
-        <v>1558100</v>
+        <v>1505900</v>
       </c>
       <c r="J57" s="3">
-        <v>1213500</v>
+        <v>1172900</v>
       </c>
       <c r="K57" s="3">
         <v>828100</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1778000</v>
+        <v>1718500</v>
       </c>
       <c r="E58" s="3">
-        <v>1273400</v>
+        <v>1230800</v>
       </c>
       <c r="F58" s="3">
-        <v>4566500</v>
+        <v>4413600</v>
       </c>
       <c r="G58" s="3">
-        <v>1955400</v>
+        <v>1889900</v>
       </c>
       <c r="H58" s="3">
-        <v>2147500</v>
+        <v>2075600</v>
       </c>
       <c r="I58" s="3">
-        <v>1299400</v>
+        <v>1255900</v>
       </c>
       <c r="J58" s="3">
-        <v>825800</v>
+        <v>798100</v>
       </c>
       <c r="K58" s="3">
         <v>1432600</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2707200</v>
+        <v>2616600</v>
       </c>
       <c r="E59" s="3">
-        <v>2863900</v>
+        <v>2768000</v>
       </c>
       <c r="F59" s="3">
-        <v>4990000</v>
+        <v>4823000</v>
       </c>
       <c r="G59" s="3">
-        <v>1596900</v>
+        <v>1543500</v>
       </c>
       <c r="H59" s="3">
-        <v>1455400</v>
+        <v>1406600</v>
       </c>
       <c r="I59" s="3">
-        <v>1285400</v>
+        <v>1242400</v>
       </c>
       <c r="J59" s="3">
-        <v>1241800</v>
+        <v>1200200</v>
       </c>
       <c r="K59" s="3">
         <v>1055900</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6899600</v>
+        <v>6668600</v>
       </c>
       <c r="E60" s="3">
-        <v>7298400</v>
+        <v>7054100</v>
       </c>
       <c r="F60" s="3">
-        <v>7064600</v>
+        <v>6828100</v>
       </c>
       <c r="G60" s="3">
-        <v>4938900</v>
+        <v>4773500</v>
       </c>
       <c r="H60" s="3">
-        <v>4907400</v>
+        <v>4743100</v>
       </c>
       <c r="I60" s="3">
-        <v>4142900</v>
+        <v>4004200</v>
       </c>
       <c r="J60" s="3">
-        <v>3281100</v>
+        <v>3171200</v>
       </c>
       <c r="K60" s="3">
         <v>3316600</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3389300</v>
+        <v>3275800</v>
       </c>
       <c r="E61" s="3">
-        <v>3396900</v>
+        <v>3283200</v>
       </c>
       <c r="F61" s="3">
-        <v>1272200</v>
+        <v>1229600</v>
       </c>
       <c r="G61" s="3">
-        <v>962200</v>
+        <v>930000</v>
       </c>
       <c r="H61" s="3">
-        <v>1426800</v>
+        <v>1379000</v>
       </c>
       <c r="I61" s="3">
-        <v>2019000</v>
+        <v>1951400</v>
       </c>
       <c r="J61" s="3">
-        <v>1469700</v>
+        <v>1420500</v>
       </c>
       <c r="K61" s="3">
         <v>1035200</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1281200</v>
+        <v>1238400</v>
       </c>
       <c r="E62" s="3">
-        <v>1244000</v>
+        <v>1202400</v>
       </c>
       <c r="F62" s="3">
-        <v>2274300</v>
+        <v>2198200</v>
       </c>
       <c r="G62" s="3">
-        <v>1620300</v>
+        <v>1566000</v>
       </c>
       <c r="H62" s="3">
-        <v>1282800</v>
+        <v>1239800</v>
       </c>
       <c r="I62" s="3">
-        <v>1216400</v>
+        <v>1175700</v>
       </c>
       <c r="J62" s="3">
-        <v>1172600</v>
+        <v>1133400</v>
       </c>
       <c r="K62" s="3">
         <v>1278000</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11600600</v>
+        <v>11212200</v>
       </c>
       <c r="E66" s="3">
-        <v>11963000</v>
+        <v>11562500</v>
       </c>
       <c r="F66" s="3">
-        <v>9623000</v>
+        <v>9300900</v>
       </c>
       <c r="G66" s="3">
-        <v>7553000</v>
+        <v>7300200</v>
       </c>
       <c r="H66" s="3">
-        <v>7661400</v>
+        <v>7404900</v>
       </c>
       <c r="I66" s="3">
-        <v>7423600</v>
+        <v>7175000</v>
       </c>
       <c r="J66" s="3">
-        <v>5981800</v>
+        <v>5781600</v>
       </c>
       <c r="K66" s="3">
         <v>5697900</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7246100</v>
+        <v>7003500</v>
       </c>
       <c r="E72" s="3">
-        <v>6696600</v>
+        <v>6472500</v>
       </c>
       <c r="F72" s="3">
-        <v>12899400</v>
+        <v>12467500</v>
       </c>
       <c r="G72" s="3">
-        <v>6982600</v>
+        <v>6748900</v>
       </c>
       <c r="H72" s="3">
-        <v>6733200</v>
+        <v>6507800</v>
       </c>
       <c r="I72" s="3">
-        <v>6319900</v>
+        <v>6108300</v>
       </c>
       <c r="J72" s="3">
-        <v>5988000</v>
+        <v>5787500</v>
       </c>
       <c r="K72" s="3">
         <v>5451700</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10019500</v>
+        <v>9684100</v>
       </c>
       <c r="E76" s="3">
-        <v>8933200</v>
+        <v>8634100</v>
       </c>
       <c r="F76" s="3">
-        <v>6587800</v>
+        <v>6367300</v>
       </c>
       <c r="G76" s="3">
-        <v>5798000</v>
+        <v>5603900</v>
       </c>
       <c r="H76" s="3">
-        <v>6027000</v>
+        <v>5825200</v>
       </c>
       <c r="I76" s="3">
-        <v>5665200</v>
+        <v>5475600</v>
       </c>
       <c r="J76" s="3">
-        <v>5452100</v>
+        <v>5269600</v>
       </c>
       <c r="K76" s="3">
         <v>4963900</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>784500</v>
+        <v>758200</v>
       </c>
       <c r="E81" s="3">
-        <v>902000</v>
+        <v>871800</v>
       </c>
       <c r="F81" s="3">
-        <v>514000</v>
+        <v>496800</v>
       </c>
       <c r="G81" s="3">
-        <v>396900</v>
+        <v>383700</v>
       </c>
       <c r="H81" s="3">
-        <v>564700</v>
+        <v>545800</v>
       </c>
       <c r="I81" s="3">
-        <v>411900</v>
+        <v>398100</v>
       </c>
       <c r="J81" s="3">
-        <v>996800</v>
+        <v>963500</v>
       </c>
       <c r="K81" s="3">
         <v>476500</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1417200</v>
+        <v>1369700</v>
       </c>
       <c r="E83" s="3">
-        <v>1216200</v>
+        <v>1175500</v>
       </c>
       <c r="F83" s="3">
-        <v>1019200</v>
+        <v>985100</v>
       </c>
       <c r="G83" s="3">
-        <v>858600</v>
+        <v>829900</v>
       </c>
       <c r="H83" s="3">
-        <v>732600</v>
+        <v>708000</v>
       </c>
       <c r="I83" s="3">
-        <v>633200</v>
+        <v>612000</v>
       </c>
       <c r="J83" s="3">
-        <v>601100</v>
+        <v>580900</v>
       </c>
       <c r="K83" s="3">
         <v>611700</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1805200</v>
+        <v>1744800</v>
       </c>
       <c r="E89" s="3">
-        <v>1229600</v>
+        <v>1188500</v>
       </c>
       <c r="F89" s="3">
-        <v>1586000</v>
+        <v>1532900</v>
       </c>
       <c r="G89" s="3">
-        <v>1527800</v>
+        <v>1476700</v>
       </c>
       <c r="H89" s="3">
-        <v>963700</v>
+        <v>931400</v>
       </c>
       <c r="I89" s="3">
-        <v>627300</v>
+        <v>606300</v>
       </c>
       <c r="J89" s="3">
-        <v>1100100</v>
+        <v>1063300</v>
       </c>
       <c r="K89" s="3">
         <v>1114000</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1894100</v>
+        <v>-1830700</v>
       </c>
       <c r="E91" s="3">
-        <v>-2001500</v>
+        <v>-1934500</v>
       </c>
       <c r="F91" s="3">
-        <v>-1457800</v>
+        <v>-1409000</v>
       </c>
       <c r="G91" s="3">
-        <v>-1191500</v>
+        <v>-1151600</v>
       </c>
       <c r="H91" s="3">
-        <v>-1192600</v>
+        <v>-1152700</v>
       </c>
       <c r="I91" s="3">
-        <v>-1227100</v>
+        <v>-1186000</v>
       </c>
       <c r="J91" s="3">
-        <v>-1151600</v>
+        <v>-1113100</v>
       </c>
       <c r="K91" s="3">
         <v>-1181000</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1610300</v>
+        <v>-1556400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1934200</v>
+        <v>-1869500</v>
       </c>
       <c r="F94" s="3">
-        <v>-1589800</v>
+        <v>-1536600</v>
       </c>
       <c r="G94" s="3">
-        <v>-288300</v>
+        <v>-278600</v>
       </c>
       <c r="H94" s="3">
-        <v>-963000</v>
+        <v>-930800</v>
       </c>
       <c r="I94" s="3">
-        <v>-1690700</v>
+        <v>-1634100</v>
       </c>
       <c r="J94" s="3">
-        <v>-488500</v>
+        <v>-472200</v>
       </c>
       <c r="K94" s="3">
         <v>-1033300</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-255600</v>
+        <v>-247000</v>
       </c>
       <c r="E96" s="3">
-        <v>-164800</v>
+        <v>-159300</v>
       </c>
       <c r="F96" s="3">
-        <v>-156200</v>
+        <v>-151000</v>
       </c>
       <c r="G96" s="3">
-        <v>-147500</v>
+        <v>-142600</v>
       </c>
       <c r="H96" s="3">
-        <v>-130200</v>
+        <v>-125800</v>
       </c>
       <c r="I96" s="3">
-        <v>-104000</v>
+        <v>-100500</v>
       </c>
       <c r="J96" s="3">
-        <v>-104000</v>
+        <v>-100500</v>
       </c>
       <c r="K96" s="3">
         <v>-101900</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>102700</v>
+        <v>99200</v>
       </c>
       <c r="E100" s="3">
-        <v>781400</v>
+        <v>755300</v>
       </c>
       <c r="F100" s="3">
-        <v>144800</v>
+        <v>140000</v>
       </c>
       <c r="G100" s="3">
-        <v>-836600</v>
+        <v>-808500</v>
       </c>
       <c r="H100" s="3">
-        <v>64800</v>
+        <v>62600</v>
       </c>
       <c r="I100" s="3">
-        <v>756300</v>
+        <v>731000</v>
       </c>
       <c r="J100" s="3">
-        <v>-259400</v>
+        <v>-250700</v>
       </c>
       <c r="K100" s="3">
         <v>215400</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>161600</v>
+        <v>156200</v>
       </c>
       <c r="E101" s="3">
-        <v>328200</v>
+        <v>317200</v>
       </c>
       <c r="F101" s="3">
-        <v>186500</v>
+        <v>180300</v>
       </c>
       <c r="G101" s="3">
-        <v>-103800</v>
+        <v>-100400</v>
       </c>
       <c r="H101" s="3">
         <v>100</v>
       </c>
       <c r="I101" s="3">
-        <v>-41700</v>
+        <v>-40300</v>
       </c>
       <c r="J101" s="3">
-        <v>-43600</v>
+        <v>-42200</v>
       </c>
       <c r="K101" s="3">
         <v>-146400</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>459200</v>
+        <v>443900</v>
       </c>
       <c r="E102" s="3">
-        <v>405000</v>
+        <v>391400</v>
       </c>
       <c r="F102" s="3">
-        <v>327500</v>
+        <v>316500</v>
       </c>
       <c r="G102" s="3">
-        <v>299100</v>
+        <v>289100</v>
       </c>
       <c r="H102" s="3">
-        <v>65600</v>
+        <v>63400</v>
       </c>
       <c r="I102" s="3">
-        <v>-348700</v>
+        <v>-337100</v>
       </c>
       <c r="J102" s="3">
-        <v>308600</v>
+        <v>298300</v>
       </c>
       <c r="K102" s="3">
         <v>149700</v>
